--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nueva carpeta\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETA DE LIQUIDACION chacabamba\TARJETAS-MICROCUENCA CHACABAMBAd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -569,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5109" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5204" uniqueCount="645">
   <si>
     <t>TARJETA DE LIQUIDACION FINANCIERA</t>
   </si>
@@ -2491,6 +2491,21 @@
   </si>
   <si>
     <t>Santos Enrique Choque Florez - Sescuento Judicial de la Planilla del Personal Obrero y/o Contratado, Segun  correspondiente al mes de enero del 2016</t>
+  </si>
+  <si>
+    <t>Santos Enrique Choque Florez  - Descuento Judicial de la Planilla del Personal Obrero y/o Contratado, Segun correspondiente al mes de febrero del 2016</t>
+  </si>
+  <si>
+    <t>Santos Enrique Choque Florez - Descuento Judicial de la Planilla del Personal Obrero y/o Contratado, Pago correspondiente al mes de marzo del2016</t>
+  </si>
+  <si>
+    <t>ojo de un trabajador C.D.</t>
+  </si>
+  <si>
+    <t>Victor Hugo Roman Segovia   -  Planilla del Personal Obrero y/o Contratado, correspondiente al mes de abril del 2016</t>
+  </si>
+  <si>
+    <t>Victor Hugo Roman Segovia   - Descuento Judicial de  la Planilla del Personal Obrero y/o Contratado, según correspondiente al mes de junio</t>
   </si>
 </sst>
 </file>
@@ -3649,19 +3664,22 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3673,11 +3691,14 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3688,22 +3709,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3742,29 +3757,20 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3790,6 +3796,18 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3807,9 +3825,6 @@
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4138,42 +4153,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4193,23 +4208,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4332,38 +4347,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="192" t="s">
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="192" t="s">
+      <c r="F12" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="194" t="s">
+      <c r="G12" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="196" t="s">
+      <c r="H12" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="194" t="s">
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="185" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4373,9 +4388,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="190"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="186"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4397,7 +4412,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="190"/>
+      <c r="O13" s="186"/>
     </row>
     <row r="14" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -4968,14 +4983,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="188"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="189"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5008,42 +5023,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="181" t="s">
+      <c r="A35" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="190"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
+      <c r="N35" s="190"/>
+      <c r="O35" s="190"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="182"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="182"/>
-      <c r="O36" s="182"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="191"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
+      <c r="N36" s="191"/>
+      <c r="O36" s="191"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5166,38 +5181,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192" t="s">
+      <c r="C43" s="193"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="192" t="s">
+      <c r="F43" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="194" t="s">
+      <c r="G43" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="196" t="s">
+      <c r="H43" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="197"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="197"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="194" t="s">
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="184"/>
+      <c r="O43" s="185" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="190"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5207,9 +5222,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="193"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="190"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="186"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5231,17 +5246,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="190"/>
+      <c r="O44" s="186"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="185"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="198"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="198"/>
+      <c r="F45" s="199"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5696,14 +5711,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="186" t="s">
+      <c r="A66" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="187"/>
-      <c r="C66" s="187"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="188"/>
+      <c r="B66" s="188"/>
+      <c r="C66" s="188"/>
+      <c r="D66" s="188"/>
+      <c r="E66" s="188"/>
+      <c r="F66" s="189"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5736,42 +5751,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="181" t="s">
+      <c r="A69" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="181"/>
-      <c r="C69" s="181"/>
-      <c r="D69" s="181"/>
-      <c r="E69" s="181"/>
-      <c r="F69" s="181"/>
-      <c r="G69" s="181"/>
-      <c r="H69" s="181"/>
-      <c r="I69" s="181"/>
-      <c r="J69" s="181"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="181"/>
-      <c r="M69" s="181"/>
-      <c r="N69" s="181"/>
-      <c r="O69" s="181"/>
+      <c r="B69" s="190"/>
+      <c r="C69" s="190"/>
+      <c r="D69" s="190"/>
+      <c r="E69" s="190"/>
+      <c r="F69" s="190"/>
+      <c r="G69" s="190"/>
+      <c r="H69" s="190"/>
+      <c r="I69" s="190"/>
+      <c r="J69" s="190"/>
+      <c r="K69" s="190"/>
+      <c r="L69" s="190"/>
+      <c r="M69" s="190"/>
+      <c r="N69" s="190"/>
+      <c r="O69" s="190"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="182" t="s">
+      <c r="A70" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="182"/>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="182"/>
-      <c r="F70" s="182"/>
-      <c r="G70" s="182"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="182"/>
-      <c r="J70" s="182"/>
-      <c r="K70" s="182"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="182"/>
-      <c r="N70" s="182"/>
-      <c r="O70" s="182"/>
+      <c r="B70" s="191"/>
+      <c r="C70" s="191"/>
+      <c r="D70" s="191"/>
+      <c r="E70" s="191"/>
+      <c r="F70" s="191"/>
+      <c r="G70" s="191"/>
+      <c r="H70" s="191"/>
+      <c r="I70" s="191"/>
+      <c r="J70" s="191"/>
+      <c r="K70" s="191"/>
+      <c r="L70" s="191"/>
+      <c r="M70" s="191"/>
+      <c r="N70" s="191"/>
+      <c r="O70" s="191"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -5894,38 +5909,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="189" t="s">
+      <c r="A77" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="191" t="s">
+      <c r="B77" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="191"/>
-      <c r="D77" s="191"/>
-      <c r="E77" s="192" t="s">
+      <c r="C77" s="193"/>
+      <c r="D77" s="193"/>
+      <c r="E77" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="192" t="s">
+      <c r="F77" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="194" t="s">
+      <c r="G77" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="196" t="s">
+      <c r="H77" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="197"/>
-      <c r="J77" s="197"/>
-      <c r="K77" s="197"/>
-      <c r="L77" s="197"/>
-      <c r="M77" s="197"/>
-      <c r="N77" s="198"/>
-      <c r="O77" s="194" t="s">
+      <c r="I77" s="183"/>
+      <c r="J77" s="183"/>
+      <c r="K77" s="183"/>
+      <c r="L77" s="183"/>
+      <c r="M77" s="183"/>
+      <c r="N77" s="184"/>
+      <c r="O77" s="185" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="190"/>
+      <c r="A78" s="186"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -5935,9 +5950,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="193"/>
-      <c r="F78" s="195"/>
-      <c r="G78" s="190"/>
+      <c r="E78" s="195"/>
+      <c r="F78" s="196"/>
+      <c r="G78" s="186"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -5959,17 +5974,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="190"/>
+      <c r="O78" s="186"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="183" t="s">
+      <c r="A79" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="184"/>
-      <c r="C79" s="184"/>
-      <c r="D79" s="184"/>
-      <c r="E79" s="184"/>
-      <c r="F79" s="185"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="198"/>
+      <c r="E79" s="198"/>
+      <c r="F79" s="199"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6402,14 +6417,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="186" t="s">
+      <c r="A99" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="187"/>
-      <c r="C99" s="187"/>
-      <c r="D99" s="187"/>
-      <c r="E99" s="187"/>
-      <c r="F99" s="188"/>
+      <c r="B99" s="188"/>
+      <c r="C99" s="188"/>
+      <c r="D99" s="188"/>
+      <c r="E99" s="188"/>
+      <c r="F99" s="189"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6495,42 +6510,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="181" t="s">
+      <c r="A105" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="181"/>
-      <c r="C105" s="181"/>
-      <c r="D105" s="181"/>
-      <c r="E105" s="181"/>
-      <c r="F105" s="181"/>
-      <c r="G105" s="181"/>
-      <c r="H105" s="181"/>
-      <c r="I105" s="181"/>
-      <c r="J105" s="181"/>
-      <c r="K105" s="181"/>
-      <c r="L105" s="181"/>
-      <c r="M105" s="181"/>
-      <c r="N105" s="181"/>
-      <c r="O105" s="181"/>
+      <c r="B105" s="190"/>
+      <c r="C105" s="190"/>
+      <c r="D105" s="190"/>
+      <c r="E105" s="190"/>
+      <c r="F105" s="190"/>
+      <c r="G105" s="190"/>
+      <c r="H105" s="190"/>
+      <c r="I105" s="190"/>
+      <c r="J105" s="190"/>
+      <c r="K105" s="190"/>
+      <c r="L105" s="190"/>
+      <c r="M105" s="190"/>
+      <c r="N105" s="190"/>
+      <c r="O105" s="190"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="182" t="s">
+      <c r="A106" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="182"/>
-      <c r="C106" s="182"/>
-      <c r="D106" s="182"/>
-      <c r="E106" s="182"/>
-      <c r="F106" s="182"/>
-      <c r="G106" s="182"/>
-      <c r="H106" s="182"/>
-      <c r="I106" s="182"/>
-      <c r="J106" s="182"/>
-      <c r="K106" s="182"/>
-      <c r="L106" s="182"/>
-      <c r="M106" s="182"/>
-      <c r="N106" s="182"/>
-      <c r="O106" s="182"/>
+      <c r="B106" s="191"/>
+      <c r="C106" s="191"/>
+      <c r="D106" s="191"/>
+      <c r="E106" s="191"/>
+      <c r="F106" s="191"/>
+      <c r="G106" s="191"/>
+      <c r="H106" s="191"/>
+      <c r="I106" s="191"/>
+      <c r="J106" s="191"/>
+      <c r="K106" s="191"/>
+      <c r="L106" s="191"/>
+      <c r="M106" s="191"/>
+      <c r="N106" s="191"/>
+      <c r="O106" s="191"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6550,23 +6565,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="199" t="s">
+      <c r="A108" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="199"/>
-      <c r="C108" s="199"/>
-      <c r="D108" s="199"/>
-      <c r="E108" s="199"/>
-      <c r="F108" s="199"/>
-      <c r="G108" s="199"/>
-      <c r="H108" s="199"/>
-      <c r="I108" s="199"/>
-      <c r="J108" s="199"/>
-      <c r="K108" s="199"/>
-      <c r="L108" s="199"/>
-      <c r="M108" s="199"/>
-      <c r="N108" s="199"/>
-      <c r="O108" s="199"/>
+      <c r="B108" s="181"/>
+      <c r="C108" s="181"/>
+      <c r="D108" s="181"/>
+      <c r="E108" s="181"/>
+      <c r="F108" s="181"/>
+      <c r="G108" s="181"/>
+      <c r="H108" s="181"/>
+      <c r="I108" s="181"/>
+      <c r="J108" s="181"/>
+      <c r="K108" s="181"/>
+      <c r="L108" s="181"/>
+      <c r="M108" s="181"/>
+      <c r="N108" s="181"/>
+      <c r="O108" s="181"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6689,38 +6704,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="189" t="s">
+      <c r="A115" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="191" t="s">
+      <c r="B115" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="191"/>
-      <c r="D115" s="191"/>
-      <c r="E115" s="192" t="s">
+      <c r="C115" s="193"/>
+      <c r="D115" s="193"/>
+      <c r="E115" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="192" t="s">
+      <c r="F115" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="194" t="s">
+      <c r="G115" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="196" t="s">
+      <c r="H115" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="197"/>
-      <c r="J115" s="197"/>
-      <c r="K115" s="197"/>
-      <c r="L115" s="197"/>
-      <c r="M115" s="197"/>
-      <c r="N115" s="198"/>
-      <c r="O115" s="194" t="s">
+      <c r="I115" s="183"/>
+      <c r="J115" s="183"/>
+      <c r="K115" s="183"/>
+      <c r="L115" s="183"/>
+      <c r="M115" s="183"/>
+      <c r="N115" s="184"/>
+      <c r="O115" s="185" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="190"/>
+      <c r="A116" s="186"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6730,9 +6745,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="193"/>
-      <c r="F116" s="195"/>
-      <c r="G116" s="190"/>
+      <c r="E116" s="195"/>
+      <c r="F116" s="196"/>
+      <c r="G116" s="186"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6754,7 +6769,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="190"/>
+      <c r="O116" s="186"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -6883,14 +6898,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="186" t="s">
+      <c r="A122" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="187"/>
-      <c r="C122" s="187"/>
-      <c r="D122" s="187"/>
-      <c r="E122" s="187"/>
-      <c r="F122" s="188"/>
+      <c r="B122" s="188"/>
+      <c r="C122" s="188"/>
+      <c r="D122" s="188"/>
+      <c r="E122" s="188"/>
+      <c r="F122" s="189"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -6933,6 +6948,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
     <mergeCell ref="A108:O108"/>
     <mergeCell ref="H115:N115"/>
     <mergeCell ref="O115:O116"/>
@@ -6949,34 +6992,6 @@
     <mergeCell ref="H77:N77"/>
     <mergeCell ref="O77:O78"/>
     <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -7013,21 +7028,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7137,56 +7152,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="214" t="s">
+      <c r="C9" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="216" t="s">
+      <c r="D9" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="214" t="s">
+      <c r="E9" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="214" t="s">
+      <c r="F9" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="214" t="s">
+      <c r="G9" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="214" t="s">
+      <c r="H9" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="218" t="s">
+      <c r="I9" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="214" t="s">
+      <c r="J9" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="214" t="s">
+      <c r="K9" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="214" t="s">
+      <c r="L9" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="220" t="s">
+      <c r="M9" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="221"/>
+      <c r="N9" s="218"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="213"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="216"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7615,44 +7630,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="224"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="221"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="225"/>
-      <c r="K31" s="226"/>
-      <c r="L31" s="226"/>
-      <c r="M31" s="226"/>
-      <c r="N31" s="227"/>
+      <c r="J31" s="222"/>
+      <c r="K31" s="223"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="224"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="199" t="s">
+      <c r="B35" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="199"/>
-      <c r="L35" s="199"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="199"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7762,56 +7777,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="212" t="s">
+      <c r="B42" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="214" t="s">
+      <c r="C42" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="216" t="s">
+      <c r="D42" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="214" t="s">
+      <c r="E42" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="214" t="s">
+      <c r="F42" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="214" t="s">
+      <c r="G42" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="214" t="s">
+      <c r="H42" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="218" t="s">
+      <c r="I42" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="214" t="s">
+      <c r="J42" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="214" t="s">
+      <c r="K42" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="214" t="s">
+      <c r="L42" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="220" t="s">
+      <c r="M42" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="221"/>
+      <c r="N42" s="218"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="213"/>
-      <c r="C43" s="215"/>
-      <c r="D43" s="217"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="215"/>
-      <c r="G43" s="215"/>
-      <c r="H43" s="215"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="215"/>
-      <c r="K43" s="215"/>
-      <c r="L43" s="215"/>
+      <c r="B43" s="226"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="228"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="214"/>
+      <c r="J43" s="216"/>
+      <c r="K43" s="216"/>
+      <c r="L43" s="216"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -7820,24 +7835,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="228" t="s">
+      <c r="B44" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="229"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="229"/>
-      <c r="H44" s="230"/>
+      <c r="C44" s="230"/>
+      <c r="D44" s="230"/>
+      <c r="E44" s="230"/>
+      <c r="F44" s="230"/>
+      <c r="G44" s="230"/>
+      <c r="H44" s="231"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="231"/>
-      <c r="K44" s="232"/>
-      <c r="L44" s="232"/>
-      <c r="M44" s="232"/>
-      <c r="N44" s="233"/>
+      <c r="J44" s="232"/>
+      <c r="K44" s="233"/>
+      <c r="L44" s="233"/>
+      <c r="M44" s="233"/>
+      <c r="N44" s="234"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8201,44 +8216,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="222" t="s">
+      <c r="B63" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="223"/>
-      <c r="D63" s="223"/>
-      <c r="E63" s="223"/>
-      <c r="F63" s="223"/>
-      <c r="G63" s="223"/>
-      <c r="H63" s="224"/>
+      <c r="C63" s="220"/>
+      <c r="D63" s="220"/>
+      <c r="E63" s="220"/>
+      <c r="F63" s="220"/>
+      <c r="G63" s="220"/>
+      <c r="H63" s="221"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="225"/>
-      <c r="K63" s="226"/>
-      <c r="L63" s="226"/>
-      <c r="M63" s="226"/>
-      <c r="N63" s="227"/>
+      <c r="J63" s="222"/>
+      <c r="K63" s="223"/>
+      <c r="L63" s="223"/>
+      <c r="M63" s="223"/>
+      <c r="N63" s="224"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="199" t="s">
+      <c r="B67" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="199"/>
-      <c r="D67" s="199"/>
-      <c r="E67" s="199"/>
-      <c r="F67" s="199"/>
-      <c r="G67" s="199"/>
-      <c r="H67" s="199"/>
-      <c r="I67" s="199"/>
-      <c r="J67" s="199"/>
-      <c r="K67" s="199"/>
-      <c r="L67" s="199"/>
-      <c r="M67" s="199"/>
-      <c r="N67" s="199"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="181"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="181"/>
+      <c r="H67" s="181"/>
+      <c r="I67" s="181"/>
+      <c r="J67" s="181"/>
+      <c r="K67" s="181"/>
+      <c r="L67" s="181"/>
+      <c r="M67" s="181"/>
+      <c r="N67" s="181"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8348,56 +8363,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="212" t="s">
+      <c r="B74" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="214" t="s">
+      <c r="C74" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="216" t="s">
+      <c r="D74" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="214" t="s">
+      <c r="E74" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="214" t="s">
+      <c r="F74" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="214" t="s">
+      <c r="G74" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="214" t="s">
+      <c r="H74" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="218" t="s">
+      <c r="I74" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="214" t="s">
+      <c r="J74" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="214" t="s">
+      <c r="K74" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="214" t="s">
+      <c r="L74" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="220" t="s">
+      <c r="M74" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="221"/>
+      <c r="N74" s="218"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="213"/>
-      <c r="C75" s="215"/>
-      <c r="D75" s="217"/>
-      <c r="E75" s="215"/>
-      <c r="F75" s="215"/>
-      <c r="G75" s="215"/>
-      <c r="H75" s="215"/>
-      <c r="I75" s="219"/>
-      <c r="J75" s="215"/>
-      <c r="K75" s="215"/>
-      <c r="L75" s="215"/>
+      <c r="B75" s="226"/>
+      <c r="C75" s="216"/>
+      <c r="D75" s="228"/>
+      <c r="E75" s="216"/>
+      <c r="F75" s="216"/>
+      <c r="G75" s="216"/>
+      <c r="H75" s="216"/>
+      <c r="I75" s="214"/>
+      <c r="J75" s="216"/>
+      <c r="K75" s="216"/>
+      <c r="L75" s="216"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8406,24 +8421,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="228" t="s">
+      <c r="B76" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="229"/>
-      <c r="D76" s="229"/>
-      <c r="E76" s="229"/>
-      <c r="F76" s="229"/>
-      <c r="G76" s="229"/>
-      <c r="H76" s="230"/>
+      <c r="C76" s="230"/>
+      <c r="D76" s="230"/>
+      <c r="E76" s="230"/>
+      <c r="F76" s="230"/>
+      <c r="G76" s="230"/>
+      <c r="H76" s="231"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="231"/>
-      <c r="K76" s="232"/>
-      <c r="L76" s="232"/>
-      <c r="M76" s="232"/>
-      <c r="N76" s="233"/>
+      <c r="J76" s="232"/>
+      <c r="K76" s="233"/>
+      <c r="L76" s="233"/>
+      <c r="M76" s="233"/>
+      <c r="N76" s="234"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -8866,44 +8881,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="222" t="s">
+      <c r="B97" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="223"/>
-      <c r="D97" s="223"/>
-      <c r="E97" s="223"/>
-      <c r="F97" s="223"/>
-      <c r="G97" s="223"/>
-      <c r="H97" s="224"/>
+      <c r="C97" s="220"/>
+      <c r="D97" s="220"/>
+      <c r="E97" s="220"/>
+      <c r="F97" s="220"/>
+      <c r="G97" s="220"/>
+      <c r="H97" s="221"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="225"/>
-      <c r="K97" s="226"/>
-      <c r="L97" s="226"/>
-      <c r="M97" s="226"/>
-      <c r="N97" s="227"/>
+      <c r="J97" s="222"/>
+      <c r="K97" s="223"/>
+      <c r="L97" s="223"/>
+      <c r="M97" s="223"/>
+      <c r="N97" s="224"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="199" t="s">
+      <c r="B101" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="199"/>
-      <c r="D101" s="199"/>
-      <c r="E101" s="199"/>
-      <c r="F101" s="199"/>
-      <c r="G101" s="199"/>
-      <c r="H101" s="199"/>
-      <c r="I101" s="199"/>
-      <c r="J101" s="199"/>
-      <c r="K101" s="199"/>
-      <c r="L101" s="199"/>
-      <c r="M101" s="199"/>
-      <c r="N101" s="199"/>
+      <c r="C101" s="181"/>
+      <c r="D101" s="181"/>
+      <c r="E101" s="181"/>
+      <c r="F101" s="181"/>
+      <c r="G101" s="181"/>
+      <c r="H101" s="181"/>
+      <c r="I101" s="181"/>
+      <c r="J101" s="181"/>
+      <c r="K101" s="181"/>
+      <c r="L101" s="181"/>
+      <c r="M101" s="181"/>
+      <c r="N101" s="181"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9013,56 +9028,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="212" t="s">
+      <c r="B108" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="214" t="s">
+      <c r="C108" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="216" t="s">
+      <c r="D108" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="214" t="s">
+      <c r="E108" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="214" t="s">
+      <c r="F108" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="214" t="s">
+      <c r="G108" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="214" t="s">
+      <c r="H108" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="218" t="s">
+      <c r="I108" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="214" t="s">
+      <c r="J108" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="214" t="s">
+      <c r="K108" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="214" t="s">
+      <c r="L108" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="220" t="s">
+      <c r="M108" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="221"/>
+      <c r="N108" s="218"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="213"/>
-      <c r="C109" s="215"/>
-      <c r="D109" s="217"/>
-      <c r="E109" s="215"/>
-      <c r="F109" s="215"/>
-      <c r="G109" s="215"/>
-      <c r="H109" s="215"/>
-      <c r="I109" s="219"/>
-      <c r="J109" s="215"/>
-      <c r="K109" s="215"/>
-      <c r="L109" s="215"/>
+      <c r="B109" s="226"/>
+      <c r="C109" s="216"/>
+      <c r="D109" s="228"/>
+      <c r="E109" s="216"/>
+      <c r="F109" s="216"/>
+      <c r="G109" s="216"/>
+      <c r="H109" s="216"/>
+      <c r="I109" s="214"/>
+      <c r="J109" s="216"/>
+      <c r="K109" s="216"/>
+      <c r="L109" s="216"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9071,24 +9086,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="228" t="s">
+      <c r="B110" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="229"/>
-      <c r="D110" s="229"/>
-      <c r="E110" s="229"/>
-      <c r="F110" s="229"/>
-      <c r="G110" s="229"/>
-      <c r="H110" s="230"/>
+      <c r="C110" s="230"/>
+      <c r="D110" s="230"/>
+      <c r="E110" s="230"/>
+      <c r="F110" s="230"/>
+      <c r="G110" s="230"/>
+      <c r="H110" s="231"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="231"/>
-      <c r="K110" s="232"/>
-      <c r="L110" s="232"/>
-      <c r="M110" s="232"/>
-      <c r="N110" s="233"/>
+      <c r="J110" s="232"/>
+      <c r="K110" s="233"/>
+      <c r="L110" s="233"/>
+      <c r="M110" s="233"/>
+      <c r="N110" s="234"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9458,44 +9473,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="222" t="s">
+      <c r="B130" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="223"/>
-      <c r="D130" s="223"/>
-      <c r="E130" s="223"/>
-      <c r="F130" s="223"/>
-      <c r="G130" s="223"/>
-      <c r="H130" s="224"/>
+      <c r="C130" s="220"/>
+      <c r="D130" s="220"/>
+      <c r="E130" s="220"/>
+      <c r="F130" s="220"/>
+      <c r="G130" s="220"/>
+      <c r="H130" s="221"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="225"/>
-      <c r="K130" s="226"/>
-      <c r="L130" s="226"/>
-      <c r="M130" s="226"/>
-      <c r="N130" s="227"/>
+      <c r="J130" s="222"/>
+      <c r="K130" s="223"/>
+      <c r="L130" s="223"/>
+      <c r="M130" s="223"/>
+      <c r="N130" s="224"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="199" t="s">
+      <c r="B134" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="199"/>
-      <c r="D134" s="199"/>
-      <c r="E134" s="199"/>
-      <c r="F134" s="199"/>
-      <c r="G134" s="199"/>
-      <c r="H134" s="199"/>
-      <c r="I134" s="199"/>
-      <c r="J134" s="199"/>
-      <c r="K134" s="199"/>
-      <c r="L134" s="199"/>
-      <c r="M134" s="199"/>
-      <c r="N134" s="199"/>
+      <c r="C134" s="181"/>
+      <c r="D134" s="181"/>
+      <c r="E134" s="181"/>
+      <c r="F134" s="181"/>
+      <c r="G134" s="181"/>
+      <c r="H134" s="181"/>
+      <c r="I134" s="181"/>
+      <c r="J134" s="181"/>
+      <c r="K134" s="181"/>
+      <c r="L134" s="181"/>
+      <c r="M134" s="181"/>
+      <c r="N134" s="181"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9605,56 +9620,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="212" t="s">
+      <c r="B141" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="214" t="s">
+      <c r="C141" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="216" t="s">
+      <c r="D141" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="214" t="s">
+      <c r="E141" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="214" t="s">
+      <c r="F141" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="214" t="s">
+      <c r="G141" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="214" t="s">
+      <c r="H141" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="218" t="s">
+      <c r="I141" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="214" t="s">
+      <c r="J141" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="214" t="s">
+      <c r="K141" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="214" t="s">
+      <c r="L141" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="220" t="s">
+      <c r="M141" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="221"/>
+      <c r="N141" s="218"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="213"/>
-      <c r="C142" s="215"/>
-      <c r="D142" s="217"/>
-      <c r="E142" s="215"/>
-      <c r="F142" s="215"/>
-      <c r="G142" s="215"/>
-      <c r="H142" s="215"/>
-      <c r="I142" s="219"/>
-      <c r="J142" s="215"/>
-      <c r="K142" s="215"/>
-      <c r="L142" s="215"/>
+      <c r="B142" s="226"/>
+      <c r="C142" s="216"/>
+      <c r="D142" s="228"/>
+      <c r="E142" s="216"/>
+      <c r="F142" s="216"/>
+      <c r="G142" s="216"/>
+      <c r="H142" s="216"/>
+      <c r="I142" s="214"/>
+      <c r="J142" s="216"/>
+      <c r="K142" s="216"/>
+      <c r="L142" s="216"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9663,24 +9678,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="228" t="s">
+      <c r="B143" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="229"/>
-      <c r="D143" s="229"/>
-      <c r="E143" s="229"/>
-      <c r="F143" s="229"/>
-      <c r="G143" s="229"/>
-      <c r="H143" s="230"/>
+      <c r="C143" s="230"/>
+      <c r="D143" s="230"/>
+      <c r="E143" s="230"/>
+      <c r="F143" s="230"/>
+      <c r="G143" s="230"/>
+      <c r="H143" s="231"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="231"/>
-      <c r="K143" s="232"/>
-      <c r="L143" s="232"/>
-      <c r="M143" s="232"/>
-      <c r="N143" s="233"/>
+      <c r="J143" s="232"/>
+      <c r="K143" s="233"/>
+      <c r="L143" s="233"/>
+      <c r="M143" s="233"/>
+      <c r="N143" s="234"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10006,44 +10021,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="222" t="s">
+      <c r="B161" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="223"/>
-      <c r="D161" s="223"/>
-      <c r="E161" s="223"/>
-      <c r="F161" s="223"/>
-      <c r="G161" s="223"/>
-      <c r="H161" s="224"/>
+      <c r="C161" s="220"/>
+      <c r="D161" s="220"/>
+      <c r="E161" s="220"/>
+      <c r="F161" s="220"/>
+      <c r="G161" s="220"/>
+      <c r="H161" s="221"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="225"/>
-      <c r="K161" s="226"/>
-      <c r="L161" s="226"/>
-      <c r="M161" s="226"/>
-      <c r="N161" s="227"/>
+      <c r="J161" s="222"/>
+      <c r="K161" s="223"/>
+      <c r="L161" s="223"/>
+      <c r="M161" s="223"/>
+      <c r="N161" s="224"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="199" t="s">
+      <c r="B165" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="199"/>
-      <c r="D165" s="199"/>
-      <c r="E165" s="199"/>
-      <c r="F165" s="199"/>
-      <c r="G165" s="199"/>
-      <c r="H165" s="199"/>
-      <c r="I165" s="199"/>
-      <c r="J165" s="199"/>
-      <c r="K165" s="199"/>
-      <c r="L165" s="199"/>
-      <c r="M165" s="199"/>
-      <c r="N165" s="199"/>
+      <c r="C165" s="181"/>
+      <c r="D165" s="181"/>
+      <c r="E165" s="181"/>
+      <c r="F165" s="181"/>
+      <c r="G165" s="181"/>
+      <c r="H165" s="181"/>
+      <c r="I165" s="181"/>
+      <c r="J165" s="181"/>
+      <c r="K165" s="181"/>
+      <c r="L165" s="181"/>
+      <c r="M165" s="181"/>
+      <c r="N165" s="181"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10153,56 +10168,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="212" t="s">
+      <c r="B172" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="214" t="s">
+      <c r="C172" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="216" t="s">
+      <c r="D172" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="214" t="s">
+      <c r="E172" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="214" t="s">
+      <c r="F172" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="214" t="s">
+      <c r="G172" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="214" t="s">
+      <c r="H172" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="218" t="s">
+      <c r="I172" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="214" t="s">
+      <c r="J172" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="214" t="s">
+      <c r="K172" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="214" t="s">
+      <c r="L172" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="220" t="s">
+      <c r="M172" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="221"/>
+      <c r="N172" s="218"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="213"/>
-      <c r="C173" s="215"/>
-      <c r="D173" s="217"/>
-      <c r="E173" s="215"/>
-      <c r="F173" s="215"/>
-      <c r="G173" s="215"/>
-      <c r="H173" s="215"/>
-      <c r="I173" s="219"/>
-      <c r="J173" s="215"/>
-      <c r="K173" s="215"/>
-      <c r="L173" s="215"/>
+      <c r="B173" s="226"/>
+      <c r="C173" s="216"/>
+      <c r="D173" s="228"/>
+      <c r="E173" s="216"/>
+      <c r="F173" s="216"/>
+      <c r="G173" s="216"/>
+      <c r="H173" s="216"/>
+      <c r="I173" s="214"/>
+      <c r="J173" s="216"/>
+      <c r="K173" s="216"/>
+      <c r="L173" s="216"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10211,24 +10226,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="228" t="s">
+      <c r="B174" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="229"/>
-      <c r="D174" s="229"/>
-      <c r="E174" s="229"/>
-      <c r="F174" s="229"/>
-      <c r="G174" s="229"/>
-      <c r="H174" s="230"/>
+      <c r="C174" s="230"/>
+      <c r="D174" s="230"/>
+      <c r="E174" s="230"/>
+      <c r="F174" s="230"/>
+      <c r="G174" s="230"/>
+      <c r="H174" s="231"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="231"/>
-      <c r="K174" s="232"/>
-      <c r="L174" s="232"/>
-      <c r="M174" s="232"/>
-      <c r="N174" s="233"/>
+      <c r="J174" s="232"/>
+      <c r="K174" s="233"/>
+      <c r="L174" s="233"/>
+      <c r="M174" s="233"/>
+      <c r="N174" s="234"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10294,31 +10309,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="228" t="s">
+      <c r="B178" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="229"/>
-      <c r="D178" s="229"/>
-      <c r="E178" s="229"/>
-      <c r="F178" s="229"/>
-      <c r="G178" s="229"/>
-      <c r="H178" s="230"/>
+      <c r="C178" s="230"/>
+      <c r="D178" s="230"/>
+      <c r="E178" s="230"/>
+      <c r="F178" s="230"/>
+      <c r="G178" s="230"/>
+      <c r="H178" s="231"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="231"/>
-      <c r="K178" s="232"/>
-      <c r="L178" s="232"/>
-      <c r="M178" s="232"/>
-      <c r="N178" s="233"/>
+      <c r="J178" s="232"/>
+      <c r="K178" s="233"/>
+      <c r="L178" s="233"/>
+      <c r="M178" s="233"/>
+      <c r="N178" s="234"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="234" t="s">
+      <c r="M180" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="234"/>
+      <c r="N180" s="212"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10335,6 +10350,90 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -10352,90 +10451,6 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -11435,46 +11450,46 @@
       <c r="Q1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11496,25 +11511,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11649,13 +11664,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -11682,7 +11697,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26438,34 +26453,34 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
       <c r="D4" s="203"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="204"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26481,19 +26496,19 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="205"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -26592,13 +26607,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="189" t="s">
+      <c r="A14" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="191"/>
+      <c r="C14" s="193"/>
       <c r="D14" s="206"/>
       <c r="E14" s="174" t="s">
         <v>10</v>
@@ -26617,7 +26632,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="190"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -28443,34 +28458,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -28486,19 +28501,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -28597,15 +28612,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="206"/>
-      <c r="E12" s="192" t="s">
+      <c r="E12" s="194" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="162" t="s">
@@ -28624,7 +28639,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -28634,7 +28649,7 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="193"/>
+      <c r="E13" s="195"/>
       <c r="F13" s="163"/>
       <c r="G13" s="164"/>
       <c r="H13" s="157" t="s">
@@ -28875,7 +28890,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L253" sqref="L253"/>
+      <selection pane="bottomLeft" activeCell="N151" sqref="N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29847,34 +29862,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -29890,19 +29905,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30001,13 +30016,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -30026,7 +30041,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -30755,7 +30770,7 @@
       </c>
       <c r="M31" s="165"/>
     </row>
-    <row r="32" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="143">
         <v>19</v>
       </c>
@@ -30828,9 +30843,11 @@
         <v>211</v>
       </c>
       <c r="K33" s="120" t="s">
-        <v>570</v>
-      </c>
-      <c r="L33" s="165"/>
+        <v>640</v>
+      </c>
+      <c r="L33" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M33" s="165"/>
     </row>
     <row r="34" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -30868,7 +30885,9 @@
       <c r="K34" s="120" t="s">
         <v>570</v>
       </c>
-      <c r="L34" s="165"/>
+      <c r="L34" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M34" s="165"/>
     </row>
     <row r="35" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32220,8 +32239,12 @@
       <c r="K69" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L69" s="165"/>
-      <c r="M69" s="165"/>
+      <c r="L69" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M69" s="165" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="70" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="122">
@@ -32258,8 +32281,12 @@
       <c r="K70" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L70" s="165"/>
-      <c r="M70" s="165"/>
+      <c r="L70" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M70" s="165" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="122">
@@ -32296,8 +32323,12 @@
       <c r="K71" s="120" t="s">
         <v>569</v>
       </c>
-      <c r="L71" s="165"/>
-      <c r="M71" s="165"/>
+      <c r="L71" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M71" s="165" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="72" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="143">
@@ -32458,7 +32489,9 @@
       <c r="K75" s="120" t="s">
         <v>567</v>
       </c>
-      <c r="L75" s="165"/>
+      <c r="L75" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M75" s="165"/>
     </row>
     <row r="76" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32496,7 +32529,9 @@
       <c r="K76" s="120" t="s">
         <v>568</v>
       </c>
-      <c r="L76" s="165"/>
+      <c r="L76" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M76" s="165"/>
     </row>
     <row r="77" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32534,7 +32569,9 @@
       <c r="K77" s="120" t="s">
         <v>567</v>
       </c>
-      <c r="L77" s="165"/>
+      <c r="L77" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M77" s="165"/>
     </row>
     <row r="78" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32572,7 +32609,9 @@
       <c r="K78" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L78" s="165"/>
+      <c r="L78" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M78" s="165"/>
     </row>
     <row r="79" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32610,7 +32649,9 @@
       <c r="K79" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L79" s="165"/>
+      <c r="L79" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M79" s="165"/>
     </row>
     <row r="80" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32648,10 +32689,12 @@
       <c r="K80" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="L80" s="165"/>
+      <c r="L80" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M80" s="165"/>
     </row>
-    <row r="81" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="143">
         <v>76</v>
       </c>
@@ -32686,10 +32729,12 @@
       <c r="K81" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L81" s="165"/>
+      <c r="L81" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M81" s="165"/>
     </row>
-    <row r="82" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="122">
         <v>77</v>
       </c>
@@ -32724,10 +32769,12 @@
       <c r="K82" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L82" s="165"/>
+      <c r="L82" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M82" s="165"/>
     </row>
-    <row r="83" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="122">
         <v>80</v>
       </c>
@@ -32762,10 +32809,12 @@
       <c r="K83" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L83" s="165"/>
+      <c r="L83" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M83" s="165"/>
     </row>
-    <row r="84" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="122">
         <v>81</v>
       </c>
@@ -32800,10 +32849,17 @@
       <c r="K84" s="120" t="s">
         <v>566</v>
       </c>
-      <c r="L84" s="165"/>
-      <c r="M84" s="165"/>
-    </row>
-    <row r="85" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M84" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="126" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="143">
         <v>82</v>
       </c>
@@ -32838,10 +32894,14 @@
       <c r="K85" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L85" s="165"/>
-      <c r="M85" s="165"/>
-    </row>
-    <row r="86" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M85" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="122">
         <v>83</v>
       </c>
@@ -32874,12 +32934,19 @@
         <v>211</v>
       </c>
       <c r="K86" s="120" t="s">
-        <v>565</v>
-      </c>
-      <c r="L86" s="165"/>
-      <c r="M86" s="165"/>
-    </row>
-    <row r="87" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="L86" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M86" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="126" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="122">
         <v>84</v>
       </c>
@@ -32914,10 +32981,14 @@
       <c r="K87" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L87" s="165"/>
-      <c r="M87" s="165"/>
-    </row>
-    <row r="88" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L87" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M87" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="143">
         <v>85</v>
       </c>
@@ -32952,10 +33023,14 @@
       <c r="K88" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L88" s="165"/>
-      <c r="M88" s="165"/>
-    </row>
-    <row r="89" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M88" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="122">
         <v>86</v>
       </c>
@@ -32990,10 +33065,17 @@
       <c r="K89" s="120" t="s">
         <v>565</v>
       </c>
-      <c r="L89" s="165"/>
-      <c r="M89" s="165"/>
-    </row>
-    <row r="90" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M89" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="126" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="143">
         <v>88</v>
       </c>
@@ -33035,7 +33117,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="122">
         <v>89</v>
       </c>
@@ -33073,7 +33155,7 @@
       <c r="L91" s="165"/>
       <c r="M91" s="165"/>
     </row>
-    <row r="92" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="122">
         <v>90</v>
       </c>
@@ -33115,7 +33197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="143">
         <v>91</v>
       </c>
@@ -33157,7 +33239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
         <v>92</v>
       </c>
@@ -33199,7 +33281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="122">
         <v>95</v>
       </c>
@@ -33237,7 +33319,7 @@
       <c r="L95" s="165"/>
       <c r="M95" s="165"/>
     </row>
-    <row r="96" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="122">
         <v>98</v>
       </c>
@@ -33275,7 +33357,7 @@
       <c r="L96" s="165"/>
       <c r="M96" s="165"/>
     </row>
-    <row r="97" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="122">
         <v>99</v>
       </c>
@@ -33317,7 +33399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="143">
         <v>100</v>
       </c>
@@ -33352,10 +33434,15 @@
       <c r="K98" s="120" t="s">
         <v>564</v>
       </c>
-      <c r="L98" s="165"/>
+      <c r="L98" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M98" s="165"/>
-    </row>
-    <row r="99" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N98" s="126" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="122">
         <v>101</v>
       </c>
@@ -33390,10 +33477,15 @@
       <c r="K99" s="120" t="s">
         <v>563</v>
       </c>
-      <c r="L99" s="165"/>
+      <c r="L99" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M99" s="165"/>
-    </row>
-    <row r="100" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N99" s="126" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="122">
         <v>102</v>
       </c>
@@ -33428,10 +33520,12 @@
       <c r="K100" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L100" s="165"/>
+      <c r="L100" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M100" s="165"/>
     </row>
-    <row r="101" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="143">
         <v>103</v>
       </c>
@@ -33466,10 +33560,12 @@
       <c r="K101" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L101" s="165"/>
+      <c r="L101" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M101" s="165"/>
     </row>
-    <row r="102" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="122">
         <v>104</v>
       </c>
@@ -33504,10 +33600,12 @@
       <c r="K102" s="120" t="s">
         <v>562</v>
       </c>
-      <c r="L102" s="165"/>
+      <c r="L102" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M102" s="165"/>
     </row>
-    <row r="103" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="122">
         <v>105</v>
       </c>
@@ -33542,10 +33640,12 @@
       <c r="K103" s="120" t="s">
         <v>562</v>
       </c>
-      <c r="L103" s="165"/>
+      <c r="L103" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M103" s="165"/>
     </row>
-    <row r="104" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="143">
         <v>106</v>
       </c>
@@ -33580,10 +33680,12 @@
       <c r="K104" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L104" s="165"/>
+      <c r="L104" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M104" s="165"/>
     </row>
-    <row r="105" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="122">
         <v>107</v>
       </c>
@@ -33618,10 +33720,12 @@
       <c r="K105" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L105" s="165"/>
+      <c r="L105" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M105" s="165"/>
     </row>
-    <row r="106" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="143">
         <v>112</v>
       </c>
@@ -33654,12 +33758,19 @@
         <v>211</v>
       </c>
       <c r="K106" s="120" t="s">
-        <v>558</v>
-      </c>
-      <c r="L106" s="165"/>
-      <c r="M106" s="165"/>
-    </row>
-    <row r="107" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="L106" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M106" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="N106" s="126" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="122">
         <v>113</v>
       </c>
@@ -33694,10 +33805,14 @@
       <c r="K107" s="120" t="s">
         <v>557</v>
       </c>
-      <c r="L107" s="165"/>
-      <c r="M107" s="165"/>
-    </row>
-    <row r="108" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L107" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M107" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="122">
         <v>114</v>
       </c>
@@ -33732,10 +33847,14 @@
       <c r="K108" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L108" s="165"/>
-      <c r="M108" s="165"/>
-    </row>
-    <row r="109" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L108" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M108" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="143">
         <v>115</v>
       </c>
@@ -33770,10 +33889,14 @@
       <c r="K109" s="120" t="s">
         <v>556</v>
       </c>
-      <c r="L109" s="165"/>
-      <c r="M109" s="165"/>
-    </row>
-    <row r="110" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L109" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M109" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="122">
         <v>116</v>
       </c>
@@ -33808,10 +33931,14 @@
       <c r="K110" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L110" s="165"/>
-      <c r="M110" s="165"/>
-    </row>
-    <row r="111" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M110" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="122">
         <v>117</v>
       </c>
@@ -33846,10 +33973,14 @@
       <c r="K111" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L111" s="165"/>
-      <c r="M111" s="165"/>
-    </row>
-    <row r="112" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L111" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M111" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="143">
         <v>118</v>
       </c>
@@ -34410,8 +34541,12 @@
       <c r="K126" s="120" t="s">
         <v>555</v>
       </c>
-      <c r="L126" s="165"/>
-      <c r="M126" s="165"/>
+      <c r="L126" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M126" s="165" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="127" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="143">
@@ -34448,8 +34583,12 @@
       <c r="K127" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L127" s="165"/>
-      <c r="M127" s="165"/>
+      <c r="L127" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M127" s="165" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="128" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="122">
@@ -34486,10 +34625,14 @@
       <c r="K128" s="120" t="s">
         <v>554</v>
       </c>
-      <c r="L128" s="165"/>
-      <c r="M128" s="165"/>
-    </row>
-    <row r="129" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L128" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M128" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="122">
         <v>138</v>
       </c>
@@ -34524,10 +34667,14 @@
       <c r="K129" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L129" s="165"/>
-      <c r="M129" s="165"/>
-    </row>
-    <row r="130" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L129" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M129" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="143">
         <v>139</v>
       </c>
@@ -34562,10 +34709,14 @@
       <c r="K130" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L130" s="165"/>
-      <c r="M130" s="165"/>
-    </row>
-    <row r="131" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L130" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M130" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="122">
         <v>140</v>
       </c>
@@ -34600,10 +34751,17 @@
       <c r="K131" s="120" t="s">
         <v>553</v>
       </c>
-      <c r="L131" s="165"/>
-      <c r="M131" s="165"/>
-    </row>
-    <row r="132" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L131" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M131" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="N131" s="126" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="122">
         <v>141</v>
       </c>
@@ -34638,10 +34796,12 @@
       <c r="K132" s="120" t="s">
         <v>552</v>
       </c>
-      <c r="L132" s="165"/>
+      <c r="L132" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M132" s="165"/>
     </row>
-    <row r="133" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="143">
         <v>142</v>
       </c>
@@ -34676,10 +34836,12 @@
       <c r="K133" s="120" t="s">
         <v>552</v>
       </c>
-      <c r="L133" s="165"/>
+      <c r="L133" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M133" s="165"/>
     </row>
-    <row r="134" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="122">
         <v>143</v>
       </c>
@@ -34714,10 +34876,12 @@
       <c r="K134" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L134" s="165"/>
+      <c r="L134" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M134" s="165"/>
     </row>
-    <row r="135" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="122">
         <v>144</v>
       </c>
@@ -34752,10 +34916,12 @@
       <c r="K135" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L135" s="165"/>
+      <c r="L135" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M135" s="165"/>
     </row>
-    <row r="136" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="143">
         <v>145</v>
       </c>
@@ -34790,10 +34956,12 @@
       <c r="K136" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L136" s="165"/>
+      <c r="L136" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M136" s="165"/>
     </row>
-    <row r="137" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="122">
         <v>146</v>
       </c>
@@ -34828,10 +34996,12 @@
       <c r="K137" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="L137" s="165"/>
+      <c r="L137" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M137" s="165"/>
     </row>
-    <row r="138" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="122">
         <v>147</v>
       </c>
@@ -34866,10 +35036,12 @@
       <c r="K138" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L138" s="165"/>
+      <c r="L138" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M138" s="165"/>
     </row>
-    <row r="139" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="122">
         <v>152</v>
       </c>
@@ -34907,7 +35079,7 @@
       <c r="L139" s="165"/>
       <c r="M139" s="165"/>
     </row>
-    <row r="140" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="122">
         <v>153</v>
       </c>
@@ -34949,7 +35121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="143">
         <v>154</v>
       </c>
@@ -34987,7 +35159,7 @@
       <c r="L141" s="165"/>
       <c r="M141" s="165"/>
     </row>
-    <row r="142" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="122">
         <v>156</v>
       </c>
@@ -35022,10 +35194,12 @@
       <c r="K142" s="120" t="s">
         <v>540</v>
       </c>
-      <c r="L142" s="165"/>
+      <c r="L142" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M142" s="165"/>
     </row>
-    <row r="143" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="143">
         <v>157</v>
       </c>
@@ -35060,10 +35234,12 @@
       <c r="K143" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L143" s="165"/>
+      <c r="L143" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M143" s="165"/>
     </row>
-    <row r="144" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="122">
         <v>158</v>
       </c>
@@ -35098,10 +35274,12 @@
       <c r="K144" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L144" s="165"/>
+      <c r="L144" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M144" s="165"/>
     </row>
-    <row r="145" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="122">
         <v>159</v>
       </c>
@@ -35136,10 +35314,12 @@
       <c r="K145" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="L145" s="165"/>
+      <c r="L145" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M145" s="165"/>
     </row>
-    <row r="146" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="143">
         <v>160</v>
       </c>
@@ -35174,10 +35354,12 @@
       <c r="K146" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="L146" s="165"/>
+      <c r="L146" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M146" s="165"/>
     </row>
-    <row r="147" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="122">
         <v>161</v>
       </c>
@@ -35212,10 +35394,12 @@
       <c r="K147" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L147" s="165"/>
+      <c r="L147" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M147" s="165"/>
     </row>
-    <row r="148" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="122">
         <v>162</v>
       </c>
@@ -35250,10 +35434,12 @@
       <c r="K148" s="120" t="s">
         <v>540</v>
       </c>
-      <c r="L148" s="165"/>
+      <c r="L148" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M148" s="165"/>
     </row>
-    <row r="149" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="122">
         <v>168</v>
       </c>
@@ -35291,7 +35477,7 @@
       <c r="L149" s="165"/>
       <c r="M149" s="165"/>
     </row>
-    <row r="150" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="143">
         <v>169</v>
       </c>
@@ -35326,10 +35512,17 @@
       <c r="K150" s="120" t="s">
         <v>538</v>
       </c>
-      <c r="L150" s="165"/>
-      <c r="M150" s="165"/>
-    </row>
-    <row r="151" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L150" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M150" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="N150" s="126" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="122">
         <v>170</v>
       </c>
@@ -35364,10 +35557,14 @@
       <c r="K151" s="120" t="s">
         <v>539</v>
       </c>
-      <c r="L151" s="165"/>
-      <c r="M151" s="165"/>
-    </row>
-    <row r="152" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L151" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M151" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="122">
         <v>171</v>
       </c>
@@ -35402,10 +35599,14 @@
       <c r="K152" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L152" s="165"/>
-      <c r="M152" s="165"/>
-    </row>
-    <row r="153" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L152" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M152" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="143">
         <v>172</v>
       </c>
@@ -35438,12 +35639,16 @@
         <v>211</v>
       </c>
       <c r="K153" s="120" t="s">
-        <v>538</v>
-      </c>
-      <c r="L153" s="165"/>
-      <c r="M153" s="165"/>
-    </row>
-    <row r="154" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="L153" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M153" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="122">
         <v>173</v>
       </c>
@@ -35478,10 +35683,14 @@
       <c r="K154" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L154" s="165"/>
-      <c r="M154" s="165"/>
-    </row>
-    <row r="155" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L154" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M154" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="122">
         <v>174</v>
       </c>
@@ -35516,10 +35725,14 @@
       <c r="K155" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L155" s="165"/>
-      <c r="M155" s="165"/>
-    </row>
-    <row r="156" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L155" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M155" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="122">
         <v>179</v>
       </c>
@@ -35561,7 +35774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="122">
         <v>180</v>
       </c>
@@ -35597,7 +35810,7 @@
       </c>
       <c r="M157" s="165"/>
     </row>
-    <row r="158" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="143">
         <v>181</v>
       </c>
@@ -35633,7 +35846,7 @@
       </c>
       <c r="M158" s="165"/>
     </row>
-    <row r="159" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="122">
         <v>182</v>
       </c>
@@ -35669,7 +35882,7 @@
       </c>
       <c r="M159" s="165"/>
     </row>
-    <row r="160" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="122">
         <v>183</v>
       </c>
@@ -35707,7 +35920,7 @@
       <c r="L160" s="165"/>
       <c r="M160" s="165"/>
     </row>
-    <row r="161" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="143">
         <v>184</v>
       </c>
@@ -35745,7 +35958,7 @@
       <c r="L161" s="165"/>
       <c r="M161" s="165"/>
     </row>
-    <row r="162" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="122">
         <v>185</v>
       </c>
@@ -35783,7 +35996,7 @@
       <c r="L162" s="165"/>
       <c r="M162" s="165"/>
     </row>
-    <row r="163" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="122">
         <v>186</v>
       </c>
@@ -35821,7 +36034,7 @@
       <c r="L163" s="165"/>
       <c r="M163" s="165"/>
     </row>
-    <row r="164" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="143">
         <v>187</v>
       </c>
@@ -35859,7 +36072,7 @@
       <c r="L164" s="165"/>
       <c r="M164" s="165"/>
     </row>
-    <row r="165" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="122">
         <v>188</v>
       </c>
@@ -35897,7 +36110,7 @@
       <c r="L165" s="165"/>
       <c r="M165" s="165"/>
     </row>
-    <row r="166" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="122">
         <v>189</v>
       </c>
@@ -35935,7 +36148,7 @@
       <c r="L166" s="165"/>
       <c r="M166" s="165"/>
     </row>
-    <row r="167" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="143">
         <v>190</v>
       </c>
@@ -39201,9 +39414,9 @@
     </row>
   </sheetData>
   <autoFilter ref="E13:K252">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="5189"/>
+        <filter val="5658"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -40199,34 +40412,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -40242,19 +40455,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -40353,13 +40566,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -40378,7 +40591,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -43737,34 +43950,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -43780,19 +43993,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -43891,13 +44104,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -43916,7 +44129,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -47755,34 +47968,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -47798,19 +48011,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -47909,13 +48122,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
+      <c r="C12" s="193"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -47934,7 +48147,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -51200,21 +51413,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -51232,21 +51445,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -51356,56 +51569,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="216" t="s">
+      <c r="D10" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="214" t="s">
+      <c r="E10" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="214" t="s">
+      <c r="F10" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="214" t="s">
+      <c r="G10" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="214" t="s">
+      <c r="H10" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="218" t="s">
+      <c r="I10" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="214" t="s">
+      <c r="J10" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="214" t="s">
+      <c r="K10" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="214" t="s">
+      <c r="L10" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="220" t="s">
+      <c r="M10" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="221"/>
+      <c r="N10" s="218"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="213"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="214"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="216"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -51540,31 +51753,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="224"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="221"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="225"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
-      <c r="N18" s="227"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="224"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="234" t="s">
+      <c r="M20" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="234"/>
+      <c r="N20" s="212"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -51586,21 +51799,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="199" t="s">
+      <c r="B23" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="199"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -51618,21 +51831,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="199" t="s">
+      <c r="B25" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="199"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -51742,56 +51955,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="214" t="s">
+      <c r="C31" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="216" t="s">
+      <c r="D31" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="214" t="s">
+      <c r="E31" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="214" t="s">
+      <c r="F31" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="214" t="s">
+      <c r="G31" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="214" t="s">
+      <c r="H31" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="218" t="s">
+      <c r="I31" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="214" t="s">
+      <c r="J31" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="214" t="s">
+      <c r="K31" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="214" t="s">
+      <c r="L31" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="220" t="s">
+      <c r="M31" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="221"/>
+      <c r="N31" s="218"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="213"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="215"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="215"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="216"/>
+      <c r="L32" s="216"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -51885,31 +52098,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="228" t="s">
+      <c r="B38" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="230"/>
+      <c r="C38" s="230"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="230"/>
+      <c r="F38" s="230"/>
+      <c r="G38" s="230"/>
+      <c r="H38" s="231"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="231"/>
-      <c r="K38" s="232"/>
-      <c r="L38" s="232"/>
-      <c r="M38" s="232"/>
-      <c r="N38" s="233"/>
+      <c r="J38" s="232"/>
+      <c r="K38" s="233"/>
+      <c r="L38" s="233"/>
+      <c r="M38" s="233"/>
+      <c r="N38" s="234"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="234" t="s">
+      <c r="M40" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="234"/>
+      <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -51931,21 +52144,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="199" t="s">
+      <c r="B43" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="199"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="199"/>
-      <c r="F43" s="199"/>
-      <c r="G43" s="199"/>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="199"/>
-      <c r="K43" s="199"/>
-      <c r="L43" s="199"/>
-      <c r="M43" s="199"/>
-      <c r="N43" s="199"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="181"/>
+      <c r="J43" s="181"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="181"/>
+      <c r="M43" s="181"/>
+      <c r="N43" s="181"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -51963,21 +52176,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="199" t="s">
+      <c r="B45" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="199"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="199"/>
-      <c r="F45" s="199"/>
-      <c r="G45" s="199"/>
-      <c r="H45" s="199"/>
-      <c r="I45" s="199"/>
-      <c r="J45" s="199"/>
-      <c r="K45" s="199"/>
-      <c r="L45" s="199"/>
-      <c r="M45" s="199"/>
-      <c r="N45" s="199"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="181"/>
+      <c r="H45" s="181"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="181"/>
+      <c r="N45" s="181"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -52087,56 +52300,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="212" t="s">
+      <c r="B51" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="214" t="s">
+      <c r="C51" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="216" t="s">
+      <c r="D51" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="214" t="s">
+      <c r="E51" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="214" t="s">
+      <c r="F51" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="214" t="s">
+      <c r="G51" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="214" t="s">
+      <c r="H51" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="218" t="s">
+      <c r="I51" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="214" t="s">
+      <c r="J51" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="214" t="s">
+      <c r="K51" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="214" t="s">
+      <c r="L51" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="220" t="s">
+      <c r="M51" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="221"/>
+      <c r="N51" s="218"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="213"/>
-      <c r="C52" s="215"/>
-      <c r="D52" s="217"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="215"/>
-      <c r="G52" s="215"/>
-      <c r="H52" s="215"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="215"/>
-      <c r="K52" s="215"/>
-      <c r="L52" s="215"/>
+      <c r="B52" s="226"/>
+      <c r="C52" s="216"/>
+      <c r="D52" s="228"/>
+      <c r="E52" s="216"/>
+      <c r="F52" s="216"/>
+      <c r="G52" s="216"/>
+      <c r="H52" s="216"/>
+      <c r="I52" s="214"/>
+      <c r="J52" s="216"/>
+      <c r="K52" s="216"/>
+      <c r="L52" s="216"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -52213,31 +52426,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="228" t="s">
+      <c r="B57" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="229"/>
-      <c r="D57" s="229"/>
-      <c r="E57" s="229"/>
-      <c r="F57" s="229"/>
-      <c r="G57" s="229"/>
-      <c r="H57" s="230"/>
+      <c r="C57" s="230"/>
+      <c r="D57" s="230"/>
+      <c r="E57" s="230"/>
+      <c r="F57" s="230"/>
+      <c r="G57" s="230"/>
+      <c r="H57" s="231"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="231"/>
-      <c r="K57" s="232"/>
-      <c r="L57" s="232"/>
-      <c r="M57" s="232"/>
-      <c r="N57" s="233"/>
+      <c r="J57" s="232"/>
+      <c r="K57" s="233"/>
+      <c r="L57" s="233"/>
+      <c r="M57" s="233"/>
+      <c r="N57" s="234"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="234" t="s">
+      <c r="M59" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="234"/>
+      <c r="N59" s="212"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -52267,21 +52480,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="199" t="s">
+      <c r="B64" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="199"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="199"/>
-      <c r="F64" s="199"/>
-      <c r="G64" s="199"/>
-      <c r="H64" s="199"/>
-      <c r="I64" s="199"/>
-      <c r="J64" s="199"/>
-      <c r="K64" s="199"/>
-      <c r="L64" s="199"/>
-      <c r="M64" s="199"/>
-      <c r="N64" s="199"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="181"/>
+      <c r="G64" s="181"/>
+      <c r="H64" s="181"/>
+      <c r="I64" s="181"/>
+      <c r="J64" s="181"/>
+      <c r="K64" s="181"/>
+      <c r="L64" s="181"/>
+      <c r="M64" s="181"/>
+      <c r="N64" s="181"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -52299,21 +52512,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="199" t="s">
+      <c r="B66" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="199"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="199"/>
-      <c r="F66" s="199"/>
-      <c r="G66" s="199"/>
-      <c r="H66" s="199"/>
-      <c r="I66" s="199"/>
-      <c r="J66" s="199"/>
-      <c r="K66" s="199"/>
-      <c r="L66" s="199"/>
-      <c r="M66" s="199"/>
-      <c r="N66" s="199"/>
+      <c r="C66" s="181"/>
+      <c r="D66" s="181"/>
+      <c r="E66" s="181"/>
+      <c r="F66" s="181"/>
+      <c r="G66" s="181"/>
+      <c r="H66" s="181"/>
+      <c r="I66" s="181"/>
+      <c r="J66" s="181"/>
+      <c r="K66" s="181"/>
+      <c r="L66" s="181"/>
+      <c r="M66" s="181"/>
+      <c r="N66" s="181"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -52423,56 +52636,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="212" t="s">
+      <c r="B72" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="214" t="s">
+      <c r="C72" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="216" t="s">
+      <c r="D72" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="214" t="s">
+      <c r="E72" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="214" t="s">
+      <c r="F72" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="214" t="s">
+      <c r="G72" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="214" t="s">
+      <c r="H72" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="218" t="s">
+      <c r="I72" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="214" t="s">
+      <c r="J72" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="214" t="s">
+      <c r="K72" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="214" t="s">
+      <c r="L72" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="220" t="s">
+      <c r="M72" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="221"/>
+      <c r="N72" s="218"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="213"/>
-      <c r="C73" s="215"/>
-      <c r="D73" s="217"/>
-      <c r="E73" s="215"/>
-      <c r="F73" s="215"/>
-      <c r="G73" s="215"/>
-      <c r="H73" s="215"/>
-      <c r="I73" s="219"/>
-      <c r="J73" s="215"/>
-      <c r="K73" s="215"/>
-      <c r="L73" s="215"/>
+      <c r="B73" s="226"/>
+      <c r="C73" s="216"/>
+      <c r="D73" s="228"/>
+      <c r="E73" s="216"/>
+      <c r="F73" s="216"/>
+      <c r="G73" s="216"/>
+      <c r="H73" s="216"/>
+      <c r="I73" s="214"/>
+      <c r="J73" s="216"/>
+      <c r="K73" s="216"/>
+      <c r="L73" s="216"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -52532,31 +52745,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="222" t="s">
+      <c r="B77" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="223"/>
-      <c r="D77" s="223"/>
-      <c r="E77" s="223"/>
-      <c r="F77" s="223"/>
-      <c r="G77" s="223"/>
-      <c r="H77" s="224"/>
+      <c r="C77" s="220"/>
+      <c r="D77" s="220"/>
+      <c r="E77" s="220"/>
+      <c r="F77" s="220"/>
+      <c r="G77" s="220"/>
+      <c r="H77" s="221"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="225"/>
-      <c r="K77" s="226"/>
-      <c r="L77" s="226"/>
-      <c r="M77" s="226"/>
-      <c r="N77" s="227"/>
+      <c r="J77" s="222"/>
+      <c r="K77" s="223"/>
+      <c r="L77" s="223"/>
+      <c r="M77" s="223"/>
+      <c r="N77" s="224"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="234" t="s">
+      <c r="M79" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="234"/>
+      <c r="N79" s="212"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -52601,12 +52814,52 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
@@ -52623,52 +52876,12 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
@@ -569,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5204" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5288" uniqueCount="645">
   <si>
     <t>TARJETA DE LIQUIDACION FINANCIERA</t>
   </si>
@@ -3664,22 +3664,19 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3691,14 +3688,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3709,16 +3703,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3757,20 +3757,29 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3796,18 +3805,6 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3825,6 +3822,9 @@
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4153,42 +4153,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4208,23 +4208,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4347,38 +4347,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194" t="s">
+      <c r="C12" s="191"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="194" t="s">
+      <c r="F12" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="185" t="s">
+      <c r="G12" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="182" t="s">
+      <c r="H12" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="185" t="s">
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="194" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4388,9 +4388,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="186"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="190"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="186"/>
+      <c r="O13" s="190"/>
     </row>
     <row r="14" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -4983,14 +4983,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="189"/>
+      <c r="B32" s="187"/>
+      <c r="C32" s="187"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="188"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5023,42 +5023,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="190" t="s">
+      <c r="A35" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="190"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="190"/>
-      <c r="O35" s="190"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="191" t="s">
+      <c r="A36" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="191"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="191"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="191"/>
-      <c r="K36" s="191"/>
-      <c r="L36" s="191"/>
-      <c r="M36" s="191"/>
-      <c r="N36" s="191"/>
-      <c r="O36" s="191"/>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="182"/>
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="182"/>
+      <c r="O36" s="182"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5181,38 +5181,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="192" t="s">
+      <c r="A43" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="193" t="s">
+      <c r="B43" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="194" t="s">
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="194" t="s">
+      <c r="F43" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="185" t="s">
+      <c r="G43" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="182" t="s">
+      <c r="H43" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="183"/>
-      <c r="J43" s="183"/>
-      <c r="K43" s="183"/>
-      <c r="L43" s="183"/>
-      <c r="M43" s="183"/>
-      <c r="N43" s="184"/>
-      <c r="O43" s="185" t="s">
+      <c r="I43" s="197"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="197"/>
+      <c r="L43" s="197"/>
+      <c r="M43" s="197"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="194" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="186"/>
+      <c r="A44" s="190"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5222,9 +5222,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="195"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="186"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="190"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5246,17 +5246,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="186"/>
+      <c r="O44" s="190"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="197" t="s">
+      <c r="A45" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="198"/>
-      <c r="C45" s="198"/>
-      <c r="D45" s="198"/>
-      <c r="E45" s="198"/>
-      <c r="F45" s="199"/>
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="185"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5711,14 +5711,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="187" t="s">
+      <c r="A66" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="188"/>
-      <c r="C66" s="188"/>
-      <c r="D66" s="188"/>
-      <c r="E66" s="188"/>
-      <c r="F66" s="189"/>
+      <c r="B66" s="187"/>
+      <c r="C66" s="187"/>
+      <c r="D66" s="187"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="188"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5751,42 +5751,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="190" t="s">
+      <c r="A69" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="190"/>
-      <c r="C69" s="190"/>
-      <c r="D69" s="190"/>
-      <c r="E69" s="190"/>
-      <c r="F69" s="190"/>
-      <c r="G69" s="190"/>
-      <c r="H69" s="190"/>
-      <c r="I69" s="190"/>
-      <c r="J69" s="190"/>
-      <c r="K69" s="190"/>
-      <c r="L69" s="190"/>
-      <c r="M69" s="190"/>
-      <c r="N69" s="190"/>
-      <c r="O69" s="190"/>
+      <c r="B69" s="181"/>
+      <c r="C69" s="181"/>
+      <c r="D69" s="181"/>
+      <c r="E69" s="181"/>
+      <c r="F69" s="181"/>
+      <c r="G69" s="181"/>
+      <c r="H69" s="181"/>
+      <c r="I69" s="181"/>
+      <c r="J69" s="181"/>
+      <c r="K69" s="181"/>
+      <c r="L69" s="181"/>
+      <c r="M69" s="181"/>
+      <c r="N69" s="181"/>
+      <c r="O69" s="181"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="191" t="s">
+      <c r="A70" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="191"/>
-      <c r="C70" s="191"/>
-      <c r="D70" s="191"/>
-      <c r="E70" s="191"/>
-      <c r="F70" s="191"/>
-      <c r="G70" s="191"/>
-      <c r="H70" s="191"/>
-      <c r="I70" s="191"/>
-      <c r="J70" s="191"/>
-      <c r="K70" s="191"/>
-      <c r="L70" s="191"/>
-      <c r="M70" s="191"/>
-      <c r="N70" s="191"/>
-      <c r="O70" s="191"/>
+      <c r="B70" s="182"/>
+      <c r="C70" s="182"/>
+      <c r="D70" s="182"/>
+      <c r="E70" s="182"/>
+      <c r="F70" s="182"/>
+      <c r="G70" s="182"/>
+      <c r="H70" s="182"/>
+      <c r="I70" s="182"/>
+      <c r="J70" s="182"/>
+      <c r="K70" s="182"/>
+      <c r="L70" s="182"/>
+      <c r="M70" s="182"/>
+      <c r="N70" s="182"/>
+      <c r="O70" s="182"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -5909,38 +5909,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="192" t="s">
+      <c r="A77" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="193" t="s">
+      <c r="B77" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="193"/>
-      <c r="D77" s="193"/>
-      <c r="E77" s="194" t="s">
+      <c r="C77" s="191"/>
+      <c r="D77" s="191"/>
+      <c r="E77" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="194" t="s">
+      <c r="F77" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="185" t="s">
+      <c r="G77" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="182" t="s">
+      <c r="H77" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="183"/>
-      <c r="J77" s="183"/>
-      <c r="K77" s="183"/>
-      <c r="L77" s="183"/>
-      <c r="M77" s="183"/>
-      <c r="N77" s="184"/>
-      <c r="O77" s="185" t="s">
+      <c r="I77" s="197"/>
+      <c r="J77" s="197"/>
+      <c r="K77" s="197"/>
+      <c r="L77" s="197"/>
+      <c r="M77" s="197"/>
+      <c r="N77" s="198"/>
+      <c r="O77" s="194" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="186"/>
+      <c r="A78" s="190"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -5950,9 +5950,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="195"/>
-      <c r="F78" s="196"/>
-      <c r="G78" s="186"/>
+      <c r="E78" s="193"/>
+      <c r="F78" s="195"/>
+      <c r="G78" s="190"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -5974,17 +5974,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="186"/>
+      <c r="O78" s="190"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="197" t="s">
+      <c r="A79" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="198"/>
-      <c r="C79" s="198"/>
-      <c r="D79" s="198"/>
-      <c r="E79" s="198"/>
-      <c r="F79" s="199"/>
+      <c r="B79" s="184"/>
+      <c r="C79" s="184"/>
+      <c r="D79" s="184"/>
+      <c r="E79" s="184"/>
+      <c r="F79" s="185"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6417,14 +6417,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="187" t="s">
+      <c r="A99" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="188"/>
-      <c r="C99" s="188"/>
-      <c r="D99" s="188"/>
-      <c r="E99" s="188"/>
-      <c r="F99" s="189"/>
+      <c r="B99" s="187"/>
+      <c r="C99" s="187"/>
+      <c r="D99" s="187"/>
+      <c r="E99" s="187"/>
+      <c r="F99" s="188"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6510,42 +6510,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="190" t="s">
+      <c r="A105" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="190"/>
-      <c r="C105" s="190"/>
-      <c r="D105" s="190"/>
-      <c r="E105" s="190"/>
-      <c r="F105" s="190"/>
-      <c r="G105" s="190"/>
-      <c r="H105" s="190"/>
-      <c r="I105" s="190"/>
-      <c r="J105" s="190"/>
-      <c r="K105" s="190"/>
-      <c r="L105" s="190"/>
-      <c r="M105" s="190"/>
-      <c r="N105" s="190"/>
-      <c r="O105" s="190"/>
+      <c r="B105" s="181"/>
+      <c r="C105" s="181"/>
+      <c r="D105" s="181"/>
+      <c r="E105" s="181"/>
+      <c r="F105" s="181"/>
+      <c r="G105" s="181"/>
+      <c r="H105" s="181"/>
+      <c r="I105" s="181"/>
+      <c r="J105" s="181"/>
+      <c r="K105" s="181"/>
+      <c r="L105" s="181"/>
+      <c r="M105" s="181"/>
+      <c r="N105" s="181"/>
+      <c r="O105" s="181"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="191" t="s">
+      <c r="A106" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="191"/>
-      <c r="C106" s="191"/>
-      <c r="D106" s="191"/>
-      <c r="E106" s="191"/>
-      <c r="F106" s="191"/>
-      <c r="G106" s="191"/>
-      <c r="H106" s="191"/>
-      <c r="I106" s="191"/>
-      <c r="J106" s="191"/>
-      <c r="K106" s="191"/>
-      <c r="L106" s="191"/>
-      <c r="M106" s="191"/>
-      <c r="N106" s="191"/>
-      <c r="O106" s="191"/>
+      <c r="B106" s="182"/>
+      <c r="C106" s="182"/>
+      <c r="D106" s="182"/>
+      <c r="E106" s="182"/>
+      <c r="F106" s="182"/>
+      <c r="G106" s="182"/>
+      <c r="H106" s="182"/>
+      <c r="I106" s="182"/>
+      <c r="J106" s="182"/>
+      <c r="K106" s="182"/>
+      <c r="L106" s="182"/>
+      <c r="M106" s="182"/>
+      <c r="N106" s="182"/>
+      <c r="O106" s="182"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6565,23 +6565,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="181" t="s">
+      <c r="A108" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="181"/>
-      <c r="C108" s="181"/>
-      <c r="D108" s="181"/>
-      <c r="E108" s="181"/>
-      <c r="F108" s="181"/>
-      <c r="G108" s="181"/>
-      <c r="H108" s="181"/>
-      <c r="I108" s="181"/>
-      <c r="J108" s="181"/>
-      <c r="K108" s="181"/>
-      <c r="L108" s="181"/>
-      <c r="M108" s="181"/>
-      <c r="N108" s="181"/>
-      <c r="O108" s="181"/>
+      <c r="B108" s="199"/>
+      <c r="C108" s="199"/>
+      <c r="D108" s="199"/>
+      <c r="E108" s="199"/>
+      <c r="F108" s="199"/>
+      <c r="G108" s="199"/>
+      <c r="H108" s="199"/>
+      <c r="I108" s="199"/>
+      <c r="J108" s="199"/>
+      <c r="K108" s="199"/>
+      <c r="L108" s="199"/>
+      <c r="M108" s="199"/>
+      <c r="N108" s="199"/>
+      <c r="O108" s="199"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6704,38 +6704,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="192" t="s">
+      <c r="A115" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="193" t="s">
+      <c r="B115" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="193"/>
-      <c r="D115" s="193"/>
-      <c r="E115" s="194" t="s">
+      <c r="C115" s="191"/>
+      <c r="D115" s="191"/>
+      <c r="E115" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="194" t="s">
+      <c r="F115" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="185" t="s">
+      <c r="G115" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="182" t="s">
+      <c r="H115" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="183"/>
-      <c r="J115" s="183"/>
-      <c r="K115" s="183"/>
-      <c r="L115" s="183"/>
-      <c r="M115" s="183"/>
-      <c r="N115" s="184"/>
-      <c r="O115" s="185" t="s">
+      <c r="I115" s="197"/>
+      <c r="J115" s="197"/>
+      <c r="K115" s="197"/>
+      <c r="L115" s="197"/>
+      <c r="M115" s="197"/>
+      <c r="N115" s="198"/>
+      <c r="O115" s="194" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="186"/>
+      <c r="A116" s="190"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6745,9 +6745,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="195"/>
-      <c r="F116" s="196"/>
-      <c r="G116" s="186"/>
+      <c r="E116" s="193"/>
+      <c r="F116" s="195"/>
+      <c r="G116" s="190"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="186"/>
+      <c r="O116" s="190"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -6898,14 +6898,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="187" t="s">
+      <c r="A122" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="188"/>
-      <c r="C122" s="188"/>
-      <c r="D122" s="188"/>
-      <c r="E122" s="188"/>
-      <c r="F122" s="189"/>
+      <c r="B122" s="187"/>
+      <c r="C122" s="187"/>
+      <c r="D122" s="187"/>
+      <c r="E122" s="187"/>
+      <c r="F122" s="188"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -6948,6 +6948,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="H115:N115"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:N77"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
     <mergeCell ref="A105:O105"/>
     <mergeCell ref="A106:O106"/>
     <mergeCell ref="A45:F45"/>
@@ -6964,34 +6992,6 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="H115:N115"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:N77"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="A79:F79"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -7028,21 +7028,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7152,56 +7152,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="225" t="s">
+      <c r="B9" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="215" t="s">
+      <c r="C9" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="227" t="s">
+      <c r="D9" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="215" t="s">
+      <c r="E9" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="215" t="s">
+      <c r="F9" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="215" t="s">
+      <c r="G9" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="215" t="s">
+      <c r="H9" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="213" t="s">
+      <c r="I9" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="215" t="s">
+      <c r="J9" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="215" t="s">
+      <c r="K9" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="215" t="s">
+      <c r="L9" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="217" t="s">
+      <c r="M9" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="218"/>
+      <c r="N9" s="221"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="226"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="216"/>
-      <c r="L10" s="216"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="215"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7630,44 +7630,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="219" t="s">
+      <c r="B31" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="220"/>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="221"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="224"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="222"/>
-      <c r="K31" s="223"/>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="224"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="226"/>
+      <c r="M31" s="226"/>
+      <c r="N31" s="227"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="199"/>
+      <c r="L35" s="199"/>
+      <c r="M35" s="199"/>
+      <c r="N35" s="199"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7777,56 +7777,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="225" t="s">
+      <c r="B42" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="227" t="s">
+      <c r="D42" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="215" t="s">
+      <c r="E42" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="215" t="s">
+      <c r="F42" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="215" t="s">
+      <c r="G42" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="215" t="s">
+      <c r="H42" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="213" t="s">
+      <c r="I42" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="215" t="s">
+      <c r="K42" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="215" t="s">
+      <c r="L42" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="217" t="s">
+      <c r="M42" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="218"/>
+      <c r="N42" s="221"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="226"/>
-      <c r="C43" s="216"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="216"/>
-      <c r="F43" s="216"/>
-      <c r="G43" s="216"/>
-      <c r="H43" s="216"/>
-      <c r="I43" s="214"/>
-      <c r="J43" s="216"/>
-      <c r="K43" s="216"/>
-      <c r="L43" s="216"/>
+      <c r="B43" s="213"/>
+      <c r="C43" s="215"/>
+      <c r="D43" s="217"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="215"/>
+      <c r="G43" s="215"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="215"/>
+      <c r="L43" s="215"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -7835,24 +7835,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="229" t="s">
+      <c r="B44" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="230"/>
-      <c r="D44" s="230"/>
-      <c r="E44" s="230"/>
-      <c r="F44" s="230"/>
-      <c r="G44" s="230"/>
-      <c r="H44" s="231"/>
+      <c r="C44" s="229"/>
+      <c r="D44" s="229"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="229"/>
+      <c r="G44" s="229"/>
+      <c r="H44" s="230"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="232"/>
-      <c r="K44" s="233"/>
-      <c r="L44" s="233"/>
-      <c r="M44" s="233"/>
-      <c r="N44" s="234"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="232"/>
+      <c r="L44" s="232"/>
+      <c r="M44" s="232"/>
+      <c r="N44" s="233"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8216,44 +8216,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="219" t="s">
+      <c r="B63" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="220"/>
-      <c r="D63" s="220"/>
-      <c r="E63" s="220"/>
-      <c r="F63" s="220"/>
-      <c r="G63" s="220"/>
-      <c r="H63" s="221"/>
+      <c r="C63" s="223"/>
+      <c r="D63" s="223"/>
+      <c r="E63" s="223"/>
+      <c r="F63" s="223"/>
+      <c r="G63" s="223"/>
+      <c r="H63" s="224"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="222"/>
-      <c r="K63" s="223"/>
-      <c r="L63" s="223"/>
-      <c r="M63" s="223"/>
-      <c r="N63" s="224"/>
+      <c r="J63" s="225"/>
+      <c r="K63" s="226"/>
+      <c r="L63" s="226"/>
+      <c r="M63" s="226"/>
+      <c r="N63" s="227"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="181" t="s">
+      <c r="B67" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="181"/>
-      <c r="D67" s="181"/>
-      <c r="E67" s="181"/>
-      <c r="F67" s="181"/>
-      <c r="G67" s="181"/>
-      <c r="H67" s="181"/>
-      <c r="I67" s="181"/>
-      <c r="J67" s="181"/>
-      <c r="K67" s="181"/>
-      <c r="L67" s="181"/>
-      <c r="M67" s="181"/>
-      <c r="N67" s="181"/>
+      <c r="C67" s="199"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="199"/>
+      <c r="F67" s="199"/>
+      <c r="G67" s="199"/>
+      <c r="H67" s="199"/>
+      <c r="I67" s="199"/>
+      <c r="J67" s="199"/>
+      <c r="K67" s="199"/>
+      <c r="L67" s="199"/>
+      <c r="M67" s="199"/>
+      <c r="N67" s="199"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8363,56 +8363,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="225" t="s">
+      <c r="B74" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="215" t="s">
+      <c r="C74" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="227" t="s">
+      <c r="D74" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="215" t="s">
+      <c r="E74" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="215" t="s">
+      <c r="F74" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="215" t="s">
+      <c r="G74" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="215" t="s">
+      <c r="H74" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="213" t="s">
+      <c r="I74" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="215" t="s">
+      <c r="J74" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="215" t="s">
+      <c r="K74" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="215" t="s">
+      <c r="L74" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="217" t="s">
+      <c r="M74" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="218"/>
+      <c r="N74" s="221"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="226"/>
-      <c r="C75" s="216"/>
-      <c r="D75" s="228"/>
-      <c r="E75" s="216"/>
-      <c r="F75" s="216"/>
-      <c r="G75" s="216"/>
-      <c r="H75" s="216"/>
-      <c r="I75" s="214"/>
-      <c r="J75" s="216"/>
-      <c r="K75" s="216"/>
-      <c r="L75" s="216"/>
+      <c r="B75" s="213"/>
+      <c r="C75" s="215"/>
+      <c r="D75" s="217"/>
+      <c r="E75" s="215"/>
+      <c r="F75" s="215"/>
+      <c r="G75" s="215"/>
+      <c r="H75" s="215"/>
+      <c r="I75" s="219"/>
+      <c r="J75" s="215"/>
+      <c r="K75" s="215"/>
+      <c r="L75" s="215"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8421,24 +8421,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="229" t="s">
+      <c r="B76" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="230"/>
-      <c r="D76" s="230"/>
-      <c r="E76" s="230"/>
-      <c r="F76" s="230"/>
-      <c r="G76" s="230"/>
-      <c r="H76" s="231"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="229"/>
+      <c r="E76" s="229"/>
+      <c r="F76" s="229"/>
+      <c r="G76" s="229"/>
+      <c r="H76" s="230"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="232"/>
-      <c r="K76" s="233"/>
-      <c r="L76" s="233"/>
-      <c r="M76" s="233"/>
-      <c r="N76" s="234"/>
+      <c r="J76" s="231"/>
+      <c r="K76" s="232"/>
+      <c r="L76" s="232"/>
+      <c r="M76" s="232"/>
+      <c r="N76" s="233"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -8881,44 +8881,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="219" t="s">
+      <c r="B97" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="220"/>
-      <c r="D97" s="220"/>
-      <c r="E97" s="220"/>
-      <c r="F97" s="220"/>
-      <c r="G97" s="220"/>
-      <c r="H97" s="221"/>
+      <c r="C97" s="223"/>
+      <c r="D97" s="223"/>
+      <c r="E97" s="223"/>
+      <c r="F97" s="223"/>
+      <c r="G97" s="223"/>
+      <c r="H97" s="224"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="222"/>
-      <c r="K97" s="223"/>
-      <c r="L97" s="223"/>
-      <c r="M97" s="223"/>
-      <c r="N97" s="224"/>
+      <c r="J97" s="225"/>
+      <c r="K97" s="226"/>
+      <c r="L97" s="226"/>
+      <c r="M97" s="226"/>
+      <c r="N97" s="227"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="181" t="s">
+      <c r="B101" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="181"/>
-      <c r="D101" s="181"/>
-      <c r="E101" s="181"/>
-      <c r="F101" s="181"/>
-      <c r="G101" s="181"/>
-      <c r="H101" s="181"/>
-      <c r="I101" s="181"/>
-      <c r="J101" s="181"/>
-      <c r="K101" s="181"/>
-      <c r="L101" s="181"/>
-      <c r="M101" s="181"/>
-      <c r="N101" s="181"/>
+      <c r="C101" s="199"/>
+      <c r="D101" s="199"/>
+      <c r="E101" s="199"/>
+      <c r="F101" s="199"/>
+      <c r="G101" s="199"/>
+      <c r="H101" s="199"/>
+      <c r="I101" s="199"/>
+      <c r="J101" s="199"/>
+      <c r="K101" s="199"/>
+      <c r="L101" s="199"/>
+      <c r="M101" s="199"/>
+      <c r="N101" s="199"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9028,56 +9028,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="225" t="s">
+      <c r="B108" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="215" t="s">
+      <c r="C108" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="227" t="s">
+      <c r="D108" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="215" t="s">
+      <c r="E108" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="215" t="s">
+      <c r="F108" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="215" t="s">
+      <c r="G108" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="215" t="s">
+      <c r="H108" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="213" t="s">
+      <c r="I108" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="215" t="s">
+      <c r="J108" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="215" t="s">
+      <c r="K108" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="215" t="s">
+      <c r="L108" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="217" t="s">
+      <c r="M108" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="218"/>
+      <c r="N108" s="221"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="226"/>
-      <c r="C109" s="216"/>
-      <c r="D109" s="228"/>
-      <c r="E109" s="216"/>
-      <c r="F109" s="216"/>
-      <c r="G109" s="216"/>
-      <c r="H109" s="216"/>
-      <c r="I109" s="214"/>
-      <c r="J109" s="216"/>
-      <c r="K109" s="216"/>
-      <c r="L109" s="216"/>
+      <c r="B109" s="213"/>
+      <c r="C109" s="215"/>
+      <c r="D109" s="217"/>
+      <c r="E109" s="215"/>
+      <c r="F109" s="215"/>
+      <c r="G109" s="215"/>
+      <c r="H109" s="215"/>
+      <c r="I109" s="219"/>
+      <c r="J109" s="215"/>
+      <c r="K109" s="215"/>
+      <c r="L109" s="215"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9086,24 +9086,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="229" t="s">
+      <c r="B110" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="230"/>
-      <c r="D110" s="230"/>
-      <c r="E110" s="230"/>
-      <c r="F110" s="230"/>
-      <c r="G110" s="230"/>
-      <c r="H110" s="231"/>
+      <c r="C110" s="229"/>
+      <c r="D110" s="229"/>
+      <c r="E110" s="229"/>
+      <c r="F110" s="229"/>
+      <c r="G110" s="229"/>
+      <c r="H110" s="230"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="232"/>
-      <c r="K110" s="233"/>
-      <c r="L110" s="233"/>
-      <c r="M110" s="233"/>
-      <c r="N110" s="234"/>
+      <c r="J110" s="231"/>
+      <c r="K110" s="232"/>
+      <c r="L110" s="232"/>
+      <c r="M110" s="232"/>
+      <c r="N110" s="233"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9473,44 +9473,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="219" t="s">
+      <c r="B130" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="220"/>
-      <c r="D130" s="220"/>
-      <c r="E130" s="220"/>
-      <c r="F130" s="220"/>
-      <c r="G130" s="220"/>
-      <c r="H130" s="221"/>
+      <c r="C130" s="223"/>
+      <c r="D130" s="223"/>
+      <c r="E130" s="223"/>
+      <c r="F130" s="223"/>
+      <c r="G130" s="223"/>
+      <c r="H130" s="224"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="222"/>
-      <c r="K130" s="223"/>
-      <c r="L130" s="223"/>
-      <c r="M130" s="223"/>
-      <c r="N130" s="224"/>
+      <c r="J130" s="225"/>
+      <c r="K130" s="226"/>
+      <c r="L130" s="226"/>
+      <c r="M130" s="226"/>
+      <c r="N130" s="227"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="181" t="s">
+      <c r="B134" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="181"/>
-      <c r="D134" s="181"/>
-      <c r="E134" s="181"/>
-      <c r="F134" s="181"/>
-      <c r="G134" s="181"/>
-      <c r="H134" s="181"/>
-      <c r="I134" s="181"/>
-      <c r="J134" s="181"/>
-      <c r="K134" s="181"/>
-      <c r="L134" s="181"/>
-      <c r="M134" s="181"/>
-      <c r="N134" s="181"/>
+      <c r="C134" s="199"/>
+      <c r="D134" s="199"/>
+      <c r="E134" s="199"/>
+      <c r="F134" s="199"/>
+      <c r="G134" s="199"/>
+      <c r="H134" s="199"/>
+      <c r="I134" s="199"/>
+      <c r="J134" s="199"/>
+      <c r="K134" s="199"/>
+      <c r="L134" s="199"/>
+      <c r="M134" s="199"/>
+      <c r="N134" s="199"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9620,56 +9620,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="225" t="s">
+      <c r="B141" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="215" t="s">
+      <c r="C141" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="227" t="s">
+      <c r="D141" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="215" t="s">
+      <c r="E141" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="215" t="s">
+      <c r="F141" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="215" t="s">
+      <c r="G141" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="215" t="s">
+      <c r="H141" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="213" t="s">
+      <c r="I141" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="215" t="s">
+      <c r="J141" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="215" t="s">
+      <c r="K141" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="215" t="s">
+      <c r="L141" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="217" t="s">
+      <c r="M141" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="218"/>
+      <c r="N141" s="221"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="226"/>
-      <c r="C142" s="216"/>
-      <c r="D142" s="228"/>
-      <c r="E142" s="216"/>
-      <c r="F142" s="216"/>
-      <c r="G142" s="216"/>
-      <c r="H142" s="216"/>
-      <c r="I142" s="214"/>
-      <c r="J142" s="216"/>
-      <c r="K142" s="216"/>
-      <c r="L142" s="216"/>
+      <c r="B142" s="213"/>
+      <c r="C142" s="215"/>
+      <c r="D142" s="217"/>
+      <c r="E142" s="215"/>
+      <c r="F142" s="215"/>
+      <c r="G142" s="215"/>
+      <c r="H142" s="215"/>
+      <c r="I142" s="219"/>
+      <c r="J142" s="215"/>
+      <c r="K142" s="215"/>
+      <c r="L142" s="215"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9678,24 +9678,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="229" t="s">
+      <c r="B143" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="230"/>
-      <c r="D143" s="230"/>
-      <c r="E143" s="230"/>
-      <c r="F143" s="230"/>
-      <c r="G143" s="230"/>
-      <c r="H143" s="231"/>
+      <c r="C143" s="229"/>
+      <c r="D143" s="229"/>
+      <c r="E143" s="229"/>
+      <c r="F143" s="229"/>
+      <c r="G143" s="229"/>
+      <c r="H143" s="230"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="232"/>
-      <c r="K143" s="233"/>
-      <c r="L143" s="233"/>
-      <c r="M143" s="233"/>
-      <c r="N143" s="234"/>
+      <c r="J143" s="231"/>
+      <c r="K143" s="232"/>
+      <c r="L143" s="232"/>
+      <c r="M143" s="232"/>
+      <c r="N143" s="233"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10021,44 +10021,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="219" t="s">
+      <c r="B161" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="220"/>
-      <c r="D161" s="220"/>
-      <c r="E161" s="220"/>
-      <c r="F161" s="220"/>
-      <c r="G161" s="220"/>
-      <c r="H161" s="221"/>
+      <c r="C161" s="223"/>
+      <c r="D161" s="223"/>
+      <c r="E161" s="223"/>
+      <c r="F161" s="223"/>
+      <c r="G161" s="223"/>
+      <c r="H161" s="224"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="222"/>
-      <c r="K161" s="223"/>
-      <c r="L161" s="223"/>
-      <c r="M161" s="223"/>
-      <c r="N161" s="224"/>
+      <c r="J161" s="225"/>
+      <c r="K161" s="226"/>
+      <c r="L161" s="226"/>
+      <c r="M161" s="226"/>
+      <c r="N161" s="227"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="181" t="s">
+      <c r="B165" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="181"/>
-      <c r="D165" s="181"/>
-      <c r="E165" s="181"/>
-      <c r="F165" s="181"/>
-      <c r="G165" s="181"/>
-      <c r="H165" s="181"/>
-      <c r="I165" s="181"/>
-      <c r="J165" s="181"/>
-      <c r="K165" s="181"/>
-      <c r="L165" s="181"/>
-      <c r="M165" s="181"/>
-      <c r="N165" s="181"/>
+      <c r="C165" s="199"/>
+      <c r="D165" s="199"/>
+      <c r="E165" s="199"/>
+      <c r="F165" s="199"/>
+      <c r="G165" s="199"/>
+      <c r="H165" s="199"/>
+      <c r="I165" s="199"/>
+      <c r="J165" s="199"/>
+      <c r="K165" s="199"/>
+      <c r="L165" s="199"/>
+      <c r="M165" s="199"/>
+      <c r="N165" s="199"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10168,56 +10168,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="225" t="s">
+      <c r="B172" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="215" t="s">
+      <c r="C172" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="227" t="s">
+      <c r="D172" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="215" t="s">
+      <c r="E172" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="215" t="s">
+      <c r="F172" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="215" t="s">
+      <c r="G172" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="215" t="s">
+      <c r="H172" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="213" t="s">
+      <c r="I172" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="215" t="s">
+      <c r="J172" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="215" t="s">
+      <c r="K172" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="215" t="s">
+      <c r="L172" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="217" t="s">
+      <c r="M172" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="218"/>
+      <c r="N172" s="221"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="226"/>
-      <c r="C173" s="216"/>
-      <c r="D173" s="228"/>
-      <c r="E173" s="216"/>
-      <c r="F173" s="216"/>
-      <c r="G173" s="216"/>
-      <c r="H173" s="216"/>
-      <c r="I173" s="214"/>
-      <c r="J173" s="216"/>
-      <c r="K173" s="216"/>
-      <c r="L173" s="216"/>
+      <c r="B173" s="213"/>
+      <c r="C173" s="215"/>
+      <c r="D173" s="217"/>
+      <c r="E173" s="215"/>
+      <c r="F173" s="215"/>
+      <c r="G173" s="215"/>
+      <c r="H173" s="215"/>
+      <c r="I173" s="219"/>
+      <c r="J173" s="215"/>
+      <c r="K173" s="215"/>
+      <c r="L173" s="215"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10226,24 +10226,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="229" t="s">
+      <c r="B174" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="230"/>
-      <c r="D174" s="230"/>
-      <c r="E174" s="230"/>
-      <c r="F174" s="230"/>
-      <c r="G174" s="230"/>
-      <c r="H174" s="231"/>
+      <c r="C174" s="229"/>
+      <c r="D174" s="229"/>
+      <c r="E174" s="229"/>
+      <c r="F174" s="229"/>
+      <c r="G174" s="229"/>
+      <c r="H174" s="230"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="232"/>
-      <c r="K174" s="233"/>
-      <c r="L174" s="233"/>
-      <c r="M174" s="233"/>
-      <c r="N174" s="234"/>
+      <c r="J174" s="231"/>
+      <c r="K174" s="232"/>
+      <c r="L174" s="232"/>
+      <c r="M174" s="232"/>
+      <c r="N174" s="233"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10309,31 +10309,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="229" t="s">
+      <c r="B178" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="230"/>
-      <c r="D178" s="230"/>
-      <c r="E178" s="230"/>
-      <c r="F178" s="230"/>
-      <c r="G178" s="230"/>
-      <c r="H178" s="231"/>
+      <c r="C178" s="229"/>
+      <c r="D178" s="229"/>
+      <c r="E178" s="229"/>
+      <c r="F178" s="229"/>
+      <c r="G178" s="229"/>
+      <c r="H178" s="230"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="232"/>
-      <c r="K178" s="233"/>
-      <c r="L178" s="233"/>
-      <c r="M178" s="233"/>
-      <c r="N178" s="234"/>
+      <c r="J178" s="231"/>
+      <c r="K178" s="232"/>
+      <c r="L178" s="232"/>
+      <c r="M178" s="232"/>
+      <c r="N178" s="233"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="212" t="s">
+      <c r="M180" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="212"/>
+      <c r="N180" s="234"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10350,90 +10350,6 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -10451,6 +10367,90 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -11450,46 +11450,46 @@
       <c r="Q1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11511,25 +11511,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11664,13 +11664,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -11697,7 +11697,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26453,34 +26453,34 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="203"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
     </row>
     <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="204"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26496,19 +26496,19 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="199"/>
       <c r="D7" s="205"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="199"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="199"/>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -26607,13 +26607,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="193" t="s">
+      <c r="B14" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="193"/>
+      <c r="C14" s="191"/>
       <c r="D14" s="206"/>
       <c r="E14" s="174" t="s">
         <v>10</v>
@@ -26632,7 +26632,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="186"/>
+      <c r="A15" s="190"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -28458,34 +28458,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -28501,19 +28501,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -28612,15 +28612,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="206"/>
-      <c r="E12" s="194" t="s">
+      <c r="E12" s="192" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="162" t="s">
@@ -28639,7 +28639,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -28649,7 +28649,7 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="195"/>
+      <c r="E13" s="193"/>
       <c r="F13" s="163"/>
       <c r="G13" s="164"/>
       <c r="H13" s="157" t="s">
@@ -28885,12 +28885,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N151" sqref="N151"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L231" sqref="L231:M231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29862,34 +29861,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -29905,19 +29904,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30016,13 +30015,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -30041,7 +30040,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -30071,7 +30070,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="143">
         <v>1</v>
       </c>
@@ -30114,7 +30113,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="122">
         <v>2</v>
       </c>
@@ -30152,7 +30151,7 @@
       <c r="L15" s="165"/>
       <c r="M15" s="165"/>
     </row>
-    <row r="16" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="122">
         <v>3</v>
       </c>
@@ -30190,7 +30189,7 @@
       <c r="L16" s="165"/>
       <c r="M16" s="165"/>
     </row>
-    <row r="17" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="143">
         <v>4</v>
       </c>
@@ -30228,7 +30227,7 @@
       <c r="L17" s="165"/>
       <c r="M17" s="165"/>
     </row>
-    <row r="18" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="122">
         <v>5</v>
       </c>
@@ -30266,7 +30265,7 @@
       <c r="L18" s="165"/>
       <c r="M18" s="165"/>
     </row>
-    <row r="19" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="122">
         <v>6</v>
       </c>
@@ -30304,7 +30303,7 @@
       <c r="L19" s="165"/>
       <c r="M19" s="165"/>
     </row>
-    <row r="20" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="143">
         <v>7</v>
       </c>
@@ -30344,7 +30343,7 @@
       </c>
       <c r="M20" s="165"/>
     </row>
-    <row r="21" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="122">
         <v>8</v>
       </c>
@@ -30382,7 +30381,7 @@
       <c r="L21" s="165"/>
       <c r="M21" s="165"/>
     </row>
-    <row r="22" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="122">
         <v>9</v>
       </c>
@@ -30422,7 +30421,7 @@
       </c>
       <c r="M22" s="165"/>
     </row>
-    <row r="23" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="143">
         <v>10</v>
       </c>
@@ -30460,7 +30459,7 @@
       <c r="L23" s="165"/>
       <c r="M23" s="165"/>
     </row>
-    <row r="24" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="122">
         <v>11</v>
       </c>
@@ -30498,7 +30497,7 @@
       <c r="L24" s="165"/>
       <c r="M24" s="165"/>
     </row>
-    <row r="25" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="122">
         <v>12</v>
       </c>
@@ -30536,7 +30535,7 @@
       <c r="L25" s="165"/>
       <c r="M25" s="165"/>
     </row>
-    <row r="26" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="143">
         <v>13</v>
       </c>
@@ -30574,7 +30573,7 @@
       <c r="L26" s="165"/>
       <c r="M26" s="165"/>
     </row>
-    <row r="27" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="122">
         <v>14</v>
       </c>
@@ -30612,7 +30611,7 @@
       <c r="L27" s="165"/>
       <c r="M27" s="165"/>
     </row>
-    <row r="28" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="122">
         <v>15</v>
       </c>
@@ -30650,7 +30649,7 @@
       <c r="L28" s="165"/>
       <c r="M28" s="165"/>
     </row>
-    <row r="29" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="143">
         <v>16</v>
       </c>
@@ -30690,7 +30689,7 @@
       </c>
       <c r="M29" s="165"/>
     </row>
-    <row r="30" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="122">
         <v>17</v>
       </c>
@@ -30730,7 +30729,7 @@
       </c>
       <c r="M30" s="165"/>
     </row>
-    <row r="31" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="122">
         <v>18</v>
       </c>
@@ -30770,7 +30769,7 @@
       </c>
       <c r="M31" s="165"/>
     </row>
-    <row r="32" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="143">
         <v>19</v>
       </c>
@@ -30810,7 +30809,7 @@
       </c>
       <c r="M32" s="165"/>
     </row>
-    <row r="33" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="122">
         <v>20</v>
       </c>
@@ -30850,7 +30849,7 @@
       </c>
       <c r="M33" s="165"/>
     </row>
-    <row r="34" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="122">
         <v>21</v>
       </c>
@@ -30890,7 +30889,7 @@
       </c>
       <c r="M34" s="165"/>
     </row>
-    <row r="35" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="122">
         <v>24</v>
       </c>
@@ -30932,7 +30931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="143">
         <v>25</v>
       </c>
@@ -30972,7 +30971,7 @@
       </c>
       <c r="M36" s="165"/>
     </row>
-    <row r="37" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="122">
         <v>26</v>
       </c>
@@ -31012,7 +31011,7 @@
       </c>
       <c r="M37" s="165"/>
     </row>
-    <row r="38" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="122">
         <v>27</v>
       </c>
@@ -31052,7 +31051,7 @@
       </c>
       <c r="M38" s="165"/>
     </row>
-    <row r="39" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="143">
         <v>28</v>
       </c>
@@ -31092,7 +31091,7 @@
       </c>
       <c r="M39" s="165"/>
     </row>
-    <row r="40" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="122">
         <v>29</v>
       </c>
@@ -31132,7 +31131,7 @@
       </c>
       <c r="M40" s="165"/>
     </row>
-    <row r="41" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="122">
         <v>30</v>
       </c>
@@ -31172,7 +31171,7 @@
       </c>
       <c r="M41" s="165"/>
     </row>
-    <row r="42" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="143">
         <v>34</v>
       </c>
@@ -31210,7 +31209,7 @@
       <c r="L42" s="165"/>
       <c r="M42" s="165"/>
     </row>
-    <row r="43" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="122">
         <v>35</v>
       </c>
@@ -31248,7 +31247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="122">
         <v>36</v>
       </c>
@@ -31286,7 +31285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="143">
         <v>37</v>
       </c>
@@ -31324,7 +31323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="122">
         <v>38</v>
       </c>
@@ -31362,7 +31361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="122">
         <v>39</v>
       </c>
@@ -31400,7 +31399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="143">
         <v>40</v>
       </c>
@@ -31438,7 +31437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="122">
         <v>41</v>
       </c>
@@ -31476,7 +31475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="122">
         <v>42</v>
       </c>
@@ -31514,7 +31513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="143">
         <v>43</v>
       </c>
@@ -31552,7 +31551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="122">
         <v>44</v>
       </c>
@@ -31590,7 +31589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="122">
         <v>45</v>
       </c>
@@ -31628,7 +31627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="143">
         <v>46</v>
       </c>
@@ -31666,7 +31665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="122">
         <v>47</v>
       </c>
@@ -31704,7 +31703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="122">
         <v>48</v>
       </c>
@@ -31742,7 +31741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="143">
         <v>49</v>
       </c>
@@ -31780,7 +31779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="122">
         <v>50</v>
       </c>
@@ -31818,7 +31817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="122">
         <v>51</v>
       </c>
@@ -31856,7 +31855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="143">
         <v>52</v>
       </c>
@@ -31894,7 +31893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="122">
         <v>53</v>
       </c>
@@ -31932,7 +31931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="122">
         <v>54</v>
       </c>
@@ -31970,7 +31969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="143">
         <v>55</v>
       </c>
@@ -32008,7 +32007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="122">
         <v>56</v>
       </c>
@@ -32046,7 +32045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="122">
         <v>57</v>
       </c>
@@ -32084,7 +32083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="143">
         <v>58</v>
       </c>
@@ -32124,7 +32123,7 @@
       </c>
       <c r="M66" s="165"/>
     </row>
-    <row r="67" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="122">
         <v>59</v>
       </c>
@@ -32164,7 +32163,7 @@
       </c>
       <c r="M67" s="165"/>
     </row>
-    <row r="68" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="122">
         <v>60</v>
       </c>
@@ -32204,7 +32203,7 @@
       </c>
       <c r="M68" s="165"/>
     </row>
-    <row r="69" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="143">
         <v>61</v>
       </c>
@@ -32246,7 +32245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="122">
         <v>62</v>
       </c>
@@ -32288,7 +32287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="122">
         <v>63</v>
       </c>
@@ -32330,7 +32329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="143">
         <v>64</v>
       </c>
@@ -32372,7 +32371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="122">
         <v>65</v>
       </c>
@@ -32414,7 +32413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="122">
         <v>66</v>
       </c>
@@ -32454,7 +32453,7 @@
       </c>
       <c r="M74" s="165"/>
     </row>
-    <row r="75" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="143">
         <v>70</v>
       </c>
@@ -32494,7 +32493,7 @@
       </c>
       <c r="M75" s="165"/>
     </row>
-    <row r="76" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="122">
         <v>71</v>
       </c>
@@ -32534,7 +32533,7 @@
       </c>
       <c r="M76" s="165"/>
     </row>
-    <row r="77" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="122">
         <v>72</v>
       </c>
@@ -32574,7 +32573,7 @@
       </c>
       <c r="M77" s="165"/>
     </row>
-    <row r="78" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="143">
         <v>73</v>
       </c>
@@ -32614,7 +32613,7 @@
       </c>
       <c r="M78" s="165"/>
     </row>
-    <row r="79" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="122">
         <v>74</v>
       </c>
@@ -32654,7 +32653,7 @@
       </c>
       <c r="M79" s="165"/>
     </row>
-    <row r="80" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="122">
         <v>75</v>
       </c>
@@ -32694,7 +32693,7 @@
       </c>
       <c r="M80" s="165"/>
     </row>
-    <row r="81" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="143">
         <v>76</v>
       </c>
@@ -32734,7 +32733,7 @@
       </c>
       <c r="M81" s="165"/>
     </row>
-    <row r="82" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="122">
         <v>77</v>
       </c>
@@ -32774,7 +32773,7 @@
       </c>
       <c r="M82" s="165"/>
     </row>
-    <row r="83" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="122">
         <v>80</v>
       </c>
@@ -32814,7 +32813,7 @@
       </c>
       <c r="M83" s="165"/>
     </row>
-    <row r="84" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="122">
         <v>81</v>
       </c>
@@ -32859,7 +32858,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="143">
         <v>82</v>
       </c>
@@ -32901,7 +32900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="122">
         <v>83</v>
       </c>
@@ -32946,7 +32945,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="122">
         <v>84</v>
       </c>
@@ -32988,7 +32987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="143">
         <v>85</v>
       </c>
@@ -33030,7 +33029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="122">
         <v>86</v>
       </c>
@@ -33075,7 +33074,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="143">
         <v>88</v>
       </c>
@@ -33117,7 +33116,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="122">
         <v>89</v>
       </c>
@@ -33155,7 +33154,7 @@
       <c r="L91" s="165"/>
       <c r="M91" s="165"/>
     </row>
-    <row r="92" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="122">
         <v>90</v>
       </c>
@@ -33197,7 +33196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="143">
         <v>91</v>
       </c>
@@ -33239,7 +33238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
         <v>92</v>
       </c>
@@ -33281,7 +33280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="122">
         <v>95</v>
       </c>
@@ -33319,7 +33318,7 @@
       <c r="L95" s="165"/>
       <c r="M95" s="165"/>
     </row>
-    <row r="96" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="122">
         <v>98</v>
       </c>
@@ -33357,7 +33356,7 @@
       <c r="L96" s="165"/>
       <c r="M96" s="165"/>
     </row>
-    <row r="97" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="122">
         <v>99</v>
       </c>
@@ -33399,7 +33398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="143">
         <v>100</v>
       </c>
@@ -33442,7 +33441,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="122">
         <v>101</v>
       </c>
@@ -33485,7 +33484,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="122">
         <v>102</v>
       </c>
@@ -33525,7 +33524,7 @@
       </c>
       <c r="M100" s="165"/>
     </row>
-    <row r="101" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="143">
         <v>103</v>
       </c>
@@ -33565,7 +33564,7 @@
       </c>
       <c r="M101" s="165"/>
     </row>
-    <row r="102" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="122">
         <v>104</v>
       </c>
@@ -33605,7 +33604,7 @@
       </c>
       <c r="M102" s="165"/>
     </row>
-    <row r="103" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="122">
         <v>105</v>
       </c>
@@ -33645,7 +33644,7 @@
       </c>
       <c r="M103" s="165"/>
     </row>
-    <row r="104" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="143">
         <v>106</v>
       </c>
@@ -33685,7 +33684,7 @@
       </c>
       <c r="M104" s="165"/>
     </row>
-    <row r="105" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="122">
         <v>107</v>
       </c>
@@ -33725,7 +33724,7 @@
       </c>
       <c r="M105" s="165"/>
     </row>
-    <row r="106" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="143">
         <v>112</v>
       </c>
@@ -33770,7 +33769,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="122">
         <v>113</v>
       </c>
@@ -33812,7 +33811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="122">
         <v>114</v>
       </c>
@@ -33854,7 +33853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="143">
         <v>115</v>
       </c>
@@ -33896,7 +33895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="122">
         <v>116</v>
       </c>
@@ -33938,7 +33937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="122">
         <v>117</v>
       </c>
@@ -33980,7 +33979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="143">
         <v>118</v>
       </c>
@@ -34016,7 +34015,7 @@
       </c>
       <c r="M112" s="165"/>
     </row>
-    <row r="113" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="122">
         <v>119</v>
       </c>
@@ -34052,7 +34051,7 @@
       </c>
       <c r="M113" s="165"/>
     </row>
-    <row r="114" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="122">
         <v>120</v>
       </c>
@@ -34088,7 +34087,7 @@
       </c>
       <c r="M114" s="165"/>
     </row>
-    <row r="115" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="143">
         <v>121</v>
       </c>
@@ -34124,7 +34123,7 @@
       </c>
       <c r="M115" s="165"/>
     </row>
-    <row r="116" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="122">
         <v>122</v>
       </c>
@@ -34160,7 +34159,7 @@
       </c>
       <c r="M116" s="165"/>
     </row>
-    <row r="117" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="122">
         <v>123</v>
       </c>
@@ -34196,7 +34195,7 @@
       </c>
       <c r="M117" s="165"/>
     </row>
-    <row r="118" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="143">
         <v>124</v>
       </c>
@@ -34232,7 +34231,7 @@
       </c>
       <c r="M118" s="165"/>
     </row>
-    <row r="119" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="122">
         <v>125</v>
       </c>
@@ -34272,7 +34271,7 @@
       </c>
       <c r="M119" s="165"/>
     </row>
-    <row r="120" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="122">
         <v>126</v>
       </c>
@@ -34308,7 +34307,7 @@
       </c>
       <c r="M120" s="165"/>
     </row>
-    <row r="121" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="143">
         <v>127</v>
       </c>
@@ -34348,7 +34347,7 @@
       </c>
       <c r="M121" s="165"/>
     </row>
-    <row r="122" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="122">
         <v>128</v>
       </c>
@@ -34388,7 +34387,7 @@
       </c>
       <c r="M122" s="165"/>
     </row>
-    <row r="123" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="122">
         <v>129</v>
       </c>
@@ -34426,7 +34425,7 @@
       <c r="L123" s="165"/>
       <c r="M123" s="165"/>
     </row>
-    <row r="124" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="143">
         <v>130</v>
       </c>
@@ -34464,7 +34463,7 @@
       <c r="L124" s="165"/>
       <c r="M124" s="165"/>
     </row>
-    <row r="125" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="122">
         <v>131</v>
       </c>
@@ -34506,7 +34505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="122">
         <v>135</v>
       </c>
@@ -34548,7 +34547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="143">
         <v>136</v>
       </c>
@@ -34590,7 +34589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="122">
         <v>137</v>
       </c>
@@ -34632,7 +34631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="122">
         <v>138</v>
       </c>
@@ -34674,7 +34673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="143">
         <v>139</v>
       </c>
@@ -34716,7 +34715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="122">
         <v>140</v>
       </c>
@@ -34761,7 +34760,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="122">
         <v>141</v>
       </c>
@@ -34801,7 +34800,7 @@
       </c>
       <c r="M132" s="165"/>
     </row>
-    <row r="133" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="143">
         <v>142</v>
       </c>
@@ -34841,7 +34840,7 @@
       </c>
       <c r="M133" s="165"/>
     </row>
-    <row r="134" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="122">
         <v>143</v>
       </c>
@@ -34881,7 +34880,7 @@
       </c>
       <c r="M134" s="165"/>
     </row>
-    <row r="135" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="122">
         <v>144</v>
       </c>
@@ -34921,7 +34920,7 @@
       </c>
       <c r="M135" s="165"/>
     </row>
-    <row r="136" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="143">
         <v>145</v>
       </c>
@@ -34961,7 +34960,7 @@
       </c>
       <c r="M136" s="165"/>
     </row>
-    <row r="137" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="122">
         <v>146</v>
       </c>
@@ -35001,7 +35000,7 @@
       </c>
       <c r="M137" s="165"/>
     </row>
-    <row r="138" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="122">
         <v>147</v>
       </c>
@@ -35041,7 +35040,7 @@
       </c>
       <c r="M138" s="165"/>
     </row>
-    <row r="139" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="122">
         <v>152</v>
       </c>
@@ -35079,7 +35078,7 @@
       <c r="L139" s="165"/>
       <c r="M139" s="165"/>
     </row>
-    <row r="140" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="122">
         <v>153</v>
       </c>
@@ -35121,7 +35120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="143">
         <v>154</v>
       </c>
@@ -35159,7 +35158,7 @@
       <c r="L141" s="165"/>
       <c r="M141" s="165"/>
     </row>
-    <row r="142" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="122">
         <v>156</v>
       </c>
@@ -35199,7 +35198,7 @@
       </c>
       <c r="M142" s="165"/>
     </row>
-    <row r="143" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="143">
         <v>157</v>
       </c>
@@ -35239,7 +35238,7 @@
       </c>
       <c r="M143" s="165"/>
     </row>
-    <row r="144" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="122">
         <v>158</v>
       </c>
@@ -35279,7 +35278,7 @@
       </c>
       <c r="M144" s="165"/>
     </row>
-    <row r="145" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="122">
         <v>159</v>
       </c>
@@ -35319,7 +35318,7 @@
       </c>
       <c r="M145" s="165"/>
     </row>
-    <row r="146" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="143">
         <v>160</v>
       </c>
@@ -35359,7 +35358,7 @@
       </c>
       <c r="M146" s="165"/>
     </row>
-    <row r="147" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="122">
         <v>161</v>
       </c>
@@ -35399,7 +35398,7 @@
       </c>
       <c r="M147" s="165"/>
     </row>
-    <row r="148" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="122">
         <v>162</v>
       </c>
@@ -35439,7 +35438,7 @@
       </c>
       <c r="M148" s="165"/>
     </row>
-    <row r="149" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="122">
         <v>168</v>
       </c>
@@ -35477,7 +35476,7 @@
       <c r="L149" s="165"/>
       <c r="M149" s="165"/>
     </row>
-    <row r="150" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="143">
         <v>169</v>
       </c>
@@ -35522,7 +35521,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="151" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="122">
         <v>170</v>
       </c>
@@ -35564,7 +35563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="122">
         <v>171</v>
       </c>
@@ -35606,7 +35605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="143">
         <v>172</v>
       </c>
@@ -35648,7 +35647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="122">
         <v>173</v>
       </c>
@@ -35690,7 +35689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="122">
         <v>174</v>
       </c>
@@ -35732,7 +35731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="122">
         <v>179</v>
       </c>
@@ -35774,7 +35773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="122">
         <v>180</v>
       </c>
@@ -35810,7 +35809,7 @@
       </c>
       <c r="M157" s="165"/>
     </row>
-    <row r="158" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="143">
         <v>181</v>
       </c>
@@ -35846,7 +35845,7 @@
       </c>
       <c r="M158" s="165"/>
     </row>
-    <row r="159" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="122">
         <v>182</v>
       </c>
@@ -35882,7 +35881,7 @@
       </c>
       <c r="M159" s="165"/>
     </row>
-    <row r="160" spans="1:14" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="122">
         <v>183</v>
       </c>
@@ -35955,7 +35954,9 @@
       <c r="K161" s="120" t="s">
         <v>534</v>
       </c>
-      <c r="L161" s="165"/>
+      <c r="L161" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M161" s="165"/>
     </row>
     <row r="162" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -35993,7 +35994,9 @@
       <c r="K162" s="120" t="s">
         <v>534</v>
       </c>
-      <c r="L162" s="165"/>
+      <c r="L162" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M162" s="165"/>
     </row>
     <row r="163" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -36031,7 +36034,9 @@
       <c r="K163" s="120" t="s">
         <v>535</v>
       </c>
-      <c r="L163" s="165"/>
+      <c r="L163" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M163" s="165"/>
     </row>
     <row r="164" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -36069,7 +36074,9 @@
       <c r="K164" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L164" s="165"/>
+      <c r="L164" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M164" s="165"/>
     </row>
     <row r="165" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -36107,7 +36114,9 @@
       <c r="K165" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L165" s="165"/>
+      <c r="L165" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M165" s="165"/>
     </row>
     <row r="166" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -36145,7 +36154,9 @@
       <c r="K166" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="L166" s="165"/>
+      <c r="L166" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M166" s="165"/>
     </row>
     <row r="167" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -36183,10 +36194,12 @@
       <c r="K167" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L167" s="165"/>
+      <c r="L167" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M167" s="165"/>
     </row>
-    <row r="168" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="122">
         <v>191</v>
       </c>
@@ -36221,10 +36234,14 @@
       <c r="K168" s="120" t="s">
         <v>534</v>
       </c>
-      <c r="L168" s="165"/>
-      <c r="M168" s="165"/>
-    </row>
-    <row r="169" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L168" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M168" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="122">
         <v>192</v>
       </c>
@@ -36259,10 +36276,14 @@
       <c r="K169" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L169" s="165"/>
-      <c r="M169" s="165"/>
-    </row>
-    <row r="170" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L169" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M169" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="143">
         <v>193</v>
       </c>
@@ -36297,10 +36318,14 @@
       <c r="K170" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L170" s="165"/>
-      <c r="M170" s="165"/>
-    </row>
-    <row r="171" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L170" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M170" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="122">
         <v>194</v>
       </c>
@@ -36335,10 +36360,14 @@
       <c r="K171" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L171" s="165"/>
-      <c r="M171" s="165"/>
-    </row>
-    <row r="172" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L171" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M171" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="122">
         <v>195</v>
       </c>
@@ -36378,7 +36407,7 @@
       </c>
       <c r="M172" s="165"/>
     </row>
-    <row r="173" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="143">
         <v>199</v>
       </c>
@@ -36420,7 +36449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="122">
         <v>200</v>
       </c>
@@ -36455,10 +36484,12 @@
       <c r="K174" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="L174" s="165"/>
+      <c r="L174" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M174" s="165"/>
     </row>
-    <row r="175" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="122">
         <v>201</v>
       </c>
@@ -36493,10 +36524,12 @@
       <c r="K175" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="L175" s="165"/>
+      <c r="L175" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M175" s="165"/>
     </row>
-    <row r="176" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="143">
         <v>202</v>
       </c>
@@ -36531,10 +36564,12 @@
       <c r="K176" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L176" s="165"/>
+      <c r="L176" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M176" s="165"/>
     </row>
-    <row r="177" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="122">
         <v>203</v>
       </c>
@@ -36569,10 +36604,12 @@
       <c r="K177" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L177" s="165"/>
+      <c r="L177" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M177" s="165"/>
     </row>
-    <row r="178" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="122">
         <v>204</v>
       </c>
@@ -36607,10 +36644,12 @@
       <c r="K178" s="120" t="s">
         <v>531</v>
       </c>
-      <c r="L178" s="165"/>
+      <c r="L178" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M178" s="165"/>
     </row>
-    <row r="179" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="143">
         <v>205</v>
       </c>
@@ -36645,10 +36684,12 @@
       <c r="K179" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="L179" s="165"/>
+      <c r="L179" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M179" s="165"/>
     </row>
-    <row r="180" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="122">
         <v>206</v>
       </c>
@@ -36690,7 +36731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="122">
         <v>207</v>
       </c>
@@ -36725,10 +36766,14 @@
       <c r="K181" s="120" t="s">
         <v>532</v>
       </c>
-      <c r="L181" s="165"/>
-      <c r="M181" s="165"/>
-    </row>
-    <row r="182" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L181" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M181" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="143">
         <v>208</v>
       </c>
@@ -36763,10 +36808,14 @@
       <c r="K182" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L182" s="165"/>
-      <c r="M182" s="165"/>
-    </row>
-    <row r="183" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L182" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M182" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="122">
         <v>209</v>
       </c>
@@ -36801,10 +36850,14 @@
       <c r="K183" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L183" s="165"/>
-      <c r="M183" s="165"/>
-    </row>
-    <row r="184" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L183" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M183" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="122">
         <v>210</v>
       </c>
@@ -36839,10 +36892,14 @@
       <c r="K184" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L184" s="165"/>
-      <c r="M184" s="165"/>
-    </row>
-    <row r="185" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L184" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M184" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="143">
         <v>211</v>
       </c>
@@ -36877,10 +36934,14 @@
       <c r="K185" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L185" s="165"/>
-      <c r="M185" s="165"/>
-    </row>
-    <row r="186" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L185" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M185" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="122">
         <v>213</v>
       </c>
@@ -36918,7 +36979,7 @@
       <c r="L186" s="165"/>
       <c r="M186" s="165"/>
     </row>
-    <row r="187" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="143">
         <v>214</v>
       </c>
@@ -36958,7 +37019,7 @@
       </c>
       <c r="M187" s="165"/>
     </row>
-    <row r="188" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="122">
         <v>219</v>
       </c>
@@ -36996,7 +37057,7 @@
       <c r="L188" s="165"/>
       <c r="M188" s="165"/>
     </row>
-    <row r="189" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="122">
         <v>222</v>
       </c>
@@ -37034,7 +37095,7 @@
       <c r="L189" s="165"/>
       <c r="M189" s="165"/>
     </row>
-    <row r="190" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="143">
         <v>223</v>
       </c>
@@ -37074,7 +37135,7 @@
       </c>
       <c r="M190" s="165"/>
     </row>
-    <row r="191" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="122">
         <v>224</v>
       </c>
@@ -37114,7 +37175,7 @@
       </c>
       <c r="M191" s="165"/>
     </row>
-    <row r="192" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="122">
         <v>225</v>
       </c>
@@ -37149,10 +37210,12 @@
       <c r="K192" s="120" t="s">
         <v>551</v>
       </c>
-      <c r="L192" s="165"/>
+      <c r="L192" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M192" s="165"/>
     </row>
-    <row r="193" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="143">
         <v>226</v>
       </c>
@@ -37187,10 +37250,12 @@
       <c r="K193" s="120" t="s">
         <v>551</v>
       </c>
-      <c r="L193" s="165"/>
+      <c r="L193" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M193" s="165"/>
     </row>
-    <row r="194" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="122">
         <v>227</v>
       </c>
@@ -37225,10 +37290,12 @@
       <c r="K194" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L194" s="165"/>
+      <c r="L194" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M194" s="165"/>
     </row>
-    <row r="195" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="122">
         <v>228</v>
       </c>
@@ -37263,10 +37330,12 @@
       <c r="K195" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L195" s="165"/>
+      <c r="L195" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M195" s="165"/>
     </row>
-    <row r="196" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="143">
         <v>229</v>
       </c>
@@ -37301,10 +37370,12 @@
       <c r="K196" s="120" t="s">
         <v>550</v>
       </c>
-      <c r="L196" s="165"/>
+      <c r="L196" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M196" s="165"/>
     </row>
-    <row r="197" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="122">
         <v>230</v>
       </c>
@@ -37339,10 +37410,12 @@
       <c r="K197" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="L197" s="165"/>
+      <c r="L197" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M197" s="165"/>
     </row>
-    <row r="198" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="122">
         <v>231</v>
       </c>
@@ -37377,10 +37450,14 @@
       <c r="K198" s="120" t="s">
         <v>549</v>
       </c>
-      <c r="L198" s="165"/>
-      <c r="M198" s="165"/>
-    </row>
-    <row r="199" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L198" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M198" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="143">
         <v>232</v>
       </c>
@@ -37415,10 +37492,14 @@
       <c r="K199" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L199" s="165"/>
-      <c r="M199" s="165"/>
-    </row>
-    <row r="200" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L199" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M199" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="122">
         <v>233</v>
       </c>
@@ -37453,10 +37534,14 @@
       <c r="K200" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L200" s="165"/>
-      <c r="M200" s="165"/>
-    </row>
-    <row r="201" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L200" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M200" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="122">
         <v>234</v>
       </c>
@@ -37491,10 +37576,14 @@
       <c r="K201" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L201" s="165"/>
-      <c r="M201" s="165"/>
-    </row>
-    <row r="202" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L201" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M201" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="143">
         <v>235</v>
       </c>
@@ -37529,10 +37618,14 @@
       <c r="K202" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L202" s="165"/>
-      <c r="M202" s="165"/>
-    </row>
-    <row r="203" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L202" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M202" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="122">
         <v>239</v>
       </c>
@@ -37574,7 +37667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="122">
         <v>240</v>
       </c>
@@ -37614,7 +37707,7 @@
       </c>
       <c r="M204" s="165"/>
     </row>
-    <row r="205" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="122">
         <v>242</v>
       </c>
@@ -37649,10 +37742,12 @@
       <c r="K205" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="L205" s="165"/>
+      <c r="L205" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M205" s="165"/>
     </row>
-    <row r="206" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="122">
         <v>243</v>
       </c>
@@ -37687,10 +37782,12 @@
       <c r="K206" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L206" s="165"/>
+      <c r="L206" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M206" s="165"/>
     </row>
-    <row r="207" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="143">
         <v>244</v>
       </c>
@@ -37725,10 +37822,12 @@
       <c r="K207" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L207" s="165"/>
+      <c r="L207" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M207" s="165"/>
     </row>
-    <row r="208" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="122">
         <v>245</v>
       </c>
@@ -37763,10 +37862,12 @@
       <c r="K208" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L208" s="165"/>
+      <c r="L208" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M208" s="165"/>
     </row>
-    <row r="209" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="122">
         <v>246</v>
       </c>
@@ -37801,10 +37902,12 @@
       <c r="K209" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="L209" s="165"/>
+      <c r="L209" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M209" s="165"/>
     </row>
-    <row r="210" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="143">
         <v>247</v>
       </c>
@@ -37839,10 +37942,12 @@
       <c r="K210" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L210" s="165"/>
+      <c r="L210" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M210" s="165"/>
     </row>
-    <row r="211" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="122">
         <v>248</v>
       </c>
@@ -37877,10 +37982,12 @@
       <c r="K211" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L211" s="165"/>
+      <c r="L211" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M211" s="165"/>
     </row>
-    <row r="212" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="122">
         <v>249</v>
       </c>
@@ -37915,10 +38022,12 @@
       <c r="K212" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="L212" s="165"/>
+      <c r="L212" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M212" s="165"/>
     </row>
-    <row r="213" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="122">
         <v>252</v>
       </c>
@@ -37953,10 +38062,14 @@
       <c r="K213" s="120" t="s">
         <v>547</v>
       </c>
-      <c r="L213" s="165"/>
-      <c r="M213" s="165"/>
-    </row>
-    <row r="214" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L213" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M213" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="143">
         <v>253</v>
       </c>
@@ -37991,10 +38104,14 @@
       <c r="K214" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L214" s="165"/>
-      <c r="M214" s="165"/>
-    </row>
-    <row r="215" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L214" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M214" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="122">
         <v>254</v>
       </c>
@@ -38029,10 +38146,14 @@
       <c r="K215" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L215" s="165"/>
-      <c r="M215" s="165"/>
-    </row>
-    <row r="216" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L215" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M215" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="122">
         <v>255</v>
       </c>
@@ -38067,10 +38188,14 @@
       <c r="K216" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L216" s="165"/>
-      <c r="M216" s="165"/>
-    </row>
-    <row r="217" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L216" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M216" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="143">
         <v>256</v>
       </c>
@@ -38105,10 +38230,14 @@
       <c r="K217" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L217" s="165"/>
-      <c r="M217" s="165"/>
-    </row>
-    <row r="218" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L217" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M217" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="122">
         <v>257</v>
       </c>
@@ -38143,10 +38272,12 @@
       <c r="K218" s="120" t="s">
         <v>546</v>
       </c>
-      <c r="L218" s="165"/>
+      <c r="L218" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M218" s="165"/>
     </row>
-    <row r="219" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="122">
         <v>258</v>
       </c>
@@ -38181,10 +38312,12 @@
       <c r="K219" s="120" t="s">
         <v>546</v>
       </c>
-      <c r="L219" s="165"/>
+      <c r="L219" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M219" s="165"/>
     </row>
-    <row r="220" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="143">
         <v>259</v>
       </c>
@@ -38219,10 +38352,12 @@
       <c r="K220" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L220" s="165"/>
+      <c r="L220" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M220" s="165"/>
     </row>
-    <row r="221" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="122">
         <v>260</v>
       </c>
@@ -38257,10 +38392,12 @@
       <c r="K221" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L221" s="165"/>
+      <c r="L221" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M221" s="165"/>
     </row>
-    <row r="222" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="122">
         <v>261</v>
       </c>
@@ -38295,10 +38432,12 @@
       <c r="K222" s="120" t="s">
         <v>546</v>
       </c>
-      <c r="L222" s="165"/>
+      <c r="L222" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M222" s="165"/>
     </row>
-    <row r="223" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="143">
         <v>262</v>
       </c>
@@ -38333,10 +38472,12 @@
       <c r="K223" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="L223" s="165"/>
+      <c r="L223" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M223" s="165"/>
     </row>
-    <row r="224" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="122">
         <v>263</v>
       </c>
@@ -38371,10 +38512,12 @@
       <c r="K224" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L224" s="165"/>
+      <c r="L224" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M224" s="165"/>
     </row>
-    <row r="225" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="122">
         <v>264</v>
       </c>
@@ -38409,10 +38552,12 @@
       <c r="K225" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L225" s="165"/>
+      <c r="L225" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M225" s="165"/>
     </row>
-    <row r="226" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="143">
         <v>265</v>
       </c>
@@ -38447,10 +38592,12 @@
       <c r="K226" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L226" s="165"/>
+      <c r="L226" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M226" s="165"/>
     </row>
-    <row r="227" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="122">
         <v>266</v>
       </c>
@@ -38485,10 +38632,14 @@
       <c r="K227" s="120" t="s">
         <v>545</v>
       </c>
-      <c r="L227" s="165"/>
-      <c r="M227" s="165"/>
-    </row>
-    <row r="228" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L227" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M227" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="122">
         <v>267</v>
       </c>
@@ -38523,10 +38674,14 @@
       <c r="K228" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L228" s="165"/>
-      <c r="M228" s="165"/>
-    </row>
-    <row r="229" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L228" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M228" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="143">
         <v>268</v>
       </c>
@@ -38561,10 +38716,14 @@
       <c r="K229" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="L229" s="165"/>
-      <c r="M229" s="165"/>
-    </row>
-    <row r="230" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L229" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M229" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="122">
         <v>269</v>
       </c>
@@ -38599,10 +38758,14 @@
       <c r="K230" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="L230" s="165"/>
-      <c r="M230" s="165"/>
-    </row>
-    <row r="231" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L230" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M230" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="122">
         <v>270</v>
       </c>
@@ -38637,10 +38800,14 @@
       <c r="K231" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="L231" s="165"/>
-      <c r="M231" s="165"/>
-    </row>
-    <row r="232" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L231" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="M231" s="165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="143">
         <v>271</v>
       </c>
@@ -38680,7 +38847,7 @@
       </c>
       <c r="M232" s="165"/>
     </row>
-    <row r="233" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="122">
         <v>272</v>
       </c>
@@ -38720,7 +38887,7 @@
       </c>
       <c r="M233" s="165"/>
     </row>
-    <row r="234" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="122">
         <v>273</v>
       </c>
@@ -38760,7 +38927,7 @@
       </c>
       <c r="M234" s="165"/>
     </row>
-    <row r="235" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="143">
         <v>274</v>
       </c>
@@ -38800,7 +38967,7 @@
       </c>
       <c r="M235" s="165"/>
     </row>
-    <row r="236" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="122">
         <v>275</v>
       </c>
@@ -38840,7 +39007,7 @@
       </c>
       <c r="M236" s="165"/>
     </row>
-    <row r="237" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="143">
         <v>277</v>
       </c>
@@ -38878,7 +39045,7 @@
       <c r="L237" s="165"/>
       <c r="M237" s="165"/>
     </row>
-    <row r="238" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="122">
         <v>278</v>
       </c>
@@ -38916,7 +39083,7 @@
       <c r="L238" s="165"/>
       <c r="M238" s="165"/>
     </row>
-    <row r="239" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="122">
         <v>279</v>
       </c>
@@ -38954,7 +39121,7 @@
       <c r="L239" s="165"/>
       <c r="M239" s="165"/>
     </row>
-    <row r="240" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="143">
         <v>280</v>
       </c>
@@ -38992,7 +39159,7 @@
       <c r="L240" s="165"/>
       <c r="M240" s="165"/>
     </row>
-    <row r="241" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="122">
         <v>281</v>
       </c>
@@ -39030,7 +39197,7 @@
       <c r="L241" s="165"/>
       <c r="M241" s="165"/>
     </row>
-    <row r="242" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="122">
         <v>282</v>
       </c>
@@ -39068,7 +39235,7 @@
       <c r="L242" s="165"/>
       <c r="M242" s="165"/>
     </row>
-    <row r="243" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="143">
         <v>283</v>
       </c>
@@ -39106,7 +39273,7 @@
       <c r="L243" s="165"/>
       <c r="M243" s="165"/>
     </row>
-    <row r="244" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="122">
         <v>284</v>
       </c>
@@ -39144,7 +39311,7 @@
       <c r="L244" s="165"/>
       <c r="M244" s="165"/>
     </row>
-    <row r="245" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="122">
         <v>285</v>
       </c>
@@ -39182,7 +39349,7 @@
       <c r="L245" s="165"/>
       <c r="M245" s="165"/>
     </row>
-    <row r="246" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="143">
         <v>286</v>
       </c>
@@ -39220,7 +39387,7 @@
       <c r="L246" s="165"/>
       <c r="M246" s="165"/>
     </row>
-    <row r="247" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="122">
         <v>287</v>
       </c>
@@ -39258,7 +39425,7 @@
       <c r="L247" s="165"/>
       <c r="M247" s="165"/>
     </row>
-    <row r="248" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="122">
         <v>288</v>
       </c>
@@ -39296,7 +39463,7 @@
       <c r="L248" s="165"/>
       <c r="M248" s="165"/>
     </row>
-    <row r="249" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="143">
         <v>289</v>
       </c>
@@ -39334,7 +39501,7 @@
       <c r="L249" s="165"/>
       <c r="M249" s="165"/>
     </row>
-    <row r="250" spans="1:13" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="122">
         <v>290</v>
       </c>
@@ -39372,7 +39539,7 @@
       <c r="L250" s="165"/>
       <c r="M250" s="165"/>
     </row>
-    <row r="251" spans="1:13" s="126" customFormat="1" ht="57" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" s="126" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="200" t="s">
         <v>17</v>
       </c>
@@ -39399,7 +39566,7 @@
       </c>
       <c r="K251" s="168"/>
     </row>
-    <row r="252" spans="1:13" s="126" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" s="126" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="127"/>
       <c r="D252" s="142"/>
       <c r="H252" s="160" t="s">
@@ -39413,13 +39580,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E13:K252">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="5658"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="E13:K252"/>
   <mergeCells count="7">
     <mergeCell ref="A251:F251"/>
     <mergeCell ref="A2:K2"/>
@@ -40412,34 +40573,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -40455,19 +40616,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -40566,13 +40727,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -40591,7 +40752,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -43950,34 +44111,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -43993,19 +44154,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -44104,13 +44265,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -44129,7 +44290,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -47968,34 +48129,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
       <c r="D2" s="203"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="204"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -48011,19 +48172,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="205"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -48122,13 +48283,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="193"/>
+      <c r="C12" s="191"/>
       <c r="D12" s="206"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -48147,7 +48308,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -51413,21 +51574,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="199"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -51445,21 +51606,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="181"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -51569,56 +51730,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="227" t="s">
+      <c r="D10" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="215" t="s">
+      <c r="E10" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="215" t="s">
+      <c r="F10" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="215" t="s">
+      <c r="G10" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="215" t="s">
+      <c r="H10" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="213" t="s">
+      <c r="I10" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="215" t="s">
+      <c r="J10" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="215" t="s">
+      <c r="K10" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="215" t="s">
+      <c r="L10" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="217" t="s">
+      <c r="M10" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="218"/>
+      <c r="N10" s="221"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="226"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="214"/>
-      <c r="J11" s="216"/>
-      <c r="K11" s="216"/>
-      <c r="L11" s="216"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -51753,31 +51914,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="221"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="224"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="222"/>
-      <c r="K18" s="223"/>
-      <c r="L18" s="223"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="224"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="227"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="212" t="s">
+      <c r="M20" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="212"/>
+      <c r="N20" s="234"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -51799,21 +51960,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="199"/>
+      <c r="N23" s="199"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -51831,21 +51992,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="181"/>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="181"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="199"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -51955,56 +52116,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="225" t="s">
+      <c r="B31" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="215" t="s">
+      <c r="C31" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="227" t="s">
+      <c r="D31" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="215" t="s">
+      <c r="E31" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="215" t="s">
+      <c r="F31" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="215" t="s">
+      <c r="G31" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="215" t="s">
+      <c r="H31" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="213" t="s">
+      <c r="I31" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="215" t="s">
+      <c r="J31" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="215" t="s">
+      <c r="K31" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="215" t="s">
+      <c r="L31" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="217" t="s">
+      <c r="M31" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="218"/>
+      <c r="N31" s="221"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="226"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="216"/>
-      <c r="K32" s="216"/>
-      <c r="L32" s="216"/>
+      <c r="B32" s="213"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="215"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -52098,31 +52259,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="229" t="s">
+      <c r="B38" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="230"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="230"/>
-      <c r="F38" s="230"/>
-      <c r="G38" s="230"/>
-      <c r="H38" s="231"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="229"/>
+      <c r="H38" s="230"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="232"/>
-      <c r="K38" s="233"/>
-      <c r="L38" s="233"/>
-      <c r="M38" s="233"/>
-      <c r="N38" s="234"/>
+      <c r="J38" s="231"/>
+      <c r="K38" s="232"/>
+      <c r="L38" s="232"/>
+      <c r="M38" s="232"/>
+      <c r="N38" s="233"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="212" t="s">
+      <c r="M40" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="212"/>
+      <c r="N40" s="234"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -52144,21 +52305,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="181" t="s">
+      <c r="B43" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="181"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="181"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="181"/>
-      <c r="M43" s="181"/>
-      <c r="N43" s="181"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="199"/>
+      <c r="F43" s="199"/>
+      <c r="G43" s="199"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="199"/>
+      <c r="K43" s="199"/>
+      <c r="L43" s="199"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="199"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -52176,21 +52337,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="181" t="s">
+      <c r="B45" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="181"/>
-      <c r="M45" s="181"/>
-      <c r="N45" s="181"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="199"/>
+      <c r="F45" s="199"/>
+      <c r="G45" s="199"/>
+      <c r="H45" s="199"/>
+      <c r="I45" s="199"/>
+      <c r="J45" s="199"/>
+      <c r="K45" s="199"/>
+      <c r="L45" s="199"/>
+      <c r="M45" s="199"/>
+      <c r="N45" s="199"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -52300,56 +52461,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="225" t="s">
+      <c r="B51" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="215" t="s">
+      <c r="C51" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="227" t="s">
+      <c r="D51" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="215" t="s">
+      <c r="E51" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="215" t="s">
+      <c r="F51" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="215" t="s">
+      <c r="G51" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="215" t="s">
+      <c r="H51" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="213" t="s">
+      <c r="I51" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="215" t="s">
+      <c r="J51" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="215" t="s">
+      <c r="K51" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="215" t="s">
+      <c r="L51" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="217" t="s">
+      <c r="M51" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="218"/>
+      <c r="N51" s="221"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="226"/>
-      <c r="C52" s="216"/>
-      <c r="D52" s="228"/>
-      <c r="E52" s="216"/>
-      <c r="F52" s="216"/>
-      <c r="G52" s="216"/>
-      <c r="H52" s="216"/>
-      <c r="I52" s="214"/>
-      <c r="J52" s="216"/>
-      <c r="K52" s="216"/>
-      <c r="L52" s="216"/>
+      <c r="B52" s="213"/>
+      <c r="C52" s="215"/>
+      <c r="D52" s="217"/>
+      <c r="E52" s="215"/>
+      <c r="F52" s="215"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="219"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -52426,31 +52587,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="229" t="s">
+      <c r="B57" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="230"/>
-      <c r="D57" s="230"/>
-      <c r="E57" s="230"/>
-      <c r="F57" s="230"/>
-      <c r="G57" s="230"/>
-      <c r="H57" s="231"/>
+      <c r="C57" s="229"/>
+      <c r="D57" s="229"/>
+      <c r="E57" s="229"/>
+      <c r="F57" s="229"/>
+      <c r="G57" s="229"/>
+      <c r="H57" s="230"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="232"/>
-      <c r="K57" s="233"/>
-      <c r="L57" s="233"/>
-      <c r="M57" s="233"/>
-      <c r="N57" s="234"/>
+      <c r="J57" s="231"/>
+      <c r="K57" s="232"/>
+      <c r="L57" s="232"/>
+      <c r="M57" s="232"/>
+      <c r="N57" s="233"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="212" t="s">
+      <c r="M59" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="212"/>
+      <c r="N59" s="234"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -52480,21 +52641,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="181" t="s">
+      <c r="B64" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="181"/>
-      <c r="D64" s="181"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
-      <c r="G64" s="181"/>
-      <c r="H64" s="181"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="181"/>
-      <c r="K64" s="181"/>
-      <c r="L64" s="181"/>
-      <c r="M64" s="181"/>
-      <c r="N64" s="181"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="199"/>
+      <c r="F64" s="199"/>
+      <c r="G64" s="199"/>
+      <c r="H64" s="199"/>
+      <c r="I64" s="199"/>
+      <c r="J64" s="199"/>
+      <c r="K64" s="199"/>
+      <c r="L64" s="199"/>
+      <c r="M64" s="199"/>
+      <c r="N64" s="199"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -52512,21 +52673,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="181" t="s">
+      <c r="B66" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="181"/>
-      <c r="D66" s="181"/>
-      <c r="E66" s="181"/>
-      <c r="F66" s="181"/>
-      <c r="G66" s="181"/>
-      <c r="H66" s="181"/>
-      <c r="I66" s="181"/>
-      <c r="J66" s="181"/>
-      <c r="K66" s="181"/>
-      <c r="L66" s="181"/>
-      <c r="M66" s="181"/>
-      <c r="N66" s="181"/>
+      <c r="C66" s="199"/>
+      <c r="D66" s="199"/>
+      <c r="E66" s="199"/>
+      <c r="F66" s="199"/>
+      <c r="G66" s="199"/>
+      <c r="H66" s="199"/>
+      <c r="I66" s="199"/>
+      <c r="J66" s="199"/>
+      <c r="K66" s="199"/>
+      <c r="L66" s="199"/>
+      <c r="M66" s="199"/>
+      <c r="N66" s="199"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -52636,56 +52797,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="225" t="s">
+      <c r="B72" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="215" t="s">
+      <c r="C72" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="227" t="s">
+      <c r="D72" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="215" t="s">
+      <c r="E72" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="215" t="s">
+      <c r="F72" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="215" t="s">
+      <c r="G72" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="215" t="s">
+      <c r="H72" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="213" t="s">
+      <c r="I72" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="215" t="s">
+      <c r="J72" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="215" t="s">
+      <c r="K72" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="215" t="s">
+      <c r="L72" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="217" t="s">
+      <c r="M72" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="218"/>
+      <c r="N72" s="221"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="226"/>
-      <c r="C73" s="216"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="216"/>
-      <c r="F73" s="216"/>
-      <c r="G73" s="216"/>
-      <c r="H73" s="216"/>
-      <c r="I73" s="214"/>
-      <c r="J73" s="216"/>
-      <c r="K73" s="216"/>
-      <c r="L73" s="216"/>
+      <c r="B73" s="213"/>
+      <c r="C73" s="215"/>
+      <c r="D73" s="217"/>
+      <c r="E73" s="215"/>
+      <c r="F73" s="215"/>
+      <c r="G73" s="215"/>
+      <c r="H73" s="215"/>
+      <c r="I73" s="219"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -52745,31 +52906,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="219" t="s">
+      <c r="B77" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="220"/>
-      <c r="D77" s="220"/>
-      <c r="E77" s="220"/>
-      <c r="F77" s="220"/>
-      <c r="G77" s="220"/>
-      <c r="H77" s="221"/>
+      <c r="C77" s="223"/>
+      <c r="D77" s="223"/>
+      <c r="E77" s="223"/>
+      <c r="F77" s="223"/>
+      <c r="G77" s="223"/>
+      <c r="H77" s="224"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="222"/>
-      <c r="K77" s="223"/>
-      <c r="L77" s="223"/>
-      <c r="M77" s="223"/>
-      <c r="N77" s="224"/>
+      <c r="J77" s="225"/>
+      <c r="K77" s="226"/>
+      <c r="L77" s="226"/>
+      <c r="M77" s="226"/>
+      <c r="N77" s="227"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="212" t="s">
+      <c r="M79" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="212"/>
+      <c r="N79" s="234"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -52814,20 +52975,44 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="B38:H38"/>
@@ -52844,44 +53029,20 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="798" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="798" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,15 +25,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.6.3.1.1.(1.1.3G.G'!$F$13:$J$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.6.7.1.6.(1.2.3)'!$E$13:$K$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.6.7.1.6.(1.2.3)'!$E$13:$M$252</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2016'!$E$13:$P$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'COSTO DIRECTO'!$E$13:$K$200</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">G.SUPERVISION!$E$15:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">G.SUPERVISION!$E$13:$K$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GASTOS GENERALES'!$E$13:$K$168</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'GESTION PROYECT.'!$E$13:$K$225</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MODELO!$B$13:$D$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'ACTIVOS FIJOS'!$B$1:$N$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">EQUIPAMIENTO!$B$1:$N$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">G.SUPERVISION!$A$1:$K$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -569,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5288" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5329" uniqueCount="650">
   <si>
     <t>TARJETA DE LIQUIDACION FINANCIERA</t>
   </si>
@@ -2506,6 +2507,21 @@
   </si>
   <si>
     <t>Victor Hugo Roman Segovia   - Descuento Judicial de  la Planilla del Personal Obrero y/o Contratado, según correspondiente al mes de junio</t>
+  </si>
+  <si>
+    <t>2.234102 RECUPERACION Y MEJORAMIENTO DE LA COBERTURA FORESTAL PARA AMPLIAR SERVICIOS AMBIENTALES EN LAS MICROCUENCAS CHACABAMBA, CHUMBAO Y RIO BLANCO AHUAYRO DE LA PROVINCIA DE CHINCHEROS - REGION APURIMAC</t>
+  </si>
+  <si>
+    <t>RECUPERACION Y MEJORAMIENTO DE LA COBERTURA FORESTAL PARA AMPLIAR SERVICIOS AMBIENTALES EN LAS MICROCUENCAS CHACABAMBA, CHUMBAO Y RIO BLANCO AHUAYRO DE LA PROVINCIA DE CHINCHEROS - REGION APURIMAC</t>
+  </si>
+  <si>
+    <t>RECURSOS ORDINARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abancay, Agosto 2020 </t>
   </si>
 </sst>
 </file>
@@ -2758,7 +2774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3135,12 +3151,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3664,6 +3728,87 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="32" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="30" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3748,14 +3893,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4153,42 +4322,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4208,23 +4377,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4347,38 +4516,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="192" t="s">
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="192" t="s">
+      <c r="F12" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="194" t="s">
+      <c r="G12" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="196" t="s">
+      <c r="H12" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="194" t="s">
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4388,9 +4557,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="190"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="219"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4412,7 +4581,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="190"/>
+      <c r="O13" s="219"/>
     </row>
     <row r="14" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -4983,14 +5152,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="188"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="217"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5023,42 +5192,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="181" t="s">
+      <c r="A35" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="210"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="210"/>
+      <c r="O35" s="210"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="182"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="182"/>
-      <c r="O36" s="182"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="211"/>
+      <c r="M36" s="211"/>
+      <c r="N36" s="211"/>
+      <c r="O36" s="211"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5181,38 +5350,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="189" t="s">
+      <c r="A43" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="191" t="s">
+      <c r="B43" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="192" t="s">
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
+      <c r="E43" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="192" t="s">
+      <c r="F43" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="194" t="s">
+      <c r="G43" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="196" t="s">
+      <c r="H43" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="197"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="197"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="194" t="s">
+      <c r="I43" s="226"/>
+      <c r="J43" s="226"/>
+      <c r="K43" s="226"/>
+      <c r="L43" s="226"/>
+      <c r="M43" s="226"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="190"/>
+      <c r="A44" s="219"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5222,9 +5391,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="193"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="190"/>
+      <c r="E44" s="222"/>
+      <c r="F44" s="224"/>
+      <c r="G44" s="219"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5246,17 +5415,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="190"/>
+      <c r="O44" s="219"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="185"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="214"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5711,14 +5880,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="186" t="s">
+      <c r="A66" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="187"/>
-      <c r="C66" s="187"/>
-      <c r="D66" s="187"/>
-      <c r="E66" s="187"/>
-      <c r="F66" s="188"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="217"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5751,42 +5920,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="181" t="s">
+      <c r="A69" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="181"/>
-      <c r="C69" s="181"/>
-      <c r="D69" s="181"/>
-      <c r="E69" s="181"/>
-      <c r="F69" s="181"/>
-      <c r="G69" s="181"/>
-      <c r="H69" s="181"/>
-      <c r="I69" s="181"/>
-      <c r="J69" s="181"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="181"/>
-      <c r="M69" s="181"/>
-      <c r="N69" s="181"/>
-      <c r="O69" s="181"/>
+      <c r="B69" s="210"/>
+      <c r="C69" s="210"/>
+      <c r="D69" s="210"/>
+      <c r="E69" s="210"/>
+      <c r="F69" s="210"/>
+      <c r="G69" s="210"/>
+      <c r="H69" s="210"/>
+      <c r="I69" s="210"/>
+      <c r="J69" s="210"/>
+      <c r="K69" s="210"/>
+      <c r="L69" s="210"/>
+      <c r="M69" s="210"/>
+      <c r="N69" s="210"/>
+      <c r="O69" s="210"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="182" t="s">
+      <c r="A70" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="182"/>
-      <c r="C70" s="182"/>
-      <c r="D70" s="182"/>
-      <c r="E70" s="182"/>
-      <c r="F70" s="182"/>
-      <c r="G70" s="182"/>
-      <c r="H70" s="182"/>
-      <c r="I70" s="182"/>
-      <c r="J70" s="182"/>
-      <c r="K70" s="182"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="182"/>
-      <c r="N70" s="182"/>
-      <c r="O70" s="182"/>
+      <c r="B70" s="211"/>
+      <c r="C70" s="211"/>
+      <c r="D70" s="211"/>
+      <c r="E70" s="211"/>
+      <c r="F70" s="211"/>
+      <c r="G70" s="211"/>
+      <c r="H70" s="211"/>
+      <c r="I70" s="211"/>
+      <c r="J70" s="211"/>
+      <c r="K70" s="211"/>
+      <c r="L70" s="211"/>
+      <c r="M70" s="211"/>
+      <c r="N70" s="211"/>
+      <c r="O70" s="211"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -5909,38 +6078,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="189" t="s">
+      <c r="A77" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="191" t="s">
+      <c r="B77" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="191"/>
-      <c r="D77" s="191"/>
-      <c r="E77" s="192" t="s">
+      <c r="C77" s="220"/>
+      <c r="D77" s="220"/>
+      <c r="E77" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="192" t="s">
+      <c r="F77" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="194" t="s">
+      <c r="G77" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="196" t="s">
+      <c r="H77" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="197"/>
-      <c r="J77" s="197"/>
-      <c r="K77" s="197"/>
-      <c r="L77" s="197"/>
-      <c r="M77" s="197"/>
-      <c r="N77" s="198"/>
-      <c r="O77" s="194" t="s">
+      <c r="I77" s="226"/>
+      <c r="J77" s="226"/>
+      <c r="K77" s="226"/>
+      <c r="L77" s="226"/>
+      <c r="M77" s="226"/>
+      <c r="N77" s="227"/>
+      <c r="O77" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="190"/>
+      <c r="A78" s="219"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -5950,9 +6119,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="193"/>
-      <c r="F78" s="195"/>
-      <c r="G78" s="190"/>
+      <c r="E78" s="222"/>
+      <c r="F78" s="224"/>
+      <c r="G78" s="219"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -5974,17 +6143,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="190"/>
+      <c r="O78" s="219"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="183" t="s">
+      <c r="A79" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="184"/>
-      <c r="C79" s="184"/>
-      <c r="D79" s="184"/>
-      <c r="E79" s="184"/>
-      <c r="F79" s="185"/>
+      <c r="B79" s="213"/>
+      <c r="C79" s="213"/>
+      <c r="D79" s="213"/>
+      <c r="E79" s="213"/>
+      <c r="F79" s="214"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6417,14 +6586,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="186" t="s">
+      <c r="A99" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="187"/>
-      <c r="C99" s="187"/>
-      <c r="D99" s="187"/>
-      <c r="E99" s="187"/>
-      <c r="F99" s="188"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="216"/>
+      <c r="D99" s="216"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="217"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6510,42 +6679,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="181" t="s">
+      <c r="A105" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="181"/>
-      <c r="C105" s="181"/>
-      <c r="D105" s="181"/>
-      <c r="E105" s="181"/>
-      <c r="F105" s="181"/>
-      <c r="G105" s="181"/>
-      <c r="H105" s="181"/>
-      <c r="I105" s="181"/>
-      <c r="J105" s="181"/>
-      <c r="K105" s="181"/>
-      <c r="L105" s="181"/>
-      <c r="M105" s="181"/>
-      <c r="N105" s="181"/>
-      <c r="O105" s="181"/>
+      <c r="B105" s="210"/>
+      <c r="C105" s="210"/>
+      <c r="D105" s="210"/>
+      <c r="E105" s="210"/>
+      <c r="F105" s="210"/>
+      <c r="G105" s="210"/>
+      <c r="H105" s="210"/>
+      <c r="I105" s="210"/>
+      <c r="J105" s="210"/>
+      <c r="K105" s="210"/>
+      <c r="L105" s="210"/>
+      <c r="M105" s="210"/>
+      <c r="N105" s="210"/>
+      <c r="O105" s="210"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="182" t="s">
+      <c r="A106" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="182"/>
-      <c r="C106" s="182"/>
-      <c r="D106" s="182"/>
-      <c r="E106" s="182"/>
-      <c r="F106" s="182"/>
-      <c r="G106" s="182"/>
-      <c r="H106" s="182"/>
-      <c r="I106" s="182"/>
-      <c r="J106" s="182"/>
-      <c r="K106" s="182"/>
-      <c r="L106" s="182"/>
-      <c r="M106" s="182"/>
-      <c r="N106" s="182"/>
-      <c r="O106" s="182"/>
+      <c r="B106" s="211"/>
+      <c r="C106" s="211"/>
+      <c r="D106" s="211"/>
+      <c r="E106" s="211"/>
+      <c r="F106" s="211"/>
+      <c r="G106" s="211"/>
+      <c r="H106" s="211"/>
+      <c r="I106" s="211"/>
+      <c r="J106" s="211"/>
+      <c r="K106" s="211"/>
+      <c r="L106" s="211"/>
+      <c r="M106" s="211"/>
+      <c r="N106" s="211"/>
+      <c r="O106" s="211"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6565,23 +6734,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="199" t="s">
+      <c r="A108" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="199"/>
-      <c r="C108" s="199"/>
-      <c r="D108" s="199"/>
-      <c r="E108" s="199"/>
-      <c r="F108" s="199"/>
-      <c r="G108" s="199"/>
-      <c r="H108" s="199"/>
-      <c r="I108" s="199"/>
-      <c r="J108" s="199"/>
-      <c r="K108" s="199"/>
-      <c r="L108" s="199"/>
-      <c r="M108" s="199"/>
-      <c r="N108" s="199"/>
-      <c r="O108" s="199"/>
+      <c r="B108" s="228"/>
+      <c r="C108" s="228"/>
+      <c r="D108" s="228"/>
+      <c r="E108" s="228"/>
+      <c r="F108" s="228"/>
+      <c r="G108" s="228"/>
+      <c r="H108" s="228"/>
+      <c r="I108" s="228"/>
+      <c r="J108" s="228"/>
+      <c r="K108" s="228"/>
+      <c r="L108" s="228"/>
+      <c r="M108" s="228"/>
+      <c r="N108" s="228"/>
+      <c r="O108" s="228"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6704,38 +6873,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="189" t="s">
+      <c r="A115" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="191" t="s">
+      <c r="B115" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="191"/>
-      <c r="D115" s="191"/>
-      <c r="E115" s="192" t="s">
+      <c r="C115" s="220"/>
+      <c r="D115" s="220"/>
+      <c r="E115" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="192" t="s">
+      <c r="F115" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="194" t="s">
+      <c r="G115" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="196" t="s">
+      <c r="H115" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="197"/>
-      <c r="J115" s="197"/>
-      <c r="K115" s="197"/>
-      <c r="L115" s="197"/>
-      <c r="M115" s="197"/>
-      <c r="N115" s="198"/>
-      <c r="O115" s="194" t="s">
+      <c r="I115" s="226"/>
+      <c r="J115" s="226"/>
+      <c r="K115" s="226"/>
+      <c r="L115" s="226"/>
+      <c r="M115" s="226"/>
+      <c r="N115" s="227"/>
+      <c r="O115" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="190"/>
+      <c r="A116" s="219"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6745,9 +6914,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="193"/>
-      <c r="F116" s="195"/>
-      <c r="G116" s="190"/>
+      <c r="E116" s="222"/>
+      <c r="F116" s="224"/>
+      <c r="G116" s="219"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6769,7 +6938,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="190"/>
+      <c r="O116" s="219"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -6898,14 +7067,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="186" t="s">
+      <c r="A122" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="187"/>
-      <c r="C122" s="187"/>
-      <c r="D122" s="187"/>
-      <c r="E122" s="187"/>
-      <c r="F122" s="188"/>
+      <c r="B122" s="216"/>
+      <c r="C122" s="216"/>
+      <c r="D122" s="216"/>
+      <c r="E122" s="216"/>
+      <c r="F122" s="217"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7028,21 +7197,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7152,56 +7321,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="214" t="s">
+      <c r="C9" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="216" t="s">
+      <c r="D9" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="214" t="s">
+      <c r="E9" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="214" t="s">
+      <c r="F9" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="214" t="s">
+      <c r="G9" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="214" t="s">
+      <c r="H9" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="218" t="s">
+      <c r="I9" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="214" t="s">
+      <c r="J9" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="214" t="s">
+      <c r="K9" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="214" t="s">
+      <c r="L9" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="220" t="s">
+      <c r="M9" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="221"/>
+      <c r="N9" s="258"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="213"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
+      <c r="B10" s="250"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7630,44 +7799,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="224"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="260"/>
+      <c r="E31" s="260"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="261"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="225"/>
-      <c r="K31" s="226"/>
-      <c r="L31" s="226"/>
-      <c r="M31" s="226"/>
-      <c r="N31" s="227"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="263"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
+      <c r="N31" s="264"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="199" t="s">
+      <c r="B35" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="199"/>
-      <c r="L35" s="199"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="199"/>
+      <c r="C35" s="228"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="228"/>
+      <c r="K35" s="228"/>
+      <c r="L35" s="228"/>
+      <c r="M35" s="228"/>
+      <c r="N35" s="228"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7777,56 +7946,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="212" t="s">
+      <c r="B42" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="214" t="s">
+      <c r="C42" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="216" t="s">
+      <c r="D42" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="214" t="s">
+      <c r="E42" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="214" t="s">
+      <c r="F42" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="214" t="s">
+      <c r="G42" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="214" t="s">
+      <c r="H42" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="218" t="s">
+      <c r="I42" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="214" t="s">
+      <c r="J42" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="214" t="s">
+      <c r="K42" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="214" t="s">
+      <c r="L42" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="220" t="s">
+      <c r="M42" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="221"/>
+      <c r="N42" s="258"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="213"/>
-      <c r="C43" s="215"/>
-      <c r="D43" s="217"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="215"/>
-      <c r="G43" s="215"/>
-      <c r="H43" s="215"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="215"/>
-      <c r="K43" s="215"/>
-      <c r="L43" s="215"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
+      <c r="G43" s="252"/>
+      <c r="H43" s="252"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="252"/>
+      <c r="L43" s="252"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -7835,24 +8004,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="228" t="s">
+      <c r="B44" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="229"/>
-      <c r="D44" s="229"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="229"/>
-      <c r="G44" s="229"/>
-      <c r="H44" s="230"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="266"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="266"/>
+      <c r="H44" s="267"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="231"/>
-      <c r="K44" s="232"/>
-      <c r="L44" s="232"/>
-      <c r="M44" s="232"/>
-      <c r="N44" s="233"/>
+      <c r="J44" s="268"/>
+      <c r="K44" s="269"/>
+      <c r="L44" s="269"/>
+      <c r="M44" s="269"/>
+      <c r="N44" s="270"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8216,44 +8385,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="222" t="s">
+      <c r="B63" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="223"/>
-      <c r="D63" s="223"/>
-      <c r="E63" s="223"/>
-      <c r="F63" s="223"/>
-      <c r="G63" s="223"/>
-      <c r="H63" s="224"/>
+      <c r="C63" s="260"/>
+      <c r="D63" s="260"/>
+      <c r="E63" s="260"/>
+      <c r="F63" s="260"/>
+      <c r="G63" s="260"/>
+      <c r="H63" s="261"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="225"/>
-      <c r="K63" s="226"/>
-      <c r="L63" s="226"/>
-      <c r="M63" s="226"/>
-      <c r="N63" s="227"/>
+      <c r="J63" s="262"/>
+      <c r="K63" s="263"/>
+      <c r="L63" s="263"/>
+      <c r="M63" s="263"/>
+      <c r="N63" s="264"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="199" t="s">
+      <c r="B67" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="199"/>
-      <c r="D67" s="199"/>
-      <c r="E67" s="199"/>
-      <c r="F67" s="199"/>
-      <c r="G67" s="199"/>
-      <c r="H67" s="199"/>
-      <c r="I67" s="199"/>
-      <c r="J67" s="199"/>
-      <c r="K67" s="199"/>
-      <c r="L67" s="199"/>
-      <c r="M67" s="199"/>
-      <c r="N67" s="199"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="228"/>
+      <c r="H67" s="228"/>
+      <c r="I67" s="228"/>
+      <c r="J67" s="228"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="228"/>
+      <c r="M67" s="228"/>
+      <c r="N67" s="228"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8363,56 +8532,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="212" t="s">
+      <c r="B74" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="214" t="s">
+      <c r="C74" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="216" t="s">
+      <c r="D74" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="214" t="s">
+      <c r="E74" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="214" t="s">
+      <c r="F74" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="214" t="s">
+      <c r="G74" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="214" t="s">
+      <c r="H74" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="218" t="s">
+      <c r="I74" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="214" t="s">
+      <c r="J74" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="214" t="s">
+      <c r="K74" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="214" t="s">
+      <c r="L74" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="220" t="s">
+      <c r="M74" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="221"/>
+      <c r="N74" s="258"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="213"/>
-      <c r="C75" s="215"/>
-      <c r="D75" s="217"/>
-      <c r="E75" s="215"/>
-      <c r="F75" s="215"/>
-      <c r="G75" s="215"/>
-      <c r="H75" s="215"/>
-      <c r="I75" s="219"/>
-      <c r="J75" s="215"/>
-      <c r="K75" s="215"/>
-      <c r="L75" s="215"/>
+      <c r="B75" s="250"/>
+      <c r="C75" s="252"/>
+      <c r="D75" s="254"/>
+      <c r="E75" s="252"/>
+      <c r="F75" s="252"/>
+      <c r="G75" s="252"/>
+      <c r="H75" s="252"/>
+      <c r="I75" s="256"/>
+      <c r="J75" s="252"/>
+      <c r="K75" s="252"/>
+      <c r="L75" s="252"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8421,24 +8590,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="228" t="s">
+      <c r="B76" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="229"/>
-      <c r="D76" s="229"/>
-      <c r="E76" s="229"/>
-      <c r="F76" s="229"/>
-      <c r="G76" s="229"/>
-      <c r="H76" s="230"/>
+      <c r="C76" s="266"/>
+      <c r="D76" s="266"/>
+      <c r="E76" s="266"/>
+      <c r="F76" s="266"/>
+      <c r="G76" s="266"/>
+      <c r="H76" s="267"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="231"/>
-      <c r="K76" s="232"/>
-      <c r="L76" s="232"/>
-      <c r="M76" s="232"/>
-      <c r="N76" s="233"/>
+      <c r="J76" s="268"/>
+      <c r="K76" s="269"/>
+      <c r="L76" s="269"/>
+      <c r="M76" s="269"/>
+      <c r="N76" s="270"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -8881,44 +9050,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="222" t="s">
+      <c r="B97" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="223"/>
-      <c r="D97" s="223"/>
-      <c r="E97" s="223"/>
-      <c r="F97" s="223"/>
-      <c r="G97" s="223"/>
-      <c r="H97" s="224"/>
+      <c r="C97" s="260"/>
+      <c r="D97" s="260"/>
+      <c r="E97" s="260"/>
+      <c r="F97" s="260"/>
+      <c r="G97" s="260"/>
+      <c r="H97" s="261"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="225"/>
-      <c r="K97" s="226"/>
-      <c r="L97" s="226"/>
-      <c r="M97" s="226"/>
-      <c r="N97" s="227"/>
+      <c r="J97" s="262"/>
+      <c r="K97" s="263"/>
+      <c r="L97" s="263"/>
+      <c r="M97" s="263"/>
+      <c r="N97" s="264"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="199" t="s">
+      <c r="B101" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="199"/>
-      <c r="D101" s="199"/>
-      <c r="E101" s="199"/>
-      <c r="F101" s="199"/>
-      <c r="G101" s="199"/>
-      <c r="H101" s="199"/>
-      <c r="I101" s="199"/>
-      <c r="J101" s="199"/>
-      <c r="K101" s="199"/>
-      <c r="L101" s="199"/>
-      <c r="M101" s="199"/>
-      <c r="N101" s="199"/>
+      <c r="C101" s="228"/>
+      <c r="D101" s="228"/>
+      <c r="E101" s="228"/>
+      <c r="F101" s="228"/>
+      <c r="G101" s="228"/>
+      <c r="H101" s="228"/>
+      <c r="I101" s="228"/>
+      <c r="J101" s="228"/>
+      <c r="K101" s="228"/>
+      <c r="L101" s="228"/>
+      <c r="M101" s="228"/>
+      <c r="N101" s="228"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9028,56 +9197,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="212" t="s">
+      <c r="B108" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="214" t="s">
+      <c r="C108" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="216" t="s">
+      <c r="D108" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="214" t="s">
+      <c r="E108" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="214" t="s">
+      <c r="F108" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="214" t="s">
+      <c r="G108" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="214" t="s">
+      <c r="H108" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="218" t="s">
+      <c r="I108" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="214" t="s">
+      <c r="J108" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="214" t="s">
+      <c r="K108" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="214" t="s">
+      <c r="L108" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="220" t="s">
+      <c r="M108" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="221"/>
+      <c r="N108" s="258"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="213"/>
-      <c r="C109" s="215"/>
-      <c r="D109" s="217"/>
-      <c r="E109" s="215"/>
-      <c r="F109" s="215"/>
-      <c r="G109" s="215"/>
-      <c r="H109" s="215"/>
-      <c r="I109" s="219"/>
-      <c r="J109" s="215"/>
-      <c r="K109" s="215"/>
-      <c r="L109" s="215"/>
+      <c r="B109" s="250"/>
+      <c r="C109" s="252"/>
+      <c r="D109" s="254"/>
+      <c r="E109" s="252"/>
+      <c r="F109" s="252"/>
+      <c r="G109" s="252"/>
+      <c r="H109" s="252"/>
+      <c r="I109" s="256"/>
+      <c r="J109" s="252"/>
+      <c r="K109" s="252"/>
+      <c r="L109" s="252"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9086,24 +9255,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="228" t="s">
+      <c r="B110" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="229"/>
-      <c r="D110" s="229"/>
-      <c r="E110" s="229"/>
-      <c r="F110" s="229"/>
-      <c r="G110" s="229"/>
-      <c r="H110" s="230"/>
+      <c r="C110" s="266"/>
+      <c r="D110" s="266"/>
+      <c r="E110" s="266"/>
+      <c r="F110" s="266"/>
+      <c r="G110" s="266"/>
+      <c r="H110" s="267"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="231"/>
-      <c r="K110" s="232"/>
-      <c r="L110" s="232"/>
-      <c r="M110" s="232"/>
-      <c r="N110" s="233"/>
+      <c r="J110" s="268"/>
+      <c r="K110" s="269"/>
+      <c r="L110" s="269"/>
+      <c r="M110" s="269"/>
+      <c r="N110" s="270"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9473,44 +9642,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="222" t="s">
+      <c r="B130" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="223"/>
-      <c r="D130" s="223"/>
-      <c r="E130" s="223"/>
-      <c r="F130" s="223"/>
-      <c r="G130" s="223"/>
-      <c r="H130" s="224"/>
+      <c r="C130" s="260"/>
+      <c r="D130" s="260"/>
+      <c r="E130" s="260"/>
+      <c r="F130" s="260"/>
+      <c r="G130" s="260"/>
+      <c r="H130" s="261"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="225"/>
-      <c r="K130" s="226"/>
-      <c r="L130" s="226"/>
-      <c r="M130" s="226"/>
-      <c r="N130" s="227"/>
+      <c r="J130" s="262"/>
+      <c r="K130" s="263"/>
+      <c r="L130" s="263"/>
+      <c r="M130" s="263"/>
+      <c r="N130" s="264"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="199" t="s">
+      <c r="B134" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="199"/>
-      <c r="D134" s="199"/>
-      <c r="E134" s="199"/>
-      <c r="F134" s="199"/>
-      <c r="G134" s="199"/>
-      <c r="H134" s="199"/>
-      <c r="I134" s="199"/>
-      <c r="J134" s="199"/>
-      <c r="K134" s="199"/>
-      <c r="L134" s="199"/>
-      <c r="M134" s="199"/>
-      <c r="N134" s="199"/>
+      <c r="C134" s="228"/>
+      <c r="D134" s="228"/>
+      <c r="E134" s="228"/>
+      <c r="F134" s="228"/>
+      <c r="G134" s="228"/>
+      <c r="H134" s="228"/>
+      <c r="I134" s="228"/>
+      <c r="J134" s="228"/>
+      <c r="K134" s="228"/>
+      <c r="L134" s="228"/>
+      <c r="M134" s="228"/>
+      <c r="N134" s="228"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9620,56 +9789,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="212" t="s">
+      <c r="B141" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="214" t="s">
+      <c r="C141" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="216" t="s">
+      <c r="D141" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="214" t="s">
+      <c r="E141" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="214" t="s">
+      <c r="F141" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="214" t="s">
+      <c r="G141" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="214" t="s">
+      <c r="H141" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="218" t="s">
+      <c r="I141" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="214" t="s">
+      <c r="J141" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="214" t="s">
+      <c r="K141" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="214" t="s">
+      <c r="L141" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="220" t="s">
+      <c r="M141" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="221"/>
+      <c r="N141" s="258"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="213"/>
-      <c r="C142" s="215"/>
-      <c r="D142" s="217"/>
-      <c r="E142" s="215"/>
-      <c r="F142" s="215"/>
-      <c r="G142" s="215"/>
-      <c r="H142" s="215"/>
-      <c r="I142" s="219"/>
-      <c r="J142" s="215"/>
-      <c r="K142" s="215"/>
-      <c r="L142" s="215"/>
+      <c r="B142" s="250"/>
+      <c r="C142" s="252"/>
+      <c r="D142" s="254"/>
+      <c r="E142" s="252"/>
+      <c r="F142" s="252"/>
+      <c r="G142" s="252"/>
+      <c r="H142" s="252"/>
+      <c r="I142" s="256"/>
+      <c r="J142" s="252"/>
+      <c r="K142" s="252"/>
+      <c r="L142" s="252"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9678,24 +9847,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="228" t="s">
+      <c r="B143" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="229"/>
-      <c r="D143" s="229"/>
-      <c r="E143" s="229"/>
-      <c r="F143" s="229"/>
-      <c r="G143" s="229"/>
-      <c r="H143" s="230"/>
+      <c r="C143" s="266"/>
+      <c r="D143" s="266"/>
+      <c r="E143" s="266"/>
+      <c r="F143" s="266"/>
+      <c r="G143" s="266"/>
+      <c r="H143" s="267"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="231"/>
-      <c r="K143" s="232"/>
-      <c r="L143" s="232"/>
-      <c r="M143" s="232"/>
-      <c r="N143" s="233"/>
+      <c r="J143" s="268"/>
+      <c r="K143" s="269"/>
+      <c r="L143" s="269"/>
+      <c r="M143" s="269"/>
+      <c r="N143" s="270"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10021,44 +10190,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="222" t="s">
+      <c r="B161" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="223"/>
-      <c r="D161" s="223"/>
-      <c r="E161" s="223"/>
-      <c r="F161" s="223"/>
-      <c r="G161" s="223"/>
-      <c r="H161" s="224"/>
+      <c r="C161" s="260"/>
+      <c r="D161" s="260"/>
+      <c r="E161" s="260"/>
+      <c r="F161" s="260"/>
+      <c r="G161" s="260"/>
+      <c r="H161" s="261"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="225"/>
-      <c r="K161" s="226"/>
-      <c r="L161" s="226"/>
-      <c r="M161" s="226"/>
-      <c r="N161" s="227"/>
+      <c r="J161" s="262"/>
+      <c r="K161" s="263"/>
+      <c r="L161" s="263"/>
+      <c r="M161" s="263"/>
+      <c r="N161" s="264"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="199" t="s">
+      <c r="B165" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="199"/>
-      <c r="D165" s="199"/>
-      <c r="E165" s="199"/>
-      <c r="F165" s="199"/>
-      <c r="G165" s="199"/>
-      <c r="H165" s="199"/>
-      <c r="I165" s="199"/>
-      <c r="J165" s="199"/>
-      <c r="K165" s="199"/>
-      <c r="L165" s="199"/>
-      <c r="M165" s="199"/>
-      <c r="N165" s="199"/>
+      <c r="C165" s="228"/>
+      <c r="D165" s="228"/>
+      <c r="E165" s="228"/>
+      <c r="F165" s="228"/>
+      <c r="G165" s="228"/>
+      <c r="H165" s="228"/>
+      <c r="I165" s="228"/>
+      <c r="J165" s="228"/>
+      <c r="K165" s="228"/>
+      <c r="L165" s="228"/>
+      <c r="M165" s="228"/>
+      <c r="N165" s="228"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10168,56 +10337,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="212" t="s">
+      <c r="B172" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="214" t="s">
+      <c r="C172" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="216" t="s">
+      <c r="D172" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="214" t="s">
+      <c r="E172" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="214" t="s">
+      <c r="F172" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="214" t="s">
+      <c r="G172" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="214" t="s">
+      <c r="H172" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="218" t="s">
+      <c r="I172" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="214" t="s">
+      <c r="J172" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="214" t="s">
+      <c r="K172" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="214" t="s">
+      <c r="L172" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="220" t="s">
+      <c r="M172" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="221"/>
+      <c r="N172" s="258"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="213"/>
-      <c r="C173" s="215"/>
-      <c r="D173" s="217"/>
-      <c r="E173" s="215"/>
-      <c r="F173" s="215"/>
-      <c r="G173" s="215"/>
-      <c r="H173" s="215"/>
-      <c r="I173" s="219"/>
-      <c r="J173" s="215"/>
-      <c r="K173" s="215"/>
-      <c r="L173" s="215"/>
+      <c r="B173" s="250"/>
+      <c r="C173" s="252"/>
+      <c r="D173" s="254"/>
+      <c r="E173" s="252"/>
+      <c r="F173" s="252"/>
+      <c r="G173" s="252"/>
+      <c r="H173" s="252"/>
+      <c r="I173" s="256"/>
+      <c r="J173" s="252"/>
+      <c r="K173" s="252"/>
+      <c r="L173" s="252"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10226,24 +10395,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="228" t="s">
+      <c r="B174" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="229"/>
-      <c r="D174" s="229"/>
-      <c r="E174" s="229"/>
-      <c r="F174" s="229"/>
-      <c r="G174" s="229"/>
-      <c r="H174" s="230"/>
+      <c r="C174" s="266"/>
+      <c r="D174" s="266"/>
+      <c r="E174" s="266"/>
+      <c r="F174" s="266"/>
+      <c r="G174" s="266"/>
+      <c r="H174" s="267"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="231"/>
-      <c r="K174" s="232"/>
-      <c r="L174" s="232"/>
-      <c r="M174" s="232"/>
-      <c r="N174" s="233"/>
+      <c r="J174" s="268"/>
+      <c r="K174" s="269"/>
+      <c r="L174" s="269"/>
+      <c r="M174" s="269"/>
+      <c r="N174" s="270"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10309,31 +10478,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="228" t="s">
+      <c r="B178" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="229"/>
-      <c r="D178" s="229"/>
-      <c r="E178" s="229"/>
-      <c r="F178" s="229"/>
-      <c r="G178" s="229"/>
-      <c r="H178" s="230"/>
+      <c r="C178" s="266"/>
+      <c r="D178" s="266"/>
+      <c r="E178" s="266"/>
+      <c r="F178" s="266"/>
+      <c r="G178" s="266"/>
+      <c r="H178" s="267"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="231"/>
-      <c r="K178" s="232"/>
-      <c r="L178" s="232"/>
-      <c r="M178" s="232"/>
-      <c r="N178" s="233"/>
+      <c r="J178" s="268"/>
+      <c r="K178" s="269"/>
+      <c r="L178" s="269"/>
+      <c r="M178" s="269"/>
+      <c r="N178" s="270"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="234" t="s">
+      <c r="M180" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="234"/>
+      <c r="N180" s="271"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11450,46 +11619,46 @@
       <c r="Q1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11511,25 +11680,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11664,14 +11833,14 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="206"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
       </c>
@@ -11681,23 +11850,23 @@
       <c r="G12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="207" t="s">
+      <c r="H12" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="208"/>
-      <c r="N12" s="208"/>
-      <c r="O12" s="208"/>
-      <c r="P12" s="208"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="237"/>
+      <c r="P12" s="237"/>
       <c r="Q12" s="159" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26328,14 +26497,14 @@
       <c r="S282" s="165"/>
     </row>
     <row r="283" spans="1:19" s="126" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="200" t="s">
+      <c r="A283" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="B283" s="201"/>
-      <c r="C283" s="201"/>
-      <c r="D283" s="201"/>
-      <c r="E283" s="201"/>
-      <c r="F283" s="202"/>
+      <c r="B283" s="230"/>
+      <c r="C283" s="230"/>
+      <c r="D283" s="230"/>
+      <c r="E283" s="230"/>
+      <c r="F283" s="231"/>
       <c r="G283" s="154">
         <f t="shared" ref="G283:P283" si="5">SUM(G14:G282)</f>
         <v>1193548.8500000001</v>
@@ -26427,60 +26596,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A4:N38"/>
+  <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="73.5703125" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+    <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-    </row>
-    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="182" t="s">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="228" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26495,59 +26690,73 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="199" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-    </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="138" t="s">
-        <v>467</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>648</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+    </row>
+    <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="139" t="s">
-        <v>201</v>
+      <c r="B8" s="244"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="245" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="245"/>
+    </row>
+    <row r="9" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="244"/>
+      <c r="C9" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="245" t="s">
+        <v>646</v>
+      </c>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="245"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="238"/>
+      <c r="C10" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>647</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -26557,211 +26766,247 @@
       <c r="J10" s="8"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="139" t="s">
-        <v>202</v>
-      </c>
+    <row r="11" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="139" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="10">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="10">
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="189" t="s">
+    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="191"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="174" t="s">
+      <c r="C12" s="220"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="162" t="s">
+      <c r="F12" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="159" t="s">
+      <c r="G12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="208"/>
-      <c r="I14" s="208"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="159" t="s">
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="159" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="190"/>
-      <c r="B15" s="2" t="s">
+    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="219"/>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="141" t="s">
+      <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="175"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="157" t="s">
+      <c r="E13" s="175"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="I15" s="158" t="s">
+      <c r="I13" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="J15" s="157" t="s">
+      <c r="J13" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K15" s="167"/>
-    </row>
-    <row r="16" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="143">
+      <c r="K13" s="167"/>
+    </row>
+    <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="143">
         <v>1</v>
       </c>
+      <c r="B14" s="144">
+        <v>42444</v>
+      </c>
+      <c r="C14" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="128">
+        <v>268</v>
+      </c>
+      <c r="E14" s="173">
+        <v>54455446</v>
+      </c>
+      <c r="F14" s="131">
+        <v>846</v>
+      </c>
+      <c r="G14" s="145">
+        <v>2192.75</v>
+      </c>
+      <c r="H14" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="146">
+        <v>2192.75</v>
+      </c>
+      <c r="J14" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="L14" t="s">
+        <v>624</v>
+      </c>
+      <c r="M14" t="s">
+        <v>635</v>
+      </c>
+      <c r="N14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="122">
+        <v>2</v>
+      </c>
+      <c r="B15" s="144">
+        <v>42432</v>
+      </c>
+      <c r="C15" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="128">
+        <v>227</v>
+      </c>
+      <c r="E15" s="173">
+        <v>1395013951</v>
+      </c>
+      <c r="F15" s="131">
+        <v>863</v>
+      </c>
+      <c r="G15" s="145">
+        <v>6250</v>
+      </c>
+      <c r="H15" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" s="146">
+        <v>6250</v>
+      </c>
+      <c r="K15" s="120" t="s">
+        <v>575</v>
+      </c>
+      <c r="N15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="122">
+        <v>3</v>
+      </c>
       <c r="B16" s="144">
-        <v>42444</v>
+        <v>42479</v>
       </c>
       <c r="C16" s="151" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D16" s="128">
-        <v>268</v>
-      </c>
-      <c r="E16" s="123" t="s">
-        <v>600</v>
+        <v>317</v>
+      </c>
+      <c r="E16" s="128">
+        <v>5898</v>
       </c>
       <c r="F16" s="131">
-        <v>846</v>
+        <v>1790</v>
       </c>
       <c r="G16" s="145">
-        <v>2192.75</v>
-      </c>
-      <c r="H16" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="I16" s="146">
-        <v>2192.75</v>
+        <v>8600</v>
+      </c>
+      <c r="H16" s="146">
+        <v>8600</v>
+      </c>
+      <c r="I16" s="146" t="s">
+        <v>211</v>
       </c>
       <c r="J16" s="146" t="s">
         <v>211</v>
       </c>
-      <c r="K16" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="L16" t="s">
-        <v>624</v>
-      </c>
-      <c r="M16" t="s">
-        <v>635</v>
-      </c>
-      <c r="N16" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122">
-        <v>2</v>
+      <c r="K16" s="156" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="143">
+        <v>4</v>
       </c>
       <c r="B17" s="144">
-        <v>42432</v>
+        <v>42486</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" s="128">
-        <v>227</v>
-      </c>
-      <c r="E17" s="123" t="s">
-        <v>601</v>
+        <v>383</v>
+      </c>
+      <c r="E17" s="128">
+        <v>6346</v>
       </c>
       <c r="F17" s="131">
-        <v>863</v>
+        <v>2568</v>
       </c>
       <c r="G17" s="145">
-        <v>6250</v>
-      </c>
-      <c r="H17" s="146" t="s">
-        <v>211</v>
+        <v>123</v>
+      </c>
+      <c r="H17" s="146">
+        <v>123</v>
       </c>
       <c r="I17" s="146" t="s">
         <v>211</v>
       </c>
-      <c r="J17" s="146">
-        <v>6250</v>
+      <c r="J17" s="146" t="s">
+        <v>211</v>
       </c>
       <c r="K17" s="120" t="s">
-        <v>575</v>
-      </c>
-      <c r="N17" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="122">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="144">
-        <v>42479</v>
+        <v>42486</v>
       </c>
       <c r="C18" s="151" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="123" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="123" t="s">
-        <v>270</v>
+      <c r="D18" s="128">
+        <v>383</v>
+      </c>
+      <c r="E18" s="128">
+        <v>6348</v>
       </c>
       <c r="F18" s="131">
-        <v>1790</v>
+        <v>2568</v>
       </c>
       <c r="G18" s="145">
-        <v>8600</v>
+        <v>387</v>
       </c>
       <c r="H18" s="146">
-        <v>8600</v>
+        <v>387</v>
       </c>
       <c r="I18" s="146" t="s">
         <v>211</v>
@@ -26769,13 +27014,13 @@
       <c r="J18" s="146" t="s">
         <v>211</v>
       </c>
-      <c r="K18" s="156" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143">
-        <v>4</v>
+      <c r="K18" s="120" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="122">
+        <v>6</v>
       </c>
       <c r="B19" s="144">
         <v>42486</v>
@@ -26783,20 +27028,20 @@
       <c r="C19" s="151" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="E19" s="123" t="s">
-        <v>287</v>
+      <c r="D19" s="128">
+        <v>383</v>
+      </c>
+      <c r="E19" s="128">
+        <v>6350</v>
       </c>
       <c r="F19" s="131">
         <v>2568</v>
       </c>
       <c r="G19" s="145">
-        <v>123</v>
+        <v>559.86</v>
       </c>
       <c r="H19" s="146">
-        <v>123</v>
+        <v>559.86</v>
       </c>
       <c r="I19" s="146" t="s">
         <v>211</v>
@@ -26805,12 +27050,12 @@
         <v>211</v>
       </c>
       <c r="K19" s="120" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="122">
-        <v>5</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="143">
+        <v>7</v>
       </c>
       <c r="B20" s="144">
         <v>42486</v>
@@ -26818,20 +27063,20 @@
       <c r="C20" s="151" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="E20" s="123" t="s">
-        <v>288</v>
+      <c r="D20" s="128">
+        <v>383</v>
+      </c>
+      <c r="E20" s="128">
+        <v>6344</v>
       </c>
       <c r="F20" s="131">
         <v>2568</v>
       </c>
       <c r="G20" s="145">
-        <v>387</v>
+        <v>3617.14</v>
       </c>
       <c r="H20" s="146">
-        <v>387</v>
+        <v>3617.14</v>
       </c>
       <c r="I20" s="146" t="s">
         <v>211</v>
@@ -26840,642 +27085,1206 @@
         <v>211</v>
       </c>
       <c r="K20" s="120" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="241" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="242"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="171">
+        <f>SUM(G14:G20)</f>
+        <v>21729.75</v>
+      </c>
+      <c r="H21" s="171">
+        <f t="shared" ref="H21:J21" si="0">SUM(H14:H20)</f>
+        <v>13287</v>
+      </c>
+      <c r="I21" s="171">
+        <f t="shared" si="0"/>
+        <v>2192.75</v>
+      </c>
+      <c r="J21" s="171">
+        <f t="shared" si="0"/>
+        <v>6250</v>
+      </c>
+      <c r="K21" s="119"/>
+    </row>
+    <row r="22" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="182"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="188"/>
+    </row>
+    <row r="23" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+    </row>
+    <row r="24" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
+    </row>
+    <row r="25" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="228" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="228"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
+    </row>
+    <row r="27" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="200" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="201"/>
+      <c r="C28" s="201" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="202" t="s">
+        <v>648</v>
+      </c>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
+    </row>
+    <row r="29" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="246" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="246"/>
+      <c r="C29" s="201" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="245" t="s">
+        <v>645</v>
+      </c>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="245"/>
+    </row>
+    <row r="30" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="246"/>
+      <c r="C30" s="205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="245" t="s">
+        <v>646</v>
+      </c>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="245"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="245"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="144">
-        <v>42486</v>
-      </c>
-      <c r="C21" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="123" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" s="131">
-        <v>2568</v>
-      </c>
-      <c r="G21" s="145">
-        <v>559.86</v>
-      </c>
-      <c r="H21" s="146">
-        <v>559.86</v>
-      </c>
-      <c r="I21" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J21" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K21" s="120" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="143">
+      <c r="B31" s="247"/>
+      <c r="C31" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="144">
-        <v>42486</v>
-      </c>
-      <c r="C22" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="E22" s="123" t="s">
-        <v>290</v>
-      </c>
-      <c r="F22" s="131">
-        <v>2568</v>
-      </c>
-      <c r="G22" s="145">
-        <v>3617.14</v>
-      </c>
-      <c r="H22" s="146">
-        <v>3617.14</v>
-      </c>
-      <c r="I22" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K22" s="120" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122">
+      <c r="D31" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="206"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="203"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="203"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="203"/>
+      <c r="K32" s="102">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="144">
+      <c r="B33" s="220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="220"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="239" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="223" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="237"/>
+      <c r="I33" s="237"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="219"/>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="224"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="219"/>
+    </row>
+    <row r="35" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="189">
+        <f>G21</f>
+        <v>21729.75</v>
+      </c>
+      <c r="H35" s="189">
+        <f t="shared" ref="H35:I35" si="1">H21</f>
+        <v>13287</v>
+      </c>
+      <c r="I35" s="189">
+        <f t="shared" si="1"/>
+        <v>2192.75</v>
+      </c>
+      <c r="J35" s="189">
+        <f>J21</f>
+        <v>6250</v>
+      </c>
+      <c r="K35" s="19"/>
+    </row>
+    <row r="36" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="122">
+        <v>8</v>
+      </c>
+      <c r="B36" s="144">
         <v>42515</v>
-      </c>
-      <c r="C23" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="123" t="s">
-        <v>315</v>
-      </c>
-      <c r="E23" s="123" t="s">
-        <v>316</v>
-      </c>
-      <c r="F23" s="131">
-        <v>3567</v>
-      </c>
-      <c r="G23" s="145">
-        <v>3492.47</v>
-      </c>
-      <c r="H23" s="146">
-        <v>3492.47</v>
-      </c>
-      <c r="I23" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J23" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K23" s="120" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122">
-        <v>9</v>
-      </c>
-      <c r="B24" s="144">
-        <v>42515</v>
-      </c>
-      <c r="C24" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="123" t="s">
-        <v>315</v>
-      </c>
-      <c r="E24" s="123" t="s">
-        <v>317</v>
-      </c>
-      <c r="F24" s="131">
-        <v>3567</v>
-      </c>
-      <c r="G24" s="145">
-        <v>123</v>
-      </c>
-      <c r="H24" s="146">
-        <v>123</v>
-      </c>
-      <c r="I24" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J24" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" s="120" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="143">
-        <v>10</v>
-      </c>
-      <c r="B25" s="144">
-        <v>42515</v>
-      </c>
-      <c r="C25" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="123" t="s">
-        <v>315</v>
-      </c>
-      <c r="E25" s="123" t="s">
-        <v>318</v>
-      </c>
-      <c r="F25" s="131">
-        <v>3567</v>
-      </c>
-      <c r="G25" s="145">
-        <v>374.1</v>
-      </c>
-      <c r="H25" s="146">
-        <v>374.1</v>
-      </c>
-      <c r="I25" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J25" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" s="120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122">
-        <v>11</v>
-      </c>
-      <c r="B26" s="144">
-        <v>42515</v>
-      </c>
-      <c r="C26" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="123" t="s">
-        <v>315</v>
-      </c>
-      <c r="E26" s="123" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="131">
-        <v>3567</v>
-      </c>
-      <c r="G26" s="145">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="H26" s="146">
-        <v>541.20000000000005</v>
-      </c>
-      <c r="I26" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K26" s="120" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122">
-        <v>12</v>
-      </c>
-      <c r="B27" s="144">
-        <v>42549</v>
-      </c>
-      <c r="C27" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="123" t="s">
-        <v>340</v>
-      </c>
-      <c r="E27" s="123" t="s">
-        <v>341</v>
-      </c>
-      <c r="F27" s="131">
-        <v>4859</v>
-      </c>
-      <c r="G27" s="145">
-        <v>3617.14</v>
-      </c>
-      <c r="H27" s="146">
-        <v>3617.14</v>
-      </c>
-      <c r="I27" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J27" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K27" s="120" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="143">
-        <v>13</v>
-      </c>
-      <c r="B28" s="144">
-        <v>42549</v>
-      </c>
-      <c r="C28" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="123" t="s">
-        <v>340</v>
-      </c>
-      <c r="E28" s="123" t="s">
-        <v>342</v>
-      </c>
-      <c r="F28" s="131">
-        <v>4859</v>
-      </c>
-      <c r="G28" s="145">
-        <v>123</v>
-      </c>
-      <c r="H28" s="146">
-        <v>123</v>
-      </c>
-      <c r="I28" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J28" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K28" s="120" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122">
-        <v>14</v>
-      </c>
-      <c r="B29" s="144">
-        <v>42549</v>
-      </c>
-      <c r="C29" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="123" t="s">
-        <v>340</v>
-      </c>
-      <c r="E29" s="123" t="s">
-        <v>343</v>
-      </c>
-      <c r="F29" s="131">
-        <v>4859</v>
-      </c>
-      <c r="G29" s="145">
-        <v>387</v>
-      </c>
-      <c r="H29" s="146">
-        <v>387</v>
-      </c>
-      <c r="I29" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J29" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" s="120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="122">
-        <v>15</v>
-      </c>
-      <c r="B30" s="144">
-        <v>42549</v>
-      </c>
-      <c r="C30" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="123" t="s">
-        <v>340</v>
-      </c>
-      <c r="E30" s="123" t="s">
-        <v>344</v>
-      </c>
-      <c r="F30" s="131">
-        <v>4859</v>
-      </c>
-      <c r="G30" s="145">
-        <v>559.86</v>
-      </c>
-      <c r="H30" s="146">
-        <v>559.86</v>
-      </c>
-      <c r="I30" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K30" s="120" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="143">
-        <v>16</v>
-      </c>
-      <c r="B31" s="144">
-        <v>42539</v>
-      </c>
-      <c r="C31" s="151" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="128">
-        <v>1896</v>
-      </c>
-      <c r="E31" s="123" t="s">
-        <v>362</v>
-      </c>
-      <c r="F31" s="131">
-        <v>6001</v>
-      </c>
-      <c r="G31" s="145">
-        <v>420</v>
-      </c>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146">
-        <v>420</v>
-      </c>
-      <c r="J31" s="146"/>
-      <c r="K31" s="120" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="122">
-        <v>17</v>
-      </c>
-      <c r="B32" s="144">
-        <v>42539</v>
-      </c>
-      <c r="C32" s="151" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="128">
-        <v>1896</v>
-      </c>
-      <c r="E32" s="123" t="s">
-        <v>362</v>
-      </c>
-      <c r="F32" s="131">
-        <v>6001</v>
-      </c>
-      <c r="G32" s="145">
-        <v>150</v>
-      </c>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146">
-        <v>150</v>
-      </c>
-      <c r="J32" s="146"/>
-      <c r="K32" s="120" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="122">
-        <v>18</v>
-      </c>
-      <c r="B33" s="144">
-        <v>42539</v>
-      </c>
-      <c r="C33" s="151" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="128">
-        <v>1896</v>
-      </c>
-      <c r="E33" s="123" t="s">
-        <v>362</v>
-      </c>
-      <c r="F33" s="131">
-        <v>6001</v>
-      </c>
-      <c r="G33" s="145">
-        <v>36</v>
-      </c>
-      <c r="H33" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" s="146">
-        <v>36</v>
-      </c>
-      <c r="J33" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K33" s="120" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="143">
-        <v>19</v>
-      </c>
-      <c r="B34" s="144">
-        <v>42639</v>
-      </c>
-      <c r="C34" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="123" t="s">
-        <v>395</v>
-      </c>
-      <c r="E34" s="123" t="s">
-        <v>396</v>
-      </c>
-      <c r="F34" s="131">
-        <v>7368</v>
-      </c>
-      <c r="G34" s="145">
-        <v>2295.54</v>
-      </c>
-      <c r="H34" s="146">
-        <v>2295.54</v>
-      </c>
-      <c r="I34" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K34" s="120" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="122">
-        <v>20</v>
-      </c>
-      <c r="B35" s="144">
-        <v>42639</v>
-      </c>
-      <c r="C35" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="123" t="s">
-        <v>395</v>
-      </c>
-      <c r="E35" s="123" t="s">
-        <v>397</v>
-      </c>
-      <c r="F35" s="131">
-        <v>7368</v>
-      </c>
-      <c r="G35" s="145">
-        <v>234</v>
-      </c>
-      <c r="H35" s="146">
-        <v>234</v>
-      </c>
-      <c r="I35" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K35" s="129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="122">
-        <v>21</v>
-      </c>
-      <c r="B36" s="144">
-        <v>42639</v>
       </c>
       <c r="C36" s="151" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="123" t="s">
-        <v>395</v>
-      </c>
-      <c r="E36" s="123" t="s">
-        <v>398</v>
+      <c r="D36" s="128">
+        <v>584</v>
+      </c>
+      <c r="E36" s="128">
+        <v>8364</v>
       </c>
       <c r="F36" s="131">
+        <v>3567</v>
+      </c>
+      <c r="G36" s="145">
+        <v>3492.47</v>
+      </c>
+      <c r="H36" s="146">
+        <v>3492.47</v>
+      </c>
+      <c r="I36" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" s="120" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="122">
+        <v>9</v>
+      </c>
+      <c r="B37" s="144">
+        <v>42515</v>
+      </c>
+      <c r="C37" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="128">
+        <v>584</v>
+      </c>
+      <c r="E37" s="128">
+        <v>8365</v>
+      </c>
+      <c r="F37" s="131">
+        <v>3567</v>
+      </c>
+      <c r="G37" s="145">
+        <v>123</v>
+      </c>
+      <c r="H37" s="146">
+        <v>123</v>
+      </c>
+      <c r="I37" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" s="120" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="143">
+        <v>10</v>
+      </c>
+      <c r="B38" s="144">
+        <v>42515</v>
+      </c>
+      <c r="C38" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="128">
+        <v>584</v>
+      </c>
+      <c r="E38" s="128">
+        <v>8368</v>
+      </c>
+      <c r="F38" s="131">
+        <v>3567</v>
+      </c>
+      <c r="G38" s="145">
+        <v>374.1</v>
+      </c>
+      <c r="H38" s="146">
+        <v>374.1</v>
+      </c>
+      <c r="I38" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="122">
+        <v>11</v>
+      </c>
+      <c r="B39" s="144">
+        <v>42515</v>
+      </c>
+      <c r="C39" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="128">
+        <v>584</v>
+      </c>
+      <c r="E39" s="128">
+        <v>8370</v>
+      </c>
+      <c r="F39" s="131">
+        <v>3567</v>
+      </c>
+      <c r="G39" s="145">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="H39" s="146">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="I39" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K39" s="120" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="122">
+        <v>12</v>
+      </c>
+      <c r="B40" s="144">
+        <v>42549</v>
+      </c>
+      <c r="C40" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="128">
+        <v>661</v>
+      </c>
+      <c r="E40" s="128">
+        <v>11104</v>
+      </c>
+      <c r="F40" s="131">
+        <v>4859</v>
+      </c>
+      <c r="G40" s="145">
+        <v>3617.14</v>
+      </c>
+      <c r="H40" s="146">
+        <v>3617.14</v>
+      </c>
+      <c r="I40" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K40" s="120" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="143">
+        <v>13</v>
+      </c>
+      <c r="B41" s="144">
+        <v>42549</v>
+      </c>
+      <c r="C41" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="128">
+        <v>661</v>
+      </c>
+      <c r="E41" s="128">
+        <v>11105</v>
+      </c>
+      <c r="F41" s="131">
+        <v>4859</v>
+      </c>
+      <c r="G41" s="145">
+        <v>123</v>
+      </c>
+      <c r="H41" s="146">
+        <v>123</v>
+      </c>
+      <c r="I41" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K41" s="120" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="122">
+        <v>14</v>
+      </c>
+      <c r="B42" s="144">
+        <v>42549</v>
+      </c>
+      <c r="C42" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="128">
+        <v>661</v>
+      </c>
+      <c r="E42" s="128">
+        <v>11108</v>
+      </c>
+      <c r="F42" s="131">
+        <v>4859</v>
+      </c>
+      <c r="G42" s="145">
+        <v>387</v>
+      </c>
+      <c r="H42" s="146">
+        <v>387</v>
+      </c>
+      <c r="I42" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K42" s="120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="122">
+        <v>15</v>
+      </c>
+      <c r="B43" s="144">
+        <v>42549</v>
+      </c>
+      <c r="C43" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="128">
+        <v>661</v>
+      </c>
+      <c r="E43" s="128">
+        <v>11108</v>
+      </c>
+      <c r="F43" s="131">
+        <v>4859</v>
+      </c>
+      <c r="G43" s="145">
+        <v>387</v>
+      </c>
+      <c r="H43" s="146">
+        <v>387</v>
+      </c>
+      <c r="I43" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" s="120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="122">
+        <v>16</v>
+      </c>
+      <c r="B44" s="144">
+        <v>42549</v>
+      </c>
+      <c r="C44" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="128">
+        <v>661</v>
+      </c>
+      <c r="E44" s="128">
+        <v>11110</v>
+      </c>
+      <c r="F44" s="131">
+        <v>4859</v>
+      </c>
+      <c r="G44" s="145">
+        <v>559.86</v>
+      </c>
+      <c r="H44" s="146">
+        <v>559.86</v>
+      </c>
+      <c r="I44" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J44" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K44" s="120" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="216"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="217"/>
+      <c r="G45" s="189">
+        <f>SUM(G35:G44)</f>
+        <v>31334.52</v>
+      </c>
+      <c r="H45" s="189">
+        <f t="shared" ref="H45:J45" si="2">SUM(H35:H44)</f>
+        <v>22891.77</v>
+      </c>
+      <c r="I45" s="189">
+        <f t="shared" si="2"/>
+        <v>2192.75</v>
+      </c>
+      <c r="J45" s="189">
+        <f t="shared" si="2"/>
+        <v>6250</v>
+      </c>
+      <c r="K45" s="19"/>
+    </row>
+    <row r="46" spans="1:11" s="199" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="196"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="197"/>
+      <c r="H46" s="197"/>
+      <c r="I46" s="197"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="198"/>
+    </row>
+    <row r="47" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="210"/>
+      <c r="C47" s="210"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="210"/>
+      <c r="F47" s="210"/>
+      <c r="G47" s="210"/>
+      <c r="H47" s="210"/>
+      <c r="I47" s="210"/>
+      <c r="J47" s="210"/>
+      <c r="K47" s="210"/>
+    </row>
+    <row r="48" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="211"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="233"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="211"/>
+      <c r="J48" s="211"/>
+      <c r="K48" s="211"/>
+    </row>
+    <row r="49" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="228" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="228"/>
+      <c r="C50" s="228"/>
+      <c r="D50" s="234"/>
+      <c r="E50" s="228"/>
+      <c r="F50" s="228"/>
+      <c r="G50" s="228"/>
+      <c r="H50" s="228"/>
+      <c r="I50" s="228"/>
+      <c r="J50" s="228"/>
+      <c r="K50" s="228"/>
+    </row>
+    <row r="51" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="138" t="s">
+        <v>648</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="244" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="244"/>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="245" t="s">
+        <v>645</v>
+      </c>
+      <c r="E53" s="245"/>
+      <c r="F53" s="245"/>
+      <c r="G53" s="245"/>
+      <c r="H53" s="245"/>
+      <c r="I53" s="245"/>
+      <c r="J53" s="245"/>
+      <c r="K53" s="245"/>
+    </row>
+    <row r="54" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="244"/>
+      <c r="C54" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="245" t="s">
+        <v>646</v>
+      </c>
+      <c r="E54" s="245"/>
+      <c r="F54" s="245"/>
+      <c r="G54" s="245"/>
+      <c r="H54" s="245"/>
+      <c r="I54" s="245"/>
+      <c r="J54" s="245"/>
+      <c r="K54" s="245"/>
+    </row>
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="238"/>
+      <c r="C55" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="E55" s="203"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="206"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="220"/>
+      <c r="D57" s="235"/>
+      <c r="E57" s="221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="239" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="223" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="237"/>
+      <c r="I57" s="237"/>
+      <c r="J57" s="237"/>
+      <c r="K57" s="223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="219"/>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="224"/>
+      <c r="F58" s="240"/>
+      <c r="G58" s="219"/>
+      <c r="H58" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="I58" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="J58" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="K58" s="219"/>
+    </row>
+    <row r="59" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="216"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="216"/>
+      <c r="E59" s="216"/>
+      <c r="F59" s="217"/>
+      <c r="G59" s="189">
+        <f>G45</f>
+        <v>31334.52</v>
+      </c>
+      <c r="H59" s="189">
+        <f t="shared" ref="H59:J59" si="3">H45</f>
+        <v>22891.77</v>
+      </c>
+      <c r="I59" s="189">
+        <f t="shared" si="3"/>
+        <v>2192.75</v>
+      </c>
+      <c r="J59" s="189">
+        <f t="shared" si="3"/>
+        <v>6250</v>
+      </c>
+      <c r="K59" s="19"/>
+    </row>
+    <row r="60" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="143">
+        <v>17</v>
+      </c>
+      <c r="B60" s="144">
+        <v>42539</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="128">
+        <v>1896</v>
+      </c>
+      <c r="E60" s="128">
+        <v>14000</v>
+      </c>
+      <c r="F60" s="131">
+        <v>6001</v>
+      </c>
+      <c r="G60" s="145">
+        <v>420</v>
+      </c>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146">
+        <v>420</v>
+      </c>
+      <c r="J60" s="146"/>
+      <c r="K60" s="120" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="122">
+        <v>18</v>
+      </c>
+      <c r="B61" s="144">
+        <v>42539</v>
+      </c>
+      <c r="C61" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="128">
+        <v>1896</v>
+      </c>
+      <c r="E61" s="128">
+        <v>14000</v>
+      </c>
+      <c r="F61" s="131">
+        <v>6001</v>
+      </c>
+      <c r="G61" s="145">
+        <v>150</v>
+      </c>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146">
+        <v>150</v>
+      </c>
+      <c r="J61" s="146"/>
+      <c r="K61" s="120" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="122">
+        <v>19</v>
+      </c>
+      <c r="B62" s="144">
+        <v>42539</v>
+      </c>
+      <c r="C62" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="128">
+        <v>1896</v>
+      </c>
+      <c r="E62" s="128">
+        <v>14000</v>
+      </c>
+      <c r="F62" s="131">
+        <v>6001</v>
+      </c>
+      <c r="G62" s="145">
+        <v>36</v>
+      </c>
+      <c r="H62" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="I62" s="146">
+        <v>36</v>
+      </c>
+      <c r="J62" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K62" s="120" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="143">
+        <v>20</v>
+      </c>
+      <c r="B63" s="144">
+        <v>42639</v>
+      </c>
+      <c r="C63" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="128">
+        <v>1189</v>
+      </c>
+      <c r="E63" s="128">
+        <v>16541</v>
+      </c>
+      <c r="F63" s="131">
         <v>7368</v>
       </c>
-      <c r="G36" s="145">
+      <c r="G63" s="145">
+        <v>2295.54</v>
+      </c>
+      <c r="H63" s="146">
+        <v>2295.54</v>
+      </c>
+      <c r="I63" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J63" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K63" s="120" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="122">
+        <v>21</v>
+      </c>
+      <c r="B64" s="144">
+        <v>42639</v>
+      </c>
+      <c r="C64" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="128">
+        <v>1189</v>
+      </c>
+      <c r="E64" s="128">
+        <v>16546</v>
+      </c>
+      <c r="F64" s="131">
+        <v>7368</v>
+      </c>
+      <c r="G64" s="145">
+        <v>234</v>
+      </c>
+      <c r="H64" s="146">
+        <v>234</v>
+      </c>
+      <c r="I64" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J64" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K64" s="129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="122">
+        <v>22</v>
+      </c>
+      <c r="B65" s="144">
+        <v>42639</v>
+      </c>
+      <c r="C65" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="128">
+        <v>1189</v>
+      </c>
+      <c r="E65" s="128">
+        <v>16550</v>
+      </c>
+      <c r="F65" s="131">
+        <v>7368</v>
+      </c>
+      <c r="G65" s="145">
         <v>304.45999999999998</v>
       </c>
-      <c r="H36" s="146">
+      <c r="H65" s="146">
         <v>304.45999999999998</v>
       </c>
-      <c r="I36" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K36" s="120" t="s">
+      <c r="I65" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J65" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K65" s="120" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="143">
-        <v>22</v>
-      </c>
-      <c r="B37" s="144">
+    <row r="66" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="190">
+        <v>23</v>
+      </c>
+      <c r="B66" s="191">
         <v>42669</v>
       </c>
-      <c r="C37" s="151" t="s">
+      <c r="C66" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="123" t="s">
+      <c r="D66" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="123" t="s">
-        <v>409</v>
-      </c>
-      <c r="F37" s="131">
+      <c r="E66" s="192">
+        <v>18103</v>
+      </c>
+      <c r="F66" s="132">
         <v>8224</v>
       </c>
-      <c r="G37" s="145">
+      <c r="G66" s="193">
         <v>1852.1</v>
       </c>
-      <c r="H37" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="I37" s="146">
+      <c r="H66" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="I66" s="147">
         <v>1852.1</v>
       </c>
-      <c r="J37" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K37" s="120" t="s">
+      <c r="J66" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="K66" s="194" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="209" t="s">
+    <row r="67" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="210"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="210"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="171">
-        <f>SUM(G16:G37)</f>
-        <v>36239.619999999995</v>
-      </c>
-      <c r="H38" s="171">
-        <f t="shared" ref="H38:J38" si="0">SUM(H16:H37)</f>
-        <v>25338.77</v>
-      </c>
-      <c r="I38" s="171">
-        <f t="shared" si="0"/>
+      <c r="B67" s="216"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="216"/>
+      <c r="E67" s="216"/>
+      <c r="F67" s="217"/>
+      <c r="G67" s="189">
+        <f>SUM(G59:G66)</f>
+        <v>36626.619999999995</v>
+      </c>
+      <c r="H67" s="189">
+        <f t="shared" ref="H67:J67" si="4">SUM(H59:H66)</f>
+        <v>25725.77</v>
+      </c>
+      <c r="I67" s="189">
+        <f t="shared" si="4"/>
         <v>4650.8500000000004</v>
       </c>
-      <c r="J38" s="171">
-        <f t="shared" si="0"/>
+      <c r="J67" s="189">
+        <f t="shared" si="4"/>
         <v>6250</v>
       </c>
-      <c r="K38" s="119"/>
+      <c r="K67" s="19"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="195" t="s">
+        <v>649</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E15:K38">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Rendicion al Anticipo Otorgado con el C/P 18103-16 por la Planilla de Viaticos según MEMO N° 1427-16-GRAP/07.DR.ADMYF. Mario aurelio puma neyra"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="7">
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A4:K4"/>
+  <mergeCells count="46">
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:K54"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
   </mergeCells>
-  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.53" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="22" max="10" man="1"/>
+    <brk id="45" max="10" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -27485,7 +28294,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28458,34 +29267,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -28501,19 +29310,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -28612,15 +29421,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="192" t="s">
+      <c r="C12" s="220"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="162" t="s">
@@ -28629,17 +29438,17 @@
       <c r="G12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="207" t="s">
+      <c r="H12" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
       <c r="K12" s="159" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -28649,7 +29458,7 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="193"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="163"/>
       <c r="G13" s="164"/>
       <c r="H13" s="157" t="s">
@@ -28828,14 +29637,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="126" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="200" t="s">
+      <c r="A18" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="230"/>
+      <c r="E18" s="230"/>
+      <c r="F18" s="231"/>
       <c r="G18" s="154">
         <f>SUM(G14:G17)</f>
         <v>38270.660000000003</v>
@@ -28887,9 +29696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L231" sqref="L231:M231"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29861,34 +30670,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -29904,19 +30713,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -29931,12 +30740,14 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="138" t="s">
         <v>467</v>
       </c>
@@ -29948,48 +30759,54 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="244"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="248" t="s">
+        <v>645</v>
+      </c>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="248"/>
+    </row>
+    <row r="9" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="244"/>
+      <c r="C9" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="248" t="s">
+        <v>646</v>
+      </c>
+      <c r="E9" s="248"/>
+      <c r="F9" s="248"/>
+      <c r="G9" s="248"/>
+      <c r="H9" s="248"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="248"/>
+      <c r="K9" s="248"/>
+    </row>
+    <row r="10" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="139" t="s">
+      <c r="B10" s="238"/>
+      <c r="C10" s="181" t="s">
         <v>7</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>647</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -30015,14 +30832,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="206"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
       </c>
@@ -30032,15 +30849,15 @@
       <c r="G12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
       <c r="K12" s="159" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -30148,7 +30965,9 @@
       <c r="K15" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L15" s="165"/>
+      <c r="L15" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M15" s="165"/>
     </row>
     <row r="16" spans="1:14" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30186,7 +31005,9 @@
       <c r="K16" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L16" s="165"/>
+      <c r="L16" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M16" s="165"/>
     </row>
     <row r="17" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30224,7 +31045,9 @@
       <c r="K17" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="L17" s="165"/>
+      <c r="L17" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M17" s="165"/>
     </row>
     <row r="18" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30378,7 +31201,9 @@
       <c r="K21" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="L21" s="165"/>
+      <c r="L21" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M21" s="165"/>
     </row>
     <row r="22" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30456,7 +31281,9 @@
       <c r="K23" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L23" s="165"/>
+      <c r="L23" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M23" s="165"/>
     </row>
     <row r="24" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30494,7 +31321,9 @@
       <c r="K24" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="L24" s="165"/>
+      <c r="L24" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M24" s="165"/>
     </row>
     <row r="25" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30532,7 +31361,9 @@
       <c r="K25" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="L25" s="165"/>
+      <c r="L25" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M25" s="165"/>
     </row>
     <row r="26" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30570,7 +31401,9 @@
       <c r="K26" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="L26" s="165"/>
+      <c r="L26" s="165" t="s">
+        <v>628</v>
+      </c>
       <c r="M26" s="165"/>
     </row>
     <row r="27" spans="1:13" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39540,14 +40373,14 @@
       <c r="M250" s="165"/>
     </row>
     <row r="251" spans="1:13" s="126" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="200" t="s">
+      <c r="A251" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="B251" s="201"/>
-      <c r="C251" s="201"/>
-      <c r="D251" s="201"/>
-      <c r="E251" s="201"/>
-      <c r="F251" s="202"/>
+      <c r="B251" s="230"/>
+      <c r="C251" s="230"/>
+      <c r="D251" s="230"/>
+      <c r="E251" s="230"/>
+      <c r="F251" s="231"/>
       <c r="G251" s="154">
         <f>SUM(G14:G250)</f>
         <v>1119038.5700000003</v>
@@ -39580,8 +40413,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E13:K252"/>
-  <mergeCells count="7">
+  <autoFilter ref="E13:M252"/>
+  <mergeCells count="12">
     <mergeCell ref="A251:F251"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -39589,6 +40422,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40573,34 +41411,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -40616,19 +41454,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -40727,14 +41565,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="206"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
       </c>
@@ -40744,15 +41582,15 @@
       <c r="G12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
       <c r="K12" s="159" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -43078,14 +43916,14 @@
       <c r="M166" s="165"/>
     </row>
     <row r="167" spans="1:13" s="126" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="200" t="s">
+      <c r="A167" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="B167" s="201"/>
-      <c r="C167" s="201"/>
-      <c r="D167" s="201"/>
-      <c r="E167" s="201"/>
-      <c r="F167" s="202"/>
+      <c r="B167" s="230"/>
+      <c r="C167" s="230"/>
+      <c r="D167" s="230"/>
+      <c r="E167" s="230"/>
+      <c r="F167" s="231"/>
       <c r="G167" s="154">
         <f>SUM(G14:G166)</f>
         <v>0</v>
@@ -44111,34 +44949,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -44154,19 +44992,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -44265,14 +45103,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="206"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
       </c>
@@ -44282,15 +45120,15 @@
       <c r="G12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
       <c r="K12" s="159" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -47096,14 +47934,14 @@
       <c r="M198" s="165"/>
     </row>
     <row r="199" spans="1:13" s="126" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="200" t="s">
+      <c r="A199" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="B199" s="201"/>
-      <c r="C199" s="201"/>
-      <c r="D199" s="201"/>
-      <c r="E199" s="201"/>
-      <c r="F199" s="202"/>
+      <c r="B199" s="230"/>
+      <c r="C199" s="230"/>
+      <c r="D199" s="230"/>
+      <c r="E199" s="230"/>
+      <c r="F199" s="231"/>
       <c r="G199" s="154">
         <f>SUM(G14:G198)</f>
         <v>0</v>
@@ -48129,34 +48967,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -48172,19 +49010,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
-      <c r="J5" s="199"/>
-      <c r="K5" s="199"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -48283,14 +49121,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="191"/>
-      <c r="D12" s="206"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
       </c>
@@ -48300,15 +49138,15 @@
       <c r="G12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="208"/>
-      <c r="I12" s="208"/>
-      <c r="J12" s="208"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="237"/>
+      <c r="J12" s="237"/>
       <c r="K12" s="159" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -51489,14 +52327,14 @@
       <c r="M223" s="165"/>
     </row>
     <row r="224" spans="1:13" s="126" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="200" t="s">
+      <c r="A224" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="B224" s="201"/>
-      <c r="C224" s="201"/>
-      <c r="D224" s="201"/>
-      <c r="E224" s="201"/>
-      <c r="F224" s="202"/>
+      <c r="B224" s="230"/>
+      <c r="C224" s="230"/>
+      <c r="D224" s="230"/>
+      <c r="E224" s="230"/>
+      <c r="F224" s="231"/>
       <c r="G224" s="154">
         <f>SUM(G14:G223)</f>
         <v>0</v>
@@ -51574,21 +52412,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -51606,21 +52444,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
-      <c r="N4" s="199"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="228"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -51730,56 +52568,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="216" t="s">
+      <c r="D10" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="214" t="s">
+      <c r="E10" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="214" t="s">
+      <c r="F10" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="214" t="s">
+      <c r="G10" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="214" t="s">
+      <c r="H10" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="218" t="s">
+      <c r="I10" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="214" t="s">
+      <c r="J10" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="214" t="s">
+      <c r="K10" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="214" t="s">
+      <c r="L10" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="220" t="s">
+      <c r="M10" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="221"/>
+      <c r="N10" s="258"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="213"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
+      <c r="B11" s="250"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -51914,31 +52752,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="223"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="224"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="261"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="225"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
-      <c r="N18" s="227"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="263"/>
+      <c r="N18" s="264"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="234" t="s">
+      <c r="M20" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="234"/>
+      <c r="N20" s="271"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -51960,21 +52798,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="199" t="s">
+      <c r="B23" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="199"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="199"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="228"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -51992,21 +52830,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="199" t="s">
+      <c r="B25" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="199"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="199"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="228"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="228"/>
+      <c r="M25" s="228"/>
+      <c r="N25" s="228"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -52116,56 +52954,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="214" t="s">
+      <c r="C31" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="216" t="s">
+      <c r="D31" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="214" t="s">
+      <c r="E31" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="214" t="s">
+      <c r="F31" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="214" t="s">
+      <c r="G31" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="214" t="s">
+      <c r="H31" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="218" t="s">
+      <c r="I31" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="214" t="s">
+      <c r="J31" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="214" t="s">
+      <c r="K31" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="214" t="s">
+      <c r="L31" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="220" t="s">
+      <c r="M31" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="221"/>
+      <c r="N31" s="258"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="213"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="215"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="215"/>
+      <c r="B32" s="250"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="252"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="252"/>
+      <c r="K32" s="252"/>
+      <c r="L32" s="252"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -52259,31 +53097,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="228" t="s">
+      <c r="B38" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="230"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="266"/>
+      <c r="F38" s="266"/>
+      <c r="G38" s="266"/>
+      <c r="H38" s="267"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="231"/>
-      <c r="K38" s="232"/>
-      <c r="L38" s="232"/>
-      <c r="M38" s="232"/>
-      <c r="N38" s="233"/>
+      <c r="J38" s="268"/>
+      <c r="K38" s="269"/>
+      <c r="L38" s="269"/>
+      <c r="M38" s="269"/>
+      <c r="N38" s="270"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="234" t="s">
+      <c r="M40" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="234"/>
+      <c r="N40" s="271"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -52305,21 +53143,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="199" t="s">
+      <c r="B43" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="199"/>
-      <c r="D43" s="199"/>
-      <c r="E43" s="199"/>
-      <c r="F43" s="199"/>
-      <c r="G43" s="199"/>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="199"/>
-      <c r="K43" s="199"/>
-      <c r="L43" s="199"/>
-      <c r="M43" s="199"/>
-      <c r="N43" s="199"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="228"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="228"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="228"/>
+      <c r="K43" s="228"/>
+      <c r="L43" s="228"/>
+      <c r="M43" s="228"/>
+      <c r="N43" s="228"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -52337,21 +53175,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="199" t="s">
+      <c r="B45" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="199"/>
-      <c r="D45" s="199"/>
-      <c r="E45" s="199"/>
-      <c r="F45" s="199"/>
-      <c r="G45" s="199"/>
-      <c r="H45" s="199"/>
-      <c r="I45" s="199"/>
-      <c r="J45" s="199"/>
-      <c r="K45" s="199"/>
-      <c r="L45" s="199"/>
-      <c r="M45" s="199"/>
-      <c r="N45" s="199"/>
+      <c r="C45" s="228"/>
+      <c r="D45" s="228"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="228"/>
+      <c r="G45" s="228"/>
+      <c r="H45" s="228"/>
+      <c r="I45" s="228"/>
+      <c r="J45" s="228"/>
+      <c r="K45" s="228"/>
+      <c r="L45" s="228"/>
+      <c r="M45" s="228"/>
+      <c r="N45" s="228"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -52461,56 +53299,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="212" t="s">
+      <c r="B51" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="214" t="s">
+      <c r="C51" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="216" t="s">
+      <c r="D51" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="214" t="s">
+      <c r="E51" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="214" t="s">
+      <c r="F51" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="214" t="s">
+      <c r="G51" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="214" t="s">
+      <c r="H51" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="218" t="s">
+      <c r="I51" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="214" t="s">
+      <c r="J51" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="214" t="s">
+      <c r="K51" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="214" t="s">
+      <c r="L51" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="220" t="s">
+      <c r="M51" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="221"/>
+      <c r="N51" s="258"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="213"/>
-      <c r="C52" s="215"/>
-      <c r="D52" s="217"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="215"/>
-      <c r="G52" s="215"/>
-      <c r="H52" s="215"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="215"/>
-      <c r="K52" s="215"/>
-      <c r="L52" s="215"/>
+      <c r="B52" s="250"/>
+      <c r="C52" s="252"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="252"/>
+      <c r="F52" s="252"/>
+      <c r="G52" s="252"/>
+      <c r="H52" s="252"/>
+      <c r="I52" s="256"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="252"/>
+      <c r="L52" s="252"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -52587,31 +53425,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="228" t="s">
+      <c r="B57" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="229"/>
-      <c r="D57" s="229"/>
-      <c r="E57" s="229"/>
-      <c r="F57" s="229"/>
-      <c r="G57" s="229"/>
-      <c r="H57" s="230"/>
+      <c r="C57" s="266"/>
+      <c r="D57" s="266"/>
+      <c r="E57" s="266"/>
+      <c r="F57" s="266"/>
+      <c r="G57" s="266"/>
+      <c r="H57" s="267"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="231"/>
-      <c r="K57" s="232"/>
-      <c r="L57" s="232"/>
-      <c r="M57" s="232"/>
-      <c r="N57" s="233"/>
+      <c r="J57" s="268"/>
+      <c r="K57" s="269"/>
+      <c r="L57" s="269"/>
+      <c r="M57" s="269"/>
+      <c r="N57" s="270"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="234" t="s">
+      <c r="M59" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="234"/>
+      <c r="N59" s="271"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -52641,21 +53479,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="199" t="s">
+      <c r="B64" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="199"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="199"/>
-      <c r="F64" s="199"/>
-      <c r="G64" s="199"/>
-      <c r="H64" s="199"/>
-      <c r="I64" s="199"/>
-      <c r="J64" s="199"/>
-      <c r="K64" s="199"/>
-      <c r="L64" s="199"/>
-      <c r="M64" s="199"/>
-      <c r="N64" s="199"/>
+      <c r="C64" s="228"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="228"/>
+      <c r="F64" s="228"/>
+      <c r="G64" s="228"/>
+      <c r="H64" s="228"/>
+      <c r="I64" s="228"/>
+      <c r="J64" s="228"/>
+      <c r="K64" s="228"/>
+      <c r="L64" s="228"/>
+      <c r="M64" s="228"/>
+      <c r="N64" s="228"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -52673,21 +53511,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="199" t="s">
+      <c r="B66" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="199"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="199"/>
-      <c r="F66" s="199"/>
-      <c r="G66" s="199"/>
-      <c r="H66" s="199"/>
-      <c r="I66" s="199"/>
-      <c r="J66" s="199"/>
-      <c r="K66" s="199"/>
-      <c r="L66" s="199"/>
-      <c r="M66" s="199"/>
-      <c r="N66" s="199"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="228"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="228"/>
+      <c r="M66" s="228"/>
+      <c r="N66" s="228"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -52797,56 +53635,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="212" t="s">
+      <c r="B72" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="214" t="s">
+      <c r="C72" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="216" t="s">
+      <c r="D72" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="214" t="s">
+      <c r="E72" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="214" t="s">
+      <c r="F72" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="214" t="s">
+      <c r="G72" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="214" t="s">
+      <c r="H72" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="218" t="s">
+      <c r="I72" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="214" t="s">
+      <c r="J72" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="214" t="s">
+      <c r="K72" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="214" t="s">
+      <c r="L72" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="220" t="s">
+      <c r="M72" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="221"/>
+      <c r="N72" s="258"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="213"/>
-      <c r="C73" s="215"/>
-      <c r="D73" s="217"/>
-      <c r="E73" s="215"/>
-      <c r="F73" s="215"/>
-      <c r="G73" s="215"/>
-      <c r="H73" s="215"/>
-      <c r="I73" s="219"/>
-      <c r="J73" s="215"/>
-      <c r="K73" s="215"/>
-      <c r="L73" s="215"/>
+      <c r="B73" s="250"/>
+      <c r="C73" s="252"/>
+      <c r="D73" s="254"/>
+      <c r="E73" s="252"/>
+      <c r="F73" s="252"/>
+      <c r="G73" s="252"/>
+      <c r="H73" s="252"/>
+      <c r="I73" s="256"/>
+      <c r="J73" s="252"/>
+      <c r="K73" s="252"/>
+      <c r="L73" s="252"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -52906,31 +53744,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="222" t="s">
+      <c r="B77" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="223"/>
-      <c r="D77" s="223"/>
-      <c r="E77" s="223"/>
-      <c r="F77" s="223"/>
-      <c r="G77" s="223"/>
-      <c r="H77" s="224"/>
+      <c r="C77" s="260"/>
+      <c r="D77" s="260"/>
+      <c r="E77" s="260"/>
+      <c r="F77" s="260"/>
+      <c r="G77" s="260"/>
+      <c r="H77" s="261"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="225"/>
-      <c r="K77" s="226"/>
-      <c r="L77" s="226"/>
-      <c r="M77" s="226"/>
-      <c r="N77" s="227"/>
+      <c r="J77" s="262"/>
+      <c r="K77" s="263"/>
+      <c r="L77" s="263"/>
+      <c r="M77" s="263"/>
+      <c r="N77" s="264"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="234" t="s">
+      <c r="M79" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="234"/>
+      <c r="N79" s="271"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="798" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="798" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,15 +26,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2.6.3.1.1.(1.1.3G.G'!$F$13:$J$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2.6.7.1.6.(1.2.3)'!$E$13:$M$252</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2016'!$E$13:$P$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2016'!$E$13:$P$284</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'COSTO DIRECTO'!$E$13:$K$200</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">G.SUPERVISION!$E$13:$K$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">G.SUPERVISION!$E$13:$K$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GASTOS GENERALES'!$E$13:$K$168</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'GESTION PROYECT.'!$E$13:$K$225</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MODELO!$B$13:$D$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'ACTIVOS FIJOS'!$B$1:$N$81</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">EQUIPAMIENTO!$B$1:$N$182</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">G.SUPERVISION!$A$1:$K$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">G.SUPERVISION!$A$1:$K$70</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5329" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="656">
   <si>
     <t>TARJETA DE LIQUIDACION FINANCIERA</t>
   </si>
@@ -2522,6 +2522,24 @@
   </si>
   <si>
     <t xml:space="preserve">Abancay, Agosto 2020 </t>
+  </si>
+  <si>
+    <t>Banco de la nacion  - Planilla del Personal Obrero y/o Contratado, Pago correspondiente del mes de marzo(Profesional Especialista)</t>
+  </si>
+  <si>
+    <t>Victor Hugo Roman Segovia   -  Planilla del Personal Obrero y/o Contratado, Pago correspondiente mes de abril 2016(Profesional Especialista)</t>
+  </si>
+  <si>
+    <t>(Profesional Especialista)</t>
+  </si>
+  <si>
+    <t>Victor Hugo Roman Segovia  - Planilla del Personal Obrero y/o Contratado, Pago correspondiente al mes de setiembre(Profesional Administrativo)</t>
+  </si>
+  <si>
+    <t>(Profesional Administrativo)</t>
+  </si>
+  <si>
+    <t>Descuento a Favor - A.F.P.</t>
   </si>
 </sst>
 </file>
@@ -3809,19 +3827,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3833,11 +3854,14 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3848,22 +3872,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3893,14 +3911,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3911,14 +3932,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3926,29 +3944,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3974,6 +3983,18 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3991,9 +4012,6 @@
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4322,42 +4340,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4377,23 +4395,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4516,38 +4534,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="221" t="s">
+      <c r="C12" s="222"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="221" t="s">
+      <c r="F12" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="223" t="s">
+      <c r="G12" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="225" t="s">
+      <c r="H12" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="226"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="226"/>
-      <c r="L12" s="226"/>
-      <c r="M12" s="226"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="223" t="s">
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4557,9 +4575,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="222"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="219"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="215"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4581,7 +4599,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="219"/>
+      <c r="O13" s="215"/>
     </row>
     <row r="14" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5152,14 +5170,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="217"/>
+      <c r="B32" s="217"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="218"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5192,42 +5210,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="210" t="s">
+      <c r="A35" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="210"/>
-      <c r="M35" s="210"/>
-      <c r="N35" s="210"/>
-      <c r="O35" s="210"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="219"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="219"/>
+      <c r="N35" s="219"/>
+      <c r="O35" s="219"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="211" t="s">
+      <c r="A36" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="211"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="211"/>
-      <c r="L36" s="211"/>
-      <c r="M36" s="211"/>
-      <c r="N36" s="211"/>
-      <c r="O36" s="211"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="220"/>
+      <c r="F36" s="220"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="220"/>
+      <c r="K36" s="220"/>
+      <c r="L36" s="220"/>
+      <c r="M36" s="220"/>
+      <c r="N36" s="220"/>
+      <c r="O36" s="220"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5350,38 +5368,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="218" t="s">
+      <c r="A43" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="220" t="s">
+      <c r="B43" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="221" t="s">
+      <c r="C43" s="222"/>
+      <c r="D43" s="222"/>
+      <c r="E43" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="221" t="s">
+      <c r="F43" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="223" t="s">
+      <c r="G43" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="225" t="s">
+      <c r="H43" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="226"/>
-      <c r="J43" s="226"/>
-      <c r="K43" s="226"/>
-      <c r="L43" s="226"/>
-      <c r="M43" s="226"/>
-      <c r="N43" s="227"/>
-      <c r="O43" s="223" t="s">
+      <c r="I43" s="212"/>
+      <c r="J43" s="212"/>
+      <c r="K43" s="212"/>
+      <c r="L43" s="212"/>
+      <c r="M43" s="212"/>
+      <c r="N43" s="213"/>
+      <c r="O43" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="219"/>
+      <c r="A44" s="215"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5391,9 +5409,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="222"/>
-      <c r="F44" s="224"/>
-      <c r="G44" s="219"/>
+      <c r="E44" s="224"/>
+      <c r="F44" s="225"/>
+      <c r="G44" s="215"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5415,17 +5433,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="219"/>
+      <c r="O44" s="215"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="213"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="214"/>
+      <c r="B45" s="227"/>
+      <c r="C45" s="227"/>
+      <c r="D45" s="227"/>
+      <c r="E45" s="227"/>
+      <c r="F45" s="228"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5880,14 +5898,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="215" t="s">
+      <c r="A66" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="216"/>
-      <c r="C66" s="216"/>
-      <c r="D66" s="216"/>
-      <c r="E66" s="216"/>
-      <c r="F66" s="217"/>
+      <c r="B66" s="217"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="217"/>
+      <c r="F66" s="218"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5920,42 +5938,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="210" t="s">
+      <c r="A69" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="210"/>
-      <c r="C69" s="210"/>
-      <c r="D69" s="210"/>
-      <c r="E69" s="210"/>
-      <c r="F69" s="210"/>
-      <c r="G69" s="210"/>
-      <c r="H69" s="210"/>
-      <c r="I69" s="210"/>
-      <c r="J69" s="210"/>
-      <c r="K69" s="210"/>
-      <c r="L69" s="210"/>
-      <c r="M69" s="210"/>
-      <c r="N69" s="210"/>
-      <c r="O69" s="210"/>
+      <c r="B69" s="219"/>
+      <c r="C69" s="219"/>
+      <c r="D69" s="219"/>
+      <c r="E69" s="219"/>
+      <c r="F69" s="219"/>
+      <c r="G69" s="219"/>
+      <c r="H69" s="219"/>
+      <c r="I69" s="219"/>
+      <c r="J69" s="219"/>
+      <c r="K69" s="219"/>
+      <c r="L69" s="219"/>
+      <c r="M69" s="219"/>
+      <c r="N69" s="219"/>
+      <c r="O69" s="219"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="211" t="s">
+      <c r="A70" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="211"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="211"/>
-      <c r="K70" s="211"/>
-      <c r="L70" s="211"/>
-      <c r="M70" s="211"/>
-      <c r="N70" s="211"/>
-      <c r="O70" s="211"/>
+      <c r="B70" s="220"/>
+      <c r="C70" s="220"/>
+      <c r="D70" s="220"/>
+      <c r="E70" s="220"/>
+      <c r="F70" s="220"/>
+      <c r="G70" s="220"/>
+      <c r="H70" s="220"/>
+      <c r="I70" s="220"/>
+      <c r="J70" s="220"/>
+      <c r="K70" s="220"/>
+      <c r="L70" s="220"/>
+      <c r="M70" s="220"/>
+      <c r="N70" s="220"/>
+      <c r="O70" s="220"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6078,38 +6096,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="218" t="s">
+      <c r="A77" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="220" t="s">
+      <c r="B77" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="220"/>
-      <c r="D77" s="220"/>
-      <c r="E77" s="221" t="s">
+      <c r="C77" s="222"/>
+      <c r="D77" s="222"/>
+      <c r="E77" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="221" t="s">
+      <c r="F77" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="223" t="s">
+      <c r="G77" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="225" t="s">
+      <c r="H77" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="226"/>
-      <c r="J77" s="226"/>
-      <c r="K77" s="226"/>
-      <c r="L77" s="226"/>
-      <c r="M77" s="226"/>
-      <c r="N77" s="227"/>
-      <c r="O77" s="223" t="s">
+      <c r="I77" s="212"/>
+      <c r="J77" s="212"/>
+      <c r="K77" s="212"/>
+      <c r="L77" s="212"/>
+      <c r="M77" s="212"/>
+      <c r="N77" s="213"/>
+      <c r="O77" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="219"/>
+      <c r="A78" s="215"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6119,9 +6137,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="222"/>
-      <c r="F78" s="224"/>
-      <c r="G78" s="219"/>
+      <c r="E78" s="224"/>
+      <c r="F78" s="225"/>
+      <c r="G78" s="215"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6143,17 +6161,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="219"/>
+      <c r="O78" s="215"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="212" t="s">
+      <c r="A79" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="213"/>
-      <c r="C79" s="213"/>
-      <c r="D79" s="213"/>
-      <c r="E79" s="213"/>
-      <c r="F79" s="214"/>
+      <c r="B79" s="227"/>
+      <c r="C79" s="227"/>
+      <c r="D79" s="227"/>
+      <c r="E79" s="227"/>
+      <c r="F79" s="228"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6586,14 +6604,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="215" t="s">
+      <c r="A99" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="216"/>
-      <c r="C99" s="216"/>
-      <c r="D99" s="216"/>
-      <c r="E99" s="216"/>
-      <c r="F99" s="217"/>
+      <c r="B99" s="217"/>
+      <c r="C99" s="217"/>
+      <c r="D99" s="217"/>
+      <c r="E99" s="217"/>
+      <c r="F99" s="218"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6679,42 +6697,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="210" t="s">
+      <c r="A105" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="210"/>
-      <c r="C105" s="210"/>
-      <c r="D105" s="210"/>
-      <c r="E105" s="210"/>
-      <c r="F105" s="210"/>
-      <c r="G105" s="210"/>
-      <c r="H105" s="210"/>
-      <c r="I105" s="210"/>
-      <c r="J105" s="210"/>
-      <c r="K105" s="210"/>
-      <c r="L105" s="210"/>
-      <c r="M105" s="210"/>
-      <c r="N105" s="210"/>
-      <c r="O105" s="210"/>
+      <c r="B105" s="219"/>
+      <c r="C105" s="219"/>
+      <c r="D105" s="219"/>
+      <c r="E105" s="219"/>
+      <c r="F105" s="219"/>
+      <c r="G105" s="219"/>
+      <c r="H105" s="219"/>
+      <c r="I105" s="219"/>
+      <c r="J105" s="219"/>
+      <c r="K105" s="219"/>
+      <c r="L105" s="219"/>
+      <c r="M105" s="219"/>
+      <c r="N105" s="219"/>
+      <c r="O105" s="219"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="211" t="s">
+      <c r="A106" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="211"/>
-      <c r="C106" s="211"/>
-      <c r="D106" s="211"/>
-      <c r="E106" s="211"/>
-      <c r="F106" s="211"/>
-      <c r="G106" s="211"/>
-      <c r="H106" s="211"/>
-      <c r="I106" s="211"/>
-      <c r="J106" s="211"/>
-      <c r="K106" s="211"/>
-      <c r="L106" s="211"/>
-      <c r="M106" s="211"/>
-      <c r="N106" s="211"/>
-      <c r="O106" s="211"/>
+      <c r="B106" s="220"/>
+      <c r="C106" s="220"/>
+      <c r="D106" s="220"/>
+      <c r="E106" s="220"/>
+      <c r="F106" s="220"/>
+      <c r="G106" s="220"/>
+      <c r="H106" s="220"/>
+      <c r="I106" s="220"/>
+      <c r="J106" s="220"/>
+      <c r="K106" s="220"/>
+      <c r="L106" s="220"/>
+      <c r="M106" s="220"/>
+      <c r="N106" s="220"/>
+      <c r="O106" s="220"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6734,23 +6752,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="228" t="s">
+      <c r="A108" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="228"/>
-      <c r="C108" s="228"/>
-      <c r="D108" s="228"/>
-      <c r="E108" s="228"/>
-      <c r="F108" s="228"/>
-      <c r="G108" s="228"/>
-      <c r="H108" s="228"/>
-      <c r="I108" s="228"/>
-      <c r="J108" s="228"/>
-      <c r="K108" s="228"/>
-      <c r="L108" s="228"/>
-      <c r="M108" s="228"/>
-      <c r="N108" s="228"/>
-      <c r="O108" s="228"/>
+      <c r="B108" s="210"/>
+      <c r="C108" s="210"/>
+      <c r="D108" s="210"/>
+      <c r="E108" s="210"/>
+      <c r="F108" s="210"/>
+      <c r="G108" s="210"/>
+      <c r="H108" s="210"/>
+      <c r="I108" s="210"/>
+      <c r="J108" s="210"/>
+      <c r="K108" s="210"/>
+      <c r="L108" s="210"/>
+      <c r="M108" s="210"/>
+      <c r="N108" s="210"/>
+      <c r="O108" s="210"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6873,38 +6891,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="218" t="s">
+      <c r="A115" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="220" t="s">
+      <c r="B115" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="220"/>
-      <c r="D115" s="220"/>
-      <c r="E115" s="221" t="s">
+      <c r="C115" s="222"/>
+      <c r="D115" s="222"/>
+      <c r="E115" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="221" t="s">
+      <c r="F115" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="223" t="s">
+      <c r="G115" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="225" t="s">
+      <c r="H115" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="226"/>
-      <c r="J115" s="226"/>
-      <c r="K115" s="226"/>
-      <c r="L115" s="226"/>
-      <c r="M115" s="226"/>
-      <c r="N115" s="227"/>
-      <c r="O115" s="223" t="s">
+      <c r="I115" s="212"/>
+      <c r="J115" s="212"/>
+      <c r="K115" s="212"/>
+      <c r="L115" s="212"/>
+      <c r="M115" s="212"/>
+      <c r="N115" s="213"/>
+      <c r="O115" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="219"/>
+      <c r="A116" s="215"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6914,9 +6932,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="222"/>
-      <c r="F116" s="224"/>
-      <c r="G116" s="219"/>
+      <c r="E116" s="224"/>
+      <c r="F116" s="225"/>
+      <c r="G116" s="215"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6938,7 +6956,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="219"/>
+      <c r="O116" s="215"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7067,14 +7085,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="215" t="s">
+      <c r="A122" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="216"/>
-      <c r="C122" s="216"/>
-      <c r="D122" s="216"/>
-      <c r="E122" s="216"/>
-      <c r="F122" s="217"/>
+      <c r="B122" s="217"/>
+      <c r="C122" s="217"/>
+      <c r="D122" s="217"/>
+      <c r="E122" s="217"/>
+      <c r="F122" s="218"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7117,6 +7135,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A106:O106"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
     <mergeCell ref="A108:O108"/>
     <mergeCell ref="H115:N115"/>
     <mergeCell ref="O115:O116"/>
@@ -7133,34 +7179,6 @@
     <mergeCell ref="H77:N77"/>
     <mergeCell ref="O77:O78"/>
     <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A106:O106"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -7197,21 +7215,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7321,56 +7339,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="249" t="s">
+      <c r="B9" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="251" t="s">
+      <c r="C9" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="253" t="s">
+      <c r="D9" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="251" t="s">
+      <c r="E9" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="251" t="s">
+      <c r="F9" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="251" t="s">
+      <c r="G9" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="251" t="s">
+      <c r="H9" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="255" t="s">
+      <c r="I9" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="251" t="s">
+      <c r="J9" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="251" t="s">
+      <c r="K9" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="251" t="s">
+      <c r="L9" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="257" t="s">
+      <c r="M9" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="258"/>
+      <c r="N9" s="255"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="250"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="252"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="252"/>
+      <c r="B10" s="263"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="265"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7799,44 +7817,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="259" t="s">
+      <c r="B31" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="261"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="257"/>
+      <c r="F31" s="257"/>
+      <c r="G31" s="257"/>
+      <c r="H31" s="258"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="262"/>
-      <c r="K31" s="263"/>
-      <c r="L31" s="263"/>
-      <c r="M31" s="263"/>
-      <c r="N31" s="264"/>
+      <c r="J31" s="259"/>
+      <c r="K31" s="260"/>
+      <c r="L31" s="260"/>
+      <c r="M31" s="260"/>
+      <c r="N31" s="261"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="228" t="s">
+      <c r="B35" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="228"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="228"/>
-      <c r="G35" s="228"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="228"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="228"/>
-      <c r="L35" s="228"/>
-      <c r="M35" s="228"/>
-      <c r="N35" s="228"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="210"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="210"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7946,56 +7964,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="249" t="s">
+      <c r="B42" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="251" t="s">
+      <c r="E42" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="251" t="s">
+      <c r="F42" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="251" t="s">
+      <c r="G42" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="251" t="s">
+      <c r="H42" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="255" t="s">
+      <c r="I42" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="251" t="s">
+      <c r="J42" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="251" t="s">
+      <c r="K42" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="251" t="s">
+      <c r="L42" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="257" t="s">
+      <c r="M42" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="258"/>
+      <c r="N42" s="255"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="250"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
-      <c r="E43" s="252"/>
-      <c r="F43" s="252"/>
-      <c r="G43" s="252"/>
-      <c r="H43" s="252"/>
-      <c r="I43" s="256"/>
-      <c r="J43" s="252"/>
-      <c r="K43" s="252"/>
-      <c r="L43" s="252"/>
+      <c r="B43" s="263"/>
+      <c r="C43" s="253"/>
+      <c r="D43" s="265"/>
+      <c r="E43" s="253"/>
+      <c r="F43" s="253"/>
+      <c r="G43" s="253"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="251"/>
+      <c r="J43" s="253"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="253"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -8004,24 +8022,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="265" t="s">
+      <c r="B44" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="266"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="266"/>
-      <c r="H44" s="267"/>
+      <c r="C44" s="267"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="267"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="268"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="268"/>
-      <c r="K44" s="269"/>
-      <c r="L44" s="269"/>
-      <c r="M44" s="269"/>
-      <c r="N44" s="270"/>
+      <c r="J44" s="269"/>
+      <c r="K44" s="270"/>
+      <c r="L44" s="270"/>
+      <c r="M44" s="270"/>
+      <c r="N44" s="271"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8385,44 +8403,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="259" t="s">
+      <c r="B63" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="260"/>
-      <c r="D63" s="260"/>
-      <c r="E63" s="260"/>
-      <c r="F63" s="260"/>
-      <c r="G63" s="260"/>
-      <c r="H63" s="261"/>
+      <c r="C63" s="257"/>
+      <c r="D63" s="257"/>
+      <c r="E63" s="257"/>
+      <c r="F63" s="257"/>
+      <c r="G63" s="257"/>
+      <c r="H63" s="258"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="262"/>
-      <c r="K63" s="263"/>
-      <c r="L63" s="263"/>
-      <c r="M63" s="263"/>
-      <c r="N63" s="264"/>
+      <c r="J63" s="259"/>
+      <c r="K63" s="260"/>
+      <c r="L63" s="260"/>
+      <c r="M63" s="260"/>
+      <c r="N63" s="261"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="228" t="s">
+      <c r="B67" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="228"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="228"/>
-      <c r="F67" s="228"/>
-      <c r="G67" s="228"/>
-      <c r="H67" s="228"/>
-      <c r="I67" s="228"/>
-      <c r="J67" s="228"/>
-      <c r="K67" s="228"/>
-      <c r="L67" s="228"/>
-      <c r="M67" s="228"/>
-      <c r="N67" s="228"/>
+      <c r="C67" s="210"/>
+      <c r="D67" s="210"/>
+      <c r="E67" s="210"/>
+      <c r="F67" s="210"/>
+      <c r="G67" s="210"/>
+      <c r="H67" s="210"/>
+      <c r="I67" s="210"/>
+      <c r="J67" s="210"/>
+      <c r="K67" s="210"/>
+      <c r="L67" s="210"/>
+      <c r="M67" s="210"/>
+      <c r="N67" s="210"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8532,56 +8550,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="249" t="s">
+      <c r="B74" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="251" t="s">
+      <c r="C74" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="253" t="s">
+      <c r="D74" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="251" t="s">
+      <c r="E74" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="251" t="s">
+      <c r="F74" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="251" t="s">
+      <c r="G74" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="251" t="s">
+      <c r="H74" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="255" t="s">
+      <c r="I74" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="251" t="s">
+      <c r="J74" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="251" t="s">
+      <c r="K74" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="251" t="s">
+      <c r="L74" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="257" t="s">
+      <c r="M74" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="258"/>
+      <c r="N74" s="255"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="250"/>
-      <c r="C75" s="252"/>
-      <c r="D75" s="254"/>
-      <c r="E75" s="252"/>
-      <c r="F75" s="252"/>
-      <c r="G75" s="252"/>
-      <c r="H75" s="252"/>
-      <c r="I75" s="256"/>
-      <c r="J75" s="252"/>
-      <c r="K75" s="252"/>
-      <c r="L75" s="252"/>
+      <c r="B75" s="263"/>
+      <c r="C75" s="253"/>
+      <c r="D75" s="265"/>
+      <c r="E75" s="253"/>
+      <c r="F75" s="253"/>
+      <c r="G75" s="253"/>
+      <c r="H75" s="253"/>
+      <c r="I75" s="251"/>
+      <c r="J75" s="253"/>
+      <c r="K75" s="253"/>
+      <c r="L75" s="253"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8590,24 +8608,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="265" t="s">
+      <c r="B76" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="266"/>
-      <c r="D76" s="266"/>
-      <c r="E76" s="266"/>
-      <c r="F76" s="266"/>
-      <c r="G76" s="266"/>
-      <c r="H76" s="267"/>
+      <c r="C76" s="267"/>
+      <c r="D76" s="267"/>
+      <c r="E76" s="267"/>
+      <c r="F76" s="267"/>
+      <c r="G76" s="267"/>
+      <c r="H76" s="268"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="268"/>
-      <c r="K76" s="269"/>
-      <c r="L76" s="269"/>
-      <c r="M76" s="269"/>
-      <c r="N76" s="270"/>
+      <c r="J76" s="269"/>
+      <c r="K76" s="270"/>
+      <c r="L76" s="270"/>
+      <c r="M76" s="270"/>
+      <c r="N76" s="271"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -9050,44 +9068,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="259" t="s">
+      <c r="B97" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="260"/>
-      <c r="D97" s="260"/>
-      <c r="E97" s="260"/>
-      <c r="F97" s="260"/>
-      <c r="G97" s="260"/>
-      <c r="H97" s="261"/>
+      <c r="C97" s="257"/>
+      <c r="D97" s="257"/>
+      <c r="E97" s="257"/>
+      <c r="F97" s="257"/>
+      <c r="G97" s="257"/>
+      <c r="H97" s="258"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="262"/>
-      <c r="K97" s="263"/>
-      <c r="L97" s="263"/>
-      <c r="M97" s="263"/>
-      <c r="N97" s="264"/>
+      <c r="J97" s="259"/>
+      <c r="K97" s="260"/>
+      <c r="L97" s="260"/>
+      <c r="M97" s="260"/>
+      <c r="N97" s="261"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="228" t="s">
+      <c r="B101" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="228"/>
-      <c r="D101" s="228"/>
-      <c r="E101" s="228"/>
-      <c r="F101" s="228"/>
-      <c r="G101" s="228"/>
-      <c r="H101" s="228"/>
-      <c r="I101" s="228"/>
-      <c r="J101" s="228"/>
-      <c r="K101" s="228"/>
-      <c r="L101" s="228"/>
-      <c r="M101" s="228"/>
-      <c r="N101" s="228"/>
+      <c r="C101" s="210"/>
+      <c r="D101" s="210"/>
+      <c r="E101" s="210"/>
+      <c r="F101" s="210"/>
+      <c r="G101" s="210"/>
+      <c r="H101" s="210"/>
+      <c r="I101" s="210"/>
+      <c r="J101" s="210"/>
+      <c r="K101" s="210"/>
+      <c r="L101" s="210"/>
+      <c r="M101" s="210"/>
+      <c r="N101" s="210"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9197,56 +9215,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="249" t="s">
+      <c r="B108" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="251" t="s">
+      <c r="C108" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="253" t="s">
+      <c r="D108" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="251" t="s">
+      <c r="E108" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="251" t="s">
+      <c r="F108" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="251" t="s">
+      <c r="G108" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="251" t="s">
+      <c r="H108" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="255" t="s">
+      <c r="I108" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="251" t="s">
+      <c r="J108" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="251" t="s">
+      <c r="K108" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="251" t="s">
+      <c r="L108" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="257" t="s">
+      <c r="M108" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="258"/>
+      <c r="N108" s="255"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="250"/>
-      <c r="C109" s="252"/>
-      <c r="D109" s="254"/>
-      <c r="E109" s="252"/>
-      <c r="F109" s="252"/>
-      <c r="G109" s="252"/>
-      <c r="H109" s="252"/>
-      <c r="I109" s="256"/>
-      <c r="J109" s="252"/>
-      <c r="K109" s="252"/>
-      <c r="L109" s="252"/>
+      <c r="B109" s="263"/>
+      <c r="C109" s="253"/>
+      <c r="D109" s="265"/>
+      <c r="E109" s="253"/>
+      <c r="F109" s="253"/>
+      <c r="G109" s="253"/>
+      <c r="H109" s="253"/>
+      <c r="I109" s="251"/>
+      <c r="J109" s="253"/>
+      <c r="K109" s="253"/>
+      <c r="L109" s="253"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9255,24 +9273,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="265" t="s">
+      <c r="B110" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="266"/>
-      <c r="D110" s="266"/>
-      <c r="E110" s="266"/>
-      <c r="F110" s="266"/>
-      <c r="G110" s="266"/>
-      <c r="H110" s="267"/>
+      <c r="C110" s="267"/>
+      <c r="D110" s="267"/>
+      <c r="E110" s="267"/>
+      <c r="F110" s="267"/>
+      <c r="G110" s="267"/>
+      <c r="H110" s="268"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="268"/>
-      <c r="K110" s="269"/>
-      <c r="L110" s="269"/>
-      <c r="M110" s="269"/>
-      <c r="N110" s="270"/>
+      <c r="J110" s="269"/>
+      <c r="K110" s="270"/>
+      <c r="L110" s="270"/>
+      <c r="M110" s="270"/>
+      <c r="N110" s="271"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9642,44 +9660,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="259" t="s">
+      <c r="B130" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="260"/>
-      <c r="D130" s="260"/>
-      <c r="E130" s="260"/>
-      <c r="F130" s="260"/>
-      <c r="G130" s="260"/>
-      <c r="H130" s="261"/>
+      <c r="C130" s="257"/>
+      <c r="D130" s="257"/>
+      <c r="E130" s="257"/>
+      <c r="F130" s="257"/>
+      <c r="G130" s="257"/>
+      <c r="H130" s="258"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="262"/>
-      <c r="K130" s="263"/>
-      <c r="L130" s="263"/>
-      <c r="M130" s="263"/>
-      <c r="N130" s="264"/>
+      <c r="J130" s="259"/>
+      <c r="K130" s="260"/>
+      <c r="L130" s="260"/>
+      <c r="M130" s="260"/>
+      <c r="N130" s="261"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="228" t="s">
+      <c r="B134" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="228"/>
-      <c r="D134" s="228"/>
-      <c r="E134" s="228"/>
-      <c r="F134" s="228"/>
-      <c r="G134" s="228"/>
-      <c r="H134" s="228"/>
-      <c r="I134" s="228"/>
-      <c r="J134" s="228"/>
-      <c r="K134" s="228"/>
-      <c r="L134" s="228"/>
-      <c r="M134" s="228"/>
-      <c r="N134" s="228"/>
+      <c r="C134" s="210"/>
+      <c r="D134" s="210"/>
+      <c r="E134" s="210"/>
+      <c r="F134" s="210"/>
+      <c r="G134" s="210"/>
+      <c r="H134" s="210"/>
+      <c r="I134" s="210"/>
+      <c r="J134" s="210"/>
+      <c r="K134" s="210"/>
+      <c r="L134" s="210"/>
+      <c r="M134" s="210"/>
+      <c r="N134" s="210"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9789,56 +9807,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="249" t="s">
+      <c r="B141" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="251" t="s">
+      <c r="C141" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="253" t="s">
+      <c r="D141" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="251" t="s">
+      <c r="E141" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="251" t="s">
+      <c r="F141" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="251" t="s">
+      <c r="G141" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="251" t="s">
+      <c r="H141" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="255" t="s">
+      <c r="I141" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="251" t="s">
+      <c r="J141" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="251" t="s">
+      <c r="K141" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="251" t="s">
+      <c r="L141" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="257" t="s">
+      <c r="M141" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="258"/>
+      <c r="N141" s="255"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="250"/>
-      <c r="C142" s="252"/>
-      <c r="D142" s="254"/>
-      <c r="E142" s="252"/>
-      <c r="F142" s="252"/>
-      <c r="G142" s="252"/>
-      <c r="H142" s="252"/>
-      <c r="I142" s="256"/>
-      <c r="J142" s="252"/>
-      <c r="K142" s="252"/>
-      <c r="L142" s="252"/>
+      <c r="B142" s="263"/>
+      <c r="C142" s="253"/>
+      <c r="D142" s="265"/>
+      <c r="E142" s="253"/>
+      <c r="F142" s="253"/>
+      <c r="G142" s="253"/>
+      <c r="H142" s="253"/>
+      <c r="I142" s="251"/>
+      <c r="J142" s="253"/>
+      <c r="K142" s="253"/>
+      <c r="L142" s="253"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9847,24 +9865,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="265" t="s">
+      <c r="B143" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="266"/>
-      <c r="D143" s="266"/>
-      <c r="E143" s="266"/>
-      <c r="F143" s="266"/>
-      <c r="G143" s="266"/>
-      <c r="H143" s="267"/>
+      <c r="C143" s="267"/>
+      <c r="D143" s="267"/>
+      <c r="E143" s="267"/>
+      <c r="F143" s="267"/>
+      <c r="G143" s="267"/>
+      <c r="H143" s="268"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="268"/>
-      <c r="K143" s="269"/>
-      <c r="L143" s="269"/>
-      <c r="M143" s="269"/>
-      <c r="N143" s="270"/>
+      <c r="J143" s="269"/>
+      <c r="K143" s="270"/>
+      <c r="L143" s="270"/>
+      <c r="M143" s="270"/>
+      <c r="N143" s="271"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10190,44 +10208,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="259" t="s">
+      <c r="B161" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="260"/>
-      <c r="D161" s="260"/>
-      <c r="E161" s="260"/>
-      <c r="F161" s="260"/>
-      <c r="G161" s="260"/>
-      <c r="H161" s="261"/>
+      <c r="C161" s="257"/>
+      <c r="D161" s="257"/>
+      <c r="E161" s="257"/>
+      <c r="F161" s="257"/>
+      <c r="G161" s="257"/>
+      <c r="H161" s="258"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="262"/>
-      <c r="K161" s="263"/>
-      <c r="L161" s="263"/>
-      <c r="M161" s="263"/>
-      <c r="N161" s="264"/>
+      <c r="J161" s="259"/>
+      <c r="K161" s="260"/>
+      <c r="L161" s="260"/>
+      <c r="M161" s="260"/>
+      <c r="N161" s="261"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="228" t="s">
+      <c r="B165" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="228"/>
-      <c r="D165" s="228"/>
-      <c r="E165" s="228"/>
-      <c r="F165" s="228"/>
-      <c r="G165" s="228"/>
-      <c r="H165" s="228"/>
-      <c r="I165" s="228"/>
-      <c r="J165" s="228"/>
-      <c r="K165" s="228"/>
-      <c r="L165" s="228"/>
-      <c r="M165" s="228"/>
-      <c r="N165" s="228"/>
+      <c r="C165" s="210"/>
+      <c r="D165" s="210"/>
+      <c r="E165" s="210"/>
+      <c r="F165" s="210"/>
+      <c r="G165" s="210"/>
+      <c r="H165" s="210"/>
+      <c r="I165" s="210"/>
+      <c r="J165" s="210"/>
+      <c r="K165" s="210"/>
+      <c r="L165" s="210"/>
+      <c r="M165" s="210"/>
+      <c r="N165" s="210"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10337,56 +10355,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="249" t="s">
+      <c r="B172" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="251" t="s">
+      <c r="C172" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="253" t="s">
+      <c r="D172" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="251" t="s">
+      <c r="E172" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="251" t="s">
+      <c r="F172" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="251" t="s">
+      <c r="G172" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="251" t="s">
+      <c r="H172" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="255" t="s">
+      <c r="I172" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="251" t="s">
+      <c r="J172" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="251" t="s">
+      <c r="K172" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="251" t="s">
+      <c r="L172" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="257" t="s">
+      <c r="M172" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="258"/>
+      <c r="N172" s="255"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="250"/>
-      <c r="C173" s="252"/>
-      <c r="D173" s="254"/>
-      <c r="E173" s="252"/>
-      <c r="F173" s="252"/>
-      <c r="G173" s="252"/>
-      <c r="H173" s="252"/>
-      <c r="I173" s="256"/>
-      <c r="J173" s="252"/>
-      <c r="K173" s="252"/>
-      <c r="L173" s="252"/>
+      <c r="B173" s="263"/>
+      <c r="C173" s="253"/>
+      <c r="D173" s="265"/>
+      <c r="E173" s="253"/>
+      <c r="F173" s="253"/>
+      <c r="G173" s="253"/>
+      <c r="H173" s="253"/>
+      <c r="I173" s="251"/>
+      <c r="J173" s="253"/>
+      <c r="K173" s="253"/>
+      <c r="L173" s="253"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10395,24 +10413,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="265" t="s">
+      <c r="B174" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="266"/>
-      <c r="D174" s="266"/>
-      <c r="E174" s="266"/>
-      <c r="F174" s="266"/>
-      <c r="G174" s="266"/>
-      <c r="H174" s="267"/>
+      <c r="C174" s="267"/>
+      <c r="D174" s="267"/>
+      <c r="E174" s="267"/>
+      <c r="F174" s="267"/>
+      <c r="G174" s="267"/>
+      <c r="H174" s="268"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="268"/>
-      <c r="K174" s="269"/>
-      <c r="L174" s="269"/>
-      <c r="M174" s="269"/>
-      <c r="N174" s="270"/>
+      <c r="J174" s="269"/>
+      <c r="K174" s="270"/>
+      <c r="L174" s="270"/>
+      <c r="M174" s="270"/>
+      <c r="N174" s="271"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10478,31 +10496,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="265" t="s">
+      <c r="B178" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="266"/>
-      <c r="D178" s="266"/>
-      <c r="E178" s="266"/>
-      <c r="F178" s="266"/>
-      <c r="G178" s="266"/>
-      <c r="H178" s="267"/>
+      <c r="C178" s="267"/>
+      <c r="D178" s="267"/>
+      <c r="E178" s="267"/>
+      <c r="F178" s="267"/>
+      <c r="G178" s="267"/>
+      <c r="H178" s="268"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="268"/>
-      <c r="K178" s="269"/>
-      <c r="L178" s="269"/>
-      <c r="M178" s="269"/>
-      <c r="N178" s="270"/>
+      <c r="J178" s="269"/>
+      <c r="K178" s="270"/>
+      <c r="L178" s="270"/>
+      <c r="M178" s="270"/>
+      <c r="N178" s="271"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="271" t="s">
+      <c r="M180" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="271"/>
+      <c r="N180" s="249"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10519,6 +10537,90 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -10536,90 +10638,6 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -10631,12 +10649,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja6"/>
+  <sheetPr codeName="Hoja6" filterMode="1"/>
   <dimension ref="A1:S284"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11619,46 +11637,46 @@
       <c r="Q1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="219"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11680,25 +11698,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="210"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11833,13 +11851,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -11866,7 +11884,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -11914,7 +11932,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="143">
         <v>1</v>
       </c>
@@ -11970,7 +11988,7 @@
       <c r="R14" s="165"/>
       <c r="S14" s="165"/>
     </row>
-    <row r="15" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="122">
         <v>2</v>
       </c>
@@ -12026,7 +12044,7 @@
       <c r="R15" s="165"/>
       <c r="S15" s="165"/>
     </row>
-    <row r="16" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="122">
         <v>3</v>
       </c>
@@ -12082,7 +12100,7 @@
       <c r="R16" s="165"/>
       <c r="S16" s="165"/>
     </row>
-    <row r="17" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="143">
         <v>4</v>
       </c>
@@ -12138,7 +12156,7 @@
       <c r="R17" s="165"/>
       <c r="S17" s="165"/>
     </row>
-    <row r="18" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="122">
         <v>5</v>
       </c>
@@ -12194,7 +12212,7 @@
       <c r="R18" s="165"/>
       <c r="S18" s="165"/>
     </row>
-    <row r="19" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="122">
         <v>6</v>
       </c>
@@ -12250,7 +12268,7 @@
       <c r="R19" s="165"/>
       <c r="S19" s="165"/>
     </row>
-    <row r="20" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="143">
         <v>7</v>
       </c>
@@ -12306,7 +12324,7 @@
       <c r="R20" s="165"/>
       <c r="S20" s="165"/>
     </row>
-    <row r="21" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="122">
         <v>8</v>
       </c>
@@ -12362,7 +12380,7 @@
       <c r="R21" s="165"/>
       <c r="S21" s="165"/>
     </row>
-    <row r="22" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="122">
         <v>9</v>
       </c>
@@ -12418,7 +12436,7 @@
       <c r="R22" s="165"/>
       <c r="S22" s="165"/>
     </row>
-    <row r="23" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="143">
         <v>10</v>
       </c>
@@ -12474,7 +12492,7 @@
       <c r="R23" s="165"/>
       <c r="S23" s="165"/>
     </row>
-    <row r="24" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="122">
         <v>11</v>
       </c>
@@ -12530,7 +12548,7 @@
       <c r="R24" s="165"/>
       <c r="S24" s="165"/>
     </row>
-    <row r="25" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="122">
         <v>12</v>
       </c>
@@ -12586,7 +12604,7 @@
       <c r="R25" s="165"/>
       <c r="S25" s="165"/>
     </row>
-    <row r="26" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="143">
         <v>13</v>
       </c>
@@ -12642,7 +12660,7 @@
       <c r="R26" s="165"/>
       <c r="S26" s="165"/>
     </row>
-    <row r="27" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="122">
         <v>14</v>
       </c>
@@ -12698,7 +12716,7 @@
       <c r="R27" s="165"/>
       <c r="S27" s="165"/>
     </row>
-    <row r="28" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="122">
         <v>15</v>
       </c>
@@ -12754,7 +12772,7 @@
       <c r="R28" s="165"/>
       <c r="S28" s="165"/>
     </row>
-    <row r="29" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="143">
         <v>16</v>
       </c>
@@ -12810,7 +12828,7 @@
       <c r="R29" s="165"/>
       <c r="S29" s="165"/>
     </row>
-    <row r="30" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="122">
         <v>17</v>
       </c>
@@ -12866,7 +12884,7 @@
       <c r="R30" s="165"/>
       <c r="S30" s="165"/>
     </row>
-    <row r="31" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="122">
         <v>18</v>
       </c>
@@ -12922,7 +12940,7 @@
       <c r="R31" s="165"/>
       <c r="S31" s="165"/>
     </row>
-    <row r="32" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="143">
         <v>19</v>
       </c>
@@ -12978,7 +12996,7 @@
       <c r="R32" s="165"/>
       <c r="S32" s="165"/>
     </row>
-    <row r="33" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="122">
         <v>20</v>
       </c>
@@ -13034,7 +13052,7 @@
       <c r="R33" s="165"/>
       <c r="S33" s="165"/>
     </row>
-    <row r="34" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="122">
         <v>21</v>
       </c>
@@ -13090,7 +13108,7 @@
       <c r="R34" s="165"/>
       <c r="S34" s="165"/>
     </row>
-    <row r="35" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="143">
         <v>22</v>
       </c>
@@ -13150,7 +13168,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="122">
         <v>23</v>
       </c>
@@ -13210,7 +13228,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="122">
         <v>24</v>
       </c>
@@ -13266,7 +13284,7 @@
       <c r="R37" s="165"/>
       <c r="S37" s="165"/>
     </row>
-    <row r="38" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="143">
         <v>25</v>
       </c>
@@ -13324,7 +13342,7 @@
       </c>
       <c r="S38" s="165"/>
     </row>
-    <row r="39" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="122">
         <v>26</v>
       </c>
@@ -13382,7 +13400,7 @@
       </c>
       <c r="S39" s="165"/>
     </row>
-    <row r="40" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="122">
         <v>27</v>
       </c>
@@ -13438,7 +13456,7 @@
       <c r="R40" s="165"/>
       <c r="S40" s="165"/>
     </row>
-    <row r="41" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="143">
         <v>28</v>
       </c>
@@ -13494,7 +13512,7 @@
       <c r="R41" s="165"/>
       <c r="S41" s="165"/>
     </row>
-    <row r="42" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="122">
         <v>29</v>
       </c>
@@ -13550,7 +13568,7 @@
       <c r="R42" s="165"/>
       <c r="S42" s="165"/>
     </row>
-    <row r="43" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="122">
         <v>30</v>
       </c>
@@ -13606,7 +13624,7 @@
       <c r="R43" s="165"/>
       <c r="S43" s="165"/>
     </row>
-    <row r="44" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="143">
         <v>34</v>
       </c>
@@ -13662,7 +13680,7 @@
       <c r="R44" s="165"/>
       <c r="S44" s="165"/>
     </row>
-    <row r="45" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="122">
         <v>35</v>
       </c>
@@ -13702,7 +13720,7 @@
       <c r="R45" s="165"/>
       <c r="S45" s="165"/>
     </row>
-    <row r="46" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="122">
         <v>36</v>
       </c>
@@ -13742,7 +13760,7 @@
       <c r="R46" s="165"/>
       <c r="S46" s="165"/>
     </row>
-    <row r="47" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="143">
         <v>37</v>
       </c>
@@ -13782,7 +13800,7 @@
       <c r="R47" s="165"/>
       <c r="S47" s="165"/>
     </row>
-    <row r="48" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="122">
         <v>38</v>
       </c>
@@ -13822,7 +13840,7 @@
       <c r="R48" s="165"/>
       <c r="S48" s="165"/>
     </row>
-    <row r="49" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="122">
         <v>39</v>
       </c>
@@ -13862,7 +13880,7 @@
       <c r="R49" s="165"/>
       <c r="S49" s="165"/>
     </row>
-    <row r="50" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="143">
         <v>40</v>
       </c>
@@ -13902,7 +13920,7 @@
       <c r="R50" s="165"/>
       <c r="S50" s="165"/>
     </row>
-    <row r="51" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="122">
         <v>41</v>
       </c>
@@ -13942,7 +13960,7 @@
       <c r="R51" s="165"/>
       <c r="S51" s="165"/>
     </row>
-    <row r="52" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="122">
         <v>42</v>
       </c>
@@ -13982,7 +14000,7 @@
       <c r="R52" s="165"/>
       <c r="S52" s="165"/>
     </row>
-    <row r="53" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="143">
         <v>43</v>
       </c>
@@ -14022,7 +14040,7 @@
       <c r="R53" s="165"/>
       <c r="S53" s="165"/>
     </row>
-    <row r="54" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="122">
         <v>44</v>
       </c>
@@ -14062,7 +14080,7 @@
       <c r="R54" s="165"/>
       <c r="S54" s="165"/>
     </row>
-    <row r="55" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="122">
         <v>45</v>
       </c>
@@ -14102,7 +14120,7 @@
       <c r="R55" s="165"/>
       <c r="S55" s="165"/>
     </row>
-    <row r="56" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="143">
         <v>46</v>
       </c>
@@ -14142,7 +14160,7 @@
       <c r="R56" s="165"/>
       <c r="S56" s="165"/>
     </row>
-    <row r="57" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="122">
         <v>47</v>
       </c>
@@ -14182,7 +14200,7 @@
       <c r="R57" s="165"/>
       <c r="S57" s="165"/>
     </row>
-    <row r="58" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="122">
         <v>48</v>
       </c>
@@ -14222,7 +14240,7 @@
       <c r="R58" s="165"/>
       <c r="S58" s="165"/>
     </row>
-    <row r="59" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="143">
         <v>49</v>
       </c>
@@ -14262,7 +14280,7 @@
       <c r="R59" s="165"/>
       <c r="S59" s="165"/>
     </row>
-    <row r="60" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="122">
         <v>50</v>
       </c>
@@ -14302,7 +14320,7 @@
       <c r="R60" s="165"/>
       <c r="S60" s="165"/>
     </row>
-    <row r="61" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="122">
         <v>51</v>
       </c>
@@ -14342,7 +14360,7 @@
       <c r="R61" s="165"/>
       <c r="S61" s="165"/>
     </row>
-    <row r="62" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="143">
         <v>52</v>
       </c>
@@ -14382,7 +14400,7 @@
       <c r="R62" s="165"/>
       <c r="S62" s="165"/>
     </row>
-    <row r="63" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="122">
         <v>53</v>
       </c>
@@ -14422,7 +14440,7 @@
       <c r="R63" s="165"/>
       <c r="S63" s="165"/>
     </row>
-    <row r="64" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="122">
         <v>54</v>
       </c>
@@ -14462,7 +14480,7 @@
       <c r="R64" s="165"/>
       <c r="S64" s="165"/>
     </row>
-    <row r="65" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="143">
         <v>55</v>
       </c>
@@ -14502,7 +14520,7 @@
       <c r="R65" s="165"/>
       <c r="S65" s="165"/>
     </row>
-    <row r="66" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="122">
         <v>56</v>
       </c>
@@ -14542,7 +14560,7 @@
       <c r="R66" s="165"/>
       <c r="S66" s="165"/>
     </row>
-    <row r="67" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="122">
         <v>57</v>
       </c>
@@ -14582,7 +14600,7 @@
       <c r="R67" s="165"/>
       <c r="S67" s="165"/>
     </row>
-    <row r="68" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="143">
         <v>58</v>
       </c>
@@ -14638,7 +14656,7 @@
       <c r="R68" s="165"/>
       <c r="S68" s="165"/>
     </row>
-    <row r="69" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="122">
         <v>59</v>
       </c>
@@ -14694,7 +14712,7 @@
       <c r="R69" s="165"/>
       <c r="S69" s="165"/>
     </row>
-    <row r="70" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="122">
         <v>60</v>
       </c>
@@ -14750,7 +14768,7 @@
       <c r="R70" s="165"/>
       <c r="S70" s="165"/>
     </row>
-    <row r="71" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="143">
         <v>61</v>
       </c>
@@ -14806,7 +14824,7 @@
       <c r="R71" s="165"/>
       <c r="S71" s="165"/>
     </row>
-    <row r="72" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="122">
         <v>62</v>
       </c>
@@ -14862,7 +14880,7 @@
       <c r="R72" s="165"/>
       <c r="S72" s="165"/>
     </row>
-    <row r="73" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="122">
         <v>63</v>
       </c>
@@ -14918,7 +14936,7 @@
       <c r="R73" s="165"/>
       <c r="S73" s="165"/>
     </row>
-    <row r="74" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="143">
         <v>64</v>
       </c>
@@ -14974,7 +14992,7 @@
       <c r="R74" s="165"/>
       <c r="S74" s="165"/>
     </row>
-    <row r="75" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="122">
         <v>65</v>
       </c>
@@ -15030,7 +15048,7 @@
       <c r="R75" s="165"/>
       <c r="S75" s="165"/>
     </row>
-    <row r="76" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="122">
         <v>66</v>
       </c>
@@ -15086,7 +15104,7 @@
       <c r="R76" s="165"/>
       <c r="S76" s="165"/>
     </row>
-    <row r="77" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="143">
         <v>67</v>
       </c>
@@ -15142,7 +15160,7 @@
       <c r="R77" s="165"/>
       <c r="S77" s="165"/>
     </row>
-    <row r="78" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="122">
         <v>68</v>
       </c>
@@ -15198,7 +15216,7 @@
       <c r="R78" s="165"/>
       <c r="S78" s="165"/>
     </row>
-    <row r="79" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="122">
         <v>69</v>
       </c>
@@ -15254,7 +15272,7 @@
       <c r="R79" s="165"/>
       <c r="S79" s="165"/>
     </row>
-    <row r="80" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="143">
         <v>70</v>
       </c>
@@ -15310,7 +15328,7 @@
       <c r="R80" s="165"/>
       <c r="S80" s="165"/>
     </row>
-    <row r="81" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="122">
         <v>71</v>
       </c>
@@ -15366,7 +15384,7 @@
       <c r="R81" s="165"/>
       <c r="S81" s="165"/>
     </row>
-    <row r="82" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="122">
         <v>72</v>
       </c>
@@ -15422,7 +15440,7 @@
       <c r="R82" s="165"/>
       <c r="S82" s="165"/>
     </row>
-    <row r="83" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="143">
         <v>73</v>
       </c>
@@ -15478,7 +15496,7 @@
       <c r="R83" s="165"/>
       <c r="S83" s="165"/>
     </row>
-    <row r="84" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="122">
         <v>74</v>
       </c>
@@ -15534,7 +15552,7 @@
       <c r="R84" s="165"/>
       <c r="S84" s="165"/>
     </row>
-    <row r="85" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="122">
         <v>75</v>
       </c>
@@ -15590,7 +15608,7 @@
       <c r="R85" s="165"/>
       <c r="S85" s="165"/>
     </row>
-    <row r="86" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="143">
         <v>76</v>
       </c>
@@ -15646,7 +15664,7 @@
       <c r="R86" s="165"/>
       <c r="S86" s="165"/>
     </row>
-    <row r="87" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="122">
         <v>77</v>
       </c>
@@ -15702,7 +15720,7 @@
       <c r="R87" s="165"/>
       <c r="S87" s="165"/>
     </row>
-    <row r="88" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="122">
         <v>78</v>
       </c>
@@ -15758,7 +15776,7 @@
       <c r="R88" s="165"/>
       <c r="S88" s="165"/>
     </row>
-    <row r="89" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="143">
         <v>79</v>
       </c>
@@ -15814,7 +15832,7 @@
       <c r="R89" s="165"/>
       <c r="S89" s="165"/>
     </row>
-    <row r="90" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="122">
         <v>80</v>
       </c>
@@ -15870,7 +15888,7 @@
       <c r="R90" s="165"/>
       <c r="S90" s="165"/>
     </row>
-    <row r="91" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="122">
         <v>81</v>
       </c>
@@ -15926,7 +15944,7 @@
       <c r="R91" s="165"/>
       <c r="S91" s="165"/>
     </row>
-    <row r="92" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="143">
         <v>82</v>
       </c>
@@ -15982,7 +16000,7 @@
       <c r="R92" s="165"/>
       <c r="S92" s="165"/>
     </row>
-    <row r="93" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="122">
         <v>83</v>
       </c>
@@ -16038,7 +16056,7 @@
       <c r="R93" s="165"/>
       <c r="S93" s="165"/>
     </row>
-    <row r="94" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="122">
         <v>84</v>
       </c>
@@ -16094,7 +16112,7 @@
       <c r="R94" s="165"/>
       <c r="S94" s="165"/>
     </row>
-    <row r="95" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="143">
         <v>85</v>
       </c>
@@ -16150,7 +16168,7 @@
       <c r="R95" s="165"/>
       <c r="S95" s="165"/>
     </row>
-    <row r="96" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="122">
         <v>86</v>
       </c>
@@ -16206,7 +16224,7 @@
       <c r="R96" s="165"/>
       <c r="S96" s="165"/>
     </row>
-    <row r="97" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="122">
         <v>87</v>
       </c>
@@ -16266,7 +16284,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="143">
         <v>88</v>
       </c>
@@ -16322,7 +16340,7 @@
       <c r="R98" s="165"/>
       <c r="S98" s="165"/>
     </row>
-    <row r="99" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="122">
         <v>89</v>
       </c>
@@ -16378,7 +16396,7 @@
       <c r="R99" s="165"/>
       <c r="S99" s="165"/>
     </row>
-    <row r="100" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="122">
         <v>90</v>
       </c>
@@ -16434,7 +16452,7 @@
       <c r="R100" s="165"/>
       <c r="S100" s="165"/>
     </row>
-    <row r="101" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="143">
         <v>91</v>
       </c>
@@ -16490,7 +16508,7 @@
       <c r="R101" s="165"/>
       <c r="S101" s="165"/>
     </row>
-    <row r="102" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="122">
         <v>92</v>
       </c>
@@ -16546,7 +16564,7 @@
       <c r="R102" s="170"/>
       <c r="S102" s="165"/>
     </row>
-    <row r="103" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="122">
         <v>95</v>
       </c>
@@ -16602,7 +16620,7 @@
       <c r="R103" s="165"/>
       <c r="S103" s="165"/>
     </row>
-    <row r="104" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="122">
         <v>98</v>
       </c>
@@ -16658,7 +16676,7 @@
       <c r="R104" s="165"/>
       <c r="S104" s="165"/>
     </row>
-    <row r="105" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="122">
         <v>99</v>
       </c>
@@ -16714,7 +16732,7 @@
       <c r="R105" s="165"/>
       <c r="S105" s="165"/>
     </row>
-    <row r="106" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="143">
         <v>100</v>
       </c>
@@ -16770,7 +16788,7 @@
       <c r="R106" s="165"/>
       <c r="S106" s="165"/>
     </row>
-    <row r="107" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="122">
         <v>101</v>
       </c>
@@ -16826,7 +16844,7 @@
       <c r="R107" s="165"/>
       <c r="S107" s="165"/>
     </row>
-    <row r="108" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="122">
         <v>102</v>
       </c>
@@ -16882,7 +16900,7 @@
       <c r="R108" s="165"/>
       <c r="S108" s="165"/>
     </row>
-    <row r="109" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="143">
         <v>103</v>
       </c>
@@ -16938,7 +16956,7 @@
       <c r="R109" s="165"/>
       <c r="S109" s="165"/>
     </row>
-    <row r="110" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="122">
         <v>104</v>
       </c>
@@ -16994,7 +17012,7 @@
       <c r="R110" s="165"/>
       <c r="S110" s="165"/>
     </row>
-    <row r="111" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="122">
         <v>105</v>
       </c>
@@ -17050,7 +17068,7 @@
       <c r="R111" s="165"/>
       <c r="S111" s="165"/>
     </row>
-    <row r="112" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="143">
         <v>106</v>
       </c>
@@ -17106,7 +17124,7 @@
       <c r="R112" s="165"/>
       <c r="S112" s="165"/>
     </row>
-    <row r="113" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="122">
         <v>107</v>
       </c>
@@ -17162,7 +17180,7 @@
       <c r="R113" s="165"/>
       <c r="S113" s="165"/>
     </row>
-    <row r="114" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="122">
         <v>108</v>
       </c>
@@ -17222,7 +17240,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="143">
         <v>109</v>
       </c>
@@ -17282,7 +17300,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="122">
         <v>110</v>
       </c>
@@ -17342,7 +17360,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="122">
         <v>111</v>
       </c>
@@ -17402,7 +17420,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="143">
         <v>112</v>
       </c>
@@ -17458,7 +17476,7 @@
       <c r="R118" s="165"/>
       <c r="S118" s="165"/>
     </row>
-    <row r="119" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="122">
         <v>113</v>
       </c>
@@ -17514,7 +17532,7 @@
       <c r="R119" s="165"/>
       <c r="S119" s="165"/>
     </row>
-    <row r="120" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="122">
         <v>114</v>
       </c>
@@ -17570,7 +17588,7 @@
       <c r="R120" s="165"/>
       <c r="S120" s="165"/>
     </row>
-    <row r="121" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="143">
         <v>115</v>
       </c>
@@ -17626,7 +17644,7 @@
       <c r="R121" s="165"/>
       <c r="S121" s="165"/>
     </row>
-    <row r="122" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="122">
         <v>116</v>
       </c>
@@ -17682,7 +17700,7 @@
       <c r="R122" s="165"/>
       <c r="S122" s="165"/>
     </row>
-    <row r="123" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="122">
         <v>117</v>
       </c>
@@ -17738,7 +17756,7 @@
       <c r="R123" s="165"/>
       <c r="S123" s="165"/>
     </row>
-    <row r="124" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="143">
         <v>118</v>
       </c>
@@ -17778,7 +17796,7 @@
       <c r="R124" s="165"/>
       <c r="S124" s="165"/>
     </row>
-    <row r="125" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="122">
         <v>119</v>
       </c>
@@ -17818,7 +17836,7 @@
       <c r="R125" s="165"/>
       <c r="S125" s="165"/>
     </row>
-    <row r="126" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="122">
         <v>120</v>
       </c>
@@ -17858,7 +17876,7 @@
       <c r="R126" s="165"/>
       <c r="S126" s="165"/>
     </row>
-    <row r="127" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="143">
         <v>121</v>
       </c>
@@ -17898,7 +17916,7 @@
       <c r="R127" s="165"/>
       <c r="S127" s="165"/>
     </row>
-    <row r="128" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="122">
         <v>122</v>
       </c>
@@ -17938,7 +17956,7 @@
       <c r="R128" s="165"/>
       <c r="S128" s="165"/>
     </row>
-    <row r="129" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="122">
         <v>123</v>
       </c>
@@ -17978,7 +17996,7 @@
       <c r="R129" s="165"/>
       <c r="S129" s="165"/>
     </row>
-    <row r="130" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="143">
         <v>124</v>
       </c>
@@ -18018,7 +18036,7 @@
       <c r="R130" s="165"/>
       <c r="S130" s="165"/>
     </row>
-    <row r="131" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="122">
         <v>125</v>
       </c>
@@ -18074,7 +18092,7 @@
       <c r="R131" s="165"/>
       <c r="S131" s="165"/>
     </row>
-    <row r="132" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="122">
         <v>126</v>
       </c>
@@ -18114,7 +18132,7 @@
       <c r="R132" s="165"/>
       <c r="S132" s="165"/>
     </row>
-    <row r="133" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="143">
         <v>127</v>
       </c>
@@ -18170,7 +18188,7 @@
       <c r="R133" s="165"/>
       <c r="S133" s="165"/>
     </row>
-    <row r="134" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="122">
         <v>128</v>
       </c>
@@ -18226,7 +18244,7 @@
       <c r="R134" s="165"/>
       <c r="S134" s="165"/>
     </row>
-    <row r="135" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="122">
         <v>129</v>
       </c>
@@ -18282,7 +18300,7 @@
       <c r="R135" s="165"/>
       <c r="S135" s="165"/>
     </row>
-    <row r="136" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="143">
         <v>130</v>
       </c>
@@ -18338,7 +18356,7 @@
       <c r="R136" s="165"/>
       <c r="S136" s="165"/>
     </row>
-    <row r="137" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="122">
         <v>131</v>
       </c>
@@ -18394,7 +18412,7 @@
       <c r="R137" s="165"/>
       <c r="S137" s="165"/>
     </row>
-    <row r="138" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="122">
         <v>132</v>
       </c>
@@ -18450,7 +18468,7 @@
       <c r="R138" s="165"/>
       <c r="S138" s="165"/>
     </row>
-    <row r="139" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="143">
         <v>133</v>
       </c>
@@ -18504,7 +18522,7 @@
       <c r="R139" s="165"/>
       <c r="S139" s="165"/>
     </row>
-    <row r="140" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="122">
         <v>134</v>
       </c>
@@ -18558,7 +18576,7 @@
       <c r="R140" s="165"/>
       <c r="S140" s="165"/>
     </row>
-    <row r="141" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="122">
         <v>135</v>
       </c>
@@ -18614,7 +18632,7 @@
       <c r="R141" s="165"/>
       <c r="S141" s="165"/>
     </row>
-    <row r="142" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="143">
         <v>136</v>
       </c>
@@ -18670,7 +18688,7 @@
       <c r="R142" s="165"/>
       <c r="S142" s="165"/>
     </row>
-    <row r="143" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="122">
         <v>137</v>
       </c>
@@ -18726,7 +18744,7 @@
       <c r="R143" s="165"/>
       <c r="S143" s="165"/>
     </row>
-    <row r="144" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="122">
         <v>138</v>
       </c>
@@ -18782,7 +18800,7 @@
       <c r="R144" s="165"/>
       <c r="S144" s="165"/>
     </row>
-    <row r="145" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="143">
         <v>139</v>
       </c>
@@ -18838,7 +18856,7 @@
       <c r="R145" s="165"/>
       <c r="S145" s="165"/>
     </row>
-    <row r="146" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="122">
         <v>140</v>
       </c>
@@ -18894,7 +18912,7 @@
       <c r="R146" s="165"/>
       <c r="S146" s="165"/>
     </row>
-    <row r="147" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="122">
         <v>141</v>
       </c>
@@ -18950,7 +18968,7 @@
       <c r="R147" s="165"/>
       <c r="S147" s="165"/>
     </row>
-    <row r="148" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="143">
         <v>142</v>
       </c>
@@ -19006,7 +19024,7 @@
       <c r="R148" s="165"/>
       <c r="S148" s="165"/>
     </row>
-    <row r="149" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="122">
         <v>143</v>
       </c>
@@ -19062,7 +19080,7 @@
       <c r="R149" s="165"/>
       <c r="S149" s="165"/>
     </row>
-    <row r="150" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="122">
         <v>144</v>
       </c>
@@ -19118,7 +19136,7 @@
       <c r="R150" s="165"/>
       <c r="S150" s="165"/>
     </row>
-    <row r="151" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="143">
         <v>145</v>
       </c>
@@ -19174,7 +19192,7 @@
       <c r="R151" s="165"/>
       <c r="S151" s="165"/>
     </row>
-    <row r="152" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="122">
         <v>146</v>
       </c>
@@ -19230,7 +19248,7 @@
       <c r="R152" s="165"/>
       <c r="S152" s="165"/>
     </row>
-    <row r="153" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="122">
         <v>147</v>
       </c>
@@ -19526,7 +19544,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="158" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="122">
         <v>152</v>
       </c>
@@ -19582,7 +19600,7 @@
       <c r="R158" s="165"/>
       <c r="S158" s="165"/>
     </row>
-    <row r="159" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="122">
         <v>153</v>
       </c>
@@ -19640,7 +19658,7 @@
       </c>
       <c r="S159" s="165"/>
     </row>
-    <row r="160" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="143">
         <v>154</v>
       </c>
@@ -19696,7 +19714,7 @@
       <c r="R160" s="165"/>
       <c r="S160" s="165"/>
     </row>
-    <row r="161" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="122">
         <v>155</v>
       </c>
@@ -19752,7 +19770,7 @@
       <c r="R161" s="165"/>
       <c r="S161" s="165"/>
     </row>
-    <row r="162" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="122">
         <v>156</v>
       </c>
@@ -19808,7 +19826,7 @@
       <c r="R162" s="165"/>
       <c r="S162" s="165"/>
     </row>
-    <row r="163" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="143">
         <v>157</v>
       </c>
@@ -19864,7 +19882,7 @@
       <c r="R163" s="165"/>
       <c r="S163" s="165"/>
     </row>
-    <row r="164" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="122">
         <v>158</v>
       </c>
@@ -19920,7 +19938,7 @@
       <c r="R164" s="165"/>
       <c r="S164" s="165"/>
     </row>
-    <row r="165" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="122">
         <v>159</v>
       </c>
@@ -19976,7 +19994,7 @@
       <c r="R165" s="165"/>
       <c r="S165" s="165"/>
     </row>
-    <row r="166" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="143">
         <v>160</v>
       </c>
@@ -20032,7 +20050,7 @@
       <c r="R166" s="165"/>
       <c r="S166" s="165"/>
     </row>
-    <row r="167" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="122">
         <v>161</v>
       </c>
@@ -20088,7 +20106,7 @@
       <c r="R167" s="165"/>
       <c r="S167" s="165"/>
     </row>
-    <row r="168" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="122">
         <v>162</v>
       </c>
@@ -20144,7 +20162,7 @@
       <c r="R168" s="165"/>
       <c r="S168" s="165"/>
     </row>
-    <row r="169" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="122">
         <v>168</v>
       </c>
@@ -20200,7 +20218,7 @@
       <c r="R169" s="165"/>
       <c r="S169" s="165"/>
     </row>
-    <row r="170" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="143">
         <v>169</v>
       </c>
@@ -20256,7 +20274,7 @@
       <c r="R170" s="165"/>
       <c r="S170" s="165"/>
     </row>
-    <row r="171" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="122">
         <v>170</v>
       </c>
@@ -20312,7 +20330,7 @@
       <c r="R171" s="165"/>
       <c r="S171" s="165"/>
     </row>
-    <row r="172" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="122">
         <v>171</v>
       </c>
@@ -20368,7 +20386,7 @@
       <c r="R172" s="165"/>
       <c r="S172" s="165"/>
     </row>
-    <row r="173" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="143">
         <v>172</v>
       </c>
@@ -20424,7 +20442,7 @@
       <c r="R173" s="165"/>
       <c r="S173" s="165"/>
     </row>
-    <row r="174" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="122">
         <v>173</v>
       </c>
@@ -20480,7 +20498,7 @@
       <c r="R174" s="165"/>
       <c r="S174" s="165"/>
     </row>
-    <row r="175" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="122">
         <v>174</v>
       </c>
@@ -20536,7 +20554,7 @@
       <c r="R175" s="165"/>
       <c r="S175" s="165"/>
     </row>
-    <row r="176" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="143">
         <v>175</v>
       </c>
@@ -20596,7 +20614,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="177" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="122">
         <v>176</v>
       </c>
@@ -20656,7 +20674,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="178" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="122">
         <v>177</v>
       </c>
@@ -20716,7 +20734,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="179" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="143">
         <v>178</v>
       </c>
@@ -20776,7 +20794,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="180" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="122">
         <v>179</v>
       </c>
@@ -20834,7 +20852,7 @@
       </c>
       <c r="S180" s="165"/>
     </row>
-    <row r="181" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="122">
         <v>180</v>
       </c>
@@ -20874,7 +20892,7 @@
       <c r="R181" s="165"/>
       <c r="S181" s="165"/>
     </row>
-    <row r="182" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="143">
         <v>181</v>
       </c>
@@ -20914,7 +20932,7 @@
       <c r="R182" s="165"/>
       <c r="S182" s="165"/>
     </row>
-    <row r="183" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="122">
         <v>182</v>
       </c>
@@ -20954,7 +20972,7 @@
       <c r="R183" s="165"/>
       <c r="S183" s="165"/>
     </row>
-    <row r="184" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="122">
         <v>183</v>
       </c>
@@ -21010,7 +21028,7 @@
       <c r="R184" s="165"/>
       <c r="S184" s="165"/>
     </row>
-    <row r="185" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="143">
         <v>184</v>
       </c>
@@ -21066,7 +21084,7 @@
       <c r="R185" s="165"/>
       <c r="S185" s="165"/>
     </row>
-    <row r="186" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="122">
         <v>185</v>
       </c>
@@ -21122,7 +21140,7 @@
       <c r="R186" s="165"/>
       <c r="S186" s="165"/>
     </row>
-    <row r="187" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="122">
         <v>186</v>
       </c>
@@ -21178,7 +21196,7 @@
       <c r="R187" s="165"/>
       <c r="S187" s="165"/>
     </row>
-    <row r="188" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="143">
         <v>187</v>
       </c>
@@ -21234,7 +21252,7 @@
       <c r="R188" s="165"/>
       <c r="S188" s="165"/>
     </row>
-    <row r="189" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="122">
         <v>188</v>
       </c>
@@ -21290,7 +21308,7 @@
       <c r="R189" s="165"/>
       <c r="S189" s="165"/>
     </row>
-    <row r="190" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="122">
         <v>189</v>
       </c>
@@ -21346,7 +21364,7 @@
       <c r="R190" s="165"/>
       <c r="S190" s="165"/>
     </row>
-    <row r="191" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="143">
         <v>190</v>
       </c>
@@ -21402,7 +21420,7 @@
       <c r="R191" s="165"/>
       <c r="S191" s="165"/>
     </row>
-    <row r="192" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="122">
         <v>191</v>
       </c>
@@ -21458,7 +21476,7 @@
       <c r="R192" s="165"/>
       <c r="S192" s="165"/>
     </row>
-    <row r="193" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="122">
         <v>192</v>
       </c>
@@ -21514,7 +21532,7 @@
       <c r="R193" s="165"/>
       <c r="S193" s="165"/>
     </row>
-    <row r="194" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="143">
         <v>193</v>
       </c>
@@ -21570,7 +21588,7 @@
       <c r="R194" s="165"/>
       <c r="S194" s="165"/>
     </row>
-    <row r="195" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="122">
         <v>194</v>
       </c>
@@ -21626,7 +21644,7 @@
       <c r="R195" s="165"/>
       <c r="S195" s="165"/>
     </row>
-    <row r="196" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="122">
         <v>195</v>
       </c>
@@ -21684,7 +21702,7 @@
       </c>
       <c r="S196" s="165"/>
     </row>
-    <row r="197" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="143">
         <v>196</v>
       </c>
@@ -21728,7 +21746,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="198" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="122">
         <v>197</v>
       </c>
@@ -21772,7 +21790,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="199" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="122">
         <v>198</v>
       </c>
@@ -21832,7 +21850,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="200" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="143">
         <v>199</v>
       </c>
@@ -21888,7 +21906,7 @@
       <c r="R200" s="165"/>
       <c r="S200" s="165"/>
     </row>
-    <row r="201" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="122">
         <v>200</v>
       </c>
@@ -21944,7 +21962,7 @@
       <c r="R201" s="165"/>
       <c r="S201" s="165"/>
     </row>
-    <row r="202" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="122">
         <v>201</v>
       </c>
@@ -22000,7 +22018,7 @@
       <c r="R202" s="165"/>
       <c r="S202" s="165"/>
     </row>
-    <row r="203" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="143">
         <v>202</v>
       </c>
@@ -22056,7 +22074,7 @@
       <c r="R203" s="165"/>
       <c r="S203" s="165"/>
     </row>
-    <row r="204" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="122">
         <v>203</v>
       </c>
@@ -22112,7 +22130,7 @@
       <c r="R204" s="165"/>
       <c r="S204" s="165"/>
     </row>
-    <row r="205" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="122">
         <v>204</v>
       </c>
@@ -22168,7 +22186,7 @@
       <c r="R205" s="165"/>
       <c r="S205" s="165"/>
     </row>
-    <row r="206" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="143">
         <v>205</v>
       </c>
@@ -22224,7 +22242,7 @@
       <c r="R206" s="165"/>
       <c r="S206" s="165"/>
     </row>
-    <row r="207" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="122">
         <v>206</v>
       </c>
@@ -22280,7 +22298,7 @@
       <c r="R207" s="165"/>
       <c r="S207" s="165"/>
     </row>
-    <row r="208" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="122">
         <v>207</v>
       </c>
@@ -22336,7 +22354,7 @@
       <c r="R208" s="165"/>
       <c r="S208" s="165"/>
     </row>
-    <row r="209" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="143">
         <v>208</v>
       </c>
@@ -22392,7 +22410,7 @@
       <c r="R209" s="165"/>
       <c r="S209" s="165"/>
     </row>
-    <row r="210" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="122">
         <v>209</v>
       </c>
@@ -22448,7 +22466,7 @@
       <c r="R210" s="165"/>
       <c r="S210" s="165"/>
     </row>
-    <row r="211" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="122">
         <v>210</v>
       </c>
@@ -22504,7 +22522,7 @@
       <c r="R211" s="165"/>
       <c r="S211" s="165"/>
     </row>
-    <row r="212" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="143">
         <v>211</v>
       </c>
@@ -22560,7 +22578,7 @@
       <c r="R212" s="165"/>
       <c r="S212" s="165"/>
     </row>
-    <row r="213" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="122">
         <v>212</v>
       </c>
@@ -22616,7 +22634,7 @@
       <c r="R213" s="165"/>
       <c r="S213" s="165"/>
     </row>
-    <row r="214" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="122">
         <v>213</v>
       </c>
@@ -22672,7 +22690,7 @@
       <c r="R214" s="165"/>
       <c r="S214" s="165"/>
     </row>
-    <row r="215" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="143">
         <v>214</v>
       </c>
@@ -22728,7 +22746,7 @@
       <c r="R215" s="165"/>
       <c r="S215" s="165"/>
     </row>
-    <row r="216" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="122">
         <v>219</v>
       </c>
@@ -22784,7 +22802,7 @@
       <c r="R216" s="165"/>
       <c r="S216" s="165"/>
     </row>
-    <row r="217" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="122">
         <v>222</v>
       </c>
@@ -22840,7 +22858,7 @@
       <c r="R217" s="165"/>
       <c r="S217" s="165"/>
     </row>
-    <row r="218" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="143">
         <v>223</v>
       </c>
@@ -22896,7 +22914,7 @@
       <c r="R218" s="165"/>
       <c r="S218" s="165"/>
     </row>
-    <row r="219" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="122">
         <v>224</v>
       </c>
@@ -22952,7 +22970,7 @@
       <c r="R219" s="165"/>
       <c r="S219" s="165"/>
     </row>
-    <row r="220" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="122">
         <v>225</v>
       </c>
@@ -23008,7 +23026,7 @@
       <c r="R220" s="165"/>
       <c r="S220" s="165"/>
     </row>
-    <row r="221" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="143">
         <v>226</v>
       </c>
@@ -23064,7 +23082,7 @@
       <c r="R221" s="165"/>
       <c r="S221" s="165"/>
     </row>
-    <row r="222" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="122">
         <v>227</v>
       </c>
@@ -23120,7 +23138,7 @@
       <c r="R222" s="165"/>
       <c r="S222" s="165"/>
     </row>
-    <row r="223" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="122">
         <v>228</v>
       </c>
@@ -23176,7 +23194,7 @@
       <c r="R223" s="165"/>
       <c r="S223" s="165"/>
     </row>
-    <row r="224" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="143">
         <v>229</v>
       </c>
@@ -23232,7 +23250,7 @@
       <c r="R224" s="165"/>
       <c r="S224" s="165"/>
     </row>
-    <row r="225" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="122">
         <v>230</v>
       </c>
@@ -23288,7 +23306,7 @@
       <c r="R225" s="165"/>
       <c r="S225" s="165"/>
     </row>
-    <row r="226" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="122">
         <v>231</v>
       </c>
@@ -23344,7 +23362,7 @@
       <c r="R226" s="165"/>
       <c r="S226" s="165"/>
     </row>
-    <row r="227" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="143">
         <v>232</v>
       </c>
@@ -23400,7 +23418,7 @@
       <c r="R227" s="165"/>
       <c r="S227" s="165"/>
     </row>
-    <row r="228" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="122">
         <v>233</v>
       </c>
@@ -23456,7 +23474,7 @@
       <c r="R228" s="165"/>
       <c r="S228" s="165"/>
     </row>
-    <row r="229" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="122">
         <v>234</v>
       </c>
@@ -23512,7 +23530,7 @@
       <c r="R229" s="165"/>
       <c r="S229" s="165"/>
     </row>
-    <row r="230" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="143">
         <v>235</v>
       </c>
@@ -23568,7 +23586,7 @@
       <c r="R230" s="165"/>
       <c r="S230" s="165"/>
     </row>
-    <row r="231" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="122">
         <v>236</v>
       </c>
@@ -23628,7 +23646,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="232" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="122">
         <v>237</v>
       </c>
@@ -23688,7 +23706,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="233" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="143">
         <v>238</v>
       </c>
@@ -23748,7 +23766,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="234" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="122">
         <v>239</v>
       </c>
@@ -23804,7 +23822,7 @@
       <c r="R234" s="165"/>
       <c r="S234" s="165"/>
     </row>
-    <row r="235" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="122">
         <v>240</v>
       </c>
@@ -23860,7 +23878,7 @@
       <c r="R235" s="165"/>
       <c r="S235" s="165"/>
     </row>
-    <row r="236" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="122">
         <v>242</v>
       </c>
@@ -23916,7 +23934,7 @@
       <c r="R236" s="165"/>
       <c r="S236" s="165"/>
     </row>
-    <row r="237" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="122">
         <v>243</v>
       </c>
@@ -23972,7 +23990,7 @@
       <c r="R237" s="165"/>
       <c r="S237" s="165"/>
     </row>
-    <row r="238" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="143">
         <v>244</v>
       </c>
@@ -24028,7 +24046,7 @@
       <c r="R238" s="165"/>
       <c r="S238" s="165"/>
     </row>
-    <row r="239" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="122">
         <v>245</v>
       </c>
@@ -24084,7 +24102,7 @@
       <c r="R239" s="165"/>
       <c r="S239" s="165"/>
     </row>
-    <row r="240" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="122">
         <v>246</v>
       </c>
@@ -24140,7 +24158,7 @@
       <c r="R240" s="165"/>
       <c r="S240" s="165"/>
     </row>
-    <row r="241" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="143">
         <v>247</v>
       </c>
@@ -24196,7 +24214,7 @@
       <c r="R241" s="165"/>
       <c r="S241" s="165"/>
     </row>
-    <row r="242" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="122">
         <v>248</v>
       </c>
@@ -24252,7 +24270,7 @@
       <c r="R242" s="165"/>
       <c r="S242" s="165"/>
     </row>
-    <row r="243" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="122">
         <v>249</v>
       </c>
@@ -24308,7 +24326,7 @@
       <c r="R243" s="165"/>
       <c r="S243" s="165"/>
     </row>
-    <row r="244" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="122">
         <v>251</v>
       </c>
@@ -24368,7 +24386,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="245" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="122">
         <v>252</v>
       </c>
@@ -24424,7 +24442,7 @@
       <c r="R245" s="165"/>
       <c r="S245" s="165"/>
     </row>
-    <row r="246" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="143">
         <v>253</v>
       </c>
@@ -24480,7 +24498,7 @@
       <c r="R246" s="165"/>
       <c r="S246" s="165"/>
     </row>
-    <row r="247" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="122">
         <v>254</v>
       </c>
@@ -24536,7 +24554,7 @@
       <c r="R247" s="165"/>
       <c r="S247" s="165"/>
     </row>
-    <row r="248" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="122">
         <v>255</v>
       </c>
@@ -24592,7 +24610,7 @@
       <c r="R248" s="165"/>
       <c r="S248" s="165"/>
     </row>
-    <row r="249" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="143">
         <v>256</v>
       </c>
@@ -24648,7 +24666,7 @@
       <c r="R249" s="165"/>
       <c r="S249" s="165"/>
     </row>
-    <row r="250" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="122">
         <v>257</v>
       </c>
@@ -24704,7 +24722,7 @@
       <c r="R250" s="165"/>
       <c r="S250" s="165"/>
     </row>
-    <row r="251" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="122">
         <v>258</v>
       </c>
@@ -24760,7 +24778,7 @@
       <c r="R251" s="165"/>
       <c r="S251" s="165"/>
     </row>
-    <row r="252" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="143">
         <v>259</v>
       </c>
@@ -24816,7 +24834,7 @@
       <c r="R252" s="165"/>
       <c r="S252" s="165"/>
     </row>
-    <row r="253" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="122">
         <v>260</v>
       </c>
@@ -24872,7 +24890,7 @@
       <c r="R253" s="165"/>
       <c r="S253" s="165"/>
     </row>
-    <row r="254" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="122">
         <v>261</v>
       </c>
@@ -24928,7 +24946,7 @@
       <c r="R254" s="165"/>
       <c r="S254" s="165"/>
     </row>
-    <row r="255" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="143">
         <v>262</v>
       </c>
@@ -24984,7 +25002,7 @@
       <c r="R255" s="165"/>
       <c r="S255" s="165"/>
     </row>
-    <row r="256" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="122">
         <v>263</v>
       </c>
@@ -25040,7 +25058,7 @@
       <c r="R256" s="165"/>
       <c r="S256" s="165"/>
     </row>
-    <row r="257" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="122">
         <v>264</v>
       </c>
@@ -25096,7 +25114,7 @@
       <c r="R257" s="165"/>
       <c r="S257" s="165"/>
     </row>
-    <row r="258" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="143">
         <v>265</v>
       </c>
@@ -25152,7 +25170,7 @@
       <c r="R258" s="165"/>
       <c r="S258" s="165"/>
     </row>
-    <row r="259" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="122">
         <v>266</v>
       </c>
@@ -25208,7 +25226,7 @@
       <c r="R259" s="165"/>
       <c r="S259" s="165"/>
     </row>
-    <row r="260" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="122">
         <v>267</v>
       </c>
@@ -25264,7 +25282,7 @@
       <c r="R260" s="165"/>
       <c r="S260" s="165"/>
     </row>
-    <row r="261" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="143">
         <v>268</v>
       </c>
@@ -25320,7 +25338,7 @@
       <c r="R261" s="165"/>
       <c r="S261" s="165"/>
     </row>
-    <row r="262" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="122">
         <v>269</v>
       </c>
@@ -25376,7 +25394,7 @@
       <c r="R262" s="165"/>
       <c r="S262" s="165"/>
     </row>
-    <row r="263" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="122">
         <v>270</v>
       </c>
@@ -25432,7 +25450,7 @@
       <c r="R263" s="165"/>
       <c r="S263" s="165"/>
     </row>
-    <row r="264" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="143">
         <v>271</v>
       </c>
@@ -25488,7 +25506,7 @@
       <c r="R264" s="165"/>
       <c r="S264" s="165"/>
     </row>
-    <row r="265" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="122">
         <v>272</v>
       </c>
@@ -25544,7 +25562,7 @@
       <c r="R265" s="165"/>
       <c r="S265" s="165"/>
     </row>
-    <row r="266" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="122">
         <v>273</v>
       </c>
@@ -25600,7 +25618,7 @@
       <c r="R266" s="165"/>
       <c r="S266" s="165"/>
     </row>
-    <row r="267" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="143">
         <v>274</v>
       </c>
@@ -25656,7 +25674,7 @@
       <c r="R267" s="165"/>
       <c r="S267" s="165"/>
     </row>
-    <row r="268" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="122">
         <v>275</v>
       </c>
@@ -25712,7 +25730,7 @@
       <c r="R268" s="165"/>
       <c r="S268" s="165"/>
     </row>
-    <row r="269" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="143">
         <v>277</v>
       </c>
@@ -25768,7 +25786,7 @@
       <c r="R269" s="165"/>
       <c r="S269" s="165"/>
     </row>
-    <row r="270" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="122">
         <v>278</v>
       </c>
@@ -25824,7 +25842,7 @@
       <c r="R270" s="165"/>
       <c r="S270" s="165"/>
     </row>
-    <row r="271" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="122">
         <v>279</v>
       </c>
@@ -25880,7 +25898,7 @@
       <c r="R271" s="165"/>
       <c r="S271" s="165"/>
     </row>
-    <row r="272" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="143">
         <v>280</v>
       </c>
@@ -25936,7 +25954,7 @@
       <c r="R272" s="165"/>
       <c r="S272" s="165"/>
     </row>
-    <row r="273" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="122">
         <v>281</v>
       </c>
@@ -25992,7 +26010,7 @@
       <c r="R273" s="165"/>
       <c r="S273" s="165"/>
     </row>
-    <row r="274" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="122">
         <v>282</v>
       </c>
@@ -26048,7 +26066,7 @@
       <c r="R274" s="165"/>
       <c r="S274" s="165"/>
     </row>
-    <row r="275" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="143">
         <v>283</v>
       </c>
@@ -26104,7 +26122,7 @@
       <c r="R275" s="165"/>
       <c r="S275" s="165"/>
     </row>
-    <row r="276" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="122">
         <v>284</v>
       </c>
@@ -26160,7 +26178,7 @@
       <c r="R276" s="165"/>
       <c r="S276" s="165"/>
     </row>
-    <row r="277" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="122">
         <v>285</v>
       </c>
@@ -26216,7 +26234,7 @@
       <c r="R277" s="165"/>
       <c r="S277" s="165"/>
     </row>
-    <row r="278" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="143">
         <v>286</v>
       </c>
@@ -26272,7 +26290,7 @@
       <c r="R278" s="165"/>
       <c r="S278" s="165"/>
     </row>
-    <row r="279" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="122">
         <v>287</v>
       </c>
@@ -26328,7 +26346,7 @@
       <c r="R279" s="165"/>
       <c r="S279" s="165"/>
     </row>
-    <row r="280" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="122">
         <v>288</v>
       </c>
@@ -26384,7 +26402,7 @@
       <c r="R280" s="165"/>
       <c r="S280" s="165"/>
     </row>
-    <row r="281" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="143">
         <v>289</v>
       </c>
@@ -26440,7 +26458,7 @@
       <c r="R281" s="165"/>
       <c r="S281" s="165"/>
     </row>
-    <row r="282" spans="1:19" s="126" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" s="126" customFormat="1" ht="41.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="122">
         <v>290</v>
       </c>
@@ -26496,7 +26514,7 @@
       <c r="R282" s="165"/>
       <c r="S282" s="165"/>
     </row>
-    <row r="283" spans="1:19" s="126" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" s="126" customFormat="1" ht="57" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="229" t="s">
         <v>17</v>
       </c>
@@ -26547,7 +26565,7 @@
       </c>
       <c r="Q283" s="168"/>
     </row>
-    <row r="284" spans="1:19" s="126" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" s="126" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C284" s="127"/>
       <c r="D284" s="142"/>
       <c r="H284" s="135" t="s">
@@ -26579,7 +26597,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E13:P13"/>
+  <autoFilter ref="E13:P284">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3567"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A283:F283"/>
     <mergeCell ref="A2:Q2"/>
@@ -26596,10 +26620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N70"/>
+  <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A64" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26620,34 +26644,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -26663,19 +26687,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26710,48 +26734,48 @@
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="244"/>
+      <c r="B8" s="239"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="245" t="s">
+      <c r="D8" s="240" t="s">
         <v>645</v>
       </c>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="245"/>
-      <c r="H8" s="245"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="245"/>
-      <c r="K8" s="245"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="240"/>
     </row>
     <row r="9" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="244" t="s">
+      <c r="A9" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="244"/>
+      <c r="B9" s="239"/>
       <c r="C9" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="245" t="s">
+      <c r="D9" s="240" t="s">
         <v>646</v>
       </c>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="245"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="238"/>
+      <c r="B10" s="241"/>
       <c r="C10" s="181" t="s">
         <v>7</v>
       </c>
@@ -26782,13 +26806,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -26807,7 +26831,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26945,10 +26969,13 @@
         <v>211</v>
       </c>
       <c r="K16" s="156" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="L16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="143">
         <v>4</v>
       </c>
@@ -26983,7 +27010,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="122">
         <v>5</v>
       </c>
@@ -27018,7 +27045,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="122">
         <v>6</v>
       </c>
@@ -27053,7 +27080,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="143">
         <v>7</v>
       </c>
@@ -27085,18 +27112,21 @@
         <v>211</v>
       </c>
       <c r="K20" s="120" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="241" t="s">
+        <v>651</v>
+      </c>
+      <c r="L20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="242" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="242"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="243"/>
+      <c r="B21" s="243"/>
+      <c r="C21" s="243"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="244"/>
       <c r="G21" s="171">
         <f>SUM(G14:G20)</f>
         <v>21729.75</v>
@@ -27115,7 +27145,7 @@
       </c>
       <c r="K21" s="119"/>
     </row>
-    <row r="22" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="182"/>
       <c r="B22" s="183"/>
       <c r="C22" s="184"/>
@@ -27128,37 +27158,37 @@
       <c r="J22" s="187"/>
       <c r="K22" s="188"/>
     </row>
-    <row r="23" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="210" t="s">
+    <row r="23" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="210"/>
-      <c r="C23" s="210"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="219"/>
       <c r="D23" s="232"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210"/>
-    </row>
-    <row r="24" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="211" t="s">
+      <c r="E23" s="219"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="219"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="219"/>
+    </row>
+    <row r="24" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="211"/>
-      <c r="C24" s="211"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="220"/>
       <c r="D24" s="233"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
-      <c r="K24" s="211"/>
-    </row>
-    <row r="25" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="220"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="220"/>
+    </row>
+    <row r="25" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="117"/>
@@ -27171,22 +27201,22 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="228" t="s">
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="228"/>
-      <c r="C26" s="228"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="210"/>
       <c r="D26" s="234"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="228"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="228"/>
-      <c r="K26" s="228"/>
-    </row>
-    <row r="27" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="210"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="210"/>
+    </row>
+    <row r="27" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="117"/>
@@ -27199,7 +27229,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="200" t="s">
         <v>21</v>
       </c>
@@ -27218,45 +27248,45 @@
       <c r="J28" s="201"/>
       <c r="K28" s="201"/>
     </row>
-    <row r="29" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="246" t="s">
+    <row r="29" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="246"/>
+      <c r="B29" s="238"/>
       <c r="C29" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="245" t="s">
+      <c r="D29" s="240" t="s">
         <v>645</v>
       </c>
-      <c r="E29" s="245"/>
-      <c r="F29" s="245"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="245"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="245"/>
-    </row>
-    <row r="30" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="246" t="s">
+      <c r="E29" s="240"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="240"/>
+      <c r="H29" s="240"/>
+      <c r="I29" s="240"/>
+      <c r="J29" s="240"/>
+      <c r="K29" s="240"/>
+    </row>
+    <row r="30" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="246"/>
+      <c r="B30" s="238"/>
       <c r="C30" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="245" t="s">
+      <c r="D30" s="240" t="s">
         <v>646</v>
       </c>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="245"/>
-      <c r="J30" s="245"/>
-      <c r="K30" s="245"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="240"/>
+      <c r="F30" s="240"/>
+      <c r="G30" s="240"/>
+      <c r="H30" s="240"/>
+      <c r="I30" s="240"/>
+      <c r="J30" s="240"/>
+      <c r="K30" s="240"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="247" t="s">
         <v>6</v>
       </c>
@@ -27275,7 +27305,7 @@
       <c r="J31" s="102"/>
       <c r="K31" s="206"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="203"/>
       <c r="B32" s="207"/>
       <c r="C32" s="208"/>
@@ -27291,32 +27321,32 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="218" t="s">
+      <c r="A33" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="220"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="235"/>
-      <c r="E33" s="221" t="s">
+      <c r="E33" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="239" t="s">
+      <c r="F33" s="245" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="223" t="s">
+      <c r="G33" s="214" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="237"/>
       <c r="I33" s="237"/>
       <c r="J33" s="237"/>
-      <c r="K33" s="223" t="s">
+      <c r="K33" s="214" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="219"/>
+      <c r="A34" s="215"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -27326,9 +27356,9 @@
       <c r="D34" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="224"/>
-      <c r="F34" s="240"/>
-      <c r="G34" s="219"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="246"/>
+      <c r="G34" s="215"/>
       <c r="H34" s="157" t="s">
         <v>206</v>
       </c>
@@ -27338,17 +27368,17 @@
       <c r="J34" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="219"/>
+      <c r="K34" s="215"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="215" t="s">
+      <c r="A35" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="217"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="218"/>
       <c r="G35" s="189">
         <f>G21</f>
         <v>21729.75</v>
@@ -27612,9 +27642,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" s="144">
         <v>42549</v>
@@ -27626,16 +27656,16 @@
         <v>661</v>
       </c>
       <c r="E43" s="128">
-        <v>11108</v>
+        <v>11110</v>
       </c>
       <c r="F43" s="131">
         <v>4859</v>
       </c>
       <c r="G43" s="145">
-        <v>387</v>
+        <v>559.86</v>
       </c>
       <c r="H43" s="146">
-        <v>387</v>
+        <v>559.86</v>
       </c>
       <c r="I43" s="146" t="s">
         <v>211</v>
@@ -27644,599 +27674,582 @@
         <v>211</v>
       </c>
       <c r="K43" s="120" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="122">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="216" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="217"/>
+      <c r="C44" s="217"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="217"/>
+      <c r="F44" s="218"/>
+      <c r="G44" s="189">
+        <f>SUM(G35:G43)</f>
+        <v>30947.52</v>
+      </c>
+      <c r="H44" s="189">
+        <f>SUM(H35:H43)</f>
+        <v>22504.77</v>
+      </c>
+      <c r="I44" s="189">
+        <f>SUM(I35:I43)</f>
+        <v>2192.75</v>
+      </c>
+      <c r="J44" s="189">
+        <f>SUM(J35:J43)</f>
+        <v>6250</v>
+      </c>
+      <c r="K44" s="19"/>
+    </row>
+    <row r="45" spans="1:11" s="199" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="196"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="197"/>
+      <c r="H45" s="197"/>
+      <c r="I45" s="197"/>
+      <c r="J45" s="197"/>
+      <c r="K45" s="198"/>
+    </row>
+    <row r="46" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="219"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="219"/>
+      <c r="F46" s="219"/>
+      <c r="G46" s="219"/>
+      <c r="H46" s="219"/>
+      <c r="I46" s="219"/>
+      <c r="J46" s="219"/>
+      <c r="K46" s="219"/>
+    </row>
+    <row r="47" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="220"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="233"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="220"/>
+    </row>
+    <row r="48" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="210" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="210"/>
+      <c r="C49" s="210"/>
+      <c r="D49" s="234"/>
+      <c r="E49" s="210"/>
+      <c r="F49" s="210"/>
+      <c r="G49" s="210"/>
+      <c r="H49" s="210"/>
+      <c r="I49" s="210"/>
+      <c r="J49" s="210"/>
+      <c r="K49" s="210"/>
+    </row>
+    <row r="50" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="138" t="s">
+        <v>648</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="239"/>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="240" t="s">
+        <v>645</v>
+      </c>
+      <c r="E52" s="240"/>
+      <c r="F52" s="240"/>
+      <c r="G52" s="240"/>
+      <c r="H52" s="240"/>
+      <c r="I52" s="240"/>
+      <c r="J52" s="240"/>
+      <c r="K52" s="240"/>
+    </row>
+    <row r="53" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="239"/>
+      <c r="C53" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="240" t="s">
+        <v>646</v>
+      </c>
+      <c r="E53" s="240"/>
+      <c r="F53" s="240"/>
+      <c r="G53" s="240"/>
+      <c r="H53" s="240"/>
+      <c r="I53" s="240"/>
+      <c r="J53" s="240"/>
+      <c r="K53" s="240"/>
+    </row>
+    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="241"/>
+      <c r="C54" s="181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="E54" s="203"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="206"/>
+    </row>
+    <row r="55" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="222"/>
+      <c r="D56" s="235"/>
+      <c r="E56" s="223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="245" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="214" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="237"/>
+      <c r="I56" s="237"/>
+      <c r="J56" s="237"/>
+      <c r="K56" s="214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="215"/>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="144">
-        <v>42549</v>
-      </c>
-      <c r="C44" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" s="128">
-        <v>661</v>
-      </c>
-      <c r="E44" s="128">
-        <v>11110</v>
-      </c>
-      <c r="F44" s="131">
-        <v>4859</v>
-      </c>
-      <c r="G44" s="145">
-        <v>559.86</v>
-      </c>
-      <c r="H44" s="146">
-        <v>559.86</v>
-      </c>
-      <c r="I44" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J44" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K44" s="120" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="215" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="217"/>
-      <c r="G45" s="189">
-        <f>SUM(G35:G44)</f>
-        <v>31334.52</v>
-      </c>
-      <c r="H45" s="189">
-        <f t="shared" ref="H45:J45" si="2">SUM(H35:H44)</f>
-        <v>22891.77</v>
-      </c>
-      <c r="I45" s="189">
-        <f t="shared" si="2"/>
+      <c r="E57" s="225"/>
+      <c r="F57" s="246"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="J57" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="K57" s="215"/>
+    </row>
+    <row r="58" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="216" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="217"/>
+      <c r="C58" s="217"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="218"/>
+      <c r="G58" s="189">
+        <f>G44</f>
+        <v>30947.52</v>
+      </c>
+      <c r="H58" s="189">
+        <f>H44</f>
+        <v>22504.77</v>
+      </c>
+      <c r="I58" s="189">
+        <f t="shared" ref="I58:J58" si="2">I44</f>
         <v>2192.75</v>
       </c>
-      <c r="J45" s="189">
+      <c r="J58" s="189">
         <f t="shared" si="2"/>
         <v>6250</v>
       </c>
-      <c r="K45" s="19"/>
-    </row>
-    <row r="46" spans="1:11" s="199" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="196"/>
-      <c r="B46" s="196"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="197"/>
-      <c r="H46" s="197"/>
-      <c r="I46" s="197"/>
-      <c r="J46" s="197"/>
-      <c r="K46" s="198"/>
-    </row>
-    <row r="47" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="210"/>
-      <c r="C47" s="210"/>
-      <c r="D47" s="232"/>
-      <c r="E47" s="210"/>
-      <c r="F47" s="210"/>
-      <c r="G47" s="210"/>
-      <c r="H47" s="210"/>
-      <c r="I47" s="210"/>
-      <c r="J47" s="210"/>
-      <c r="K47" s="210"/>
-    </row>
-    <row r="48" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="211" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="211"/>
-      <c r="C48" s="211"/>
-      <c r="D48" s="233"/>
-      <c r="E48" s="211"/>
-      <c r="F48" s="211"/>
-      <c r="G48" s="211"/>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="211"/>
-      <c r="K48" s="211"/>
-    </row>
-    <row r="49" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="228" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="228"/>
-      <c r="C50" s="228"/>
-      <c r="D50" s="234"/>
-      <c r="E50" s="228"/>
-      <c r="F50" s="228"/>
-      <c r="G50" s="228"/>
-      <c r="H50" s="228"/>
-      <c r="I50" s="228"/>
-      <c r="J50" s="228"/>
-      <c r="K50" s="228"/>
-    </row>
-    <row r="51" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="K58" s="19"/>
+    </row>
+    <row r="59" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="143">
+        <v>17</v>
+      </c>
+      <c r="B59" s="144">
+        <v>42539</v>
+      </c>
+      <c r="C59" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="128">
+        <v>1896</v>
+      </c>
+      <c r="E59" s="128">
+        <v>14000</v>
+      </c>
+      <c r="F59" s="131">
+        <v>6001</v>
+      </c>
+      <c r="G59" s="145">
+        <v>420</v>
+      </c>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146">
+        <v>420</v>
+      </c>
+      <c r="J59" s="146"/>
+      <c r="K59" s="120" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="122">
+        <v>18</v>
+      </c>
+      <c r="B60" s="144">
+        <v>42539</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="128">
+        <v>1896</v>
+      </c>
+      <c r="E60" s="128">
+        <v>14000</v>
+      </c>
+      <c r="F60" s="131">
+        <v>6001</v>
+      </c>
+      <c r="G60" s="145">
+        <v>150</v>
+      </c>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146">
+        <v>150</v>
+      </c>
+      <c r="J60" s="146"/>
+      <c r="K60" s="120" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="122">
+        <v>19</v>
+      </c>
+      <c r="B61" s="144">
+        <v>42539</v>
+      </c>
+      <c r="C61" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="128">
+        <v>1896</v>
+      </c>
+      <c r="E61" s="128">
+        <v>14000</v>
+      </c>
+      <c r="F61" s="131">
+        <v>6001</v>
+      </c>
+      <c r="G61" s="145">
+        <v>36</v>
+      </c>
+      <c r="H61" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="I61" s="146">
+        <v>36</v>
+      </c>
+      <c r="J61" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K61" s="120" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="143">
+        <v>20</v>
+      </c>
+      <c r="B62" s="144">
+        <v>42639</v>
+      </c>
+      <c r="C62" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="128">
+        <v>1189</v>
+      </c>
+      <c r="E62" s="128">
+        <v>16541</v>
+      </c>
+      <c r="F62" s="131">
+        <v>7368</v>
+      </c>
+      <c r="G62" s="145">
+        <v>2295.54</v>
+      </c>
+      <c r="H62" s="146">
+        <v>2295.54</v>
+      </c>
+      <c r="I62" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J62" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K62" s="120" t="s">
+        <v>653</v>
+      </c>
+      <c r="L62" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="122">
         <v>21</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="138" t="s">
-        <v>648</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="244" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="244"/>
-      <c r="C53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="245" t="s">
-        <v>645</v>
-      </c>
-      <c r="E53" s="245"/>
-      <c r="F53" s="245"/>
-      <c r="G53" s="245"/>
-      <c r="H53" s="245"/>
-      <c r="I53" s="245"/>
-      <c r="J53" s="245"/>
-      <c r="K53" s="245"/>
-    </row>
-    <row r="54" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="244" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="244"/>
-      <c r="C54" s="181" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="245" t="s">
-        <v>646</v>
-      </c>
-      <c r="E54" s="245"/>
-      <c r="F54" s="245"/>
-      <c r="G54" s="245"/>
-      <c r="H54" s="245"/>
-      <c r="I54" s="245"/>
-      <c r="J54" s="245"/>
-      <c r="K54" s="245"/>
-    </row>
-    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="238" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="238"/>
-      <c r="C55" s="181" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="102" t="s">
-        <v>647</v>
-      </c>
-      <c r="E55" s="203"/>
-      <c r="F55" s="203"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="102"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="206"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="10">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="218" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="220" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="220"/>
-      <c r="D57" s="235"/>
-      <c r="E57" s="221" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="239" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="223" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="237"/>
-      <c r="I57" s="237"/>
-      <c r="J57" s="237"/>
-      <c r="K57" s="223" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="219"/>
-      <c r="B58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="141" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="224"/>
-      <c r="F58" s="240"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="157" t="s">
-        <v>206</v>
-      </c>
-      <c r="I58" s="158" t="s">
-        <v>207</v>
-      </c>
-      <c r="J58" s="157" t="s">
-        <v>208</v>
-      </c>
-      <c r="K58" s="219"/>
-    </row>
-    <row r="59" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="215" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="216"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="216"/>
-      <c r="E59" s="216"/>
-      <c r="F59" s="217"/>
-      <c r="G59" s="189">
-        <f>G45</f>
-        <v>31334.52</v>
-      </c>
-      <c r="H59" s="189">
-        <f t="shared" ref="H59:J59" si="3">H45</f>
-        <v>22891.77</v>
-      </c>
-      <c r="I59" s="189">
-        <f t="shared" si="3"/>
-        <v>2192.75</v>
-      </c>
-      <c r="J59" s="189">
+      <c r="B63" s="144">
+        <v>42639</v>
+      </c>
+      <c r="C63" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="128">
+        <v>1189</v>
+      </c>
+      <c r="E63" s="128">
+        <v>16546</v>
+      </c>
+      <c r="F63" s="131">
+        <v>7368</v>
+      </c>
+      <c r="G63" s="145">
+        <v>234</v>
+      </c>
+      <c r="H63" s="146">
+        <v>234</v>
+      </c>
+      <c r="I63" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J63" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K63" s="129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="122">
+        <v>22</v>
+      </c>
+      <c r="B64" s="144">
+        <v>42639</v>
+      </c>
+      <c r="C64" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="128">
+        <v>1189</v>
+      </c>
+      <c r="E64" s="128">
+        <v>16550</v>
+      </c>
+      <c r="F64" s="131">
+        <v>7368</v>
+      </c>
+      <c r="G64" s="145">
+        <v>304.45999999999998</v>
+      </c>
+      <c r="H64" s="146">
+        <v>304.45999999999998</v>
+      </c>
+      <c r="I64" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J64" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K64" s="120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="190">
+        <v>23</v>
+      </c>
+      <c r="B65" s="191">
+        <v>42669</v>
+      </c>
+      <c r="C65" s="153" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="133" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="192">
+        <v>18103</v>
+      </c>
+      <c r="F65" s="132">
+        <v>8224</v>
+      </c>
+      <c r="G65" s="193">
+        <v>1852.1</v>
+      </c>
+      <c r="H65" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="I65" s="147">
+        <v>1852.1</v>
+      </c>
+      <c r="J65" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="K65" s="194" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="216" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="217"/>
+      <c r="C66" s="217"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="217"/>
+      <c r="F66" s="218"/>
+      <c r="G66" s="189">
+        <f>SUM(G58:G65)</f>
+        <v>36239.619999999995</v>
+      </c>
+      <c r="H66" s="189">
+        <f>SUM(H58:H65)</f>
+        <v>25338.77</v>
+      </c>
+      <c r="I66" s="189">
+        <f t="shared" ref="I66:J66" si="3">SUM(I58:I65)</f>
+        <v>4650.8500000000004</v>
+      </c>
+      <c r="J66" s="189">
         <f t="shared" si="3"/>
         <v>6250</v>
       </c>
-      <c r="K59" s="19"/>
-    </row>
-    <row r="60" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="143">
-        <v>17</v>
-      </c>
-      <c r="B60" s="144">
-        <v>42539</v>
-      </c>
-      <c r="C60" s="151" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="128">
-        <v>1896</v>
-      </c>
-      <c r="E60" s="128">
-        <v>14000</v>
-      </c>
-      <c r="F60" s="131">
-        <v>6001</v>
-      </c>
-      <c r="G60" s="145">
-        <v>420</v>
-      </c>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146">
-        <v>420</v>
-      </c>
-      <c r="J60" s="146"/>
-      <c r="K60" s="120" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="122">
-        <v>18</v>
-      </c>
-      <c r="B61" s="144">
-        <v>42539</v>
-      </c>
-      <c r="C61" s="151" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="128">
-        <v>1896</v>
-      </c>
-      <c r="E61" s="128">
-        <v>14000</v>
-      </c>
-      <c r="F61" s="131">
-        <v>6001</v>
-      </c>
-      <c r="G61" s="145">
-        <v>150</v>
-      </c>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146">
-        <v>150</v>
-      </c>
-      <c r="J61" s="146"/>
-      <c r="K61" s="120" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="122">
-        <v>19</v>
-      </c>
-      <c r="B62" s="144">
-        <v>42539</v>
-      </c>
-      <c r="C62" s="151" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="128">
-        <v>1896</v>
-      </c>
-      <c r="E62" s="128">
-        <v>14000</v>
-      </c>
-      <c r="F62" s="131">
-        <v>6001</v>
-      </c>
-      <c r="G62" s="145">
-        <v>36</v>
-      </c>
-      <c r="H62" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="I62" s="146">
-        <v>36</v>
-      </c>
-      <c r="J62" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K62" s="120" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="143">
-        <v>20</v>
-      </c>
-      <c r="B63" s="144">
-        <v>42639</v>
-      </c>
-      <c r="C63" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="128">
-        <v>1189</v>
-      </c>
-      <c r="E63" s="128">
-        <v>16541</v>
-      </c>
-      <c r="F63" s="131">
-        <v>7368</v>
-      </c>
-      <c r="G63" s="145">
-        <v>2295.54</v>
-      </c>
-      <c r="H63" s="146">
-        <v>2295.54</v>
-      </c>
-      <c r="I63" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J63" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K63" s="120" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="122">
-        <v>21</v>
-      </c>
-      <c r="B64" s="144">
-        <v>42639</v>
-      </c>
-      <c r="C64" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="128">
-        <v>1189</v>
-      </c>
-      <c r="E64" s="128">
-        <v>16546</v>
-      </c>
-      <c r="F64" s="131">
-        <v>7368</v>
-      </c>
-      <c r="G64" s="145">
-        <v>234</v>
-      </c>
-      <c r="H64" s="146">
-        <v>234</v>
-      </c>
-      <c r="I64" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J64" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K64" s="129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="122">
-        <v>22</v>
-      </c>
-      <c r="B65" s="144">
-        <v>42639</v>
-      </c>
-      <c r="C65" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="128">
-        <v>1189</v>
-      </c>
-      <c r="E65" s="128">
-        <v>16550</v>
-      </c>
-      <c r="F65" s="131">
-        <v>7368</v>
-      </c>
-      <c r="G65" s="145">
-        <v>304.45999999999998</v>
-      </c>
-      <c r="H65" s="146">
-        <v>304.45999999999998</v>
-      </c>
-      <c r="I65" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J65" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K65" s="120" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="190">
-        <v>23</v>
-      </c>
-      <c r="B66" s="191">
-        <v>42669</v>
-      </c>
-      <c r="C66" s="153" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="133" t="s">
-        <v>186</v>
-      </c>
-      <c r="E66" s="192">
-        <v>18103</v>
-      </c>
-      <c r="F66" s="132">
-        <v>8224</v>
-      </c>
-      <c r="G66" s="193">
-        <v>1852.1</v>
-      </c>
-      <c r="H66" s="147" t="s">
-        <v>211</v>
-      </c>
-      <c r="I66" s="147">
-        <v>1852.1</v>
-      </c>
-      <c r="J66" s="147" t="s">
-        <v>211</v>
-      </c>
-      <c r="K66" s="194" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="215" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="216"/>
-      <c r="C67" s="216"/>
-      <c r="D67" s="216"/>
-      <c r="E67" s="216"/>
-      <c r="F67" s="217"/>
-      <c r="G67" s="189">
-        <f>SUM(G59:G66)</f>
-        <v>36626.619999999995</v>
-      </c>
-      <c r="H67" s="189">
-        <f t="shared" ref="H67:J67" si="4">SUM(H59:H66)</f>
-        <v>25725.77</v>
-      </c>
-      <c r="I67" s="189">
-        <f t="shared" si="4"/>
-        <v>4650.8500000000004</v>
-      </c>
-      <c r="J67" s="189">
-        <f t="shared" si="4"/>
-        <v>6250</v>
-      </c>
-      <c r="K67" s="19"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K70" s="195" t="s">
+      <c r="K66" s="19"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="195" t="s">
         <v>649</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E13:K13"/>
   <mergeCells count="46">
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A5:K5"/>
@@ -28248,42 +28261,28 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A66:F66"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="D53:K53"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
     <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:K54"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <pageMargins left="0.53" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="22" max="10" man="1"/>
-    <brk id="45" max="10" man="1"/>
+    <brk id="44" max="10" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -28294,7 +28293,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29267,34 +29266,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -29310,19 +29309,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -29421,15 +29420,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
-      <c r="E12" s="221" t="s">
+      <c r="E12" s="223" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="162" t="s">
@@ -29448,7 +29447,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -29458,7 +29457,7 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="222"/>
+      <c r="E13" s="224"/>
       <c r="F13" s="163"/>
       <c r="G13" s="164"/>
       <c r="H13" s="157" t="s">
@@ -29696,9 +29695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I258" sqref="I258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30670,34 +30669,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -30713,19 +30712,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30760,10 +30759,10 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="244"/>
+      <c r="B8" s="239"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -30779,10 +30778,10 @@
       <c r="K8" s="248"/>
     </row>
     <row r="9" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="244" t="s">
+      <c r="A9" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="244"/>
+      <c r="B9" s="239"/>
       <c r="C9" s="181" t="s">
         <v>7</v>
       </c>
@@ -30798,10 +30797,10 @@
       <c r="K9" s="248"/>
     </row>
     <row r="10" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="238" t="s">
+      <c r="A10" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="238"/>
+      <c r="B10" s="241"/>
       <c r="C10" s="181" t="s">
         <v>7</v>
       </c>
@@ -30832,13 +30831,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -30857,7 +30856,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -41411,34 +41410,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -41454,19 +41453,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -41565,13 +41564,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -41590,7 +41589,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -44949,34 +44948,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -44992,19 +44991,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -45103,13 +45102,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -45128,7 +45127,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -48967,34 +48966,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -49010,19 +49009,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -49121,13 +49120,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220"/>
+      <c r="C12" s="222"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -49146,7 +49145,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="219"/>
+      <c r="A13" s="215"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -52412,21 +52411,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -52444,21 +52443,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="228"/>
-      <c r="L4" s="228"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="228"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="210"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -52568,56 +52567,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="249" t="s">
+      <c r="B10" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="251" t="s">
+      <c r="C10" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="253" t="s">
+      <c r="D10" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="251" t="s">
+      <c r="E10" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="251" t="s">
+      <c r="F10" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="251" t="s">
+      <c r="G10" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="251" t="s">
+      <c r="H10" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="255" t="s">
+      <c r="I10" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="251" t="s">
+      <c r="J10" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="251" t="s">
+      <c r="K10" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="251" t="s">
+      <c r="L10" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="257" t="s">
+      <c r="M10" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="258"/>
+      <c r="N10" s="255"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="250"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="253"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -52752,31 +52751,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="259" t="s">
+      <c r="B18" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="261"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="257"/>
+      <c r="G18" s="257"/>
+      <c r="H18" s="258"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="262"/>
-      <c r="K18" s="263"/>
-      <c r="L18" s="263"/>
-      <c r="M18" s="263"/>
-      <c r="N18" s="264"/>
+      <c r="J18" s="259"/>
+      <c r="K18" s="260"/>
+      <c r="L18" s="260"/>
+      <c r="M18" s="260"/>
+      <c r="N18" s="261"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="271" t="s">
+      <c r="M20" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="271"/>
+      <c r="N20" s="249"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -52798,21 +52797,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="228"/>
-      <c r="K23" s="228"/>
-      <c r="L23" s="228"/>
-      <c r="M23" s="228"/>
-      <c r="N23" s="228"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="210"/>
+      <c r="N23" s="210"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -52830,21 +52829,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="228" t="s">
+      <c r="B25" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
-      <c r="J25" s="228"/>
-      <c r="K25" s="228"/>
-      <c r="L25" s="228"/>
-      <c r="M25" s="228"/>
-      <c r="N25" s="228"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="210"/>
+      <c r="K25" s="210"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="210"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -52954,56 +52953,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="249" t="s">
+      <c r="B31" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="251" t="s">
+      <c r="C31" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="253" t="s">
+      <c r="D31" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="251" t="s">
+      <c r="E31" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="251" t="s">
+      <c r="F31" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="251" t="s">
+      <c r="G31" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="251" t="s">
+      <c r="H31" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="255" t="s">
+      <c r="I31" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="251" t="s">
+      <c r="J31" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="251" t="s">
+      <c r="K31" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="251" t="s">
+      <c r="L31" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="257" t="s">
+      <c r="M31" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="258"/>
+      <c r="N31" s="255"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="250"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="254"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="252"/>
-      <c r="I32" s="256"/>
-      <c r="J32" s="252"/>
-      <c r="K32" s="252"/>
-      <c r="L32" s="252"/>
+      <c r="B32" s="263"/>
+      <c r="C32" s="253"/>
+      <c r="D32" s="265"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="253"/>
+      <c r="G32" s="253"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="251"/>
+      <c r="J32" s="253"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="253"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -53097,31 +53096,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
-      <c r="E38" s="266"/>
-      <c r="F38" s="266"/>
-      <c r="G38" s="266"/>
-      <c r="H38" s="267"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="267"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="268"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="268"/>
-      <c r="K38" s="269"/>
-      <c r="L38" s="269"/>
-      <c r="M38" s="269"/>
-      <c r="N38" s="270"/>
+      <c r="J38" s="269"/>
+      <c r="K38" s="270"/>
+      <c r="L38" s="270"/>
+      <c r="M38" s="270"/>
+      <c r="N38" s="271"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="271" t="s">
+      <c r="M40" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="271"/>
+      <c r="N40" s="249"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -53143,21 +53142,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="228" t="s">
+      <c r="B43" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="228"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="228"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="228"/>
-      <c r="H43" s="228"/>
-      <c r="I43" s="228"/>
-      <c r="J43" s="228"/>
-      <c r="K43" s="228"/>
-      <c r="L43" s="228"/>
-      <c r="M43" s="228"/>
-      <c r="N43" s="228"/>
+      <c r="C43" s="210"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="210"/>
+      <c r="J43" s="210"/>
+      <c r="K43" s="210"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="210"/>
+      <c r="N43" s="210"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -53175,21 +53174,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="228" t="s">
+      <c r="B45" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="228"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="228"/>
-      <c r="F45" s="228"/>
-      <c r="G45" s="228"/>
-      <c r="H45" s="228"/>
-      <c r="I45" s="228"/>
-      <c r="J45" s="228"/>
-      <c r="K45" s="228"/>
-      <c r="L45" s="228"/>
-      <c r="M45" s="228"/>
-      <c r="N45" s="228"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="210"/>
+      <c r="K45" s="210"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="210"/>
+      <c r="N45" s="210"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -53299,56 +53298,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="249" t="s">
+      <c r="B51" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="251" t="s">
+      <c r="C51" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="253" t="s">
+      <c r="D51" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="251" t="s">
+      <c r="E51" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="251" t="s">
+      <c r="F51" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="251" t="s">
+      <c r="G51" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="251" t="s">
+      <c r="H51" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="255" t="s">
+      <c r="I51" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="251" t="s">
+      <c r="J51" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="251" t="s">
+      <c r="K51" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="251" t="s">
+      <c r="L51" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="257" t="s">
+      <c r="M51" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="258"/>
+      <c r="N51" s="255"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="250"/>
-      <c r="C52" s="252"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="252"/>
-      <c r="F52" s="252"/>
-      <c r="G52" s="252"/>
-      <c r="H52" s="252"/>
-      <c r="I52" s="256"/>
-      <c r="J52" s="252"/>
-      <c r="K52" s="252"/>
-      <c r="L52" s="252"/>
+      <c r="B52" s="263"/>
+      <c r="C52" s="253"/>
+      <c r="D52" s="265"/>
+      <c r="E52" s="253"/>
+      <c r="F52" s="253"/>
+      <c r="G52" s="253"/>
+      <c r="H52" s="253"/>
+      <c r="I52" s="251"/>
+      <c r="J52" s="253"/>
+      <c r="K52" s="253"/>
+      <c r="L52" s="253"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -53425,31 +53424,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="265" t="s">
+      <c r="B57" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="266"/>
-      <c r="D57" s="266"/>
-      <c r="E57" s="266"/>
-      <c r="F57" s="266"/>
-      <c r="G57" s="266"/>
-      <c r="H57" s="267"/>
+      <c r="C57" s="267"/>
+      <c r="D57" s="267"/>
+      <c r="E57" s="267"/>
+      <c r="F57" s="267"/>
+      <c r="G57" s="267"/>
+      <c r="H57" s="268"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="268"/>
-      <c r="K57" s="269"/>
-      <c r="L57" s="269"/>
-      <c r="M57" s="269"/>
-      <c r="N57" s="270"/>
+      <c r="J57" s="269"/>
+      <c r="K57" s="270"/>
+      <c r="L57" s="270"/>
+      <c r="M57" s="270"/>
+      <c r="N57" s="271"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="271" t="s">
+      <c r="M59" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="271"/>
+      <c r="N59" s="249"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -53479,21 +53478,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="228" t="s">
+      <c r="B64" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="228"/>
-      <c r="D64" s="228"/>
-      <c r="E64" s="228"/>
-      <c r="F64" s="228"/>
-      <c r="G64" s="228"/>
-      <c r="H64" s="228"/>
-      <c r="I64" s="228"/>
-      <c r="J64" s="228"/>
-      <c r="K64" s="228"/>
-      <c r="L64" s="228"/>
-      <c r="M64" s="228"/>
-      <c r="N64" s="228"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="210"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="210"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="210"/>
+      <c r="K64" s="210"/>
+      <c r="L64" s="210"/>
+      <c r="M64" s="210"/>
+      <c r="N64" s="210"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -53511,21 +53510,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="228" t="s">
+      <c r="B66" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="228"/>
-      <c r="D66" s="228"/>
-      <c r="E66" s="228"/>
-      <c r="F66" s="228"/>
-      <c r="G66" s="228"/>
-      <c r="H66" s="228"/>
-      <c r="I66" s="228"/>
-      <c r="J66" s="228"/>
-      <c r="K66" s="228"/>
-      <c r="L66" s="228"/>
-      <c r="M66" s="228"/>
-      <c r="N66" s="228"/>
+      <c r="C66" s="210"/>
+      <c r="D66" s="210"/>
+      <c r="E66" s="210"/>
+      <c r="F66" s="210"/>
+      <c r="G66" s="210"/>
+      <c r="H66" s="210"/>
+      <c r="I66" s="210"/>
+      <c r="J66" s="210"/>
+      <c r="K66" s="210"/>
+      <c r="L66" s="210"/>
+      <c r="M66" s="210"/>
+      <c r="N66" s="210"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -53635,56 +53634,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="249" t="s">
+      <c r="B72" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="251" t="s">
+      <c r="C72" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="253" t="s">
+      <c r="D72" s="264" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="251" t="s">
+      <c r="E72" s="252" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="251" t="s">
+      <c r="F72" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="251" t="s">
+      <c r="G72" s="252" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="251" t="s">
+      <c r="H72" s="252" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="255" t="s">
+      <c r="I72" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="251" t="s">
+      <c r="J72" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="251" t="s">
+      <c r="K72" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="251" t="s">
+      <c r="L72" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="257" t="s">
+      <c r="M72" s="254" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="258"/>
+      <c r="N72" s="255"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="250"/>
-      <c r="C73" s="252"/>
-      <c r="D73" s="254"/>
-      <c r="E73" s="252"/>
-      <c r="F73" s="252"/>
-      <c r="G73" s="252"/>
-      <c r="H73" s="252"/>
-      <c r="I73" s="256"/>
-      <c r="J73" s="252"/>
-      <c r="K73" s="252"/>
-      <c r="L73" s="252"/>
+      <c r="B73" s="263"/>
+      <c r="C73" s="253"/>
+      <c r="D73" s="265"/>
+      <c r="E73" s="253"/>
+      <c r="F73" s="253"/>
+      <c r="G73" s="253"/>
+      <c r="H73" s="253"/>
+      <c r="I73" s="251"/>
+      <c r="J73" s="253"/>
+      <c r="K73" s="253"/>
+      <c r="L73" s="253"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -53744,31 +53743,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="259" t="s">
+      <c r="B77" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="260"/>
-      <c r="D77" s="260"/>
-      <c r="E77" s="260"/>
-      <c r="F77" s="260"/>
-      <c r="G77" s="260"/>
-      <c r="H77" s="261"/>
+      <c r="C77" s="257"/>
+      <c r="D77" s="257"/>
+      <c r="E77" s="257"/>
+      <c r="F77" s="257"/>
+      <c r="G77" s="257"/>
+      <c r="H77" s="258"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="262"/>
-      <c r="K77" s="263"/>
-      <c r="L77" s="263"/>
-      <c r="M77" s="263"/>
-      <c r="N77" s="264"/>
+      <c r="J77" s="259"/>
+      <c r="K77" s="260"/>
+      <c r="L77" s="260"/>
+      <c r="M77" s="260"/>
+      <c r="N77" s="261"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="271" t="s">
+      <c r="M79" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="271"/>
+      <c r="N79" s="249"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -53813,12 +53812,52 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
@@ -53835,52 +53874,12 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>

--- a/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
+++ b/TARJETA DE LIQUIDACION chacabamba/TARJETAS-MICROCUENCA CHACABAMBAd/TARJETA-2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="798" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="798" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MODELO" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2792,7 +2792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -3217,12 +3217,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3827,22 +3840,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3854,14 +3864,11 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3872,16 +3879,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3911,17 +3924,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3932,32 +3939,47 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3983,18 +4005,6 @@
     <xf numFmtId="4" fontId="22" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4011,6 +4021,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="22" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4340,42 +4356,42 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4395,23 +4411,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -4534,38 +4550,38 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="223" t="s">
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="223" t="s">
+      <c r="F12" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="214" t="s">
+      <c r="G12" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="211" t="s">
+      <c r="H12" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="213"/>
-      <c r="O12" s="214" t="s">
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -4575,9 +4591,9 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="224"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="215"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="219"/>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4599,7 +4615,7 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="215"/>
+      <c r="O13" s="219"/>
     </row>
     <row r="14" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="113" t="s">
@@ -5170,14 +5186,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="217"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="218"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="217"/>
       <c r="G32" s="29">
         <f>SUM(G14:G31)</f>
         <v>3930</v>
@@ -5210,42 +5226,42 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="219"/>
-      <c r="M35" s="219"/>
-      <c r="N35" s="219"/>
-      <c r="O35" s="219"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="210"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="210"/>
+      <c r="M35" s="210"/>
+      <c r="N35" s="210"/>
+      <c r="O35" s="210"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="220" t="s">
+      <c r="A36" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="220"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="220"/>
-      <c r="J36" s="220"/>
-      <c r="K36" s="220"/>
-      <c r="L36" s="220"/>
-      <c r="M36" s="220"/>
-      <c r="N36" s="220"/>
-      <c r="O36" s="220"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="211"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="211"/>
+      <c r="M36" s="211"/>
+      <c r="N36" s="211"/>
+      <c r="O36" s="211"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -5368,38 +5384,38 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="221" t="s">
+      <c r="A43" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="222" t="s">
+      <c r="B43" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="222"/>
-      <c r="D43" s="222"/>
-      <c r="E43" s="223" t="s">
+      <c r="C43" s="220"/>
+      <c r="D43" s="220"/>
+      <c r="E43" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="223" t="s">
+      <c r="F43" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="214" t="s">
+      <c r="G43" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="211" t="s">
+      <c r="H43" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="212"/>
-      <c r="J43" s="212"/>
-      <c r="K43" s="212"/>
-      <c r="L43" s="212"/>
-      <c r="M43" s="212"/>
-      <c r="N43" s="213"/>
-      <c r="O43" s="214" t="s">
+      <c r="I43" s="226"/>
+      <c r="J43" s="226"/>
+      <c r="K43" s="226"/>
+      <c r="L43" s="226"/>
+      <c r="M43" s="226"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="215"/>
+      <c r="A44" s="219"/>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
@@ -5409,9 +5425,9 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="224"/>
-      <c r="F44" s="225"/>
-      <c r="G44" s="215"/>
+      <c r="E44" s="222"/>
+      <c r="F44" s="224"/>
+      <c r="G44" s="219"/>
       <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
@@ -5433,17 +5449,17 @@
       <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="215"/>
+      <c r="O44" s="219"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="226" t="s">
+      <c r="A45" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="227"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="228"/>
+      <c r="B45" s="213"/>
+      <c r="C45" s="213"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="214"/>
       <c r="G45" s="29">
         <f>G32</f>
         <v>3930</v>
@@ -5898,14 +5914,14 @@
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="216" t="s">
+      <c r="A66" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="217"/>
-      <c r="C66" s="217"/>
-      <c r="D66" s="217"/>
-      <c r="E66" s="217"/>
-      <c r="F66" s="218"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="217"/>
       <c r="G66" s="29">
         <f>SUM(G45:G65)</f>
         <v>3930</v>
@@ -5938,42 +5954,42 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="219" t="s">
+      <c r="A69" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="219"/>
-      <c r="C69" s="219"/>
-      <c r="D69" s="219"/>
-      <c r="E69" s="219"/>
-      <c r="F69" s="219"/>
-      <c r="G69" s="219"/>
-      <c r="H69" s="219"/>
-      <c r="I69" s="219"/>
-      <c r="J69" s="219"/>
-      <c r="K69" s="219"/>
-      <c r="L69" s="219"/>
-      <c r="M69" s="219"/>
-      <c r="N69" s="219"/>
-      <c r="O69" s="219"/>
+      <c r="B69" s="210"/>
+      <c r="C69" s="210"/>
+      <c r="D69" s="210"/>
+      <c r="E69" s="210"/>
+      <c r="F69" s="210"/>
+      <c r="G69" s="210"/>
+      <c r="H69" s="210"/>
+      <c r="I69" s="210"/>
+      <c r="J69" s="210"/>
+      <c r="K69" s="210"/>
+      <c r="L69" s="210"/>
+      <c r="M69" s="210"/>
+      <c r="N69" s="210"/>
+      <c r="O69" s="210"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="220" t="s">
+      <c r="A70" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="220"/>
-      <c r="C70" s="220"/>
-      <c r="D70" s="220"/>
-      <c r="E70" s="220"/>
-      <c r="F70" s="220"/>
-      <c r="G70" s="220"/>
-      <c r="H70" s="220"/>
-      <c r="I70" s="220"/>
-      <c r="J70" s="220"/>
-      <c r="K70" s="220"/>
-      <c r="L70" s="220"/>
-      <c r="M70" s="220"/>
-      <c r="N70" s="220"/>
-      <c r="O70" s="220"/>
+      <c r="B70" s="211"/>
+      <c r="C70" s="211"/>
+      <c r="D70" s="211"/>
+      <c r="E70" s="211"/>
+      <c r="F70" s="211"/>
+      <c r="G70" s="211"/>
+      <c r="H70" s="211"/>
+      <c r="I70" s="211"/>
+      <c r="J70" s="211"/>
+      <c r="K70" s="211"/>
+      <c r="L70" s="211"/>
+      <c r="M70" s="211"/>
+      <c r="N70" s="211"/>
+      <c r="O70" s="211"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -6096,38 +6112,38 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="221" t="s">
+      <c r="A77" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="222" t="s">
+      <c r="B77" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="222"/>
-      <c r="D77" s="222"/>
-      <c r="E77" s="223" t="s">
+      <c r="C77" s="220"/>
+      <c r="D77" s="220"/>
+      <c r="E77" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="223" t="s">
+      <c r="F77" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="214" t="s">
+      <c r="G77" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="211" t="s">
+      <c r="H77" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="212"/>
-      <c r="J77" s="212"/>
-      <c r="K77" s="212"/>
-      <c r="L77" s="212"/>
-      <c r="M77" s="212"/>
-      <c r="N77" s="213"/>
-      <c r="O77" s="214" t="s">
+      <c r="I77" s="226"/>
+      <c r="J77" s="226"/>
+      <c r="K77" s="226"/>
+      <c r="L77" s="226"/>
+      <c r="M77" s="226"/>
+      <c r="N77" s="227"/>
+      <c r="O77" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="215"/>
+      <c r="A78" s="219"/>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
@@ -6137,9 +6153,9 @@
       <c r="D78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="224"/>
-      <c r="F78" s="225"/>
-      <c r="G78" s="215"/>
+      <c r="E78" s="222"/>
+      <c r="F78" s="224"/>
+      <c r="G78" s="219"/>
       <c r="H78" s="2" t="s">
         <v>22</v>
       </c>
@@ -6161,17 +6177,17 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O78" s="215"/>
+      <c r="O78" s="219"/>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="226" t="s">
+      <c r="A79" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="227"/>
-      <c r="C79" s="227"/>
-      <c r="D79" s="227"/>
-      <c r="E79" s="227"/>
-      <c r="F79" s="228"/>
+      <c r="B79" s="213"/>
+      <c r="C79" s="213"/>
+      <c r="D79" s="213"/>
+      <c r="E79" s="213"/>
+      <c r="F79" s="214"/>
       <c r="G79" s="29">
         <f>G66</f>
         <v>3930</v>
@@ -6604,14 +6620,14 @@
       <c r="O98" s="22"/>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="216" t="s">
+      <c r="A99" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="B99" s="217"/>
-      <c r="C99" s="217"/>
-      <c r="D99" s="217"/>
-      <c r="E99" s="217"/>
-      <c r="F99" s="218"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="216"/>
+      <c r="D99" s="216"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="217"/>
       <c r="G99" s="29">
         <f>SUM(G79:G98)</f>
         <v>3930</v>
@@ -6697,42 +6713,42 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="219" t="s">
+      <c r="A105" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="219"/>
-      <c r="C105" s="219"/>
-      <c r="D105" s="219"/>
-      <c r="E105" s="219"/>
-      <c r="F105" s="219"/>
-      <c r="G105" s="219"/>
-      <c r="H105" s="219"/>
-      <c r="I105" s="219"/>
-      <c r="J105" s="219"/>
-      <c r="K105" s="219"/>
-      <c r="L105" s="219"/>
-      <c r="M105" s="219"/>
-      <c r="N105" s="219"/>
-      <c r="O105" s="219"/>
+      <c r="B105" s="210"/>
+      <c r="C105" s="210"/>
+      <c r="D105" s="210"/>
+      <c r="E105" s="210"/>
+      <c r="F105" s="210"/>
+      <c r="G105" s="210"/>
+      <c r="H105" s="210"/>
+      <c r="I105" s="210"/>
+      <c r="J105" s="210"/>
+      <c r="K105" s="210"/>
+      <c r="L105" s="210"/>
+      <c r="M105" s="210"/>
+      <c r="N105" s="210"/>
+      <c r="O105" s="210"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="220" t="s">
+      <c r="A106" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="220"/>
-      <c r="C106" s="220"/>
-      <c r="D106" s="220"/>
-      <c r="E106" s="220"/>
-      <c r="F106" s="220"/>
-      <c r="G106" s="220"/>
-      <c r="H106" s="220"/>
-      <c r="I106" s="220"/>
-      <c r="J106" s="220"/>
-      <c r="K106" s="220"/>
-      <c r="L106" s="220"/>
-      <c r="M106" s="220"/>
-      <c r="N106" s="220"/>
-      <c r="O106" s="220"/>
+      <c r="B106" s="211"/>
+      <c r="C106" s="211"/>
+      <c r="D106" s="211"/>
+      <c r="E106" s="211"/>
+      <c r="F106" s="211"/>
+      <c r="G106" s="211"/>
+      <c r="H106" s="211"/>
+      <c r="I106" s="211"/>
+      <c r="J106" s="211"/>
+      <c r="K106" s="211"/>
+      <c r="L106" s="211"/>
+      <c r="M106" s="211"/>
+      <c r="N106" s="211"/>
+      <c r="O106" s="211"/>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -6752,23 +6768,23 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="210" t="s">
+      <c r="A108" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="210"/>
-      <c r="C108" s="210"/>
-      <c r="D108" s="210"/>
-      <c r="E108" s="210"/>
-      <c r="F108" s="210"/>
-      <c r="G108" s="210"/>
-      <c r="H108" s="210"/>
-      <c r="I108" s="210"/>
-      <c r="J108" s="210"/>
-      <c r="K108" s="210"/>
-      <c r="L108" s="210"/>
-      <c r="M108" s="210"/>
-      <c r="N108" s="210"/>
-      <c r="O108" s="210"/>
+      <c r="B108" s="228"/>
+      <c r="C108" s="228"/>
+      <c r="D108" s="228"/>
+      <c r="E108" s="228"/>
+      <c r="F108" s="228"/>
+      <c r="G108" s="228"/>
+      <c r="H108" s="228"/>
+      <c r="I108" s="228"/>
+      <c r="J108" s="228"/>
+      <c r="K108" s="228"/>
+      <c r="L108" s="228"/>
+      <c r="M108" s="228"/>
+      <c r="N108" s="228"/>
+      <c r="O108" s="228"/>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -6891,38 +6907,38 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="221" t="s">
+      <c r="A115" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="222" t="s">
+      <c r="B115" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="222"/>
-      <c r="D115" s="222"/>
-      <c r="E115" s="223" t="s">
+      <c r="C115" s="220"/>
+      <c r="D115" s="220"/>
+      <c r="E115" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="223" t="s">
+      <c r="F115" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G115" s="214" t="s">
+      <c r="G115" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="211" t="s">
+      <c r="H115" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="I115" s="212"/>
-      <c r="J115" s="212"/>
-      <c r="K115" s="212"/>
-      <c r="L115" s="212"/>
-      <c r="M115" s="212"/>
-      <c r="N115" s="213"/>
-      <c r="O115" s="214" t="s">
+      <c r="I115" s="226"/>
+      <c r="J115" s="226"/>
+      <c r="K115" s="226"/>
+      <c r="L115" s="226"/>
+      <c r="M115" s="226"/>
+      <c r="N115" s="227"/>
+      <c r="O115" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="215"/>
+      <c r="A116" s="219"/>
       <c r="B116" s="2" t="s">
         <v>14</v>
       </c>
@@ -6932,9 +6948,9 @@
       <c r="D116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="224"/>
-      <c r="F116" s="225"/>
-      <c r="G116" s="215"/>
+      <c r="E116" s="222"/>
+      <c r="F116" s="224"/>
+      <c r="G116" s="219"/>
       <c r="H116" s="2" t="s">
         <v>22</v>
       </c>
@@ -6956,7 +6972,7 @@
       <c r="N116" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O116" s="215"/>
+      <c r="O116" s="219"/>
     </row>
     <row r="117" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
@@ -7085,14 +7101,14 @@
       <c r="O121" s="17"/>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="216" t="s">
+      <c r="A122" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="217"/>
-      <c r="C122" s="217"/>
-      <c r="D122" s="217"/>
-      <c r="E122" s="217"/>
-      <c r="F122" s="218"/>
+      <c r="B122" s="216"/>
+      <c r="C122" s="216"/>
+      <c r="D122" s="216"/>
+      <c r="E122" s="216"/>
+      <c r="F122" s="217"/>
       <c r="G122" s="29">
         <f>SUM(G117:G121)</f>
         <v>50</v>
@@ -7135,6 +7151,34 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="44">
+    <mergeCell ref="A108:O108"/>
+    <mergeCell ref="H115:N115"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A69:O69"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:N77"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:O44"/>
     <mergeCell ref="A105:O105"/>
     <mergeCell ref="A106:O106"/>
     <mergeCell ref="A45:F45"/>
@@ -7151,34 +7195,6 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A35:O35"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A108:O108"/>
-    <mergeCell ref="H115:N115"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A69:O69"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:N77"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="A79:F79"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
@@ -7215,21 +7231,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
     </row>
     <row r="3" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="89"/>
@@ -7339,56 +7355,56 @@
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="252" t="s">
+      <c r="C9" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="264" t="s">
+      <c r="D9" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="252" t="s">
+      <c r="E9" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="252" t="s">
+      <c r="F9" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="252" t="s">
+      <c r="G9" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="252" t="s">
+      <c r="H9" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="250" t="s">
+      <c r="I9" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="252" t="s">
+      <c r="J9" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="252" t="s">
+      <c r="K9" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="252" t="s">
+      <c r="L9" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="254" t="s">
+      <c r="M9" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="255"/>
+      <c r="N9" s="258"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="263"/>
-      <c r="C10" s="253"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="253"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="253"/>
+      <c r="B10" s="250"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
       <c r="M10" s="56" t="s">
         <v>39</v>
       </c>
@@ -7817,44 +7833,44 @@
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="256" t="s">
+      <c r="B31" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="257"/>
-      <c r="D31" s="257"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="258"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="260"/>
+      <c r="E31" s="260"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="261"/>
       <c r="I31" s="82">
         <f>SUM(I11:I30)</f>
         <v>1769.9</v>
       </c>
-      <c r="J31" s="259"/>
-      <c r="K31" s="260"/>
-      <c r="L31" s="260"/>
-      <c r="M31" s="260"/>
-      <c r="N31" s="261"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="263"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
+      <c r="N31" s="264"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="210" t="s">
+      <c r="B35" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="210"/>
-      <c r="M35" s="210"/>
-      <c r="N35" s="210"/>
+      <c r="C35" s="228"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="228"/>
+      <c r="K35" s="228"/>
+      <c r="L35" s="228"/>
+      <c r="M35" s="228"/>
+      <c r="N35" s="228"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="89"/>
@@ -7964,56 +7980,56 @@
       <c r="N41" s="55"/>
     </row>
     <row r="42" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="262" t="s">
+      <c r="B42" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="252" t="s">
+      <c r="C42" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="264" t="s">
+      <c r="D42" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="252" t="s">
+      <c r="E42" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="252" t="s">
+      <c r="F42" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="252" t="s">
+      <c r="G42" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="252" t="s">
+      <c r="H42" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="250" t="s">
+      <c r="I42" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="252" t="s">
+      <c r="J42" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="252" t="s">
+      <c r="K42" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="252" t="s">
+      <c r="L42" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M42" s="254" t="s">
+      <c r="M42" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="255"/>
+      <c r="N42" s="258"/>
     </row>
     <row r="43" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="263"/>
-      <c r="C43" s="253"/>
-      <c r="D43" s="265"/>
-      <c r="E43" s="253"/>
-      <c r="F43" s="253"/>
-      <c r="G43" s="253"/>
-      <c r="H43" s="253"/>
-      <c r="I43" s="251"/>
-      <c r="J43" s="253"/>
-      <c r="K43" s="253"/>
-      <c r="L43" s="253"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
+      <c r="G43" s="252"/>
+      <c r="H43" s="252"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="252"/>
+      <c r="L43" s="252"/>
       <c r="M43" s="56" t="s">
         <v>39</v>
       </c>
@@ -8022,24 +8038,24 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="266" t="s">
+      <c r="B44" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="267"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="267"/>
-      <c r="F44" s="267"/>
-      <c r="G44" s="267"/>
-      <c r="H44" s="268"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="266"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="266"/>
+      <c r="H44" s="267"/>
       <c r="I44" s="86">
         <f>I31</f>
         <v>1769.9</v>
       </c>
-      <c r="J44" s="269"/>
-      <c r="K44" s="270"/>
-      <c r="L44" s="270"/>
-      <c r="M44" s="270"/>
-      <c r="N44" s="271"/>
+      <c r="J44" s="268"/>
+      <c r="K44" s="269"/>
+      <c r="L44" s="269"/>
+      <c r="M44" s="269"/>
+      <c r="N44" s="270"/>
     </row>
     <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="58" t="s">
@@ -8403,44 +8419,44 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="256" t="s">
+      <c r="B63" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="257"/>
-      <c r="D63" s="257"/>
-      <c r="E63" s="257"/>
-      <c r="F63" s="257"/>
-      <c r="G63" s="257"/>
-      <c r="H63" s="258"/>
+      <c r="C63" s="260"/>
+      <c r="D63" s="260"/>
+      <c r="E63" s="260"/>
+      <c r="F63" s="260"/>
+      <c r="G63" s="260"/>
+      <c r="H63" s="261"/>
       <c r="I63" s="82">
         <f>SUM(I44:I62)</f>
         <v>1769.9</v>
       </c>
-      <c r="J63" s="259"/>
-      <c r="K63" s="260"/>
-      <c r="L63" s="260"/>
-      <c r="M63" s="260"/>
-      <c r="N63" s="261"/>
+      <c r="J63" s="262"/>
+      <c r="K63" s="263"/>
+      <c r="L63" s="263"/>
+      <c r="M63" s="263"/>
+      <c r="N63" s="264"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="210" t="s">
+      <c r="B67" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="210"/>
-      <c r="D67" s="210"/>
-      <c r="E67" s="210"/>
-      <c r="F67" s="210"/>
-      <c r="G67" s="210"/>
-      <c r="H67" s="210"/>
-      <c r="I67" s="210"/>
-      <c r="J67" s="210"/>
-      <c r="K67" s="210"/>
-      <c r="L67" s="210"/>
-      <c r="M67" s="210"/>
-      <c r="N67" s="210"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="228"/>
+      <c r="H67" s="228"/>
+      <c r="I67" s="228"/>
+      <c r="J67" s="228"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="228"/>
+      <c r="M67" s="228"/>
+      <c r="N67" s="228"/>
     </row>
     <row r="68" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="89"/>
@@ -8550,56 +8566,56 @@
       <c r="N73" s="55"/>
     </row>
     <row r="74" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="262" t="s">
+      <c r="B74" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="252" t="s">
+      <c r="C74" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="264" t="s">
+      <c r="D74" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="252" t="s">
+      <c r="E74" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="252" t="s">
+      <c r="F74" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="252" t="s">
+      <c r="G74" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="252" t="s">
+      <c r="H74" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="250" t="s">
+      <c r="I74" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="252" t="s">
+      <c r="J74" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K74" s="252" t="s">
+      <c r="K74" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="252" t="s">
+      <c r="L74" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M74" s="254" t="s">
+      <c r="M74" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="255"/>
+      <c r="N74" s="258"/>
     </row>
     <row r="75" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="263"/>
-      <c r="C75" s="253"/>
-      <c r="D75" s="265"/>
-      <c r="E75" s="253"/>
-      <c r="F75" s="253"/>
-      <c r="G75" s="253"/>
-      <c r="H75" s="253"/>
-      <c r="I75" s="251"/>
-      <c r="J75" s="253"/>
-      <c r="K75" s="253"/>
-      <c r="L75" s="253"/>
+      <c r="B75" s="250"/>
+      <c r="C75" s="252"/>
+      <c r="D75" s="254"/>
+      <c r="E75" s="252"/>
+      <c r="F75" s="252"/>
+      <c r="G75" s="252"/>
+      <c r="H75" s="252"/>
+      <c r="I75" s="256"/>
+      <c r="J75" s="252"/>
+      <c r="K75" s="252"/>
+      <c r="L75" s="252"/>
       <c r="M75" s="56" t="s">
         <v>39</v>
       </c>
@@ -8608,24 +8624,24 @@
       </c>
     </row>
     <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="266" t="s">
+      <c r="B76" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="267"/>
-      <c r="D76" s="267"/>
-      <c r="E76" s="267"/>
-      <c r="F76" s="267"/>
-      <c r="G76" s="267"/>
-      <c r="H76" s="268"/>
+      <c r="C76" s="266"/>
+      <c r="D76" s="266"/>
+      <c r="E76" s="266"/>
+      <c r="F76" s="266"/>
+      <c r="G76" s="266"/>
+      <c r="H76" s="267"/>
       <c r="I76" s="86">
         <f>I63</f>
         <v>1769.9</v>
       </c>
-      <c r="J76" s="269"/>
-      <c r="K76" s="270"/>
-      <c r="L76" s="270"/>
-      <c r="M76" s="270"/>
-      <c r="N76" s="271"/>
+      <c r="J76" s="268"/>
+      <c r="K76" s="269"/>
+      <c r="L76" s="269"/>
+      <c r="M76" s="269"/>
+      <c r="N76" s="270"/>
     </row>
     <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="58" t="s">
@@ -9068,44 +9084,44 @@
       </c>
     </row>
     <row r="97" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="256" t="s">
+      <c r="B97" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="257"/>
-      <c r="D97" s="257"/>
-      <c r="E97" s="257"/>
-      <c r="F97" s="257"/>
-      <c r="G97" s="257"/>
-      <c r="H97" s="258"/>
+      <c r="C97" s="260"/>
+      <c r="D97" s="260"/>
+      <c r="E97" s="260"/>
+      <c r="F97" s="260"/>
+      <c r="G97" s="260"/>
+      <c r="H97" s="261"/>
       <c r="I97" s="82">
         <f>SUM(I76:I96)</f>
         <v>1769.9</v>
       </c>
-      <c r="J97" s="259"/>
-      <c r="K97" s="260"/>
-      <c r="L97" s="260"/>
-      <c r="M97" s="260"/>
-      <c r="N97" s="261"/>
+      <c r="J97" s="262"/>
+      <c r="K97" s="263"/>
+      <c r="L97" s="263"/>
+      <c r="M97" s="263"/>
+      <c r="N97" s="264"/>
     </row>
     <row r="98" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="210" t="s">
+      <c r="B101" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="210"/>
-      <c r="D101" s="210"/>
-      <c r="E101" s="210"/>
-      <c r="F101" s="210"/>
-      <c r="G101" s="210"/>
-      <c r="H101" s="210"/>
-      <c r="I101" s="210"/>
-      <c r="J101" s="210"/>
-      <c r="K101" s="210"/>
-      <c r="L101" s="210"/>
-      <c r="M101" s="210"/>
-      <c r="N101" s="210"/>
+      <c r="C101" s="228"/>
+      <c r="D101" s="228"/>
+      <c r="E101" s="228"/>
+      <c r="F101" s="228"/>
+      <c r="G101" s="228"/>
+      <c r="H101" s="228"/>
+      <c r="I101" s="228"/>
+      <c r="J101" s="228"/>
+      <c r="K101" s="228"/>
+      <c r="L101" s="228"/>
+      <c r="M101" s="228"/>
+      <c r="N101" s="228"/>
     </row>
     <row r="102" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89"/>
@@ -9215,56 +9231,56 @@
       <c r="N107" s="55"/>
     </row>
     <row r="108" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="262" t="s">
+      <c r="B108" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="252" t="s">
+      <c r="C108" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="264" t="s">
+      <c r="D108" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E108" s="252" t="s">
+      <c r="E108" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="252" t="s">
+      <c r="F108" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G108" s="252" t="s">
+      <c r="G108" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H108" s="252" t="s">
+      <c r="H108" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I108" s="250" t="s">
+      <c r="I108" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="252" t="s">
+      <c r="J108" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K108" s="252" t="s">
+      <c r="K108" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L108" s="252" t="s">
+      <c r="L108" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M108" s="254" t="s">
+      <c r="M108" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N108" s="255"/>
+      <c r="N108" s="258"/>
     </row>
     <row r="109" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="263"/>
-      <c r="C109" s="253"/>
-      <c r="D109" s="265"/>
-      <c r="E109" s="253"/>
-      <c r="F109" s="253"/>
-      <c r="G109" s="253"/>
-      <c r="H109" s="253"/>
-      <c r="I109" s="251"/>
-      <c r="J109" s="253"/>
-      <c r="K109" s="253"/>
-      <c r="L109" s="253"/>
+      <c r="B109" s="250"/>
+      <c r="C109" s="252"/>
+      <c r="D109" s="254"/>
+      <c r="E109" s="252"/>
+      <c r="F109" s="252"/>
+      <c r="G109" s="252"/>
+      <c r="H109" s="252"/>
+      <c r="I109" s="256"/>
+      <c r="J109" s="252"/>
+      <c r="K109" s="252"/>
+      <c r="L109" s="252"/>
       <c r="M109" s="56" t="s">
         <v>39</v>
       </c>
@@ -9273,24 +9289,24 @@
       </c>
     </row>
     <row r="110" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="266" t="s">
+      <c r="B110" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="267"/>
-      <c r="D110" s="267"/>
-      <c r="E110" s="267"/>
-      <c r="F110" s="267"/>
-      <c r="G110" s="267"/>
-      <c r="H110" s="268"/>
+      <c r="C110" s="266"/>
+      <c r="D110" s="266"/>
+      <c r="E110" s="266"/>
+      <c r="F110" s="266"/>
+      <c r="G110" s="266"/>
+      <c r="H110" s="267"/>
       <c r="I110" s="86">
         <f>I97</f>
         <v>1769.9</v>
       </c>
-      <c r="J110" s="269"/>
-      <c r="K110" s="270"/>
-      <c r="L110" s="270"/>
-      <c r="M110" s="270"/>
-      <c r="N110" s="271"/>
+      <c r="J110" s="268"/>
+      <c r="K110" s="269"/>
+      <c r="L110" s="269"/>
+      <c r="M110" s="269"/>
+      <c r="N110" s="270"/>
     </row>
     <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="58" t="s">
@@ -9660,44 +9676,44 @@
       <c r="N129" s="81"/>
     </row>
     <row r="130" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="256" t="s">
+      <c r="B130" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C130" s="257"/>
-      <c r="D130" s="257"/>
-      <c r="E130" s="257"/>
-      <c r="F130" s="257"/>
-      <c r="G130" s="257"/>
-      <c r="H130" s="258"/>
+      <c r="C130" s="260"/>
+      <c r="D130" s="260"/>
+      <c r="E130" s="260"/>
+      <c r="F130" s="260"/>
+      <c r="G130" s="260"/>
+      <c r="H130" s="261"/>
       <c r="I130" s="82">
         <f>SUM(I110:I129)</f>
         <v>1769.9</v>
       </c>
-      <c r="J130" s="259"/>
-      <c r="K130" s="260"/>
-      <c r="L130" s="260"/>
-      <c r="M130" s="260"/>
-      <c r="N130" s="261"/>
+      <c r="J130" s="262"/>
+      <c r="K130" s="263"/>
+      <c r="L130" s="263"/>
+      <c r="M130" s="263"/>
+      <c r="N130" s="264"/>
     </row>
     <row r="131" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="210" t="s">
+      <c r="B134" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C134" s="210"/>
-      <c r="D134" s="210"/>
-      <c r="E134" s="210"/>
-      <c r="F134" s="210"/>
-      <c r="G134" s="210"/>
-      <c r="H134" s="210"/>
-      <c r="I134" s="210"/>
-      <c r="J134" s="210"/>
-      <c r="K134" s="210"/>
-      <c r="L134" s="210"/>
-      <c r="M134" s="210"/>
-      <c r="N134" s="210"/>
+      <c r="C134" s="228"/>
+      <c r="D134" s="228"/>
+      <c r="E134" s="228"/>
+      <c r="F134" s="228"/>
+      <c r="G134" s="228"/>
+      <c r="H134" s="228"/>
+      <c r="I134" s="228"/>
+      <c r="J134" s="228"/>
+      <c r="K134" s="228"/>
+      <c r="L134" s="228"/>
+      <c r="M134" s="228"/>
+      <c r="N134" s="228"/>
     </row>
     <row r="135" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="89"/>
@@ -9807,56 +9823,56 @@
       <c r="N140" s="55"/>
     </row>
     <row r="141" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="262" t="s">
+      <c r="B141" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C141" s="252" t="s">
+      <c r="C141" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="264" t="s">
+      <c r="D141" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="252" t="s">
+      <c r="E141" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="252" t="s">
+      <c r="F141" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="252" t="s">
+      <c r="G141" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H141" s="252" t="s">
+      <c r="H141" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="250" t="s">
+      <c r="I141" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J141" s="252" t="s">
+      <c r="J141" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K141" s="252" t="s">
+      <c r="K141" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L141" s="252" t="s">
+      <c r="L141" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="254" t="s">
+      <c r="M141" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N141" s="255"/>
+      <c r="N141" s="258"/>
     </row>
     <row r="142" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="263"/>
-      <c r="C142" s="253"/>
-      <c r="D142" s="265"/>
-      <c r="E142" s="253"/>
-      <c r="F142" s="253"/>
-      <c r="G142" s="253"/>
-      <c r="H142" s="253"/>
-      <c r="I142" s="251"/>
-      <c r="J142" s="253"/>
-      <c r="K142" s="253"/>
-      <c r="L142" s="253"/>
+      <c r="B142" s="250"/>
+      <c r="C142" s="252"/>
+      <c r="D142" s="254"/>
+      <c r="E142" s="252"/>
+      <c r="F142" s="252"/>
+      <c r="G142" s="252"/>
+      <c r="H142" s="252"/>
+      <c r="I142" s="256"/>
+      <c r="J142" s="252"/>
+      <c r="K142" s="252"/>
+      <c r="L142" s="252"/>
       <c r="M142" s="56" t="s">
         <v>39</v>
       </c>
@@ -9865,24 +9881,24 @@
       </c>
     </row>
     <row r="143" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="266" t="s">
+      <c r="B143" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C143" s="267"/>
-      <c r="D143" s="267"/>
-      <c r="E143" s="267"/>
-      <c r="F143" s="267"/>
-      <c r="G143" s="267"/>
-      <c r="H143" s="268"/>
+      <c r="C143" s="266"/>
+      <c r="D143" s="266"/>
+      <c r="E143" s="266"/>
+      <c r="F143" s="266"/>
+      <c r="G143" s="266"/>
+      <c r="H143" s="267"/>
       <c r="I143" s="86">
         <f>I130</f>
         <v>1769.9</v>
       </c>
-      <c r="J143" s="269"/>
-      <c r="K143" s="270"/>
-      <c r="L143" s="270"/>
-      <c r="M143" s="270"/>
-      <c r="N143" s="271"/>
+      <c r="J143" s="268"/>
+      <c r="K143" s="269"/>
+      <c r="L143" s="269"/>
+      <c r="M143" s="269"/>
+      <c r="N143" s="270"/>
     </row>
     <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="58" t="s">
@@ -10208,44 +10224,44 @@
       <c r="N160" s="81"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="256" t="s">
+      <c r="B161" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="257"/>
-      <c r="D161" s="257"/>
-      <c r="E161" s="257"/>
-      <c r="F161" s="257"/>
-      <c r="G161" s="257"/>
-      <c r="H161" s="258"/>
+      <c r="C161" s="260"/>
+      <c r="D161" s="260"/>
+      <c r="E161" s="260"/>
+      <c r="F161" s="260"/>
+      <c r="G161" s="260"/>
+      <c r="H161" s="261"/>
       <c r="I161" s="82">
         <f>SUM(I143:I160)</f>
         <v>1769.9</v>
       </c>
-      <c r="J161" s="259"/>
-      <c r="K161" s="260"/>
-      <c r="L161" s="260"/>
-      <c r="M161" s="260"/>
-      <c r="N161" s="261"/>
+      <c r="J161" s="262"/>
+      <c r="K161" s="263"/>
+      <c r="L161" s="263"/>
+      <c r="M161" s="263"/>
+      <c r="N161" s="264"/>
     </row>
     <row r="162" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="210" t="s">
+      <c r="B165" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="C165" s="210"/>
-      <c r="D165" s="210"/>
-      <c r="E165" s="210"/>
-      <c r="F165" s="210"/>
-      <c r="G165" s="210"/>
-      <c r="H165" s="210"/>
-      <c r="I165" s="210"/>
-      <c r="J165" s="210"/>
-      <c r="K165" s="210"/>
-      <c r="L165" s="210"/>
-      <c r="M165" s="210"/>
-      <c r="N165" s="210"/>
+      <c r="C165" s="228"/>
+      <c r="D165" s="228"/>
+      <c r="E165" s="228"/>
+      <c r="F165" s="228"/>
+      <c r="G165" s="228"/>
+      <c r="H165" s="228"/>
+      <c r="I165" s="228"/>
+      <c r="J165" s="228"/>
+      <c r="K165" s="228"/>
+      <c r="L165" s="228"/>
+      <c r="M165" s="228"/>
+      <c r="N165" s="228"/>
     </row>
     <row r="166" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="89"/>
@@ -10355,56 +10371,56 @@
       <c r="N171" s="55"/>
     </row>
     <row r="172" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="262" t="s">
+      <c r="B172" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="252" t="s">
+      <c r="C172" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D172" s="264" t="s">
+      <c r="D172" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E172" s="252" t="s">
+      <c r="E172" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F172" s="252" t="s">
+      <c r="F172" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="252" t="s">
+      <c r="G172" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H172" s="252" t="s">
+      <c r="H172" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I172" s="250" t="s">
+      <c r="I172" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J172" s="252" t="s">
+      <c r="J172" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="252" t="s">
+      <c r="K172" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L172" s="252" t="s">
+      <c r="L172" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M172" s="254" t="s">
+      <c r="M172" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N172" s="255"/>
+      <c r="N172" s="258"/>
     </row>
     <row r="173" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="263"/>
-      <c r="C173" s="253"/>
-      <c r="D173" s="265"/>
-      <c r="E173" s="253"/>
-      <c r="F173" s="253"/>
-      <c r="G173" s="253"/>
-      <c r="H173" s="253"/>
-      <c r="I173" s="251"/>
-      <c r="J173" s="253"/>
-      <c r="K173" s="253"/>
-      <c r="L173" s="253"/>
+      <c r="B173" s="250"/>
+      <c r="C173" s="252"/>
+      <c r="D173" s="254"/>
+      <c r="E173" s="252"/>
+      <c r="F173" s="252"/>
+      <c r="G173" s="252"/>
+      <c r="H173" s="252"/>
+      <c r="I173" s="256"/>
+      <c r="J173" s="252"/>
+      <c r="K173" s="252"/>
+      <c r="L173" s="252"/>
       <c r="M173" s="56" t="s">
         <v>39</v>
       </c>
@@ -10413,24 +10429,24 @@
       </c>
     </row>
     <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="266" t="s">
+      <c r="B174" s="265" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="267"/>
-      <c r="D174" s="267"/>
-      <c r="E174" s="267"/>
-      <c r="F174" s="267"/>
-      <c r="G174" s="267"/>
-      <c r="H174" s="268"/>
+      <c r="C174" s="266"/>
+      <c r="D174" s="266"/>
+      <c r="E174" s="266"/>
+      <c r="F174" s="266"/>
+      <c r="G174" s="266"/>
+      <c r="H174" s="267"/>
       <c r="I174" s="86">
         <f>I161</f>
         <v>1769.9</v>
       </c>
-      <c r="J174" s="269"/>
-      <c r="K174" s="270"/>
-      <c r="L174" s="270"/>
-      <c r="M174" s="270"/>
-      <c r="N174" s="271"/>
+      <c r="J174" s="268"/>
+      <c r="K174" s="269"/>
+      <c r="L174" s="269"/>
+      <c r="M174" s="269"/>
+      <c r="N174" s="270"/>
     </row>
     <row r="175" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="58" t="s">
@@ -10496,31 +10512,31 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="266" t="s">
+      <c r="B178" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C178" s="267"/>
-      <c r="D178" s="267"/>
-      <c r="E178" s="267"/>
-      <c r="F178" s="267"/>
-      <c r="G178" s="267"/>
-      <c r="H178" s="268"/>
+      <c r="C178" s="266"/>
+      <c r="D178" s="266"/>
+      <c r="E178" s="266"/>
+      <c r="F178" s="266"/>
+      <c r="G178" s="266"/>
+      <c r="H178" s="267"/>
       <c r="I178" s="86">
         <f>SUM(I174:I177)</f>
         <v>1769.9</v>
       </c>
-      <c r="J178" s="269"/>
-      <c r="K178" s="270"/>
-      <c r="L178" s="270"/>
-      <c r="M178" s="270"/>
-      <c r="N178" s="271"/>
+      <c r="J178" s="268"/>
+      <c r="K178" s="269"/>
+      <c r="L178" s="269"/>
+      <c r="M178" s="269"/>
+      <c r="N178" s="270"/>
     </row>
     <row r="179" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="249" t="s">
+      <c r="M180" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N180" s="249"/>
+      <c r="N180" s="271"/>
     </row>
     <row r="181" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="182" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10537,90 +10553,6 @@
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J76:N76"/>
-    <mergeCell ref="B97:H97"/>
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="B101:N101"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="J110:N110"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="J130:N130"/>
-    <mergeCell ref="B134:N134"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="J161:N161"/>
-    <mergeCell ref="B165:N165"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="L141:L142"/>
     <mergeCell ref="B174:H174"/>
     <mergeCell ref="J174:N174"/>
     <mergeCell ref="B178:H178"/>
@@ -10638,6 +10570,90 @@
     <mergeCell ref="E172:E173"/>
     <mergeCell ref="F172:F173"/>
     <mergeCell ref="G172:G173"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="J161:N161"/>
+    <mergeCell ref="B165:N165"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="J110:N110"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="J130:N130"/>
+    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J76:N76"/>
+    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
@@ -11637,46 +11653,46 @@
       <c r="Q1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
     </row>
     <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -11698,25 +11714,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11851,13 +11867,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -11884,7 +11900,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26622,8 +26638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A64" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26644,34 +26660,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -26687,19 +26703,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -26734,48 +26750,48 @@
       <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="239"/>
+      <c r="B8" s="243"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="240" t="s">
+      <c r="D8" s="244" t="s">
         <v>645</v>
       </c>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
     </row>
     <row r="9" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="239"/>
+      <c r="B9" s="243"/>
       <c r="C9" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="240" t="s">
+      <c r="D9" s="244" t="s">
         <v>646</v>
       </c>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="241" t="s">
+      <c r="A10" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="241"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="181" t="s">
         <v>7</v>
       </c>
@@ -26806,32 +26822,32 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
-      <c r="E12" s="174" t="s">
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="162" t="s">
+      <c r="F12" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="159" t="s">
+      <c r="G12" s="223" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="237"/>
       <c r="I12" s="237"/>
       <c r="J12" s="237"/>
-      <c r="K12" s="159" t="s">
+      <c r="K12" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -26841,9 +26857,9 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="175"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="164"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="239"/>
+      <c r="G13" s="219"/>
       <c r="H13" s="157" t="s">
         <v>206</v>
       </c>
@@ -26853,88 +26869,88 @@
       <c r="J13" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="167"/>
+      <c r="K13" s="272"/>
     </row>
     <row r="14" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="143">
+      <c r="A14" s="122">
         <v>1</v>
       </c>
       <c r="B14" s="144">
+        <v>42432</v>
+      </c>
+      <c r="C14" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="128">
+        <v>227</v>
+      </c>
+      <c r="E14" s="173">
+        <v>1395013951</v>
+      </c>
+      <c r="F14" s="131">
+        <v>863</v>
+      </c>
+      <c r="G14" s="145">
+        <v>6250</v>
+      </c>
+      <c r="H14" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="146">
+        <v>6250</v>
+      </c>
+      <c r="K14" s="120" t="s">
+        <v>575</v>
+      </c>
+      <c r="N14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="143">
+        <v>2</v>
+      </c>
+      <c r="B15" s="144">
         <v>42444</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C15" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="128">
+      <c r="D15" s="128">
         <v>268</v>
       </c>
-      <c r="E14" s="173">
+      <c r="E15" s="173">
         <v>54455446</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F15" s="131">
         <v>846</v>
       </c>
-      <c r="G14" s="145">
+      <c r="G15" s="145">
         <v>2192.75</v>
       </c>
-      <c r="H14" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="I14" s="146">
+      <c r="H15" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="146">
         <v>2192.75</v>
       </c>
-      <c r="J14" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="K14" s="120" t="s">
+      <c r="J15" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="120" t="s">
         <v>470</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" t="s">
         <v>624</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>635</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N15" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122">
-        <v>2</v>
-      </c>
-      <c r="B15" s="144">
-        <v>42432</v>
-      </c>
-      <c r="C15" s="151" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="128">
-        <v>227</v>
-      </c>
-      <c r="E15" s="173">
-        <v>1395013951</v>
-      </c>
-      <c r="F15" s="131">
-        <v>863</v>
-      </c>
-      <c r="G15" s="145">
-        <v>6250</v>
-      </c>
-      <c r="H15" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="I15" s="146" t="s">
-        <v>211</v>
-      </c>
-      <c r="J15" s="146">
-        <v>6250</v>
-      </c>
-      <c r="K15" s="120" t="s">
-        <v>575</v>
-      </c>
-      <c r="N15" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -27119,29 +27135,29 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="242" t="s">
+      <c r="A21" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="243"/>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="244"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="242"/>
       <c r="G21" s="171">
-        <f>SUM(G14:G20)</f>
-        <v>21729.75</v>
+        <f>SUM(G15:G20)</f>
+        <v>15479.75</v>
       </c>
       <c r="H21" s="171">
-        <f t="shared" ref="H21:J21" si="0">SUM(H14:H20)</f>
+        <f>SUM(H15:H20)</f>
         <v>13287</v>
       </c>
       <c r="I21" s="171">
-        <f t="shared" si="0"/>
+        <f>SUM(I15:I20)</f>
         <v>2192.75</v>
       </c>
       <c r="J21" s="171">
-        <f t="shared" si="0"/>
-        <v>6250</v>
+        <f>SUM(J15:J20)</f>
+        <v>0</v>
       </c>
       <c r="K21" s="119"/>
     </row>
@@ -27159,34 +27175,34 @@
       <c r="K22" s="188"/>
     </row>
     <row r="23" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="219" t="s">
+      <c r="A23" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="219"/>
-      <c r="C23" s="219"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
       <c r="D23" s="232"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="219"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="219"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
     </row>
     <row r="24" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="220"/>
-      <c r="C24" s="220"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
       <c r="D24" s="233"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="220"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
     </row>
     <row r="25" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -27202,19 +27218,19 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="210" t="s">
+      <c r="A26" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="210"/>
-      <c r="C26" s="210"/>
+      <c r="B26" s="228"/>
+      <c r="C26" s="228"/>
       <c r="D26" s="234"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="210"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="210"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
     </row>
     <row r="27" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -27249,48 +27265,48 @@
       <c r="K28" s="201"/>
     </row>
     <row r="29" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="238" t="s">
+      <c r="A29" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="238"/>
+      <c r="B29" s="245"/>
       <c r="C29" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="240" t="s">
+      <c r="D29" s="244" t="s">
         <v>645</v>
       </c>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244"/>
+      <c r="J29" s="244"/>
+      <c r="K29" s="244"/>
     </row>
     <row r="30" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="238" t="s">
+      <c r="A30" s="245" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="238"/>
+      <c r="B30" s="245"/>
       <c r="C30" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="240" t="s">
+      <c r="D30" s="244" t="s">
         <v>646</v>
       </c>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="240"/>
-      <c r="H30" s="240"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="240"/>
-      <c r="K30" s="240"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="244"/>
+      <c r="K30" s="244"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="247" t="s">
+      <c r="A31" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="247"/>
+      <c r="B31" s="246"/>
       <c r="C31" s="205" t="s">
         <v>7</v>
       </c>
@@ -27321,32 +27337,32 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="221" t="s">
+      <c r="A33" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="222" t="s">
+      <c r="B33" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="220"/>
       <c r="D33" s="235"/>
-      <c r="E33" s="223" t="s">
+      <c r="E33" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="245" t="s">
+      <c r="F33" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="214" t="s">
+      <c r="G33" s="223" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="237"/>
       <c r="I33" s="237"/>
       <c r="J33" s="237"/>
-      <c r="K33" s="214" t="s">
+      <c r="K33" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="215"/>
+      <c r="A34" s="219"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
@@ -27356,9 +27372,9 @@
       <c r="D34" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="225"/>
-      <c r="F34" s="246"/>
-      <c r="G34" s="215"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="239"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="157" t="s">
         <v>206</v>
       </c>
@@ -27368,32 +27384,32 @@
       <c r="J34" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="215"/>
+      <c r="K34" s="219"/>
     </row>
     <row r="35" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="216" t="s">
+      <c r="A35" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="217"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="218"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="217"/>
       <c r="G35" s="189">
         <f>G21</f>
-        <v>21729.75</v>
+        <v>15479.75</v>
       </c>
       <c r="H35" s="189">
-        <f t="shared" ref="H35:I35" si="1">H21</f>
+        <f t="shared" ref="H35:I35" si="0">H21</f>
         <v>13287</v>
       </c>
       <c r="I35" s="189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2192.75</v>
       </c>
       <c r="J35" s="189">
         <f>J21</f>
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="K35" s="19"/>
     </row>
@@ -27678,17 +27694,17 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="216" t="s">
+      <c r="A44" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="217"/>
-      <c r="C44" s="217"/>
-      <c r="D44" s="217"/>
-      <c r="E44" s="217"/>
-      <c r="F44" s="218"/>
+      <c r="B44" s="216"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="217"/>
       <c r="G44" s="189">
         <f>SUM(G35:G43)</f>
-        <v>30947.52</v>
+        <v>24697.52</v>
       </c>
       <c r="H44" s="189">
         <f>SUM(H35:H43)</f>
@@ -27700,7 +27716,7 @@
       </c>
       <c r="J44" s="189">
         <f>SUM(J35:J43)</f>
-        <v>6250</v>
+        <v>0</v>
       </c>
       <c r="K44" s="19"/>
     </row>
@@ -27718,34 +27734,34 @@
       <c r="K45" s="198"/>
     </row>
     <row r="46" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219" t="s">
+      <c r="A46" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="219"/>
-      <c r="C46" s="219"/>
+      <c r="B46" s="210"/>
+      <c r="C46" s="210"/>
       <c r="D46" s="232"/>
-      <c r="E46" s="219"/>
-      <c r="F46" s="219"/>
-      <c r="G46" s="219"/>
-      <c r="H46" s="219"/>
-      <c r="I46" s="219"/>
-      <c r="J46" s="219"/>
-      <c r="K46" s="219"/>
+      <c r="E46" s="210"/>
+      <c r="F46" s="210"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="210"/>
+      <c r="I46" s="210"/>
+      <c r="J46" s="210"/>
+      <c r="K46" s="210"/>
     </row>
     <row r="47" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="220" t="s">
+      <c r="A47" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="220"/>
-      <c r="C47" s="220"/>
+      <c r="B47" s="211"/>
+      <c r="C47" s="211"/>
       <c r="D47" s="233"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="220"/>
-      <c r="G47" s="220"/>
-      <c r="H47" s="220"/>
-      <c r="I47" s="220"/>
-      <c r="J47" s="220"/>
-      <c r="K47" s="220"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
+      <c r="G47" s="211"/>
+      <c r="H47" s="211"/>
+      <c r="I47" s="211"/>
+      <c r="J47" s="211"/>
+      <c r="K47" s="211"/>
     </row>
     <row r="48" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -27761,19 +27777,19 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="210" t="s">
+      <c r="A49" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="210"/>
-      <c r="C49" s="210"/>
+      <c r="B49" s="228"/>
+      <c r="C49" s="228"/>
       <c r="D49" s="234"/>
-      <c r="E49" s="210"/>
-      <c r="F49" s="210"/>
-      <c r="G49" s="210"/>
-      <c r="H49" s="210"/>
-      <c r="I49" s="210"/>
-      <c r="J49" s="210"/>
-      <c r="K49" s="210"/>
+      <c r="E49" s="228"/>
+      <c r="F49" s="228"/>
+      <c r="G49" s="228"/>
+      <c r="H49" s="228"/>
+      <c r="I49" s="228"/>
+      <c r="J49" s="228"/>
+      <c r="K49" s="228"/>
     </row>
     <row r="50" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -27808,48 +27824,48 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="239" t="s">
+      <c r="A52" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="239"/>
+      <c r="B52" s="243"/>
       <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="240" t="s">
+      <c r="D52" s="244" t="s">
         <v>645</v>
       </c>
-      <c r="E52" s="240"/>
-      <c r="F52" s="240"/>
-      <c r="G52" s="240"/>
-      <c r="H52" s="240"/>
-      <c r="I52" s="240"/>
-      <c r="J52" s="240"/>
-      <c r="K52" s="240"/>
+      <c r="E52" s="244"/>
+      <c r="F52" s="244"/>
+      <c r="G52" s="244"/>
+      <c r="H52" s="244"/>
+      <c r="I52" s="244"/>
+      <c r="J52" s="244"/>
+      <c r="K52" s="244"/>
     </row>
     <row r="53" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="239" t="s">
+      <c r="A53" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="239"/>
+      <c r="B53" s="243"/>
       <c r="C53" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="240" t="s">
+      <c r="D53" s="244" t="s">
         <v>646</v>
       </c>
-      <c r="E53" s="240"/>
-      <c r="F53" s="240"/>
-      <c r="G53" s="240"/>
-      <c r="H53" s="240"/>
-      <c r="I53" s="240"/>
-      <c r="J53" s="240"/>
-      <c r="K53" s="240"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="244"/>
+      <c r="G53" s="244"/>
+      <c r="H53" s="244"/>
+      <c r="I53" s="244"/>
+      <c r="J53" s="244"/>
+      <c r="K53" s="244"/>
     </row>
     <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="241" t="s">
+      <c r="A54" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="241"/>
+      <c r="B54" s="247"/>
       <c r="C54" s="181" t="s">
         <v>7</v>
       </c>
@@ -27880,32 +27896,32 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="221" t="s">
+      <c r="A56" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="222" t="s">
+      <c r="B56" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="222"/>
+      <c r="C56" s="220"/>
       <c r="D56" s="235"/>
-      <c r="E56" s="223" t="s">
+      <c r="E56" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="245" t="s">
+      <c r="F56" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="214" t="s">
+      <c r="G56" s="223" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="237"/>
       <c r="I56" s="237"/>
       <c r="J56" s="237"/>
-      <c r="K56" s="214" t="s">
+      <c r="K56" s="223" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="215"/>
+      <c r="A57" s="219"/>
       <c r="B57" s="2" t="s">
         <v>14</v>
       </c>
@@ -27915,9 +27931,9 @@
       <c r="D57" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="225"/>
-      <c r="F57" s="246"/>
-      <c r="G57" s="215"/>
+      <c r="E57" s="224"/>
+      <c r="F57" s="239"/>
+      <c r="G57" s="219"/>
       <c r="H57" s="157" t="s">
         <v>206</v>
       </c>
@@ -27927,32 +27943,32 @@
       <c r="J57" s="157" t="s">
         <v>208</v>
       </c>
-      <c r="K57" s="215"/>
+      <c r="K57" s="219"/>
     </row>
     <row r="58" spans="1:12" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="216" t="s">
+      <c r="A58" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="217"/>
-      <c r="C58" s="217"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="218"/>
+      <c r="B58" s="216"/>
+      <c r="C58" s="216"/>
+      <c r="D58" s="216"/>
+      <c r="E58" s="216"/>
+      <c r="F58" s="217"/>
       <c r="G58" s="189">
         <f>G44</f>
-        <v>30947.52</v>
+        <v>24697.52</v>
       </c>
       <c r="H58" s="189">
         <f>H44</f>
         <v>22504.77</v>
       </c>
       <c r="I58" s="189">
-        <f t="shared" ref="I58:J58" si="2">I44</f>
+        <f t="shared" ref="I58:J58" si="1">I44</f>
         <v>2192.75</v>
       </c>
       <c r="J58" s="189">
-        <f t="shared" si="2"/>
-        <v>6250</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K58" s="19"/>
     </row>
@@ -28197,29 +28213,29 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="216" t="s">
+      <c r="A66" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="217"/>
-      <c r="C66" s="217"/>
-      <c r="D66" s="217"/>
-      <c r="E66" s="217"/>
-      <c r="F66" s="218"/>
+      <c r="B66" s="216"/>
+      <c r="C66" s="216"/>
+      <c r="D66" s="216"/>
+      <c r="E66" s="216"/>
+      <c r="F66" s="217"/>
       <c r="G66" s="189">
         <f>SUM(G58:G65)</f>
-        <v>36239.619999999995</v>
+        <v>29989.62</v>
       </c>
       <c r="H66" s="189">
         <f>SUM(H58:H65)</f>
         <v>25338.77</v>
       </c>
       <c r="I66" s="189">
-        <f t="shared" ref="I66:J66" si="3">SUM(I58:I65)</f>
+        <f t="shared" ref="I66:J66" si="2">SUM(I58:I65)</f>
         <v>4650.8500000000004</v>
       </c>
       <c r="J66" s="189">
-        <f t="shared" si="3"/>
-        <v>6250</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K66" s="19"/>
     </row>
@@ -28229,13 +28245,34 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E13:K13"/>
-  <mergeCells count="46">
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:K24"/>
+  <sortState ref="A60:L65">
+    <sortCondition ref="B60:B65"/>
+  </sortState>
+  <mergeCells count="50">
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A52:B52"/>
@@ -28250,33 +28287,18 @@
     <mergeCell ref="D30:K30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="A58:F58"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A46:K46"/>
     <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <pageMargins left="0.53" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -29266,34 +29288,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -29309,19 +29331,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -29420,15 +29442,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
-      <c r="E12" s="223" t="s">
+      <c r="E12" s="221" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="162" t="s">
@@ -29447,7 +29469,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -29457,7 +29479,7 @@
       <c r="D13" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="224"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="163"/>
       <c r="G13" s="164"/>
       <c r="H13" s="157" t="s">
@@ -29695,8 +29717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I258" sqref="I258"/>
     </sheetView>
   </sheetViews>
@@ -30669,34 +30691,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -30712,19 +30734,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -30759,10 +30781,10 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="239"/>
+      <c r="B8" s="243"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -30778,10 +30800,10 @@
       <c r="K8" s="248"/>
     </row>
     <row r="9" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="239"/>
+      <c r="B9" s="243"/>
       <c r="C9" s="181" t="s">
         <v>7</v>
       </c>
@@ -30797,10 +30819,10 @@
       <c r="K9" s="248"/>
     </row>
     <row r="10" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="241" t="s">
+      <c r="A10" s="247" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="241"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="181" t="s">
         <v>7</v>
       </c>
@@ -30831,13 +30853,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -30856,7 +30878,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -41410,34 +41432,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -41453,19 +41475,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -41564,13 +41586,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -41589,7 +41611,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -44948,34 +44970,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -44991,19 +45013,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -45102,13 +45124,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -45127,7 +45149,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -48966,34 +48988,34 @@
       <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
       <c r="D2" s="232"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="233"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -49009,19 +49031,19 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="234"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -49120,13 +49142,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="222"/>
+      <c r="C12" s="220"/>
       <c r="D12" s="235"/>
       <c r="E12" s="174" t="s">
         <v>10</v>
@@ -49145,7 +49167,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="215"/>
+      <c r="A13" s="219"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -52411,21 +52433,21 @@
   <sheetData>
     <row r="1" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="228"/>
+      <c r="F2" s="228"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="228"/>
+      <c r="M2" s="228"/>
+      <c r="N2" s="228"/>
     </row>
     <row r="3" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="30"/>
@@ -52443,21 +52465,21 @@
       <c r="N3" s="30"/>
     </row>
     <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="228"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34"/>
@@ -52567,56 +52589,56 @@
       <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="262" t="s">
+      <c r="B10" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="252" t="s">
+      <c r="C10" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="264" t="s">
+      <c r="D10" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="252" t="s">
+      <c r="E10" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="252" t="s">
+      <c r="F10" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="252" t="s">
+      <c r="G10" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="252" t="s">
+      <c r="H10" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="250" t="s">
+      <c r="I10" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="252" t="s">
+      <c r="J10" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="252" t="s">
+      <c r="K10" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="252" t="s">
+      <c r="L10" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="254" t="s">
+      <c r="M10" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="255"/>
+      <c r="N10" s="258"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="263"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="253"/>
+      <c r="B11" s="250"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
       <c r="M11" s="56" t="s">
         <v>39</v>
       </c>
@@ -52751,31 +52773,31 @@
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="256" t="s">
+      <c r="B18" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="257"/>
-      <c r="D18" s="257"/>
-      <c r="E18" s="257"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="258"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="261"/>
       <c r="I18" s="82">
         <f>SUM(I12:I17)</f>
         <v>3780</v>
       </c>
-      <c r="J18" s="259"/>
-      <c r="K18" s="260"/>
-      <c r="L18" s="260"/>
-      <c r="M18" s="260"/>
-      <c r="N18" s="261"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="263"/>
+      <c r="N18" s="264"/>
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="249" t="s">
+      <c r="M20" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="249"/>
+      <c r="N20" s="271"/>
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="83"/>
@@ -52797,21 +52819,21 @@
       <c r="N22" s="84"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="210"/>
-      <c r="K23" s="210"/>
-      <c r="L23" s="210"/>
-      <c r="M23" s="210"/>
-      <c r="N23" s="210"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="228"/>
+      <c r="K23" s="228"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="228"/>
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30"/>
@@ -52829,21 +52851,21 @@
       <c r="N24" s="30"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="210"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="228"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="228"/>
+      <c r="M25" s="228"/>
+      <c r="N25" s="228"/>
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="30"/>
@@ -52953,56 +52975,56 @@
       <c r="N30" s="55"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="262" t="s">
+      <c r="B31" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="252" t="s">
+      <c r="C31" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="264" t="s">
+      <c r="D31" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="252" t="s">
+      <c r="E31" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="252" t="s">
+      <c r="F31" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="252" t="s">
+      <c r="G31" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="252" t="s">
+      <c r="H31" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="250" t="s">
+      <c r="I31" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="252" t="s">
+      <c r="J31" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="252" t="s">
+      <c r="K31" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="252" t="s">
+      <c r="L31" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="254" t="s">
+      <c r="M31" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="255"/>
+      <c r="N31" s="258"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="263"/>
-      <c r="C32" s="253"/>
-      <c r="D32" s="265"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="253"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="253"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="253"/>
+      <c r="B32" s="250"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="252"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="252"/>
+      <c r="K32" s="252"/>
+      <c r="L32" s="252"/>
       <c r="M32" s="56" t="s">
         <v>39</v>
       </c>
@@ -53096,31 +53118,31 @@
       <c r="N37" s="81"/>
     </row>
     <row r="38" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="267"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="267"/>
-      <c r="F38" s="267"/>
-      <c r="G38" s="267"/>
-      <c r="H38" s="268"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="266"/>
+      <c r="F38" s="266"/>
+      <c r="G38" s="266"/>
+      <c r="H38" s="267"/>
       <c r="I38" s="86">
         <f>SUM(I33:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="269"/>
-      <c r="K38" s="270"/>
-      <c r="L38" s="270"/>
-      <c r="M38" s="270"/>
-      <c r="N38" s="271"/>
+      <c r="J38" s="268"/>
+      <c r="K38" s="269"/>
+      <c r="L38" s="269"/>
+      <c r="M38" s="269"/>
+      <c r="N38" s="270"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M40" s="249" t="s">
+      <c r="M40" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="249"/>
+      <c r="N40" s="271"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M41" s="83"/>
@@ -53142,21 +53164,21 @@
       <c r="N42" s="84"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="210" t="s">
+      <c r="B43" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="210"/>
-      <c r="D43" s="210"/>
-      <c r="E43" s="210"/>
-      <c r="F43" s="210"/>
-      <c r="G43" s="210"/>
-      <c r="H43" s="210"/>
-      <c r="I43" s="210"/>
-      <c r="J43" s="210"/>
-      <c r="K43" s="210"/>
-      <c r="L43" s="210"/>
-      <c r="M43" s="210"/>
-      <c r="N43" s="210"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="228"/>
+      <c r="E43" s="228"/>
+      <c r="F43" s="228"/>
+      <c r="G43" s="228"/>
+      <c r="H43" s="228"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="228"/>
+      <c r="K43" s="228"/>
+      <c r="L43" s="228"/>
+      <c r="M43" s="228"/>
+      <c r="N43" s="228"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="30"/>
@@ -53174,21 +53196,21 @@
       <c r="N44" s="30"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="210" t="s">
+      <c r="B45" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="210"/>
-      <c r="D45" s="210"/>
-      <c r="E45" s="210"/>
-      <c r="F45" s="210"/>
-      <c r="G45" s="210"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="210"/>
-      <c r="J45" s="210"/>
-      <c r="K45" s="210"/>
-      <c r="L45" s="210"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="210"/>
+      <c r="C45" s="228"/>
+      <c r="D45" s="228"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="228"/>
+      <c r="G45" s="228"/>
+      <c r="H45" s="228"/>
+      <c r="I45" s="228"/>
+      <c r="J45" s="228"/>
+      <c r="K45" s="228"/>
+      <c r="L45" s="228"/>
+      <c r="M45" s="228"/>
+      <c r="N45" s="228"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="30"/>
@@ -53298,56 +53320,56 @@
       <c r="N50" s="55"/>
     </row>
     <row r="51" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="262" t="s">
+      <c r="B51" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="252" t="s">
+      <c r="C51" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="264" t="s">
+      <c r="D51" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="252" t="s">
+      <c r="E51" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="252" t="s">
+      <c r="F51" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="252" t="s">
+      <c r="G51" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="252" t="s">
+      <c r="H51" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="250" t="s">
+      <c r="I51" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="252" t="s">
+      <c r="J51" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="252" t="s">
+      <c r="K51" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="252" t="s">
+      <c r="L51" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M51" s="254" t="s">
+      <c r="M51" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N51" s="255"/>
+      <c r="N51" s="258"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="263"/>
-      <c r="C52" s="253"/>
-      <c r="D52" s="265"/>
-      <c r="E52" s="253"/>
-      <c r="F52" s="253"/>
-      <c r="G52" s="253"/>
-      <c r="H52" s="253"/>
-      <c r="I52" s="251"/>
-      <c r="J52" s="253"/>
-      <c r="K52" s="253"/>
-      <c r="L52" s="253"/>
+      <c r="B52" s="250"/>
+      <c r="C52" s="252"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="252"/>
+      <c r="F52" s="252"/>
+      <c r="G52" s="252"/>
+      <c r="H52" s="252"/>
+      <c r="I52" s="256"/>
+      <c r="J52" s="252"/>
+      <c r="K52" s="252"/>
+      <c r="L52" s="252"/>
       <c r="M52" s="56" t="s">
         <v>39</v>
       </c>
@@ -53424,31 +53446,31 @@
       <c r="N56" s="81"/>
     </row>
     <row r="57" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="266" t="s">
+      <c r="B57" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="267"/>
-      <c r="D57" s="267"/>
-      <c r="E57" s="267"/>
-      <c r="F57" s="267"/>
-      <c r="G57" s="267"/>
-      <c r="H57" s="268"/>
+      <c r="C57" s="266"/>
+      <c r="D57" s="266"/>
+      <c r="E57" s="266"/>
+      <c r="F57" s="266"/>
+      <c r="G57" s="266"/>
+      <c r="H57" s="267"/>
       <c r="I57" s="86">
         <f>SUM(I53:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="269"/>
-      <c r="K57" s="270"/>
-      <c r="L57" s="270"/>
-      <c r="M57" s="270"/>
-      <c r="N57" s="271"/>
+      <c r="J57" s="268"/>
+      <c r="K57" s="269"/>
+      <c r="L57" s="269"/>
+      <c r="M57" s="269"/>
+      <c r="N57" s="270"/>
     </row>
     <row r="58" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="249" t="s">
+      <c r="M59" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="249"/>
+      <c r="N59" s="271"/>
     </row>
     <row r="60" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M60" s="83"/>
@@ -53478,21 +53500,21 @@
       <c r="N63" s="84"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="210" t="s">
+      <c r="B64" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="210"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="210"/>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="210"/>
-      <c r="J64" s="210"/>
-      <c r="K64" s="210"/>
-      <c r="L64" s="210"/>
-      <c r="M64" s="210"/>
-      <c r="N64" s="210"/>
+      <c r="C64" s="228"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="228"/>
+      <c r="F64" s="228"/>
+      <c r="G64" s="228"/>
+      <c r="H64" s="228"/>
+      <c r="I64" s="228"/>
+      <c r="J64" s="228"/>
+      <c r="K64" s="228"/>
+      <c r="L64" s="228"/>
+      <c r="M64" s="228"/>
+      <c r="N64" s="228"/>
     </row>
     <row r="65" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="30"/>
@@ -53510,21 +53532,21 @@
       <c r="N65" s="30"/>
     </row>
     <row r="66" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="210" t="s">
+      <c r="B66" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="210"/>
-      <c r="D66" s="210"/>
-      <c r="E66" s="210"/>
-      <c r="F66" s="210"/>
-      <c r="G66" s="210"/>
-      <c r="H66" s="210"/>
-      <c r="I66" s="210"/>
-      <c r="J66" s="210"/>
-      <c r="K66" s="210"/>
-      <c r="L66" s="210"/>
-      <c r="M66" s="210"/>
-      <c r="N66" s="210"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="228"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="228"/>
+      <c r="M66" s="228"/>
+      <c r="N66" s="228"/>
     </row>
     <row r="67" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="30"/>
@@ -53634,56 +53656,56 @@
       <c r="N71" s="55"/>
     </row>
     <row r="72" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="262" t="s">
+      <c r="B72" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="252" t="s">
+      <c r="C72" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="264" t="s">
+      <c r="D72" s="253" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="252" t="s">
+      <c r="E72" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="252" t="s">
+      <c r="F72" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="252" t="s">
+      <c r="G72" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="252" t="s">
+      <c r="H72" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="250" t="s">
+      <c r="I72" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="252" t="s">
+      <c r="J72" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="K72" s="252" t="s">
+      <c r="K72" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="L72" s="252" t="s">
+      <c r="L72" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="M72" s="254" t="s">
+      <c r="M72" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="255"/>
+      <c r="N72" s="258"/>
     </row>
     <row r="73" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="263"/>
-      <c r="C73" s="253"/>
-      <c r="D73" s="265"/>
-      <c r="E73" s="253"/>
-      <c r="F73" s="253"/>
-      <c r="G73" s="253"/>
-      <c r="H73" s="253"/>
-      <c r="I73" s="251"/>
-      <c r="J73" s="253"/>
-      <c r="K73" s="253"/>
-      <c r="L73" s="253"/>
+      <c r="B73" s="250"/>
+      <c r="C73" s="252"/>
+      <c r="D73" s="254"/>
+      <c r="E73" s="252"/>
+      <c r="F73" s="252"/>
+      <c r="G73" s="252"/>
+      <c r="H73" s="252"/>
+      <c r="I73" s="256"/>
+      <c r="J73" s="252"/>
+      <c r="K73" s="252"/>
+      <c r="L73" s="252"/>
       <c r="M73" s="56" t="s">
         <v>39</v>
       </c>
@@ -53743,31 +53765,31 @@
       <c r="N76" s="81"/>
     </row>
     <row r="77" spans="2:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="256" t="s">
+      <c r="B77" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="257"/>
-      <c r="D77" s="257"/>
-      <c r="E77" s="257"/>
-      <c r="F77" s="257"/>
-      <c r="G77" s="257"/>
-      <c r="H77" s="258"/>
+      <c r="C77" s="260"/>
+      <c r="D77" s="260"/>
+      <c r="E77" s="260"/>
+      <c r="F77" s="260"/>
+      <c r="G77" s="260"/>
+      <c r="H77" s="261"/>
       <c r="I77" s="82">
         <f>SUM(I74:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="259"/>
-      <c r="K77" s="260"/>
-      <c r="L77" s="260"/>
-      <c r="M77" s="260"/>
-      <c r="N77" s="261"/>
+      <c r="J77" s="262"/>
+      <c r="K77" s="263"/>
+      <c r="L77" s="263"/>
+      <c r="M77" s="263"/>
+      <c r="N77" s="264"/>
     </row>
     <row r="78" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M79" s="249" t="s">
+      <c r="M79" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="249"/>
+      <c r="N79" s="271"/>
     </row>
     <row r="80" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M80" s="83"/>
@@ -53812,20 +53834,44 @@
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="B38:H38"/>
@@ -53842,44 +53888,20 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
